--- a/lang/words_dict.xlsx
+++ b/lang/words_dict.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\si lab\Matlab Projects\CaImAn_Interface\utils\registration\lang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\si lab\Matlab Projects\Registration\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA4A43B-7BF2-43E6-B7DF-061F12ED5B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9701C16F-FCC8-40C5-9FB9-7328E63AAA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="1798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="1918">
   <si>
     <t>文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4650,1460 +4650,1892 @@
     <t>GLOBAL_REGISTRATION_AUTO</t>
   </si>
   <si>
+    <t>RIGID</t>
+  </si>
+  <si>
+    <t>SIMILARITY</t>
+  </si>
+  <si>
+    <t>AFFINE</t>
+  </si>
+  <si>
+    <t>MODAL</t>
+  </si>
+  <si>
+    <t>REGION_LABEL</t>
+  </si>
+  <si>
+    <t>CUBIC_HIGH_QUALITY</t>
+  </si>
+  <si>
+    <t>NEAREST_FAST</t>
+  </si>
+  <si>
+    <t>PYRAMID_COEFFICIENT</t>
+  </si>
+  <si>
+    <t>ENABLE</t>
+  </si>
+  <si>
+    <t>LOCAL_REGISTRATION_AUTO</t>
+  </si>
+  <si>
+    <t>GRID_UNIT_SIZE</t>
+  </si>
+  <si>
+    <t>AUTO</t>
+  </si>
+  <si>
+    <t>GEOMETRIC_TRANSFORMATION</t>
+  </si>
+  <si>
+    <t>PIECEWISE_LINEAR</t>
+  </si>
+  <si>
+    <t>POLYNOMIAL</t>
+  </si>
+  <si>
+    <t>LOCAL_WEIGHTED_MEAN</t>
+  </si>
+  <si>
+    <t>MIN_CONTROL_VAL</t>
+  </si>
+  <si>
+    <t>POLYNOMIAL_ORDER</t>
+  </si>
+  <si>
+    <t>WEIGHTED_POINTS_NUMBER</t>
+  </si>
+  <si>
+    <t>EDGE_SMOOTHING</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>TEMPLATE_SYNCHRONISATION</t>
+  </si>
+  <si>
+    <t>ROBUSTNESS_COEFFICIENT</t>
+  </si>
+  <si>
+    <t>COMPENSATION_PHOTOBLEACHING</t>
+  </si>
+  <si>
+    <t>RATIO</t>
+  </si>
+  <si>
+    <t>SCALE</t>
+  </si>
+  <si>
+    <t>X_DIRECTION_RESOLUTION</t>
+  </si>
+  <si>
+    <t>Y_DIRECTION_RESOLUTION</t>
+  </si>
+  <si>
+    <t>SCALE_UNIT</t>
+  </si>
+  <si>
+    <t>X_DIRECTION_LENGTH</t>
+  </si>
+  <si>
+    <t>Y_DIRECTION_LENGTH</t>
+  </si>
+  <si>
+    <t>HORIZONTAL</t>
+  </si>
+  <si>
+    <t>VERTICAL</t>
+  </si>
+  <si>
+    <t>LINE_WIDTH</t>
+  </si>
+  <si>
+    <t>COLOR</t>
+  </si>
+  <si>
+    <t>BLUE</t>
+  </si>
+  <si>
+    <t>CYAN</t>
+  </si>
+  <si>
+    <t>MAGENTA</t>
+  </si>
+  <si>
+    <t>YELLOW</t>
+  </si>
+  <si>
+    <t>BLACK</t>
+  </si>
+  <si>
+    <t>WHITE</t>
+  </si>
+  <si>
+    <t>FONT</t>
+  </si>
+  <si>
+    <t>LINE_HAT</t>
+  </si>
+  <si>
+    <t>FLAT_HAT</t>
+  </si>
+  <si>
+    <t>CIRCLE_HAT</t>
+  </si>
+  <si>
+    <t>SQUARE_HAT</t>
+  </si>
+  <si>
+    <t>DIAMOND_HAT</t>
+  </si>
+  <si>
+    <t>SPACE</t>
+  </si>
+  <si>
+    <t>HAT_SIZE</t>
+  </si>
+  <si>
+    <t>SOLID</t>
+  </si>
+  <si>
+    <t>REGION_FREE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Region Free</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Без региона</t>
+  </si>
+  <si>
+    <t>Région libre</t>
+  </si>
+  <si>
+    <t>Región libre</t>
+  </si>
+  <si>
+    <t>DATA_SELECTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RENDERER_PARAMETERS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INVERSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELF_DEFINITION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hat Size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Размер шляпы</t>
+  </si>
+  <si>
+    <t>Taille du chapeau</t>
+  </si>
+  <si>
+    <t>Tamaño del sombrero</t>
+  </si>
+  <si>
+    <t>UNSUPPORTED_FEW_LAYERS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WARNING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INFORMATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INVALID_RULER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIGURATION_EXPORTED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFGURATION_LOADED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIGURATION_CORRUPTED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN_PROGRESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REGISTRATION_WORKFLOW_ERROR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PERFORM_AUTO_REGISTRATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REGISTRATION_FRAMES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COVERAGE_OPERATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIRM_COVERAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REGISTRATION_COMPLETE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIME_COST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TERMINATE_REGISTRATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASK_FOR_UPDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOWNLOADING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNSUPPORTED_OS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FINISH_UPDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_SCRIPT_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LATEST_VERSION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNABLE_ACCESS_SERVER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNABLE_ACCESS_UPDATE_SETTING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNRECOGNIZED_UPDATE_IDENTIFIER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INVALID_UPDATE_REPOSITORY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_INITIALIZE_SUCCESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYS_INITIALIZE_SUCCESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPORT_AS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPORTING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMAGE_EXPORT_SUCCESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRREVERSIBLE_CROP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIRM_CROP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CROP_FRAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME_FEW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME_OVERFLOW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIVEUP_CROP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIME_SERIES_FILE</t>
+  </si>
+  <si>
+    <t>T_CROPPED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MISSING_HELP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAVE_CONFIGURATION_FILE</t>
+  </si>
+  <si>
+    <t>READ_CONFIGURATION_FILE</t>
+  </si>
+  <si>
+    <t>REG3D_CONFIGURATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOVIE_EXPORT_INTERRUPTED</t>
+  </si>
+  <si>
+    <t>XY_CROPPED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z_CROPPED</t>
+  </si>
+  <si>
+    <t>CONFIRM_ROI_RANGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>THICKNESS_RANGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CROP_Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLICES_OVERFLOW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT_FILE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMA_SEPARATED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORKSHEET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Worksheet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Рабочий лист</t>
+  </si>
+  <si>
+    <t>Feuille de travail</t>
+  </si>
+  <si>
+    <t>Hoja de cálculo</t>
+  </si>
+  <si>
+    <t>TIME_MISSING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GEOMETRIC_TRANSFORMATION_EXPORT_SUCCESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIME_EXPORT_SUCCESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MASK_REMOVED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMPORT_MASK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MASK_MISMATCH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MASK_LOADED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RENDERING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOVIE_EXPORTED_SUCCESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIME_RANGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNREGISTRATERED_FRAMES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESET_REGISTRATION_FRAMES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPORT_IMAGES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images</t>
+  </si>
+  <si>
+    <t>Images</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Изображений</t>
+  </si>
+  <si>
+    <t>Imágenes</t>
+  </si>
+  <si>
+    <t>GENERATE_MASK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thickness Cropping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Épaisseur Recadrage</t>
+  </si>
+  <si>
+    <t>LOAD_FILE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Load Files</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Загрузить файлы</t>
+  </si>
+  <si>
+    <t>Charger des fichiers</t>
+  </si>
+  <si>
+    <t>Cargar archivos</t>
+  </si>
+  <si>
+    <t>导入与导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图像与标注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置与首选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮助与更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>片层微调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间微调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制配准程序执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志开关，关闭时停止输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择浏览器数据源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行配准程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Время</t>
+  </si>
+  <si>
+    <t>Temps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tiempo</t>
+  </si>
+  <si>
+    <t>浏览源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNSUPPORTED_CHANNEL_NUMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在开发…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Developing…</t>
+  </si>
+  <si>
+    <t>DEVELOPING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Разработка…</t>
+  </si>
+  <si>
+    <t>Développement…</t>
+  </si>
+  <si>
+    <t>Desarrollando…</t>
+  </si>
+  <si>
+    <t>IMPORT_EXPORT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HELP_UPDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLICE_FINE_TUNING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROGRESS_BAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIME_FINE_TUNING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTROL_REGISTRATION_RUNNING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOG_SWITCH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECTION_SOURCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RUNNING_REGISTRATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image and Annotation</t>
+  </si>
+  <si>
+    <t>Settings and Preferences</t>
+  </si>
+  <si>
+    <t>Select browser data source</t>
+  </si>
+  <si>
+    <t>Run the registration program</t>
+  </si>
+  <si>
+    <t>Import and Export</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMAGE_ANNOTATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SETTING_PREFERENCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Log switch, stop output when off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controlling registration procedure execution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time fine-tuning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Progress bar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slice fine-tuning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Help and Updates</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Импорт и экспорт</t>
+  </si>
+  <si>
+    <t>Изображение и аннотация</t>
+  </si>
+  <si>
+    <t>Настройки и предпочтения</t>
+  </si>
+  <si>
+    <t>Справка и обновления</t>
+  </si>
+  <si>
+    <t>Тонкая настройка среза</t>
+  </si>
+  <si>
+    <t>Индикатор</t>
+  </si>
+  <si>
+    <t>Точная настройка времени</t>
+  </si>
+  <si>
+    <t>Контроль выполнения процедуры регистрации</t>
+  </si>
+  <si>
+    <t>Переключатель журнала, остановка вывода при выключении</t>
+  </si>
+  <si>
+    <t>Выберите источник данных браузера</t>
+  </si>
+  <si>
+    <t>Запустите программу регистрации</t>
+  </si>
+  <si>
+    <t>Importer et exporter</t>
+  </si>
+  <si>
+    <t>Image et annotation</t>
+  </si>
+  <si>
+    <t>Paramètres et préférences</t>
+  </si>
+  <si>
+    <t>Aide et mises à jour</t>
+  </si>
+  <si>
+    <t>Réglage fin des tranches</t>
+  </si>
+  <si>
+    <t>Barre de progression</t>
+  </si>
+  <si>
+    <t>Réglage fin du temps</t>
+  </si>
+  <si>
+    <t>Contrôler l'exécution de la procédure d'enregistrement</t>
+  </si>
+  <si>
+    <t>Commutateur de journal, arrêt de la sortie lorsqu'il est éteint</t>
+  </si>
+  <si>
+    <t>Sélectionnez la source de données du navigateur</t>
+  </si>
+  <si>
+    <t>Exécutez le programme d'enregistrement</t>
+  </si>
+  <si>
+    <t>Importar y exportar</t>
+  </si>
+  <si>
+    <t>Imagen y anotación</t>
+  </si>
+  <si>
+    <t>Configuraciones y Preferencias</t>
+  </si>
+  <si>
+    <t>Ayuda y actualizaciones</t>
+  </si>
+  <si>
+    <t>Rebanada de ajuste fino</t>
+  </si>
+  <si>
+    <t>Barra de progreso</t>
+  </si>
+  <si>
+    <t>Ajuste de tiempo</t>
+  </si>
+  <si>
+    <t>Controlar la ejecución del procedimiento de registro</t>
+  </si>
+  <si>
+    <t>Interruptor de registro, detener la salida cuando está apagado</t>
+  </si>
+  <si>
+    <t>Seleccione la fuente de datos del navegador</t>
+  </si>
+  <si>
+    <t>Ejecutar el programa de registro</t>
+  </si>
+  <si>
+    <t>请选择至少两层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLICE_FEW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please select at least two slices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Выберите хотя бы два фрагмента</t>
+  </si>
+  <si>
+    <t>Veuillez sélectionner au moins deux tranches</t>
+  </si>
+  <si>
+    <t>Seleccione al menos dos rebanadas</t>
+  </si>
+  <si>
+    <t>SLICES_FEW_FOR_NEXT_STEP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALIGNED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用时(秒)：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time cost(Seconds):</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Стоимость времени(Секунды):</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coût en temps(Secondes):</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Costo de tiempo(Segundos):</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配准帧(秒)：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Registration frames(Seconds):</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Регистрационные кадры(Секунды):</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cadres d'enregistrement(Secondes):</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marcos de registro(Segundos):</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件加载完成：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILE_LOADING_COMPLETE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>File loading completed:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Загрузка файла завершена:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chargement du fichier terminé:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carga de archivo completa:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量加载完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Variable loaded</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARIABLE_LOADED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Переменная загружена</t>
+  </si>
+  <si>
+    <t>Variable chargée</t>
+  </si>
+  <si>
+    <t>Variable cargado</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGFILE_EXPORT_TO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Export log files to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志文件导出至</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Экспорт файлов журнала в</t>
+  </si>
+  <si>
+    <t>Exporter les fichiers journaux vers</t>
+  </si>
+  <si>
+    <t>Exportar archivos de registro a</t>
+  </si>
+  <si>
+    <t>GLOBAL_REGISTRATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REFRESH_REGISTRATION_GOODNESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位移(体素)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISPLACEMENT_VOXEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Displacement(Voxel)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desplazamiento (Voxel)</t>
+  </si>
+  <si>
+    <t>Смещение (воксель)</t>
+  </si>
+  <si>
+    <t>Déplacement (Voxel)</t>
+  </si>
+  <si>
+    <t>角位移(弧度)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANGULAR_DISPLACEMENT_RADIAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Angular displacement (Radian)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Угловое смещение (радиан)</t>
+  </si>
+  <si>
+    <t>Déplacement angulaire (radian)</t>
+  </si>
+  <si>
+    <t>Desplazamiento angular (radianes)</t>
+  </si>
+  <si>
+    <t>(非刚体)位移场数据不存在</t>
+  </si>
+  <si>
+    <t>(non-rigid) displacement field data does not exist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(нежесткие) данные поля смещения не существуют</t>
+  </si>
+  <si>
+    <t>les données de champ de déplacement (non rigides) n'existent pas</t>
+  </si>
+  <si>
+    <t>No existen datos de campo de desplazamiento (no rígidos)</t>
+  </si>
+  <si>
+    <t>DISPLACEMENT_NOT_EXIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在渲染位移场…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rendering displacement field...</t>
+  </si>
+  <si>
+    <t>Отрисовка поля смещения...</t>
+  </si>
+  <si>
+    <t>Rendu du champ de déplacement...</t>
+  </si>
+  <si>
+    <t>Representación del campo de desplazamiento...</t>
+  </si>
+  <si>
+    <t>RENDERING_DISPLACEMENT_FIELD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在计算配准优度…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Calculating goodness of registration...</t>
+  </si>
+  <si>
+    <t>Расчет качества регистрации...</t>
+  </si>
+  <si>
+    <t>Calcul de la qualité de l'enregistrement...</t>
+  </si>
+  <si>
+    <t>Calculando la bondad del registro...</t>
+  </si>
+  <si>
+    <t>CALCULATING_GOODNESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图像强度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不透明度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image intensity</t>
+  </si>
+  <si>
+    <t>IMAGE_INTENSITY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>интенсивность изображения</t>
+  </si>
+  <si>
+    <t>intensité de l'image</t>
+  </si>
+  <si>
+    <t>intensidad de la imagen</t>
+  </si>
+  <si>
+    <t>Opacity</t>
+  </si>
+  <si>
+    <t>OPACITY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Непрозрачность</t>
+  </si>
+  <si>
+    <t>Opacité</t>
+  </si>
+  <si>
+    <t>Opacidad</t>
+  </si>
+  <si>
+    <t>unsupported file format</t>
+  </si>
+  <si>
+    <t>不支持的文件格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNSUPPORTED_FILE_FORMAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>неподдерживаемый формат файла</t>
+  </si>
+  <si>
+    <t>format de fichier non pris en charge</t>
+  </si>
+  <si>
+    <t>Formato de archivo no soportado</t>
+  </si>
+  <si>
+    <t>CANCEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动配准(全局)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GLOBAL_REGISTRATION_MANUAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Global Registration(Manual)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Глобальная регистрация (вручную)</t>
+  </si>
+  <si>
+    <t>Enregistrement global (manuel)</t>
+  </si>
+  <si>
+    <t>Registro global (manual)</t>
+  </si>
+  <si>
+    <t>当前配准模式：手动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前配准模式：自动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REGMODE_CURRENT_MANUAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REGMODE_CURRENT_AUTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Текущий режим регистрации: ручной</t>
+  </si>
+  <si>
+    <t>Mode d'enregistrement actuel : Manuel</t>
+  </si>
+  <si>
+    <t>Modo de registro actual: Manual</t>
+  </si>
+  <si>
+    <t>Current Registration Mode: Automatic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Текущий режим регистрации: автоматический</t>
+  </si>
+  <si>
+    <t>Mode d'enregistrement actuel : automatique</t>
+  </si>
+  <si>
+    <t>Modo de registro actual: Automático</t>
+  </si>
+  <si>
+    <t>尺度阈值(um)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scale Threshold(um)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Порог масштаба(um)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seuil d'échelle(um)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Umbral de escala(um)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大Z投影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小Z投影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中位Z投影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均Z投影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEDIAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Median</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Иметь в виду</t>
+  </si>
+  <si>
+    <t>медиана</t>
+  </si>
+  <si>
+    <t>Мин.</t>
+  </si>
+  <si>
+    <t>Макс</t>
+  </si>
+  <si>
+    <t>Moyenne</t>
+  </si>
+  <si>
+    <t>Médian</t>
+  </si>
+  <si>
+    <t>Significar</t>
+  </si>
+  <si>
+    <t>Mediana</t>
+  </si>
+  <si>
+    <t>mínimo</t>
+  </si>
+  <si>
+    <t>máx.</t>
+  </si>
+  <si>
+    <t>MONOMODAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MULTIMODAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISCARD_RATIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弃帧率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discard Ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Коэффициент выброса</t>
+  </si>
+  <si>
+    <t>Taux de rejet</t>
+  </si>
+  <si>
+    <t>Proporción de descarte</t>
+  </si>
+  <si>
+    <t>WAITING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INPUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">waiting </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>espera</t>
+  </si>
+  <si>
+    <t>en attendant</t>
+  </si>
+  <si>
+    <t>ожидающий</t>
+  </si>
+  <si>
+    <t>вход</t>
+  </si>
+  <si>
+    <t>saisir</t>
+  </si>
+  <si>
+    <t>aporte</t>
+  </si>
+  <si>
+    <t>开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>начинать</t>
+  </si>
+  <si>
+    <t>commencer</t>
+  </si>
+  <si>
+    <t>comenzar</t>
+  </si>
+  <si>
+    <t>END</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>конец</t>
+  </si>
+  <si>
+    <t>fin</t>
+  </si>
+  <si>
+    <t>BEGIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>begin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ХОРОШО</t>
+  </si>
+  <si>
+    <t>D'ACCORD</t>
+  </si>
+  <si>
+    <t>DE ACUERDO</t>
+  </si>
+  <si>
+    <t>INVALID_FRAME_ORDER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无效帧序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid frames order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Неверный порядок кадров</t>
+  </si>
+  <si>
+    <t>Ordre des cadres invalide</t>
+  </si>
+  <si>
+    <t>Orden de fotogramas no válido</t>
+  </si>
+  <si>
+    <t>MIN_ITERATION_STEP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长时程模式仅支持单次配准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long-term mode only supports single registration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LONG_TERM_ONCE_ONLY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长时程模式与一般模式同时启用，将关闭一般模式，继续？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LONG_TERM_NORMAL_CONFLICT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The long-term mode and the normal mode are enabled at the same time, the normal mode will be turned off. Continue?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Долгосрочный режим и нормальный режим включены одновременно, нормальный режим будет отключен. Продолжать?</t>
+  </si>
+  <si>
+    <t>Le mode long terme et le mode normal sont activés en même temps, le mode normal sera désactivé. Continuer?</t>
+  </si>
+  <si>
+    <t>El modo a largo plazo y el modo normal se habilitan al mismo tiempo, el modo normal se desactivará. ¿Continuar?</t>
+  </si>
+  <si>
+    <t>Долгосрочный режим поддерживает только однократную регистрацию.</t>
+  </si>
+  <si>
+    <t>Le mode à long terme ne prend en charge qu'un seul enregistrement</t>
+  </si>
+  <si>
+    <t>El modo a largo plazo solo admite registro único</t>
+  </si>
+  <si>
+    <t>执行长时程配准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Perform long-term registration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PERFORM_LONGTERM_REGISTRATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Осуществить долгосрочную регистрацию</t>
+  </si>
+  <si>
+    <t>Effectuer une inscription à long terme</t>
+  </si>
+  <si>
+    <t>Realizar registro a largo plazo</t>
+  </si>
+  <si>
+    <t>当前配准模式：长时程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REGMODE_CURRENT_LONGTERM</t>
+  </si>
+  <si>
+    <t>Current Registration Mode: Manual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current Registration Mode: Long-Term</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Текущий режим регистрации: Долгосрочный</t>
+  </si>
+  <si>
+    <t>Mode d'enregistrement actuel : Long terme</t>
+  </si>
+  <si>
+    <t>Modo de registro actual: a largo plazo</t>
+  </si>
+  <si>
+    <t>关键帧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网格平均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非均匀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网格步长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常点比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局误差限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点云(预览)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY_FRAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key Frame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ключевой кадр</t>
+  </si>
+  <si>
+    <t>Image clé</t>
+  </si>
+  <si>
+    <t>Marco clave</t>
+  </si>
+  <si>
+    <t>Grid Average</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Random(uniform)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Случайный (равномерный)</t>
+  </si>
+  <si>
+    <t>Aléatoire (uniforme)</t>
+  </si>
+  <si>
+    <t>Aleatorio (uniforme)</t>
+  </si>
+  <si>
+    <t>Среднее по сетке</t>
+  </si>
+  <si>
+    <t>Moyenne de la grille</t>
+  </si>
+  <si>
+    <t>Promedio de cuadrícula</t>
+  </si>
+  <si>
+    <t>GRID_AVERAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RANDOM_UNIFORM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NONUNIFORM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nonuniform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Неравномерный</t>
+  </si>
+  <si>
+    <t>Non uniforme</t>
+  </si>
+  <si>
+    <t>No uniforme</t>
+  </si>
+  <si>
+    <t>Grid Step</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRID_STEP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Шаг сетки</t>
+  </si>
+  <si>
+    <t>Étape de la grille</t>
+  </si>
+  <si>
+    <t>Paso de cuadrícula</t>
+  </si>
+  <si>
+    <t>процентиль</t>
+  </si>
+  <si>
+    <t>Percentile</t>
+  </si>
+  <si>
+    <t>Centile</t>
+  </si>
+  <si>
+    <t>percentil</t>
+  </si>
+  <si>
+    <t>PERCENTILE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUM_MAX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Максимум</t>
+  </si>
+  <si>
+    <t>Máximo</t>
+  </si>
+  <si>
+    <t>PARAMETER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Параметр</t>
+  </si>
+  <si>
+    <t>Paramètre</t>
+  </si>
+  <si>
+    <t>Parámetro</t>
+  </si>
+  <si>
+    <t>Outlier Ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Коэффициент выбросов</t>
+  </si>
+  <si>
+    <t>Ratio de valeurs aberrantes</t>
+  </si>
+  <si>
+    <t>Relación de valores atípicos</t>
+  </si>
+  <si>
+    <t>OUTLIER_RATIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Preview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Предварительный просмотр</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aperçu</t>
+  </si>
+  <si>
+    <t>Avance</t>
+  </si>
+  <si>
+    <t>Global Error Limit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GLOBAL_ERROR_LIMIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Глобальный предел ошибок</t>
+  </si>
+  <si>
+    <t>Limite d'erreur globale</t>
+  </si>
+  <si>
+    <t>Límite de errores globales</t>
+  </si>
+  <si>
+    <t>Point Cloud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Облако точек</t>
+  </si>
+  <si>
+    <t>Nuage de points</t>
+  </si>
+  <si>
+    <t>Punto de nube</t>
+  </si>
+  <si>
+    <t>PREVIEW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POINT_CLOUD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Воксель</t>
+  </si>
+  <si>
+    <t>Voxel</t>
+  </si>
+  <si>
+    <t>Voxel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vóxel</t>
+  </si>
+  <si>
+    <t>VOXEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POINT_CLOUD_PREVIEW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Point Cloud(Preview)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Облако точек (предварительный просмотр)</t>
+  </si>
+  <si>
+    <t>Nuage de points (aperçu)</t>
+  </si>
+  <si>
+    <t>Nube de puntos (vista previa)</t>
+  </si>
+  <si>
+    <t>局部加权平均推荐控制量12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOCAL_WEIGHTED_CONTROL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local weighted average recommended control value: 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Рекомендуемое локальное средневзвешенное контрольное значение: 12.</t>
+  </si>
+  <si>
+    <t>La valeur de contrôle recommandée moyenne pondérée locale : 12</t>
+  </si>
+  <si>
+    <t>Valor de control recomendado promedio ponderado local: 12</t>
+  </si>
+  <si>
+    <t>自动配准(长时程)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long-Term Registration(Auto)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LONGTERM_REGISTRATION_AUTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Долгосрочная регистрация(авто)</t>
+  </si>
+  <si>
+    <t>Inscription à long terme (auto)</t>
+  </si>
+  <si>
+    <t>Registro a largo plazo (automático)</t>
+  </si>
+  <si>
+    <t>SAMPLING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>REGISTRATION_TEMPLATE</t>
-  </si>
-  <si>
-    <t>SAMPLING</t>
-  </si>
-  <si>
-    <t>RIGID</t>
-  </si>
-  <si>
-    <t>SIMILARITY</t>
-  </si>
-  <si>
-    <t>AFFINE</t>
-  </si>
-  <si>
-    <t>MODAL</t>
-  </si>
-  <si>
-    <t>REGION_LABEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIGNAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>INTENSITY_THRESHOLD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SCALE_THRESHOLD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOWNSAMPLING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX_ITERATION_N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOCATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>INITIAL_ITERATION_STEP</t>
-  </si>
-  <si>
-    <t>MAX_ITERATION_N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ITERATION_COEFFICIENT</t>
-  </si>
-  <si>
-    <t>CUBIC_HIGH_QUALITY</t>
-  </si>
-  <si>
-    <t>NEAREST_FAST</t>
-  </si>
-  <si>
-    <t>PYRAMID_COEFFICIENT</t>
-  </si>
-  <si>
-    <t>ENABLE</t>
-  </si>
-  <si>
-    <t>LOCAL_REGISTRATION_AUTO</t>
-  </si>
-  <si>
-    <t>GRID_UNIT_SIZE</t>
-  </si>
-  <si>
-    <t>AUTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ACCUMULATIVE_FIELD_SMOOTHING</t>
-  </si>
-  <si>
-    <t>GEOMETRIC_TRANSFORMATION</t>
-  </si>
-  <si>
-    <t>PIECEWISE_LINEAR</t>
-  </si>
-  <si>
-    <t>POLYNOMIAL</t>
-  </si>
-  <si>
-    <t>LOCAL_WEIGHTED_MEAN</t>
-  </si>
-  <si>
-    <t>MIN_CONTROL_VAL</t>
-  </si>
-  <si>
-    <t>POLYNOMIAL_ORDER</t>
-  </si>
-  <si>
-    <t>WEIGHTED_POINTS_NUMBER</t>
-  </si>
-  <si>
-    <t>EDGE_SMOOTHING</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>TEMPLATE_SYNCHRONISATION</t>
-  </si>
-  <si>
-    <t>LOCATION</t>
-  </si>
-  <si>
-    <t>SIGNAL</t>
-  </si>
-  <si>
-    <t>ROBUSTNESS_COEFFICIENT</t>
-  </si>
-  <si>
-    <t>DOWNSAMPLING</t>
-  </si>
-  <si>
-    <t>COMPENSATION_PHOTOBLEACHING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PRECISION</t>
-  </si>
-  <si>
-    <t>RATIO</t>
-  </si>
-  <si>
-    <t>SCALE</t>
-  </si>
-  <si>
-    <t>X_DIRECTION_RESOLUTION</t>
-  </si>
-  <si>
-    <t>Y_DIRECTION_RESOLUTION</t>
-  </si>
-  <si>
-    <t>SCALE_UNIT</t>
-  </si>
-  <si>
-    <t>X_DIRECTION_LENGTH</t>
-  </si>
-  <si>
-    <t>Y_DIRECTION_LENGTH</t>
-  </si>
-  <si>
-    <t>HORIZONTAL</t>
-  </si>
-  <si>
-    <t>VERTICAL</t>
-  </si>
-  <si>
-    <t>LINE_WIDTH</t>
-  </si>
-  <si>
-    <t>COLOR</t>
-  </si>
-  <si>
-    <t>BLUE</t>
-  </si>
-  <si>
-    <t>CYAN</t>
-  </si>
-  <si>
-    <t>MAGENTA</t>
-  </si>
-  <si>
-    <t>YELLOW</t>
-  </si>
-  <si>
-    <t>BLACK</t>
-  </si>
-  <si>
-    <t>WHITE</t>
-  </si>
-  <si>
-    <t>FONT</t>
-  </si>
-  <si>
-    <t>LINE_HAT</t>
-  </si>
-  <si>
-    <t>FLAT_HAT</t>
-  </si>
-  <si>
-    <t>CIRCLE_HAT</t>
-  </si>
-  <si>
-    <t>SQUARE_HAT</t>
-  </si>
-  <si>
-    <t>DIAMOND_HAT</t>
-  </si>
-  <si>
-    <t>SPACE</t>
-  </si>
-  <si>
-    <t>HAT_SIZE</t>
-  </si>
-  <si>
-    <t>SOLID</t>
-  </si>
-  <si>
-    <t>REGION_FREE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Region Free</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Без региона</t>
-  </si>
-  <si>
-    <t>Région libre</t>
-  </si>
-  <si>
-    <t>Región libre</t>
-  </si>
-  <si>
-    <t>DATA_SELECTER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RENDERER_PARAMETERS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INVERSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELF_DEFINITION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hat Size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Размер шляпы</t>
-  </si>
-  <si>
-    <t>Taille du chapeau</t>
-  </si>
-  <si>
-    <t>Tamaño del sombrero</t>
-  </si>
-  <si>
-    <t>UNSUPPORTED_FEW_LAYERS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WARNING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INFORMATION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INVALID_RULER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONFIGURATION_EXPORTED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONFGURATION_LOADED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONFIGURATION_CORRUPTED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IN_PROGRESS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REGISTRATION_WORKFLOW_ERROR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PERFORM_AUTO_REGISTRATION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REGISTRATION_FRAMES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COVERAGE_OPERATION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONFIRM_COVERAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REGISTRATION_COMPLETE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIME_COST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TERMINATE_REGISTRATION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASK_FOR_UPDATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DOWNLOADING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UNSUPPORTED_OS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FINISH_UPDATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_SCRIPT_FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LATEST_VERSION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UNABLE_ACCESS_SERVER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UNABLE_ACCESS_UPDATE_SETTING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UNRECOGNIZED_UPDATE_IDENTIFIER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INVALID_UPDATE_REPOSITORY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI_INITIALIZE_SUCCESS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYS_INITIALIZE_SUCCESS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXPORT_AS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXPORTING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IMAGE_EXPORT_SUCCESS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRREVERSIBLE_CROP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONFIRM_CROP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CROP_FRAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME_FEW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME_OVERFLOW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GIVEUP_CROP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIME_SERIES_FILE</t>
-  </si>
-  <si>
-    <t>T_CROPPED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MISSING_HELP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SAVE_CONFIGURATION_FILE</t>
-  </si>
-  <si>
-    <t>READ_CONFIGURATION_FILE</t>
-  </si>
-  <si>
-    <t>REG3D_CONFIGURATION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOVIE_EXPORT_INTERRUPTED</t>
-  </si>
-  <si>
-    <t>XY_CROPPED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Z_CROPPED</t>
-  </si>
-  <si>
-    <t>CONFIRM_ROI_RANGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>THICKNESS_RANGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CROP_Z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SLICES_OVERFLOW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEXT_FILE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COMMA_SEPARATED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WORKSHEET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Worksheet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Рабочий лист</t>
-  </si>
-  <si>
-    <t>Feuille de travail</t>
-  </si>
-  <si>
-    <t>Hoja de cálculo</t>
-  </si>
-  <si>
-    <t>TIME_MISSING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GEOMETRIC_TRANSFORMATION_EXPORT_SUCCESS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIME_EXPORT_SUCCESS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MASK_REMOVED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IMPORT_MASK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MASK_MISMATCH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MASK_LOADED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RENDERING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOVIE_EXPORTED_SUCCESS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIME_RANGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UNREGISTRATERED_FRAMES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RESET_REGISTRATION_FRAMES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXPORT_IMAGES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IMAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images</t>
-  </si>
-  <si>
-    <t>Images</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Изображений</t>
-  </si>
-  <si>
-    <t>Imágenes</t>
-  </si>
-  <si>
-    <t>GENERATE_MASK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thickness Cropping</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Épaisseur Recadrage</t>
-  </si>
-  <si>
-    <t>LOAD_FILE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加载文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Load Files</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Загрузить файлы</t>
-  </si>
-  <si>
-    <t>Charger des fichiers</t>
-  </si>
-  <si>
-    <t>Cargar archivos</t>
-  </si>
-  <si>
-    <t>导入与导出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图像与标注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置与首选项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帮助与更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>片层微调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进度条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间微调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制配准程序执行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日志开关，关闭时停止输出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择浏览器数据源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运行配准程序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Время</t>
-  </si>
-  <si>
-    <t>Temps</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tiempo</t>
-  </si>
-  <si>
-    <t>浏览源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UNSUPPORTED_CHANNEL_NUMBER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正在开发…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Developing…</t>
-  </si>
-  <si>
-    <t>DEVELOPING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Разработка…</t>
-  </si>
-  <si>
-    <t>Développement…</t>
-  </si>
-  <si>
-    <t>Desarrollando…</t>
-  </si>
-  <si>
-    <t>IMPORT_EXPORT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HELP_UPDATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SLICE_FINE_TUNING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PROGRESS_BAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIME_FINE_TUNING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONTROL_REGISTRATION_RUNNING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOG_SWITCH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECTION_SOURCE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RUNNING_REGISTRATION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image and Annotation</t>
-  </si>
-  <si>
-    <t>Settings and Preferences</t>
-  </si>
-  <si>
-    <t>Select browser data source</t>
-  </si>
-  <si>
-    <t>Run the registration program</t>
-  </si>
-  <si>
-    <t>Import and Export</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IMAGE_ANNOTATION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SETTING_PREFERENCE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Log switch, stop output when off</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Controlling registration procedure execution</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time fine-tuning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Progress bar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Slice fine-tuning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Help and Updates</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Импорт и экспорт</t>
-  </si>
-  <si>
-    <t>Изображение и аннотация</t>
-  </si>
-  <si>
-    <t>Настройки и предпочтения</t>
-  </si>
-  <si>
-    <t>Справка и обновления</t>
-  </si>
-  <si>
-    <t>Тонкая настройка среза</t>
-  </si>
-  <si>
-    <t>Индикатор</t>
-  </si>
-  <si>
-    <t>Точная настройка времени</t>
-  </si>
-  <si>
-    <t>Контроль выполнения процедуры регистрации</t>
-  </si>
-  <si>
-    <t>Переключатель журнала, остановка вывода при выключении</t>
-  </si>
-  <si>
-    <t>Выберите источник данных браузера</t>
-  </si>
-  <si>
-    <t>Запустите программу регистрации</t>
-  </si>
-  <si>
-    <t>Importer et exporter</t>
-  </si>
-  <si>
-    <t>Image et annotation</t>
-  </si>
-  <si>
-    <t>Paramètres et préférences</t>
-  </si>
-  <si>
-    <t>Aide et mises à jour</t>
-  </si>
-  <si>
-    <t>Réglage fin des tranches</t>
-  </si>
-  <si>
-    <t>Barre de progression</t>
-  </si>
-  <si>
-    <t>Réglage fin du temps</t>
-  </si>
-  <si>
-    <t>Contrôler l'exécution de la procédure d'enregistrement</t>
-  </si>
-  <si>
-    <t>Commutateur de journal, arrêt de la sortie lorsqu'il est éteint</t>
-  </si>
-  <si>
-    <t>Sélectionnez la source de données du navigateur</t>
-  </si>
-  <si>
-    <t>Exécutez le programme d'enregistrement</t>
-  </si>
-  <si>
-    <t>Importar y exportar</t>
-  </si>
-  <si>
-    <t>Imagen y anotación</t>
-  </si>
-  <si>
-    <t>Configuraciones y Preferencias</t>
-  </si>
-  <si>
-    <t>Ayuda y actualizaciones</t>
-  </si>
-  <si>
-    <t>Rebanada de ajuste fino</t>
-  </si>
-  <si>
-    <t>Barra de progreso</t>
-  </si>
-  <si>
-    <t>Ajuste de tiempo</t>
-  </si>
-  <si>
-    <t>Controlar la ejecución del procedimiento de registro</t>
-  </si>
-  <si>
-    <t>Interruptor de registro, detener la salida cuando está apagado</t>
-  </si>
-  <si>
-    <t>Seleccione la fuente de datos del navegador</t>
-  </si>
-  <si>
-    <t>Ejecutar el programa de registro</t>
-  </si>
-  <si>
-    <t>请选择至少两层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SLICE_FEW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Please select at least two slices</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Выберите хотя бы два фрагмента</t>
-  </si>
-  <si>
-    <t>Veuillez sélectionner au moins deux tranches</t>
-  </si>
-  <si>
-    <t>Seleccione al menos dos rebanadas</t>
-  </si>
-  <si>
-    <t>SLICES_FEW_FOR_NEXT_STEP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALIGNED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用时(秒)：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time cost(Seconds):</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Стоимость времени(Секунды):</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coût en temps(Secondes):</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Costo de tiempo(Segundos):</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配准帧(秒)：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Registration frames(Seconds):</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Регистрационные кадры(Секунды):</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cadres d'enregistrement(Secondes):</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Marcos de registro(Segundos):</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件加载完成：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FILE_LOADING_COMPLETE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>File loading completed:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Загрузка файла завершена:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chargement du fichier terminé:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Carga de archivo completa:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变量加载完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Variable loaded</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARIABLE_LOADED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Переменная загружена</t>
-  </si>
-  <si>
-    <t>Variable chargée</t>
-  </si>
-  <si>
-    <t>Variable cargado</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOGFILE_EXPORT_TO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Export log files to</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日志文件导出至</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Экспорт файлов журнала в</t>
-  </si>
-  <si>
-    <t>Exporter les fichiers journaux vers</t>
-  </si>
-  <si>
-    <t>Exportar archivos de registro a</t>
-  </si>
-  <si>
-    <t>GLOBAL_REGISTRATION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REFRESH_REGISTRATION_GOODNESS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>位移(体素)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DISPLACEMENT_VOXEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Displacement(Voxel)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Desplazamiento (Voxel)</t>
-  </si>
-  <si>
-    <t>Смещение (воксель)</t>
-  </si>
-  <si>
-    <t>Déplacement (Voxel)</t>
-  </si>
-  <si>
-    <t>角位移(弧度)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ANGULAR_DISPLACEMENT_RADIAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Angular displacement (Radian)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Угловое смещение (радиан)</t>
-  </si>
-  <si>
-    <t>Déplacement angulaire (radian)</t>
-  </si>
-  <si>
-    <t>Desplazamiento angular (radianes)</t>
-  </si>
-  <si>
-    <t>(非刚体)位移场数据不存在</t>
-  </si>
-  <si>
-    <t>(non-rigid) displacement field data does not exist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(нежесткие) данные поля смещения не существуют</t>
-  </si>
-  <si>
-    <t>les données de champ de déplacement (non rigides) n'existent pas</t>
-  </si>
-  <si>
-    <t>No existen datos de campo de desplazamiento (no rígidos)</t>
-  </si>
-  <si>
-    <t>DISPLACEMENT_NOT_EXIST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正在渲染位移场…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rendering displacement field...</t>
-  </si>
-  <si>
-    <t>Отрисовка поля смещения...</t>
-  </si>
-  <si>
-    <t>Rendu du champ de déplacement...</t>
-  </si>
-  <si>
-    <t>Representación del campo de desplazamiento...</t>
-  </si>
-  <si>
-    <t>RENDERING_DISPLACEMENT_FIELD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正在计算配准优度…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Calculating goodness of registration...</t>
-  </si>
-  <si>
-    <t>Расчет качества регистрации...</t>
-  </si>
-  <si>
-    <t>Calcul de la qualité de l'enregistrement...</t>
-  </si>
-  <si>
-    <t>Calculando la bondad del registro...</t>
-  </si>
-  <si>
-    <t>CALCULATING_GOODNESS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图像强度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不透明度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image intensity</t>
-  </si>
-  <si>
-    <t>IMAGE_INTENSITY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>интенсивность изображения</t>
-  </si>
-  <si>
-    <t>intensité de l'image</t>
-  </si>
-  <si>
-    <t>intensidad de la imagen</t>
-  </si>
-  <si>
-    <t>Opacity</t>
-  </si>
-  <si>
-    <t>OPACITY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Непрозрачность</t>
-  </si>
-  <si>
-    <t>Opacité</t>
-  </si>
-  <si>
-    <t>Opacidad</t>
-  </si>
-  <si>
-    <t>unsupported file format</t>
-  </si>
-  <si>
-    <t>不支持的文件格式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UNSUPPORTED_FILE_FORMAT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>неподдерживаемый формат файла</t>
-  </si>
-  <si>
-    <t>format de fichier non pris en charge</t>
-  </si>
-  <si>
-    <t>Formato de archivo no soportado</t>
-  </si>
-  <si>
-    <t>CANCEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手动配准(全局)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GLOBAL_REGISTRATION_MANUAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Global Registration(Manual)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Глобальная регистрация (вручную)</t>
-  </si>
-  <si>
-    <t>Enregistrement global (manuel)</t>
-  </si>
-  <si>
-    <t>Registro global (manual)</t>
-  </si>
-  <si>
-    <t>当前配准模式：手动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前配准模式：自动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REGMODE_CURRENT_MANUAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REGMODE_CURRENT_AUTO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Current Registration Mode: Manual</t>
-  </si>
-  <si>
-    <t>Текущий режим регистрации: ручной</t>
-  </si>
-  <si>
-    <t>Mode d'enregistrement actuel : Manuel</t>
-  </si>
-  <si>
-    <t>Modo de registro actual: Manual</t>
-  </si>
-  <si>
-    <t>Current Registration Mode: Automatic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Текущий режим регистрации: автоматический</t>
-  </si>
-  <si>
-    <t>Mode d'enregistrement actuel : automatique</t>
-  </si>
-  <si>
-    <t>Modo de registro actual: Automático</t>
-  </si>
-  <si>
-    <t>尺度阈值(um)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scale Threshold(um)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Порог масштаба(um)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seuil d'échelle(um)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Umbral de escala(um)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大Z投影</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最小Z投影</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中位Z投影</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平均Z投影</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEDIAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Median</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Min</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Max</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Иметь в виду</t>
-  </si>
-  <si>
-    <t>медиана</t>
-  </si>
-  <si>
-    <t>Мин.</t>
-  </si>
-  <si>
-    <t>Макс</t>
-  </si>
-  <si>
-    <t>Moyenne</t>
-  </si>
-  <si>
-    <t>Médian</t>
-  </si>
-  <si>
-    <t>Significar</t>
-  </si>
-  <si>
-    <t>Mediana</t>
-  </si>
-  <si>
-    <t>mínimo</t>
-  </si>
-  <si>
-    <t>máx.</t>
-  </si>
-  <si>
-    <t>MONOMODAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MULTIMODAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DISCARD_RATIO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弃帧率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Discard Ratio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Коэффициент выброса</t>
-  </si>
-  <si>
-    <t>Taux de rejet</t>
-  </si>
-  <si>
-    <t>Proporción de descarte</t>
-  </si>
-  <si>
-    <t>WAITING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等待</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INPUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">waiting </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>espera</t>
-  </si>
-  <si>
-    <t>en attendant</t>
-  </si>
-  <si>
-    <t>ожидающий</t>
-  </si>
-  <si>
-    <t>вход</t>
-  </si>
-  <si>
-    <t>saisir</t>
-  </si>
-  <si>
-    <t>aporte</t>
-  </si>
-  <si>
-    <t>开始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>начинать</t>
-  </si>
-  <si>
-    <t>commencer</t>
-  </si>
-  <si>
-    <t>comenzar</t>
-  </si>
-  <si>
-    <t>END</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>конец</t>
-  </si>
-  <si>
-    <t>fin</t>
-  </si>
-  <si>
-    <t>BEGIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>begin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ХОРОШО</t>
-  </si>
-  <si>
-    <t>D'ACCORD</t>
-  </si>
-  <si>
-    <t>DE ACUERDO</t>
-  </si>
-  <si>
-    <t>INVALID_FRAME_ORDER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无效帧序列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invalid frames order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Неверный порядок кадров</t>
-  </si>
-  <si>
-    <t>Ordre des cadres invalide</t>
-  </si>
-  <si>
-    <t>Orden de fotogramas no válido</t>
-  </si>
-  <si>
-    <t>MIN_ITERATION_STEP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6429,17 +6861,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F302"/>
+  <dimension ref="A1:F322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="A148" sqref="A148"/>
+    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
+      <selection activeCell="B193" sqref="B193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.125" customWidth="1"/>
     <col min="2" max="2" width="47.625" customWidth="1"/>
-    <col min="3" max="3" width="52.75" customWidth="1"/>
+    <col min="3" max="3" width="48.875" customWidth="1"/>
     <col min="4" max="4" width="47.25" customWidth="1"/>
     <col min="5" max="5" width="48.25" customWidth="1"/>
     <col min="6" max="6" width="43.5" customWidth="1"/>
@@ -6487,22 +6919,22 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1538</v>
+        <v>1526</v>
       </c>
       <c r="B3" t="s">
-        <v>1539</v>
+        <v>1527</v>
       </c>
       <c r="C3" t="s">
-        <v>1540</v>
+        <v>1528</v>
       </c>
       <c r="D3" t="s">
-        <v>1541</v>
+        <v>1529</v>
       </c>
       <c r="E3" t="s">
-        <v>1542</v>
+        <v>1530</v>
       </c>
       <c r="F3" t="s">
-        <v>1543</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -6527,7 +6959,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1528</v>
+        <v>1516</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -6627,22 +7059,22 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1529</v>
+        <v>1517</v>
       </c>
       <c r="B10" t="s">
-        <v>1530</v>
+        <v>1518</v>
       </c>
       <c r="C10" t="s">
-        <v>1532</v>
+        <v>1520</v>
       </c>
       <c r="D10" t="s">
-        <v>1533</v>
+        <v>1521</v>
       </c>
       <c r="E10" t="s">
-        <v>1531</v>
+        <v>1519</v>
       </c>
       <c r="F10" t="s">
-        <v>1534</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -6690,7 +7122,7 @@
         <v>1275</v>
       </c>
       <c r="B13" t="s">
-        <v>1731</v>
+        <v>1718</v>
       </c>
       <c r="C13" t="s">
         <v>264</v>
@@ -6710,7 +7142,7 @@
         <v>1276</v>
       </c>
       <c r="B14" t="s">
-        <v>1732</v>
+        <v>1719</v>
       </c>
       <c r="C14" t="s">
         <v>265</v>
@@ -6730,7 +7162,7 @@
         <v>1277</v>
       </c>
       <c r="B15" t="s">
-        <v>1733</v>
+        <v>1720</v>
       </c>
       <c r="C15" t="s">
         <v>266</v>
@@ -6750,7 +7182,7 @@
         <v>1278</v>
       </c>
       <c r="B16" t="s">
-        <v>1734</v>
+        <v>1721</v>
       </c>
       <c r="C16" t="s">
         <v>267</v>
@@ -6787,7 +7219,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1535</v>
+        <v>1523</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
@@ -6807,7 +7239,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1520</v>
+        <v>1508</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
@@ -7376,13 +7808,13 @@
         <v>299</v>
       </c>
       <c r="D47" t="s">
-        <v>1555</v>
+        <v>1543</v>
       </c>
       <c r="E47" t="s">
-        <v>1556</v>
+        <v>1544</v>
       </c>
       <c r="F47" t="s">
-        <v>1557</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -7470,7 +7902,7 @@
         <v>1312</v>
       </c>
       <c r="B52" t="s">
-        <v>1558</v>
+        <v>1546</v>
       </c>
       <c r="C52" t="s">
         <v>305</v>
@@ -7647,22 +8079,22 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>1445</v>
+        <v>1433</v>
       </c>
       <c r="B61" t="s">
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>1446</v>
+        <v>1434</v>
       </c>
       <c r="D61" t="s">
-        <v>1447</v>
+        <v>1435</v>
       </c>
       <c r="E61" t="s">
-        <v>1448</v>
+        <v>1436</v>
       </c>
       <c r="F61" t="s">
-        <v>1449</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -7867,7 +8299,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1628</v>
+        <v>1616</v>
       </c>
       <c r="B72" t="s">
         <v>66</v>
@@ -7887,7 +8319,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>1450</v>
+        <v>1438</v>
       </c>
       <c r="B73" t="s">
         <v>67</v>
@@ -8227,7 +8659,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>1657</v>
+        <v>1645</v>
       </c>
       <c r="B90" t="s">
         <v>84</v>
@@ -8287,7 +8719,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>1658</v>
+        <v>1646</v>
       </c>
       <c r="B93" t="s">
         <v>87</v>
@@ -8327,7 +8759,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>1451</v>
+        <v>1439</v>
       </c>
       <c r="B95" t="s">
         <v>89</v>
@@ -8507,42 +8939,42 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>1660</v>
+        <v>1648</v>
       </c>
       <c r="B104" t="s">
-        <v>1659</v>
+        <v>1647</v>
       </c>
       <c r="C104" t="s">
-        <v>1661</v>
+        <v>1649</v>
       </c>
       <c r="D104" t="s">
-        <v>1663</v>
+        <v>1651</v>
       </c>
       <c r="E104" t="s">
-        <v>1664</v>
+        <v>1652</v>
       </c>
       <c r="F104" t="s">
-        <v>1662</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>1666</v>
+        <v>1654</v>
       </c>
       <c r="B105" t="s">
-        <v>1665</v>
+        <v>1653</v>
       </c>
       <c r="C105" t="s">
-        <v>1667</v>
+        <v>1655</v>
       </c>
       <c r="D105" t="s">
-        <v>1668</v>
+        <v>1656</v>
       </c>
       <c r="E105" t="s">
-        <v>1669</v>
+        <v>1657</v>
       </c>
       <c r="F105" t="s">
-        <v>1670</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -8807,7 +9239,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>1707</v>
+        <v>1695</v>
       </c>
       <c r="B119" t="s">
         <v>111</v>
@@ -9027,7 +9459,7 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>1452</v>
+        <v>1440</v>
       </c>
       <c r="B130" t="s">
         <v>122</v>
@@ -9067,7 +9499,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>1382</v>
+        <v>1907</v>
       </c>
       <c r="B132" t="s">
         <v>124</v>
@@ -9087,7 +9519,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>1383</v>
+        <v>1906</v>
       </c>
       <c r="B133" t="s">
         <v>125</v>
@@ -9107,7 +9539,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="B134" t="s">
         <v>126</v>
@@ -9127,7 +9559,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="B135" t="s">
         <v>127</v>
@@ -9147,7 +9579,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="B136" t="s">
         <v>128</v>
@@ -9167,7 +9599,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="B137" t="s">
         <v>129</v>
@@ -9187,7 +9619,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>1755</v>
+        <v>1742</v>
       </c>
       <c r="B138" t="s">
         <v>130</v>
@@ -9207,7 +9639,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>1756</v>
+        <v>1743</v>
       </c>
       <c r="B139" t="s">
         <v>131</v>
@@ -9227,3262 +9659,3662 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>1735</v>
+        <v>1722</v>
       </c>
       <c r="B140" t="s">
         <v>14</v>
       </c>
       <c r="C140" t="s">
-        <v>1739</v>
+        <v>1726</v>
       </c>
       <c r="D140" t="s">
-        <v>1745</v>
+        <v>1732</v>
       </c>
       <c r="E140" t="s">
-        <v>1749</v>
+        <v>1736</v>
       </c>
       <c r="F140" t="s">
-        <v>1751</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>1736</v>
+        <v>1723</v>
       </c>
       <c r="B141" t="s">
         <v>13</v>
       </c>
       <c r="C141" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
       <c r="D141" t="s">
-        <v>1746</v>
+        <v>1733</v>
       </c>
       <c r="E141" t="s">
-        <v>1750</v>
+        <v>1737</v>
       </c>
       <c r="F141" t="s">
-        <v>1752</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>1737</v>
+        <v>1724</v>
       </c>
       <c r="B142" t="s">
         <v>12</v>
       </c>
       <c r="C142" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
       <c r="D142" t="s">
-        <v>1747</v>
+        <v>1734</v>
       </c>
       <c r="E142" t="s">
+        <v>1727</v>
+      </c>
+      <c r="F142" t="s">
         <v>1740</v>
-      </c>
-      <c r="F142" t="s">
-        <v>1753</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>1738</v>
+        <v>1725</v>
       </c>
       <c r="B143" t="s">
         <v>11</v>
       </c>
       <c r="C143" t="s">
-        <v>1744</v>
+        <v>1731</v>
       </c>
       <c r="D143" t="s">
-        <v>1748</v>
+        <v>1735</v>
       </c>
       <c r="E143" t="s">
+        <v>1728</v>
+      </c>
+      <c r="F143" t="s">
         <v>1741</v>
-      </c>
-      <c r="F143" t="s">
-        <v>1754</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>1388</v>
+        <v>1784</v>
       </c>
       <c r="B144" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C144" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D144" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="E144" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="F144" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>1389</v>
+        <v>1914</v>
       </c>
       <c r="B145" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C145" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D145" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="E145" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="F145" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>1390</v>
+        <v>1912</v>
       </c>
       <c r="B146" t="s">
-        <v>1726</v>
+        <v>136</v>
       </c>
       <c r="C146" t="s">
-        <v>1727</v>
+        <v>402</v>
       </c>
       <c r="D146" t="s">
-        <v>1728</v>
+        <v>666</v>
       </c>
       <c r="E146" t="s">
-        <v>1729</v>
+        <v>908</v>
       </c>
       <c r="F146" t="s">
-        <v>1730</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>1797</v>
+        <v>1915</v>
       </c>
       <c r="B147" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C147" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="D147" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="E147" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="F147" t="s">
-        <v>1149</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="B148" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C148" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D148" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="E148" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="F148" t="s">
-        <v>1150</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="B149" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C149" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="D149" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="E149" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="F149" t="s">
-        <v>1151</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="B150" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C150" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="D150" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="E150" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="F150" t="s">
-        <v>1152</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="B151" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C151" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D151" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="E151" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="F151" t="s">
-        <v>1153</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="B152" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C152" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="D152" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="E152" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="F152" t="s">
-        <v>1154</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="B153" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C153" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="D153" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="E153" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="F153" t="s">
-        <v>1155</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="B154" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C154" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="D154" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="E154" t="s">
-        <v>913</v>
+        <v>410</v>
       </c>
       <c r="F154" t="s">
-        <v>1156</v>
+        <v>410</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>1398</v>
+        <v>1916</v>
       </c>
       <c r="B155" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C155" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="D155" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="E155" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="F155" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
       <c r="B156" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C156" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="D156" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="E156" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="F156" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>1400</v>
+        <v>1902</v>
       </c>
       <c r="B157" t="s">
-        <v>144</v>
+        <v>1900</v>
       </c>
       <c r="C157" t="s">
-        <v>411</v>
+        <v>1901</v>
       </c>
       <c r="D157" t="s">
-        <v>674</v>
+        <v>1903</v>
       </c>
       <c r="E157" t="s">
-        <v>410</v>
+        <v>1904</v>
       </c>
       <c r="F157" t="s">
-        <v>410</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>1401</v>
+        <v>1824</v>
       </c>
       <c r="B158" t="s">
-        <v>145</v>
+        <v>1810</v>
       </c>
       <c r="C158" t="s">
-        <v>412</v>
+        <v>1825</v>
       </c>
       <c r="D158" t="s">
-        <v>675</v>
+        <v>1826</v>
       </c>
       <c r="E158" t="s">
-        <v>916</v>
+        <v>1827</v>
       </c>
       <c r="F158" t="s">
-        <v>1159</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>1402</v>
+        <v>1909</v>
       </c>
       <c r="B159" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="C159" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="D159" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
       <c r="E159" t="s">
-        <v>917</v>
+        <v>905</v>
       </c>
       <c r="F159" t="s">
-        <v>1160</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>1709</v>
+        <v>1910</v>
       </c>
       <c r="B160" t="s">
-        <v>1708</v>
+        <v>1713</v>
       </c>
       <c r="C160" t="s">
-        <v>1710</v>
+        <v>1714</v>
       </c>
       <c r="D160" t="s">
-        <v>1711</v>
+        <v>1715</v>
       </c>
       <c r="E160" t="s">
-        <v>1712</v>
+        <v>1716</v>
       </c>
       <c r="F160" t="s">
-        <v>1713</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>1403</v>
+        <v>1837</v>
       </c>
       <c r="B161" t="s">
-        <v>147</v>
+        <v>1811</v>
       </c>
       <c r="C161" t="s">
-        <v>414</v>
+        <v>1829</v>
       </c>
       <c r="D161" t="s">
-        <v>677</v>
+        <v>1834</v>
       </c>
       <c r="E161" t="s">
-        <v>918</v>
+        <v>1835</v>
       </c>
       <c r="F161" t="s">
-        <v>1161</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>1404</v>
+        <v>1838</v>
       </c>
       <c r="B162" t="s">
-        <v>148</v>
+        <v>1812</v>
       </c>
       <c r="C162" t="s">
-        <v>415</v>
+        <v>1830</v>
       </c>
       <c r="D162" t="s">
-        <v>678</v>
+        <v>1831</v>
       </c>
       <c r="E162" t="s">
-        <v>919</v>
+        <v>1832</v>
       </c>
       <c r="F162" t="s">
-        <v>1162</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>1405</v>
+        <v>1839</v>
       </c>
       <c r="B163" t="s">
-        <v>149</v>
+        <v>1813</v>
       </c>
       <c r="C163" t="s">
-        <v>417</v>
+        <v>1840</v>
       </c>
       <c r="D163" t="s">
-        <v>679</v>
+        <v>1841</v>
       </c>
       <c r="E163" t="s">
-        <v>920</v>
+        <v>1842</v>
       </c>
       <c r="F163" t="s">
-        <v>1163</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>1406</v>
+        <v>1845</v>
       </c>
       <c r="B164" t="s">
-        <v>150</v>
+        <v>1814</v>
       </c>
       <c r="C164" t="s">
-        <v>418</v>
+        <v>1844</v>
       </c>
       <c r="D164" t="s">
-        <v>680</v>
+        <v>1846</v>
       </c>
       <c r="E164" t="s">
-        <v>921</v>
+        <v>1847</v>
       </c>
       <c r="F164" t="s">
-        <v>1164</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>1407</v>
+        <v>1853</v>
       </c>
       <c r="B165" t="s">
-        <v>151</v>
+        <v>1815</v>
       </c>
       <c r="C165" t="s">
-        <v>419</v>
+        <v>1850</v>
       </c>
       <c r="D165" t="s">
-        <v>681</v>
+        <v>1849</v>
       </c>
       <c r="E165" t="s">
-        <v>922</v>
+        <v>1851</v>
       </c>
       <c r="F165" t="s">
-        <v>1165</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>1408</v>
+        <v>1854</v>
       </c>
       <c r="B166" t="s">
-        <v>152</v>
+        <v>1816</v>
       </c>
       <c r="C166" t="s">
-        <v>420</v>
+        <v>1856</v>
       </c>
       <c r="D166" t="s">
-        <v>682</v>
+        <v>1857</v>
       </c>
       <c r="E166" t="s">
-        <v>923</v>
+        <v>1855</v>
       </c>
       <c r="F166" t="s">
-        <v>1166</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>1409</v>
+        <v>1859</v>
       </c>
       <c r="B167" t="s">
-        <v>153</v>
+        <v>1817</v>
       </c>
       <c r="C167" t="s">
-        <v>421</v>
+        <v>1860</v>
       </c>
       <c r="D167" t="s">
-        <v>683</v>
+        <v>1861</v>
       </c>
       <c r="E167" t="s">
-        <v>924</v>
+        <v>1862</v>
       </c>
       <c r="F167" t="s">
-        <v>1167</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>1410</v>
+        <v>1868</v>
       </c>
       <c r="B168" t="s">
-        <v>154</v>
+        <v>1818</v>
       </c>
       <c r="C168" t="s">
-        <v>416</v>
+        <v>1864</v>
       </c>
       <c r="D168" t="s">
-        <v>684</v>
+        <v>1865</v>
       </c>
       <c r="E168" t="s">
-        <v>925</v>
+        <v>1866</v>
       </c>
       <c r="F168" t="s">
-        <v>1168</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>1411</v>
+        <v>1874</v>
       </c>
       <c r="B169" t="s">
-        <v>155</v>
+        <v>1819</v>
       </c>
       <c r="C169" t="s">
-        <v>423</v>
+        <v>1873</v>
       </c>
       <c r="D169" t="s">
-        <v>685</v>
+        <v>1875</v>
       </c>
       <c r="E169" t="s">
-        <v>926</v>
+        <v>1876</v>
       </c>
       <c r="F169" t="s">
-        <v>422</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>1412</v>
+        <v>1882</v>
       </c>
       <c r="B170" t="s">
-        <v>156</v>
+        <v>1820</v>
       </c>
       <c r="C170" t="s">
-        <v>424</v>
+        <v>1869</v>
       </c>
       <c r="D170" t="s">
-        <v>686</v>
+        <v>1870</v>
       </c>
       <c r="E170" t="s">
-        <v>927</v>
+        <v>1871</v>
       </c>
       <c r="F170" t="s">
-        <v>1169</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>1413</v>
+        <v>1883</v>
       </c>
       <c r="B171" t="s">
-        <v>157</v>
+        <v>1821</v>
       </c>
       <c r="C171" t="s">
-        <v>425</v>
+        <v>1878</v>
       </c>
       <c r="D171" t="s">
-        <v>687</v>
+        <v>1879</v>
       </c>
       <c r="E171" t="s">
-        <v>928</v>
+        <v>1880</v>
       </c>
       <c r="F171" t="s">
-        <v>1170</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>1414</v>
+        <v>1888</v>
       </c>
       <c r="B172" t="s">
-        <v>158</v>
+        <v>1822</v>
       </c>
       <c r="C172" t="s">
-        <v>427</v>
+        <v>1886</v>
       </c>
       <c r="D172" t="s">
-        <v>688</v>
+        <v>1884</v>
       </c>
       <c r="E172" t="s">
-        <v>426</v>
+        <v>1885</v>
       </c>
       <c r="F172" t="s">
-        <v>1171</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>1415</v>
+        <v>1889</v>
       </c>
       <c r="B173" t="s">
-        <v>159</v>
+        <v>1823</v>
       </c>
       <c r="C173" t="s">
-        <v>428</v>
+        <v>1890</v>
       </c>
       <c r="D173" t="s">
-        <v>689</v>
+        <v>1891</v>
       </c>
       <c r="E173" t="s">
-        <v>929</v>
+        <v>1892</v>
       </c>
       <c r="F173" t="s">
-        <v>1172</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>1416</v>
+        <v>1386</v>
       </c>
       <c r="B174" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="C174" t="s">
-        <v>429</v>
+        <v>398</v>
       </c>
       <c r="D174" t="s">
-        <v>690</v>
+        <v>662</v>
       </c>
       <c r="E174" t="s">
-        <v>930</v>
+        <v>904</v>
       </c>
       <c r="F174" t="s">
-        <v>1173</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>1417</v>
+        <v>1697</v>
       </c>
       <c r="B175" t="s">
-        <v>161</v>
+        <v>1696</v>
       </c>
       <c r="C175" t="s">
-        <v>430</v>
+        <v>1698</v>
       </c>
       <c r="D175" t="s">
-        <v>691</v>
+        <v>1699</v>
       </c>
       <c r="E175" t="s">
-        <v>931</v>
+        <v>1700</v>
       </c>
       <c r="F175" t="s">
-        <v>1174</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>1418</v>
+        <v>1395</v>
       </c>
       <c r="B176" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C176" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="D176" t="s">
-        <v>692</v>
+        <v>677</v>
       </c>
       <c r="E176" t="s">
-        <v>932</v>
+        <v>918</v>
       </c>
       <c r="F176" t="s">
-        <v>1175</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>1419</v>
+        <v>1396</v>
       </c>
       <c r="B177" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C177" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="D177" t="s">
-        <v>693</v>
+        <v>678</v>
       </c>
       <c r="E177" t="s">
-        <v>933</v>
+        <v>919</v>
       </c>
       <c r="F177" t="s">
-        <v>1176</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>1420</v>
+        <v>1397</v>
       </c>
       <c r="B178" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="C178" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="D178" t="s">
-        <v>694</v>
+        <v>679</v>
       </c>
       <c r="E178" t="s">
-        <v>934</v>
+        <v>920</v>
       </c>
       <c r="F178" t="s">
-        <v>1177</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>1421</v>
+        <v>1398</v>
       </c>
       <c r="B179" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C179" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="D179" t="s">
-        <v>695</v>
+        <v>680</v>
       </c>
       <c r="E179" t="s">
-        <v>935</v>
+        <v>921</v>
       </c>
       <c r="F179" t="s">
-        <v>1178</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>1422</v>
+        <v>1399</v>
       </c>
       <c r="B180" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="C180" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="D180" t="s">
-        <v>1261</v>
+        <v>681</v>
       </c>
       <c r="E180" t="s">
-        <v>936</v>
+        <v>922</v>
       </c>
       <c r="F180" t="s">
-        <v>1179</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>1423</v>
+        <v>1400</v>
       </c>
       <c r="B181" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="C181" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="D181" t="s">
-        <v>696</v>
+        <v>682</v>
       </c>
       <c r="E181" t="s">
-        <v>937</v>
+        <v>923</v>
       </c>
       <c r="F181" t="s">
-        <v>1180</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>1424</v>
+        <v>1401</v>
       </c>
       <c r="B182" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="C182" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="D182" t="s">
-        <v>697</v>
+        <v>683</v>
       </c>
       <c r="E182" t="s">
-        <v>938</v>
+        <v>924</v>
       </c>
       <c r="F182" t="s">
-        <v>1181</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>1425</v>
+        <v>1402</v>
       </c>
       <c r="B183" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="C183" t="s">
-        <v>438</v>
+        <v>416</v>
       </c>
       <c r="D183" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
       <c r="E183" t="s">
-        <v>939</v>
+        <v>925</v>
       </c>
       <c r="F183" t="s">
-        <v>1182</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>1426</v>
+        <v>1403</v>
       </c>
       <c r="B184" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C184" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="D184" t="s">
-        <v>699</v>
+        <v>685</v>
       </c>
       <c r="E184" t="s">
-        <v>439</v>
+        <v>926</v>
       </c>
       <c r="F184" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>1427</v>
+        <v>1404</v>
       </c>
       <c r="B185" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C185" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="D185" t="s">
-        <v>700</v>
+        <v>686</v>
       </c>
       <c r="E185" t="s">
-        <v>441</v>
+        <v>927</v>
       </c>
       <c r="F185" t="s">
-        <v>441</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>1428</v>
+        <v>1913</v>
       </c>
       <c r="B186" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="C186" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="D186" t="s">
-        <v>701</v>
+        <v>687</v>
       </c>
       <c r="E186" t="s">
-        <v>940</v>
+        <v>928</v>
       </c>
       <c r="F186" t="s">
-        <v>1183</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>1429</v>
+        <v>1908</v>
       </c>
       <c r="B187" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="C187" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="D187" t="s">
-        <v>702</v>
+        <v>688</v>
       </c>
       <c r="E187" t="s">
-        <v>941</v>
+        <v>426</v>
       </c>
       <c r="F187" t="s">
-        <v>444</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>1430</v>
+        <v>1405</v>
       </c>
       <c r="B188" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="C188" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="D188" t="s">
-        <v>703</v>
+        <v>689</v>
       </c>
       <c r="E188" t="s">
-        <v>942</v>
+        <v>929</v>
       </c>
       <c r="F188" t="s">
-        <v>1184</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>1431</v>
+        <v>1911</v>
       </c>
       <c r="B189" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="C189" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="D189" t="s">
-        <v>704</v>
+        <v>690</v>
       </c>
       <c r="E189" t="s">
-        <v>943</v>
+        <v>930</v>
       </c>
       <c r="F189" t="s">
-        <v>1185</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>1432</v>
+        <v>1406</v>
       </c>
       <c r="B190" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="C190" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="D190" t="s">
-        <v>705</v>
+        <v>691</v>
       </c>
       <c r="E190" t="s">
-        <v>448</v>
+        <v>931</v>
       </c>
       <c r="F190" t="s">
-        <v>448</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>1433</v>
+        <v>1917</v>
       </c>
       <c r="B191" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="C191" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="D191" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="E191" t="s">
-        <v>944</v>
+        <v>932</v>
       </c>
       <c r="F191" t="s">
-        <v>1186</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>1434</v>
+        <v>1407</v>
       </c>
       <c r="B192" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="C192" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="D192" t="s">
-        <v>707</v>
+        <v>693</v>
       </c>
       <c r="E192" t="s">
-        <v>945</v>
+        <v>933</v>
       </c>
       <c r="F192" t="s">
-        <v>1187</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>1435</v>
+        <v>1408</v>
       </c>
       <c r="B193" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="C193" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="D193" t="s">
-        <v>708</v>
+        <v>694</v>
       </c>
       <c r="E193" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="F193" t="s">
-        <v>1188</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>1453</v>
+        <v>1409</v>
       </c>
       <c r="B194" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="C194" t="s">
-        <v>783</v>
+        <v>434</v>
       </c>
       <c r="D194" t="s">
-        <v>709</v>
+        <v>695</v>
       </c>
       <c r="E194" t="s">
-        <v>947</v>
+        <v>935</v>
       </c>
       <c r="F194" t="s">
-        <v>1189</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>1436</v>
+        <v>1410</v>
       </c>
       <c r="B195" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="C195" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="D195" t="s">
-        <v>710</v>
+        <v>1261</v>
       </c>
       <c r="E195" t="s">
-        <v>948</v>
+        <v>936</v>
       </c>
       <c r="F195" t="s">
-        <v>1065</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>1437</v>
+        <v>1411</v>
       </c>
       <c r="B196" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="C196" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="D196" t="s">
-        <v>711</v>
+        <v>696</v>
       </c>
       <c r="E196" t="s">
-        <v>949</v>
+        <v>937</v>
       </c>
       <c r="F196" t="s">
-        <v>1190</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>1438</v>
+        <v>1412</v>
       </c>
       <c r="B197" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="C197" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="D197" t="s">
-        <v>712</v>
+        <v>697</v>
       </c>
       <c r="E197" t="s">
-        <v>950</v>
+        <v>938</v>
       </c>
       <c r="F197" t="s">
-        <v>1191</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>1439</v>
+        <v>1413</v>
       </c>
       <c r="B198" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="C198" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="D198" t="s">
-        <v>713</v>
+        <v>698</v>
       </c>
       <c r="E198" t="s">
-        <v>951</v>
+        <v>939</v>
       </c>
       <c r="F198" t="s">
-        <v>1192</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>1440</v>
+        <v>1414</v>
       </c>
       <c r="B199" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="C199" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="D199" t="s">
-        <v>714</v>
+        <v>699</v>
       </c>
       <c r="E199" t="s">
-        <v>952</v>
+        <v>439</v>
       </c>
       <c r="F199" t="s">
-        <v>1193</v>
+        <v>439</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>1441</v>
+        <v>1415</v>
       </c>
       <c r="B200" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="C200" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="D200" t="s">
-        <v>715</v>
+        <v>700</v>
       </c>
       <c r="E200" t="s">
-        <v>953</v>
+        <v>441</v>
       </c>
       <c r="F200" t="s">
-        <v>1194</v>
+        <v>441</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>1442</v>
+        <v>1416</v>
       </c>
       <c r="B201" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="C201" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="D201" t="s">
-        <v>716</v>
+        <v>701</v>
       </c>
       <c r="E201" t="s">
-        <v>954</v>
+        <v>940</v>
       </c>
       <c r="F201" t="s">
-        <v>1195</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>1443</v>
+        <v>1417</v>
       </c>
       <c r="B202" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="C202" t="s">
-        <v>1454</v>
+        <v>445</v>
       </c>
       <c r="D202" t="s">
-        <v>1455</v>
+        <v>702</v>
       </c>
       <c r="E202" t="s">
-        <v>1456</v>
+        <v>941</v>
       </c>
       <c r="F202" t="s">
-        <v>1457</v>
+        <v>444</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>1444</v>
+        <v>1418</v>
       </c>
       <c r="B203" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="C203" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="D203" t="s">
-        <v>717</v>
+        <v>703</v>
       </c>
       <c r="E203" t="s">
-        <v>955</v>
+        <v>942</v>
       </c>
       <c r="F203" t="s">
-        <v>1196</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>1559</v>
+        <v>1419</v>
       </c>
       <c r="B204" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="C204" t="s">
-        <v>499</v>
+        <v>447</v>
       </c>
       <c r="D204" t="s">
-        <v>718</v>
+        <v>704</v>
       </c>
       <c r="E204" t="s">
-        <v>956</v>
+        <v>943</v>
       </c>
       <c r="F204" t="s">
-        <v>1197</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>1458</v>
+        <v>1420</v>
       </c>
       <c r="B205" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="C205" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D205" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="E205" t="s">
-        <v>957</v>
+        <v>448</v>
       </c>
       <c r="F205" t="s">
-        <v>1198</v>
+        <v>448</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>1459</v>
+        <v>1421</v>
       </c>
       <c r="B206" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="C206" t="s">
-        <v>501</v>
+        <v>450</v>
       </c>
       <c r="D206" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
       <c r="E206" t="s">
-        <v>958</v>
+        <v>944</v>
       </c>
       <c r="F206" t="s">
-        <v>500</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>1460</v>
+        <v>1422</v>
       </c>
       <c r="B207" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="C207" t="s">
-        <v>502</v>
+        <v>451</v>
       </c>
       <c r="D207" t="s">
-        <v>721</v>
+        <v>707</v>
       </c>
       <c r="E207" t="s">
-        <v>959</v>
+        <v>945</v>
       </c>
       <c r="F207" t="s">
-        <v>1199</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>1461</v>
+        <v>1423</v>
       </c>
       <c r="B208" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="C208" t="s">
-        <v>504</v>
+        <v>452</v>
       </c>
       <c r="D208" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="E208" t="s">
-        <v>503</v>
+        <v>946</v>
       </c>
       <c r="F208" t="s">
-        <v>1200</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>1757</v>
+        <v>1441</v>
       </c>
       <c r="B209" t="s">
-        <v>1758</v>
+        <v>180</v>
       </c>
       <c r="C209" t="s">
-        <v>1759</v>
+        <v>783</v>
       </c>
       <c r="D209" t="s">
-        <v>1760</v>
+        <v>709</v>
       </c>
       <c r="E209" t="s">
-        <v>1761</v>
+        <v>947</v>
       </c>
       <c r="F209" t="s">
-        <v>1762</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>1763</v>
+        <v>1424</v>
       </c>
       <c r="B210" t="s">
-        <v>1764</v>
+        <v>181</v>
       </c>
       <c r="C210" t="s">
-        <v>1768</v>
+        <v>453</v>
       </c>
       <c r="D210" t="s">
-        <v>1771</v>
+        <v>710</v>
       </c>
       <c r="E210" t="s">
-        <v>1770</v>
+        <v>948</v>
       </c>
       <c r="F210" t="s">
-        <v>1769</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>1765</v>
+        <v>1425</v>
       </c>
       <c r="B211" t="s">
-        <v>1766</v>
+        <v>182</v>
       </c>
       <c r="C211" t="s">
-        <v>1767</v>
+        <v>454</v>
       </c>
       <c r="D211" t="s">
-        <v>1772</v>
+        <v>711</v>
       </c>
       <c r="E211" t="s">
-        <v>1773</v>
+        <v>949</v>
       </c>
       <c r="F211" t="s">
-        <v>1774</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>1779</v>
+        <v>1426</v>
       </c>
       <c r="B212" t="s">
-        <v>1781</v>
+        <v>183</v>
       </c>
       <c r="C212" t="s">
-        <v>1780</v>
+        <v>455</v>
       </c>
       <c r="D212" t="s">
-        <v>1782</v>
+        <v>712</v>
       </c>
       <c r="E212" t="s">
-        <v>1783</v>
+        <v>950</v>
       </c>
       <c r="F212" t="s">
-        <v>1778</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>1784</v>
+        <v>1427</v>
       </c>
       <c r="B213" t="s">
-        <v>1775</v>
+        <v>184</v>
       </c>
       <c r="C213" t="s">
-        <v>1785</v>
+        <v>456</v>
       </c>
       <c r="D213" t="s">
-        <v>1776</v>
+        <v>713</v>
       </c>
       <c r="E213" t="s">
-        <v>1777</v>
+        <v>951</v>
       </c>
       <c r="F213" t="s">
-        <v>1778</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>1786</v>
+        <v>1428</v>
       </c>
       <c r="B214" t="s">
-        <v>1787</v>
+        <v>185</v>
       </c>
       <c r="C214" t="s">
-        <v>1786</v>
+        <v>457</v>
       </c>
       <c r="D214" t="s">
-        <v>1788</v>
+        <v>714</v>
       </c>
       <c r="E214" t="s">
-        <v>1789</v>
+        <v>952</v>
       </c>
       <c r="F214" t="s">
-        <v>1790</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>1791</v>
+        <v>1429</v>
       </c>
       <c r="B215" t="s">
-        <v>1792</v>
+        <v>186</v>
       </c>
       <c r="C215" t="s">
-        <v>1793</v>
+        <v>458</v>
       </c>
       <c r="D215" t="s">
-        <v>1794</v>
+        <v>715</v>
       </c>
       <c r="E215" t="s">
-        <v>1795</v>
+        <v>953</v>
       </c>
       <c r="F215" t="s">
-        <v>1796</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>1462</v>
+        <v>1430</v>
       </c>
       <c r="B216" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C216" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D216" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="E216" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="F216" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>1463</v>
+        <v>1431</v>
       </c>
       <c r="B217" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C217" t="s">
-        <v>505</v>
+        <v>1442</v>
       </c>
       <c r="D217" t="s">
-        <v>724</v>
+        <v>1443</v>
       </c>
       <c r="E217" t="s">
-        <v>961</v>
+        <v>1444</v>
       </c>
       <c r="F217" t="s">
-        <v>1202</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>1464</v>
+        <v>1432</v>
       </c>
       <c r="B218" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C218" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D218" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="E218" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
       <c r="F218" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>1465</v>
+        <v>1547</v>
       </c>
       <c r="B219" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C219" t="s">
-        <v>464</v>
+        <v>499</v>
       </c>
       <c r="D219" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="E219" t="s">
-        <v>963</v>
+        <v>956</v>
       </c>
       <c r="F219" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>1466</v>
+        <v>1446</v>
       </c>
       <c r="B220" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C220" t="s">
-        <v>509</v>
+        <v>461</v>
       </c>
       <c r="D220" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="E220" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="F220" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>1467</v>
+        <v>1447</v>
       </c>
       <c r="B221" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C221" t="s">
-        <v>465</v>
+        <v>501</v>
       </c>
       <c r="D221" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="E221" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="F221" t="s">
-        <v>1206</v>
+        <v>500</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>1468</v>
+        <v>1448</v>
       </c>
       <c r="B222" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C222" t="s">
-        <v>466</v>
+        <v>502</v>
       </c>
       <c r="D222" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="E222" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
       <c r="F222" t="s">
-        <v>1207</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>1469</v>
+        <v>1449</v>
       </c>
       <c r="B223" t="s">
-        <v>1634</v>
+        <v>194</v>
       </c>
       <c r="C223" t="s">
-        <v>1635</v>
+        <v>504</v>
       </c>
       <c r="D223" t="s">
-        <v>1636</v>
+        <v>722</v>
       </c>
       <c r="E223" t="s">
-        <v>1637</v>
+        <v>503</v>
       </c>
       <c r="F223" t="s">
-        <v>1638</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>1470</v>
+        <v>1744</v>
       </c>
       <c r="B224" t="s">
-        <v>202</v>
+        <v>1745</v>
       </c>
       <c r="C224" t="s">
-        <v>467</v>
+        <v>1746</v>
       </c>
       <c r="D224" t="s">
-        <v>730</v>
+        <v>1747</v>
       </c>
       <c r="E224" t="s">
-        <v>967</v>
+        <v>1748</v>
       </c>
       <c r="F224" t="s">
-        <v>1208</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>1471</v>
+        <v>1750</v>
       </c>
       <c r="B225" t="s">
-        <v>203</v>
+        <v>1751</v>
       </c>
       <c r="C225" t="s">
-        <v>468</v>
+        <v>1755</v>
       </c>
       <c r="D225" t="s">
-        <v>731</v>
+        <v>1758</v>
       </c>
       <c r="E225" t="s">
-        <v>968</v>
+        <v>1757</v>
       </c>
       <c r="F225" t="s">
-        <v>1209</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>1472</v>
+        <v>1752</v>
       </c>
       <c r="B226" t="s">
-        <v>204</v>
+        <v>1753</v>
       </c>
       <c r="C226" t="s">
-        <v>524</v>
+        <v>1754</v>
       </c>
       <c r="D226" t="s">
-        <v>732</v>
+        <v>1759</v>
       </c>
       <c r="E226" t="s">
-        <v>969</v>
+        <v>1760</v>
       </c>
       <c r="F226" t="s">
-        <v>1210</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>1473</v>
+        <v>1766</v>
       </c>
       <c r="B227" t="s">
-        <v>1629</v>
+        <v>1768</v>
       </c>
       <c r="C227" t="s">
-        <v>1630</v>
+        <v>1767</v>
       </c>
       <c r="D227" t="s">
-        <v>1631</v>
+        <v>1769</v>
       </c>
       <c r="E227" t="s">
-        <v>1632</v>
+        <v>1770</v>
       </c>
       <c r="F227" t="s">
-        <v>1633</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>1474</v>
+        <v>1771</v>
       </c>
       <c r="B228" t="s">
-        <v>205</v>
+        <v>1762</v>
       </c>
       <c r="C228" t="s">
-        <v>469</v>
+        <v>1772</v>
       </c>
       <c r="D228" t="s">
-        <v>733</v>
+        <v>1763</v>
       </c>
       <c r="E228" t="s">
-        <v>970</v>
+        <v>1764</v>
       </c>
       <c r="F228" t="s">
-        <v>1211</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>1475</v>
+        <v>1773</v>
       </c>
       <c r="B229" t="s">
-        <v>206</v>
+        <v>1774</v>
       </c>
       <c r="C229" t="s">
-        <v>470</v>
+        <v>1773</v>
       </c>
       <c r="D229" t="s">
-        <v>734</v>
+        <v>1775</v>
       </c>
       <c r="E229" t="s">
-        <v>971</v>
+        <v>1776</v>
       </c>
       <c r="F229" t="s">
-        <v>1212</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>1476</v>
+        <v>1778</v>
       </c>
       <c r="B230" t="s">
-        <v>207</v>
+        <v>1779</v>
       </c>
       <c r="C230" t="s">
-        <v>506</v>
+        <v>1780</v>
       </c>
       <c r="D230" t="s">
-        <v>735</v>
+        <v>1781</v>
       </c>
       <c r="E230" t="s">
-        <v>972</v>
+        <v>1782</v>
       </c>
       <c r="F230" t="s">
-        <v>1213</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>1477</v>
+        <v>1450</v>
       </c>
       <c r="B231" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="C231" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="D231" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
       <c r="E231" t="s">
-        <v>973</v>
+        <v>960</v>
       </c>
       <c r="F231" t="s">
-        <v>1214</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>1478</v>
+        <v>1451</v>
       </c>
       <c r="B232" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="C232" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="D232" t="s">
-        <v>737</v>
+        <v>724</v>
       </c>
       <c r="E232" t="s">
-        <v>974</v>
+        <v>961</v>
       </c>
       <c r="F232" t="s">
-        <v>1215</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>1479</v>
+        <v>1452</v>
       </c>
       <c r="B233" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="C233" t="s">
-        <v>784</v>
+        <v>463</v>
       </c>
       <c r="D233" t="s">
-        <v>786</v>
+        <v>725</v>
       </c>
       <c r="E233" t="s">
-        <v>975</v>
+        <v>962</v>
       </c>
       <c r="F233" t="s">
-        <v>1216</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>1480</v>
+        <v>1453</v>
       </c>
       <c r="B234" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="C234" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="D234" t="s">
-        <v>738</v>
+        <v>726</v>
       </c>
       <c r="E234" t="s">
-        <v>976</v>
+        <v>963</v>
       </c>
       <c r="F234" t="s">
-        <v>1217</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>1481</v>
+        <v>1454</v>
       </c>
       <c r="B235" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="C235" t="s">
-        <v>785</v>
+        <v>509</v>
       </c>
       <c r="D235" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
       <c r="E235" t="s">
-        <v>977</v>
+        <v>964</v>
       </c>
       <c r="F235" t="s">
-        <v>1218</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>1482</v>
+        <v>1455</v>
       </c>
       <c r="B236" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C236" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="D236" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
       <c r="E236" t="s">
-        <v>978</v>
+        <v>965</v>
       </c>
       <c r="F236" t="s">
-        <v>1219</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>1483</v>
+        <v>1456</v>
       </c>
       <c r="B237" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C237" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="D237" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
       <c r="E237" t="s">
-        <v>979</v>
+        <v>966</v>
       </c>
       <c r="F237" t="s">
-        <v>1220</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>1484</v>
+        <v>1799</v>
       </c>
       <c r="B238" t="s">
-        <v>211</v>
+        <v>1797</v>
       </c>
       <c r="C238" t="s">
-        <v>476</v>
+        <v>1798</v>
       </c>
       <c r="D238" t="s">
-        <v>742</v>
+        <v>1800</v>
       </c>
       <c r="E238" t="s">
-        <v>980</v>
+        <v>1801</v>
       </c>
       <c r="F238" t="s">
-        <v>1221</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>1485</v>
+        <v>1457</v>
       </c>
       <c r="B239" t="s">
-        <v>212</v>
+        <v>1622</v>
       </c>
       <c r="C239" t="s">
-        <v>477</v>
+        <v>1623</v>
       </c>
       <c r="D239" t="s">
-        <v>743</v>
+        <v>1624</v>
       </c>
       <c r="E239" t="s">
-        <v>981</v>
+        <v>1625</v>
       </c>
       <c r="F239" t="s">
-        <v>1222</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>1486</v>
+        <v>1458</v>
       </c>
       <c r="B240" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C240" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="D240" t="s">
-        <v>744</v>
+        <v>730</v>
       </c>
       <c r="E240" t="s">
-        <v>982</v>
+        <v>967</v>
       </c>
       <c r="F240" t="s">
-        <v>1223</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>1640</v>
+        <v>1459</v>
       </c>
       <c r="B241" t="s">
-        <v>1639</v>
+        <v>203</v>
       </c>
       <c r="C241" t="s">
-        <v>1641</v>
+        <v>468</v>
       </c>
       <c r="D241" t="s">
-        <v>1642</v>
+        <v>731</v>
       </c>
       <c r="E241" t="s">
-        <v>1643</v>
+        <v>968</v>
       </c>
       <c r="F241" t="s">
-        <v>1644</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>1487</v>
+        <v>1460</v>
       </c>
       <c r="B242" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C242" t="s">
-        <v>508</v>
+        <v>524</v>
       </c>
       <c r="D242" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="E242" t="s">
-        <v>983</v>
+        <v>969</v>
       </c>
       <c r="F242" t="s">
-        <v>1224</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>1488</v>
+        <v>1461</v>
       </c>
       <c r="B243" t="s">
-        <v>215</v>
+        <v>1617</v>
       </c>
       <c r="C243" t="s">
-        <v>479</v>
+        <v>1618</v>
       </c>
       <c r="D243" t="s">
-        <v>746</v>
+        <v>1619</v>
       </c>
       <c r="E243" t="s">
-        <v>984</v>
+        <v>1620</v>
       </c>
       <c r="F243" t="s">
-        <v>1225</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>1489</v>
+        <v>1462</v>
       </c>
       <c r="B244" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="C244" t="s">
-        <v>522</v>
+        <v>469</v>
       </c>
       <c r="D244" t="s">
-        <v>747</v>
+        <v>733</v>
       </c>
       <c r="E244" t="s">
-        <v>985</v>
+        <v>970</v>
       </c>
       <c r="F244" t="s">
-        <v>1226</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>1490</v>
+        <v>1463</v>
       </c>
       <c r="B245" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C245" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="D245" t="s">
-        <v>748</v>
+        <v>734</v>
       </c>
       <c r="E245" t="s">
-        <v>986</v>
+        <v>971</v>
       </c>
       <c r="F245" t="s">
-        <v>1227</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>1491</v>
+        <v>1464</v>
       </c>
       <c r="B246" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C246" t="s">
-        <v>481</v>
+        <v>506</v>
       </c>
       <c r="D246" t="s">
-        <v>749</v>
+        <v>735</v>
       </c>
       <c r="E246" t="s">
-        <v>987</v>
+        <v>972</v>
       </c>
       <c r="F246" t="s">
-        <v>1228</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>1492</v>
+        <v>1465</v>
       </c>
       <c r="B247" t="s">
-        <v>24</v>
+        <v>208</v>
       </c>
       <c r="C247" t="s">
-        <v>521</v>
+        <v>471</v>
       </c>
       <c r="D247" t="s">
-        <v>750</v>
+        <v>736</v>
       </c>
       <c r="E247" t="s">
-        <v>988</v>
+        <v>973</v>
       </c>
       <c r="F247" t="s">
-        <v>1229</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>1493</v>
+        <v>1466</v>
       </c>
       <c r="B248" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="C248" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="D248" t="s">
-        <v>751</v>
+        <v>737</v>
       </c>
       <c r="E248" t="s">
-        <v>989</v>
+        <v>974</v>
       </c>
       <c r="F248" t="s">
-        <v>1230</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>1622</v>
+        <v>1467</v>
       </c>
       <c r="B249" t="s">
-        <v>1621</v>
+        <v>227</v>
       </c>
       <c r="C249" t="s">
-        <v>1623</v>
+        <v>784</v>
       </c>
       <c r="D249" t="s">
-        <v>1624</v>
+        <v>786</v>
       </c>
       <c r="E249" t="s">
-        <v>1625</v>
+        <v>975</v>
       </c>
       <c r="F249" t="s">
-        <v>1626</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>1494</v>
+        <v>1468</v>
       </c>
       <c r="B250" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C250" t="s">
-        <v>523</v>
+        <v>473</v>
       </c>
       <c r="D250" t="s">
-        <v>752</v>
+        <v>738</v>
       </c>
       <c r="E250" t="s">
-        <v>990</v>
+        <v>976</v>
       </c>
       <c r="F250" t="s">
-        <v>1231</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>1495</v>
+        <v>1469</v>
       </c>
       <c r="B251" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C251" t="s">
-        <v>507</v>
+        <v>785</v>
       </c>
       <c r="D251" t="s">
-        <v>753</v>
+        <v>739</v>
       </c>
       <c r="E251" t="s">
-        <v>991</v>
+        <v>977</v>
       </c>
       <c r="F251" t="s">
-        <v>1232</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>1527</v>
+        <v>1470</v>
       </c>
       <c r="B252" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="C252" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="D252" t="s">
-        <v>754</v>
+        <v>740</v>
       </c>
       <c r="E252" t="s">
-        <v>992</v>
+        <v>978</v>
       </c>
       <c r="F252" t="s">
-        <v>1233</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>1497</v>
+        <v>1471</v>
       </c>
       <c r="B253" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C253" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="D253" t="s">
-        <v>755</v>
+        <v>741</v>
       </c>
       <c r="E253" t="s">
-        <v>993</v>
+        <v>979</v>
       </c>
       <c r="F253" t="s">
-        <v>1234</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>1498</v>
+        <v>1472</v>
       </c>
       <c r="B254" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="C254" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="D254" t="s">
-        <v>756</v>
+        <v>742</v>
       </c>
       <c r="E254" t="s">
-        <v>994</v>
+        <v>980</v>
       </c>
       <c r="F254" t="s">
-        <v>1235</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>1501</v>
+        <v>1473</v>
       </c>
       <c r="B255" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="C255" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="D255" t="s">
-        <v>757</v>
+        <v>743</v>
       </c>
       <c r="E255" t="s">
-        <v>995</v>
+        <v>981</v>
       </c>
       <c r="F255" t="s">
-        <v>1236</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>1499</v>
+        <v>1474</v>
       </c>
       <c r="B256" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="C256" t="s">
-        <v>510</v>
+        <v>478</v>
       </c>
       <c r="D256" t="s">
-        <v>758</v>
+        <v>744</v>
       </c>
       <c r="E256" t="s">
-        <v>996</v>
+        <v>982</v>
       </c>
       <c r="F256" t="s">
-        <v>1237</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>1500</v>
+        <v>1628</v>
       </c>
       <c r="B257" t="s">
-        <v>231</v>
+        <v>1627</v>
       </c>
       <c r="C257" t="s">
-        <v>511</v>
+        <v>1629</v>
       </c>
       <c r="D257" t="s">
-        <v>759</v>
+        <v>1630</v>
       </c>
       <c r="E257" t="s">
-        <v>997</v>
+        <v>1631</v>
       </c>
       <c r="F257" t="s">
-        <v>1238</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>1503</v>
+        <v>1475</v>
       </c>
       <c r="B258" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="C258" t="s">
-        <v>487</v>
+        <v>508</v>
       </c>
       <c r="D258" t="s">
-        <v>760</v>
+        <v>745</v>
       </c>
       <c r="E258" t="s">
-        <v>998</v>
+        <v>983</v>
       </c>
       <c r="F258" t="s">
-        <v>1239</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>1505</v>
+        <v>1476</v>
       </c>
       <c r="B259" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="C259" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="D259" t="s">
-        <v>761</v>
+        <v>746</v>
       </c>
       <c r="E259" t="s">
-        <v>999</v>
+        <v>984</v>
       </c>
       <c r="F259" t="s">
-        <v>1240</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>1506</v>
+        <v>1477</v>
       </c>
       <c r="B260" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="C260" t="s">
-        <v>489</v>
+        <v>522</v>
       </c>
       <c r="D260" t="s">
-        <v>762</v>
+        <v>747</v>
       </c>
       <c r="E260" t="s">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="F260" t="s">
-        <v>1241</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>1507</v>
+        <v>1478</v>
       </c>
       <c r="B261" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="C261" t="s">
-        <v>1536</v>
+        <v>480</v>
       </c>
       <c r="D261" t="s">
-        <v>763</v>
+        <v>748</v>
       </c>
       <c r="E261" t="s">
-        <v>1537</v>
+        <v>986</v>
       </c>
       <c r="F261" t="s">
-        <v>1242</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>1627</v>
+        <v>1479</v>
       </c>
       <c r="B262" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="C262" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="D262" t="s">
-        <v>764</v>
+        <v>749</v>
       </c>
       <c r="E262" t="s">
-        <v>1001</v>
+        <v>987</v>
       </c>
       <c r="F262" t="s">
-        <v>1243</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>1508</v>
+        <v>1480</v>
       </c>
       <c r="B263" t="s">
-        <v>237</v>
+        <v>24</v>
       </c>
       <c r="C263" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="D263" t="s">
-        <v>765</v>
+        <v>750</v>
       </c>
       <c r="E263" t="s">
-        <v>1002</v>
+        <v>988</v>
       </c>
       <c r="F263" t="s">
-        <v>1244</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>1504</v>
+        <v>1481</v>
       </c>
       <c r="B264" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="C264" t="s">
-        <v>513</v>
+        <v>482</v>
       </c>
       <c r="D264" t="s">
-        <v>766</v>
+        <v>751</v>
       </c>
       <c r="E264" t="s">
-        <v>1003</v>
+        <v>989</v>
       </c>
       <c r="F264" t="s">
-        <v>1245</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>1647</v>
+        <v>1610</v>
       </c>
       <c r="B265" t="s">
-        <v>1645</v>
+        <v>1609</v>
       </c>
       <c r="C265" t="s">
-        <v>1646</v>
+        <v>1611</v>
       </c>
       <c r="D265" t="s">
-        <v>1648</v>
+        <v>1612</v>
       </c>
       <c r="E265" t="s">
-        <v>1649</v>
+        <v>1613</v>
       </c>
       <c r="F265" t="s">
-        <v>1650</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>1496</v>
+        <v>1482</v>
       </c>
       <c r="B266" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="C266" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="D266" t="s">
-        <v>767</v>
+        <v>752</v>
       </c>
       <c r="E266" t="s">
-        <v>1004</v>
+        <v>990</v>
       </c>
       <c r="F266" t="s">
-        <v>1246</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>1509</v>
+        <v>1483</v>
       </c>
       <c r="B267" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="C267" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="D267" t="s">
-        <v>768</v>
+        <v>753</v>
       </c>
       <c r="E267" t="s">
-        <v>1005</v>
+        <v>991</v>
       </c>
       <c r="F267" t="s">
-        <v>1247</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>1510</v>
+        <v>1515</v>
       </c>
       <c r="B268" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="C268" t="s">
-        <v>516</v>
+        <v>483</v>
       </c>
       <c r="D268" t="s">
-        <v>769</v>
+        <v>754</v>
       </c>
       <c r="E268" t="s">
-        <v>1006</v>
+        <v>992</v>
       </c>
       <c r="F268" t="s">
-        <v>1248</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>1511</v>
+        <v>1485</v>
       </c>
       <c r="B269" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="C269" t="s">
-        <v>1512</v>
+        <v>484</v>
       </c>
       <c r="D269" t="s">
-        <v>1513</v>
+        <v>755</v>
       </c>
       <c r="E269" t="s">
-        <v>1514</v>
+        <v>993</v>
       </c>
       <c r="F269" t="s">
-        <v>1515</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>1518</v>
+        <v>1486</v>
       </c>
       <c r="B270" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="C270" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="D270" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="E270" t="s">
-        <v>1007</v>
+        <v>994</v>
       </c>
       <c r="F270" t="s">
-        <v>1249</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>1516</v>
+        <v>1489</v>
       </c>
       <c r="B271" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="C271" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D271" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="E271" t="s">
-        <v>1008</v>
+        <v>995</v>
       </c>
       <c r="F271" t="s">
-        <v>1250</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>1517</v>
+        <v>1487</v>
       </c>
       <c r="B272" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="C272" t="s">
-        <v>493</v>
+        <v>510</v>
       </c>
       <c r="D272" t="s">
-        <v>772</v>
+        <v>758</v>
       </c>
       <c r="E272" t="s">
-        <v>1009</v>
+        <v>996</v>
       </c>
       <c r="F272" t="s">
-        <v>1251</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>1651</v>
+        <v>1488</v>
       </c>
       <c r="B273" t="s">
-        <v>1653</v>
+        <v>231</v>
       </c>
       <c r="C273" t="s">
-        <v>1652</v>
+        <v>511</v>
       </c>
       <c r="D273" t="s">
-        <v>1654</v>
+        <v>759</v>
       </c>
       <c r="E273" t="s">
-        <v>1655</v>
+        <v>997</v>
       </c>
       <c r="F273" t="s">
-        <v>1656</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>1519</v>
+        <v>1491</v>
       </c>
       <c r="B274" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="C274" t="s">
-        <v>517</v>
+        <v>487</v>
       </c>
       <c r="D274" t="s">
-        <v>773</v>
+        <v>760</v>
       </c>
       <c r="E274" t="s">
-        <v>1010</v>
+        <v>998</v>
       </c>
       <c r="F274" t="s">
-        <v>1252</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>1520</v>
+        <v>1493</v>
       </c>
       <c r="B275" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="C275" t="s">
-        <v>518</v>
+        <v>488</v>
       </c>
       <c r="D275" t="s">
-        <v>774</v>
+        <v>761</v>
       </c>
       <c r="E275" t="s">
-        <v>1011</v>
+        <v>999</v>
       </c>
       <c r="F275" t="s">
-        <v>1253</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>1521</v>
+        <v>1494</v>
       </c>
       <c r="B276" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="C276" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="D276" t="s">
-        <v>775</v>
+        <v>762</v>
       </c>
       <c r="E276" t="s">
-        <v>1012</v>
+        <v>1000</v>
       </c>
       <c r="F276" t="s">
-        <v>1254</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>1522</v>
+        <v>1495</v>
       </c>
       <c r="B277" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="C277" t="s">
-        <v>519</v>
+        <v>1524</v>
       </c>
       <c r="D277" t="s">
-        <v>776</v>
+        <v>763</v>
       </c>
       <c r="E277" t="s">
-        <v>1013</v>
+        <v>1525</v>
       </c>
       <c r="F277" t="s">
-        <v>1255</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>1523</v>
+        <v>1615</v>
       </c>
       <c r="B278" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="C278" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="D278" t="s">
-        <v>777</v>
+        <v>764</v>
       </c>
       <c r="E278" t="s">
-        <v>1014</v>
+        <v>1001</v>
       </c>
       <c r="F278" t="s">
-        <v>1256</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>1524</v>
+        <v>1496</v>
       </c>
       <c r="B279" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="C279" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
       <c r="D279" t="s">
-        <v>778</v>
+        <v>765</v>
       </c>
       <c r="E279" t="s">
-        <v>1015</v>
+        <v>1002</v>
       </c>
       <c r="F279" t="s">
-        <v>1257</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>1502</v>
+        <v>1492</v>
       </c>
       <c r="B280" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="C280" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="D280" t="s">
-        <v>779</v>
+        <v>766</v>
       </c>
       <c r="E280" t="s">
-        <v>1016</v>
+        <v>1003</v>
       </c>
       <c r="F280" t="s">
-        <v>1258</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>1525</v>
+        <v>1635</v>
       </c>
       <c r="B281" t="s">
-        <v>253</v>
+        <v>1633</v>
       </c>
       <c r="C281" t="s">
-        <v>498</v>
+        <v>1634</v>
       </c>
       <c r="D281" t="s">
-        <v>780</v>
+        <v>1636</v>
       </c>
       <c r="E281" t="s">
-        <v>1017</v>
+        <v>1637</v>
       </c>
       <c r="F281" t="s">
-        <v>1259</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>1526</v>
+        <v>1484</v>
       </c>
       <c r="B282" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="C282" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="D282" t="s">
-        <v>781</v>
+        <v>767</v>
       </c>
       <c r="E282" t="s">
-        <v>1018</v>
+        <v>1004</v>
       </c>
       <c r="F282" t="s">
-        <v>1260</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>1676</v>
+        <v>1497</v>
       </c>
       <c r="B283" t="s">
-        <v>1671</v>
+        <v>240</v>
       </c>
       <c r="C283" t="s">
-        <v>1672</v>
+        <v>515</v>
       </c>
       <c r="D283" t="s">
-        <v>1673</v>
+        <v>768</v>
       </c>
       <c r="E283" t="s">
-        <v>1674</v>
+        <v>1005</v>
       </c>
       <c r="F283" t="s">
-        <v>1675</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>1682</v>
+        <v>1498</v>
       </c>
       <c r="B284" t="s">
-        <v>1677</v>
+        <v>241</v>
       </c>
       <c r="C284" t="s">
-        <v>1678</v>
+        <v>516</v>
       </c>
       <c r="D284" t="s">
-        <v>1679</v>
+        <v>769</v>
       </c>
       <c r="E284" t="s">
-        <v>1680</v>
+        <v>1006</v>
       </c>
       <c r="F284" t="s">
-        <v>1681</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>1688</v>
+        <v>1499</v>
       </c>
       <c r="B285" t="s">
-        <v>1683</v>
+        <v>242</v>
       </c>
       <c r="C285" t="s">
-        <v>1684</v>
+        <v>1500</v>
       </c>
       <c r="D285" t="s">
-        <v>1685</v>
+        <v>1501</v>
       </c>
       <c r="E285" t="s">
-        <v>1686</v>
+        <v>1502</v>
       </c>
       <c r="F285" t="s">
-        <v>1687</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>1716</v>
+        <v>1506</v>
       </c>
       <c r="B286" t="s">
-        <v>1714</v>
+        <v>243</v>
       </c>
       <c r="C286" t="s">
-        <v>1718</v>
+        <v>491</v>
       </c>
       <c r="D286" t="s">
-        <v>1719</v>
+        <v>770</v>
       </c>
       <c r="E286" t="s">
-        <v>1720</v>
+        <v>1007</v>
       </c>
       <c r="F286" t="s">
-        <v>1721</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>1717</v>
+        <v>1504</v>
       </c>
       <c r="B287" t="s">
-        <v>1715</v>
+        <v>244</v>
       </c>
       <c r="C287" t="s">
-        <v>1722</v>
+        <v>492</v>
       </c>
       <c r="D287" t="s">
-        <v>1723</v>
+        <v>771</v>
       </c>
       <c r="E287" t="s">
-        <v>1724</v>
+        <v>1008</v>
       </c>
       <c r="F287" t="s">
-        <v>1725</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>1692</v>
+        <v>1505</v>
       </c>
       <c r="B288" t="s">
-        <v>1689</v>
+        <v>245</v>
       </c>
       <c r="C288" t="s">
-        <v>1691</v>
+        <v>493</v>
       </c>
       <c r="D288" t="s">
-        <v>1693</v>
+        <v>772</v>
       </c>
       <c r="E288" t="s">
-        <v>1694</v>
+        <v>1009</v>
       </c>
       <c r="F288" t="s">
-        <v>1695</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>1697</v>
+        <v>1639</v>
       </c>
       <c r="B289" t="s">
-        <v>1690</v>
+        <v>1641</v>
       </c>
       <c r="C289" t="s">
-        <v>1696</v>
+        <v>1640</v>
       </c>
       <c r="D289" t="s">
-        <v>1698</v>
+        <v>1642</v>
       </c>
       <c r="E289" t="s">
-        <v>1699</v>
+        <v>1643</v>
       </c>
       <c r="F289" t="s">
-        <v>1700</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>1703</v>
+        <v>1507</v>
       </c>
       <c r="B290" t="s">
-        <v>1702</v>
+        <v>246</v>
       </c>
       <c r="C290" t="s">
-        <v>1701</v>
+        <v>517</v>
       </c>
       <c r="D290" t="s">
-        <v>1704</v>
+        <v>773</v>
       </c>
       <c r="E290" t="s">
-        <v>1705</v>
+        <v>1010</v>
       </c>
       <c r="F290" t="s">
-        <v>1706</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>1566</v>
+        <v>1508</v>
       </c>
       <c r="B291" t="s">
-        <v>1544</v>
+        <v>247</v>
       </c>
       <c r="C291" t="s">
-        <v>1579</v>
+        <v>518</v>
       </c>
       <c r="D291" t="s">
-        <v>1588</v>
+        <v>774</v>
       </c>
       <c r="E291" t="s">
-        <v>1599</v>
+        <v>1011</v>
       </c>
       <c r="F291" t="s">
-        <v>1610</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>1580</v>
+        <v>1509</v>
       </c>
       <c r="B292" t="s">
-        <v>1545</v>
+        <v>248</v>
       </c>
       <c r="C292" t="s">
-        <v>1575</v>
+        <v>494</v>
       </c>
       <c r="D292" t="s">
-        <v>1589</v>
+        <v>775</v>
       </c>
       <c r="E292" t="s">
-        <v>1600</v>
+        <v>1012</v>
       </c>
       <c r="F292" t="s">
-        <v>1611</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>1581</v>
+        <v>1510</v>
       </c>
       <c r="B293" t="s">
-        <v>1546</v>
+        <v>249</v>
       </c>
       <c r="C293" t="s">
-        <v>1576</v>
+        <v>519</v>
       </c>
       <c r="D293" t="s">
-        <v>1590</v>
+        <v>776</v>
       </c>
       <c r="E293" t="s">
-        <v>1601</v>
+        <v>1013</v>
       </c>
       <c r="F293" t="s">
-        <v>1612</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>1567</v>
+        <v>1511</v>
       </c>
       <c r="B294" t="s">
-        <v>1547</v>
+        <v>250</v>
       </c>
       <c r="C294" t="s">
-        <v>1587</v>
+        <v>495</v>
       </c>
       <c r="D294" t="s">
-        <v>1591</v>
+        <v>777</v>
       </c>
       <c r="E294" t="s">
-        <v>1602</v>
+        <v>1014</v>
       </c>
       <c r="F294" t="s">
-        <v>1613</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>1568</v>
+        <v>1512</v>
       </c>
       <c r="B295" t="s">
-        <v>1548</v>
+        <v>251</v>
       </c>
       <c r="C295" t="s">
-        <v>1586</v>
+        <v>496</v>
       </c>
       <c r="D295" t="s">
-        <v>1592</v>
+        <v>778</v>
       </c>
       <c r="E295" t="s">
-        <v>1603</v>
+        <v>1015</v>
       </c>
       <c r="F295" t="s">
-        <v>1614</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>1569</v>
+        <v>1490</v>
       </c>
       <c r="B296" t="s">
-        <v>1549</v>
+        <v>252</v>
       </c>
       <c r="C296" t="s">
-        <v>1585</v>
+        <v>497</v>
       </c>
       <c r="D296" t="s">
-        <v>1593</v>
+        <v>779</v>
       </c>
       <c r="E296" t="s">
-        <v>1604</v>
+        <v>1016</v>
       </c>
       <c r="F296" t="s">
-        <v>1615</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>1570</v>
+        <v>1513</v>
       </c>
       <c r="B297" t="s">
-        <v>1550</v>
+        <v>253</v>
       </c>
       <c r="C297" t="s">
-        <v>1584</v>
+        <v>498</v>
       </c>
       <c r="D297" t="s">
-        <v>1594</v>
+        <v>780</v>
       </c>
       <c r="E297" t="s">
-        <v>1605</v>
+        <v>1017</v>
       </c>
       <c r="F297" t="s">
-        <v>1616</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>1571</v>
+        <v>1514</v>
       </c>
       <c r="B298" t="s">
-        <v>1551</v>
+        <v>254</v>
       </c>
       <c r="C298" t="s">
-        <v>1583</v>
+        <v>520</v>
       </c>
       <c r="D298" t="s">
-        <v>1595</v>
+        <v>781</v>
       </c>
       <c r="E298" t="s">
-        <v>1606</v>
+        <v>1018</v>
       </c>
       <c r="F298" t="s">
-        <v>1617</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>1572</v>
+        <v>1664</v>
       </c>
       <c r="B299" t="s">
-        <v>1552</v>
+        <v>1659</v>
       </c>
       <c r="C299" t="s">
-        <v>1582</v>
+        <v>1660</v>
       </c>
       <c r="D299" t="s">
-        <v>1596</v>
+        <v>1661</v>
       </c>
       <c r="E299" t="s">
-        <v>1607</v>
+        <v>1662</v>
       </c>
       <c r="F299" t="s">
-        <v>1618</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>1573</v>
+        <v>1670</v>
       </c>
       <c r="B300" t="s">
-        <v>1553</v>
+        <v>1665</v>
       </c>
       <c r="C300" t="s">
-        <v>1577</v>
+        <v>1666</v>
       </c>
       <c r="D300" t="s">
-        <v>1597</v>
+        <v>1667</v>
       </c>
       <c r="E300" t="s">
-        <v>1608</v>
+        <v>1668</v>
       </c>
       <c r="F300" t="s">
-        <v>1619</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>1574</v>
+        <v>1676</v>
       </c>
       <c r="B301" t="s">
-        <v>1554</v>
+        <v>1671</v>
       </c>
       <c r="C301" t="s">
-        <v>1578</v>
+        <v>1672</v>
       </c>
       <c r="D301" t="s">
-        <v>1598</v>
+        <v>1673</v>
       </c>
       <c r="E301" t="s">
-        <v>1609</v>
+        <v>1674</v>
       </c>
       <c r="F301" t="s">
-        <v>1620</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B302" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C302" t="s">
+        <v>1805</v>
+      </c>
+      <c r="D302" t="s">
+        <v>1706</v>
+      </c>
+      <c r="E302" t="s">
+        <v>1707</v>
+      </c>
+      <c r="F302" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B303" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C303" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D303" t="s">
+        <v>1710</v>
+      </c>
+      <c r="E303" t="s">
+        <v>1711</v>
+      </c>
+      <c r="F303" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B304" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C304" t="s">
+        <v>1806</v>
+      </c>
+      <c r="D304" t="s">
+        <v>1807</v>
+      </c>
+      <c r="E304" t="s">
+        <v>1808</v>
+      </c>
+      <c r="F304" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B305" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C305" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D305" t="s">
+        <v>1681</v>
+      </c>
+      <c r="E305" t="s">
+        <v>1682</v>
+      </c>
+      <c r="F305" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B306" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C306" t="s">
+        <v>1684</v>
+      </c>
+      <c r="D306" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E306" t="s">
+        <v>1687</v>
+      </c>
+      <c r="F306" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B307" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C307" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D307" t="s">
+        <v>1692</v>
+      </c>
+      <c r="E307" t="s">
+        <v>1693</v>
+      </c>
+      <c r="F307" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B308" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C308" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D308" t="s">
+        <v>1576</v>
+      </c>
+      <c r="E308" t="s">
+        <v>1587</v>
+      </c>
+      <c r="F308" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B309" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C309" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D309" t="s">
+        <v>1577</v>
+      </c>
+      <c r="E309" t="s">
+        <v>1588</v>
+      </c>
+      <c r="F309" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B310" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C310" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D310" t="s">
+        <v>1578</v>
+      </c>
+      <c r="E310" t="s">
+        <v>1589</v>
+      </c>
+      <c r="F310" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B311" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C311" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D311" t="s">
+        <v>1579</v>
+      </c>
+      <c r="E311" t="s">
+        <v>1590</v>
+      </c>
+      <c r="F311" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B312" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C312" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D312" t="s">
+        <v>1580</v>
+      </c>
+      <c r="E312" t="s">
+        <v>1591</v>
+      </c>
+      <c r="F312" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B313" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C313" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D313" t="s">
+        <v>1581</v>
+      </c>
+      <c r="E313" t="s">
+        <v>1592</v>
+      </c>
+      <c r="F313" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B314" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C314" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D314" t="s">
+        <v>1582</v>
+      </c>
+      <c r="E314" t="s">
+        <v>1593</v>
+      </c>
+      <c r="F314" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B315" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C315" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D315" t="s">
+        <v>1583</v>
+      </c>
+      <c r="E315" t="s">
+        <v>1594</v>
+      </c>
+      <c r="F315" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B316" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C316" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D316" t="s">
+        <v>1584</v>
+      </c>
+      <c r="E316" t="s">
+        <v>1595</v>
+      </c>
+      <c r="F316" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B317" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C317" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D317" t="s">
+        <v>1585</v>
+      </c>
+      <c r="E317" t="s">
+        <v>1596</v>
+      </c>
+      <c r="F317" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
         <v>1562</v>
       </c>
-      <c r="B302" t="s">
-        <v>1560</v>
-      </c>
-      <c r="C302" t="s">
-        <v>1561</v>
-      </c>
-      <c r="D302" t="s">
-        <v>1563</v>
-      </c>
-      <c r="E302" t="s">
-        <v>1564</v>
-      </c>
-      <c r="F302" t="s">
-        <v>1565</v>
+      <c r="B318" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C318" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D318" t="s">
+        <v>1586</v>
+      </c>
+      <c r="E318" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F318" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B319" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C319" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D319" t="s">
+        <v>1794</v>
+      </c>
+      <c r="E319" t="s">
+        <v>1795</v>
+      </c>
+      <c r="F319" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B320" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C320" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D320" t="s">
+        <v>1791</v>
+      </c>
+      <c r="E320" t="s">
+        <v>1792</v>
+      </c>
+      <c r="F320" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B321" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C321" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D321" t="s">
+        <v>1897</v>
+      </c>
+      <c r="E321" t="s">
+        <v>1898</v>
+      </c>
+      <c r="F321" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B322" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C322" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D322" t="s">
+        <v>1551</v>
+      </c>
+      <c r="E322" t="s">
+        <v>1552</v>
+      </c>
+      <c r="F322" t="s">
+        <v>1553</v>
       </c>
     </row>
   </sheetData>

--- a/lang/words_dict.xlsx
+++ b/lang/words_dict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\si lab\Matlab Projects\Registration\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9701C16F-FCC8-40C5-9FB9-7328E63AAA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BF0683-0283-480F-B621-066823BA9BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2025" yWindow="1755" windowWidth="23910" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="1918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="1924">
   <si>
     <t>文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6467,75 +6467,100 @@
     <t>La valeur de contrôle recommandée moyenne pondérée locale : 12</t>
   </si>
   <si>
+    <t>自动配准(长时程)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long-Term Registration(Auto)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LONGTERM_REGISTRATION_AUTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Долгосрочная регистрация(авто)</t>
+  </si>
+  <si>
+    <t>Inscription à long terme (auto)</t>
+  </si>
+  <si>
+    <t>Registro a largo plazo (automático)</t>
+  </si>
+  <si>
+    <t>SAMPLING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REGISTRATION_TEMPLATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIGNAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTENSITY_THRESHOLD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCALE_THRESHOLD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOWNSAMPLING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX_ITERATION_N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOCATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INITIAL_ITERATION_STEP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITERATION_COEFFICIENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCUMULATIVE_FIELD_SMOOTHING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRECISION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般模式与长时程模式同时启用，将关闭长时程模式，继续？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NORMAL_LONG_TERM_CONFLICT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The normal mode and the long-term mode are enabled at the same time, the normal mode will be turned off. Continue?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Обычный режим и долгосрочный режим включены одновременно, нормальный режим будет выключен. Продолжать?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Le mode normal et le mode longue durée sont activés en même temps, le mode normal sera désactivé. Continuer?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Valor de control recomendado promedio ponderado local: 12</t>
-  </si>
-  <si>
-    <t>自动配准(长时程)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Long-Term Registration(Auto)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LONGTERM_REGISTRATION_AUTO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Долгосрочная регистрация(авто)</t>
-  </si>
-  <si>
-    <t>Inscription à long terme (auto)</t>
-  </si>
-  <si>
-    <t>Registro a largo plazo (automático)</t>
-  </si>
-  <si>
-    <t>SAMPLING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REGISTRATION_TEMPLATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SIGNAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INTENSITY_THRESHOLD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCALE_THRESHOLD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DOWNSAMPLING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAX_ITERATION_N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOCATION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INITIAL_ITERATION_STEP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITERATION_COEFFICIENT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACCUMULATIVE_FIELD_SMOOTHING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRECISION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>El modo normal y el modo a largo plazo se activan al mismo tiempo, el modo normal se desactivará. ¿Continuar?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6861,10 +6886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F322"/>
+  <dimension ref="A1:F323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
-      <selection activeCell="B193" sqref="B193"/>
+    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
+      <selection activeCell="B327" sqref="B327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9499,7 +9524,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="B132" t="s">
         <v>124</v>
@@ -9519,7 +9544,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B133" t="s">
         <v>125</v>
@@ -9759,7 +9784,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="B145" t="s">
         <v>135</v>
@@ -9779,7 +9804,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="B146" t="s">
         <v>136</v>
@@ -9799,7 +9824,7 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B147" t="s">
         <v>137</v>
@@ -9959,7 +9984,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="B155" t="s">
         <v>145</v>
@@ -9999,22 +10024,22 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C157" t="s">
+        <v>1900</v>
+      </c>
+      <c r="D157" t="s">
         <v>1902</v>
       </c>
-      <c r="B157" t="s">
-        <v>1900</v>
-      </c>
-      <c r="C157" t="s">
-        <v>1901</v>
-      </c>
-      <c r="D157" t="s">
+      <c r="E157" t="s">
         <v>1903</v>
       </c>
-      <c r="E157" t="s">
+      <c r="F157" t="s">
         <v>1904</v>
-      </c>
-      <c r="F157" t="s">
-        <v>1905</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
@@ -10039,7 +10064,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="B159" t="s">
         <v>133</v>
@@ -10059,7 +10084,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="B160" t="s">
         <v>1713</v>
@@ -10579,7 +10604,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="B186" t="s">
         <v>157</v>
@@ -10599,7 +10624,7 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="B187" t="s">
         <v>158</v>
@@ -10639,7 +10664,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="B189" t="s">
         <v>160</v>
@@ -10679,7 +10704,7 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="B191" t="s">
         <v>162</v>
@@ -13279,41 +13304,61 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>1895</v>
+        <v>1918</v>
       </c>
       <c r="B321" t="s">
-        <v>1894</v>
+        <v>1917</v>
       </c>
       <c r="C321" t="s">
-        <v>1896</v>
+        <v>1919</v>
       </c>
       <c r="D321" t="s">
-        <v>1897</v>
+        <v>1920</v>
       </c>
       <c r="E321" t="s">
-        <v>1898</v>
+        <v>1921</v>
       </c>
       <c r="F321" t="s">
-        <v>1899</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B322" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C322" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D322" t="s">
+        <v>1897</v>
+      </c>
+      <c r="E322" t="s">
+        <v>1898</v>
+      </c>
+      <c r="F322" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
         <v>1550</v>
       </c>
-      <c r="B322" t="s">
+      <c r="B323" t="s">
         <v>1548</v>
       </c>
-      <c r="C322" t="s">
+      <c r="C323" t="s">
         <v>1549</v>
       </c>
-      <c r="D322" t="s">
+      <c r="D323" t="s">
         <v>1551</v>
       </c>
-      <c r="E322" t="s">
+      <c r="E323" t="s">
         <v>1552</v>
       </c>
-      <c r="F322" t="s">
+      <c r="F323" t="s">
         <v>1553</v>
       </c>
     </row>

--- a/lang/words_dict.xlsx
+++ b/lang/words_dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\si lab\Matlab Projects\Registration\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BF0683-0283-480F-B621-066823BA9BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C36936-DBBD-41B1-A88B-7387526E424E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2025" yWindow="1755" windowWidth="23910" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="1924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1962" uniqueCount="1948">
   <si>
     <t>文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6561,6 +6561,90 @@
   </si>
   <si>
     <t>El modo normal y el modo a largo plazo se activan al mismo tiempo, el modo normal se desactivará. ¿Continuar?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅平移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平移，旋转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平移，旋转，各向同性拉伸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平移，旋转，各向异性拉伸，反射与剪切</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>translation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>translation and rotation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>translation, rotation, and isotropic scaling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>translation, rotation, anisotropic scaling, reflection, and shearing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>перевод</t>
+  </si>
+  <si>
+    <t>перевод и вращение</t>
+  </si>
+  <si>
+    <t>трансляция, вращение и изотропное масштабирование</t>
+  </si>
+  <si>
+    <t>перемещение, вращение, анизотропное масштабирование, отражение и сдвиг</t>
+  </si>
+  <si>
+    <t>traduction</t>
+  </si>
+  <si>
+    <t>translation et rotation</t>
+  </si>
+  <si>
+    <t>translation, rotation et mise à l'échelle isotrope</t>
+  </si>
+  <si>
+    <t>translation, rotation, mise à l'échelle anisotrope, réflexion et cisaillement</t>
+  </si>
+  <si>
+    <t>traducción</t>
+  </si>
+  <si>
+    <t>traslación y rotación</t>
+  </si>
+  <si>
+    <t>traslación, rotación y escalado isotrópico</t>
+  </si>
+  <si>
+    <t>traslación, rotación, escalado anisotrópico, reflexión y corte</t>
+  </si>
+  <si>
+    <t>RIGID_TOOLTIP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRANSLATION_TOOLTIP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIMILARITY_TOOLTIP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AFFINE_TOOLTIP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6886,10 +6970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F323"/>
+  <dimension ref="A1:F327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
-      <selection activeCell="B327" sqref="B327"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8684,4681 +8768,4761 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>1645</v>
+        <v>1945</v>
       </c>
       <c r="B90" t="s">
-        <v>84</v>
+        <v>1924</v>
       </c>
       <c r="C90" t="s">
-        <v>343</v>
+        <v>1928</v>
       </c>
       <c r="D90" t="s">
-        <v>614</v>
+        <v>1932</v>
       </c>
       <c r="E90" t="s">
-        <v>863</v>
+        <v>1936</v>
       </c>
       <c r="F90" t="s">
-        <v>1101</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>1347</v>
+        <v>1944</v>
       </c>
       <c r="B91" t="s">
-        <v>85</v>
+        <v>1925</v>
       </c>
       <c r="C91" t="s">
-        <v>346</v>
+        <v>1929</v>
       </c>
       <c r="D91" t="s">
-        <v>615</v>
+        <v>1933</v>
       </c>
       <c r="E91" t="s">
-        <v>864</v>
+        <v>1937</v>
       </c>
       <c r="F91" t="s">
-        <v>1102</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>1348</v>
+        <v>1946</v>
       </c>
       <c r="B92" t="s">
-        <v>86</v>
+        <v>1926</v>
       </c>
       <c r="C92" t="s">
-        <v>347</v>
+        <v>1930</v>
       </c>
       <c r="D92" t="s">
-        <v>616</v>
+        <v>1934</v>
       </c>
       <c r="E92" t="s">
-        <v>865</v>
+        <v>1938</v>
       </c>
       <c r="F92" t="s">
-        <v>1103</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>1646</v>
+        <v>1947</v>
       </c>
       <c r="B93" t="s">
-        <v>87</v>
+        <v>1927</v>
       </c>
       <c r="C93" t="s">
-        <v>348</v>
+        <v>1931</v>
       </c>
       <c r="D93" t="s">
-        <v>617</v>
+        <v>1935</v>
       </c>
       <c r="E93" t="s">
-        <v>866</v>
+        <v>1939</v>
       </c>
       <c r="F93" t="s">
-        <v>1104</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>1349</v>
+        <v>1645</v>
       </c>
       <c r="B94" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C94" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="D94" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="E94" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="F94" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>1439</v>
+        <v>1347</v>
       </c>
       <c r="B95" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C95" t="s">
-        <v>525</v>
+        <v>346</v>
       </c>
       <c r="D95" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E95" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="F95" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="B96" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C96" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D96" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="E96" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="F96" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>1351</v>
+        <v>1646</v>
       </c>
       <c r="B97" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C97" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D97" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="E97" t="s">
-        <v>350</v>
+        <v>866</v>
       </c>
       <c r="F97" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="B98" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C98" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="D98" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="E98" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="F98" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>1353</v>
+        <v>1439</v>
       </c>
       <c r="B99" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C99" t="s">
-        <v>353</v>
+        <v>525</v>
       </c>
       <c r="D99" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E99" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="F99" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="B100" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C100" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D100" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="E100" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="F100" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="B101" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C101" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D101" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="E101" t="s">
-        <v>873</v>
+        <v>350</v>
       </c>
       <c r="F101" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="B102" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C102" t="s">
-        <v>782</v>
+        <v>352</v>
       </c>
       <c r="D102" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="E102" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="F102" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="B103" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C103" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D103" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="E103" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="F103" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>1648</v>
+        <v>1354</v>
       </c>
       <c r="B104" t="s">
-        <v>1647</v>
+        <v>94</v>
       </c>
       <c r="C104" t="s">
-        <v>1649</v>
+        <v>354</v>
       </c>
       <c r="D104" t="s">
-        <v>1651</v>
+        <v>624</v>
       </c>
       <c r="E104" t="s">
-        <v>1652</v>
+        <v>872</v>
       </c>
       <c r="F104" t="s">
-        <v>1650</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>1654</v>
+        <v>1355</v>
       </c>
       <c r="B105" t="s">
-        <v>1653</v>
+        <v>95</v>
       </c>
       <c r="C105" t="s">
-        <v>1655</v>
+        <v>355</v>
       </c>
       <c r="D105" t="s">
-        <v>1656</v>
+        <v>625</v>
       </c>
       <c r="E105" t="s">
-        <v>1657</v>
+        <v>873</v>
       </c>
       <c r="F105" t="s">
-        <v>1658</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="B106" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C106" t="s">
-        <v>358</v>
+        <v>782</v>
       </c>
       <c r="D106" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E106" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="F106" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="B107" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C107" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D107" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E107" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="F107" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>1360</v>
+        <v>1648</v>
       </c>
       <c r="B108" t="s">
-        <v>100</v>
+        <v>1647</v>
       </c>
       <c r="C108" t="s">
-        <v>359</v>
+        <v>1649</v>
       </c>
       <c r="D108" t="s">
-        <v>630</v>
+        <v>1651</v>
       </c>
       <c r="E108" t="s">
-        <v>878</v>
+        <v>1652</v>
       </c>
       <c r="F108" t="s">
-        <v>1117</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>1361</v>
+        <v>1654</v>
       </c>
       <c r="B109" t="s">
-        <v>101</v>
+        <v>1653</v>
       </c>
       <c r="C109" t="s">
-        <v>361</v>
+        <v>1655</v>
       </c>
       <c r="D109" t="s">
-        <v>631</v>
+        <v>1656</v>
       </c>
       <c r="E109" t="s">
-        <v>879</v>
+        <v>1657</v>
       </c>
       <c r="F109" t="s">
-        <v>1118</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="B110" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C110" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D110" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="E110" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="F110" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="B111" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C111" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D111" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="E111" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="F111" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="B112" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C112" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D112" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="E112" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="F112" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="B113" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C113" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D113" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="E113" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="F113" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="B114" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C114" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D114" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="E114" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="F114" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="B115" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C115" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D115" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="E115" t="s">
-        <v>367</v>
+        <v>881</v>
       </c>
       <c r="F115" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="B116" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C116" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D116" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="E116" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="F116" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="B117" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C117" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D117" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="E117" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="F117" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="B118" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C118" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D118" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="E118" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="F118" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>1695</v>
+        <v>1367</v>
       </c>
       <c r="B119" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C119" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D119" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="E119" t="s">
-        <v>888</v>
+        <v>367</v>
       </c>
       <c r="F119" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="B120" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C120" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D120" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="E120" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="F120" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="B121" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C121" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D121" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="E121" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="F121" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="B122" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C122" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D122" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="E122" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="F122" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>1374</v>
+        <v>1695</v>
       </c>
       <c r="B123" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C123" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D123" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="E123" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="F123" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="B124" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C124" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D124" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="E124" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="F124" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="B125" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C125" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D125" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="E125" t="s">
-        <v>378</v>
+        <v>890</v>
       </c>
       <c r="F125" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="B126" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C126" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D126" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E126" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="F126" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="B127" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C127" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D127" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E127" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="F127" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="B128" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C128" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D128" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E128" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="F128" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="B129" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C129" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D129" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E129" t="s">
-        <v>897</v>
+        <v>378</v>
       </c>
       <c r="F129" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>1440</v>
+        <v>1377</v>
       </c>
       <c r="B130" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C130" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D130" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E130" t="s">
-        <v>384</v>
+        <v>894</v>
       </c>
       <c r="F130" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="B131" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C131" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D131" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E131" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="F131" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>1906</v>
+        <v>1379</v>
       </c>
       <c r="B132" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C132" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D132" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="E132" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="F132" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>1905</v>
+        <v>1380</v>
       </c>
       <c r="B133" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C133" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D133" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="E133" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="F133" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>1382</v>
+        <v>1440</v>
       </c>
       <c r="B134" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C134" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D134" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E134" t="s">
-        <v>901</v>
+        <v>384</v>
       </c>
       <c r="F134" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="B135" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C135" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D135" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="E135" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="F135" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>1384</v>
+        <v>1906</v>
       </c>
       <c r="B136" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C136" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D136" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="E136" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="F136" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>1385</v>
+        <v>1905</v>
       </c>
       <c r="B137" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C137" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D137" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="E137" t="s">
-        <v>392</v>
+        <v>900</v>
       </c>
       <c r="F137" t="s">
-        <v>392</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>1742</v>
+        <v>1382</v>
       </c>
       <c r="B138" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C138" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D138" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E138" t="s">
-        <v>394</v>
+        <v>901</v>
       </c>
       <c r="F138" t="s">
-        <v>394</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>1743</v>
+        <v>1383</v>
       </c>
       <c r="B139" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C139" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="D139" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E139" t="s">
-        <v>396</v>
+        <v>902</v>
       </c>
       <c r="F139" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>1722</v>
+        <v>1384</v>
       </c>
       <c r="B140" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="C140" t="s">
-        <v>1726</v>
+        <v>391</v>
       </c>
       <c r="D140" t="s">
-        <v>1732</v>
+        <v>658</v>
       </c>
       <c r="E140" t="s">
-        <v>1736</v>
+        <v>903</v>
       </c>
       <c r="F140" t="s">
-        <v>1738</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>1723</v>
+        <v>1385</v>
       </c>
       <c r="B141" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="C141" t="s">
-        <v>1729</v>
+        <v>393</v>
       </c>
       <c r="D141" t="s">
-        <v>1733</v>
+        <v>659</v>
       </c>
       <c r="E141" t="s">
-        <v>1737</v>
+        <v>392</v>
       </c>
       <c r="F141" t="s">
-        <v>1739</v>
+        <v>392</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>1724</v>
+        <v>1742</v>
       </c>
       <c r="B142" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="C142" t="s">
-        <v>1730</v>
+        <v>395</v>
       </c>
       <c r="D142" t="s">
-        <v>1734</v>
+        <v>660</v>
       </c>
       <c r="E142" t="s">
-        <v>1727</v>
+        <v>394</v>
       </c>
       <c r="F142" t="s">
-        <v>1740</v>
+        <v>394</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>1725</v>
+        <v>1743</v>
       </c>
       <c r="B143" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="C143" t="s">
-        <v>1731</v>
+        <v>397</v>
       </c>
       <c r="D143" t="s">
-        <v>1735</v>
+        <v>661</v>
       </c>
       <c r="E143" t="s">
-        <v>1728</v>
+        <v>396</v>
       </c>
       <c r="F143" t="s">
-        <v>1741</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>1784</v>
+        <v>1722</v>
       </c>
       <c r="B144" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="C144" t="s">
-        <v>400</v>
+        <v>1726</v>
       </c>
       <c r="D144" t="s">
-        <v>664</v>
+        <v>1732</v>
       </c>
       <c r="E144" t="s">
-        <v>906</v>
+        <v>1736</v>
       </c>
       <c r="F144" t="s">
-        <v>1149</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>1913</v>
+        <v>1723</v>
       </c>
       <c r="B145" t="s">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="C145" t="s">
-        <v>401</v>
+        <v>1729</v>
       </c>
       <c r="D145" t="s">
-        <v>665</v>
+        <v>1733</v>
       </c>
       <c r="E145" t="s">
-        <v>907</v>
+        <v>1737</v>
       </c>
       <c r="F145" t="s">
-        <v>1150</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>1911</v>
+        <v>1724</v>
       </c>
       <c r="B146" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="C146" t="s">
-        <v>402</v>
+        <v>1730</v>
       </c>
       <c r="D146" t="s">
-        <v>666</v>
+        <v>1734</v>
       </c>
       <c r="E146" t="s">
-        <v>908</v>
+        <v>1727</v>
       </c>
       <c r="F146" t="s">
-        <v>1151</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>1914</v>
+        <v>1725</v>
       </c>
       <c r="B147" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
       <c r="C147" t="s">
-        <v>403</v>
+        <v>1731</v>
       </c>
       <c r="D147" t="s">
-        <v>667</v>
+        <v>1735</v>
       </c>
       <c r="E147" t="s">
-        <v>909</v>
+        <v>1728</v>
       </c>
       <c r="F147" t="s">
-        <v>1152</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>1387</v>
+        <v>1784</v>
       </c>
       <c r="B148" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C148" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D148" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="E148" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="F148" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>1388</v>
+        <v>1913</v>
       </c>
       <c r="B149" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C149" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D149" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="E149" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="F149" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>1389</v>
+        <v>1911</v>
       </c>
       <c r="B150" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C150" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D150" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="E150" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="F150" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>1390</v>
+        <v>1914</v>
       </c>
       <c r="B151" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C151" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D151" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="E151" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="F151" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="B152" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C152" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D152" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="E152" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="F152" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="B153" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C153" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D153" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="E153" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="F153" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="B154" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C154" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D154" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="E154" t="s">
-        <v>410</v>
+        <v>912</v>
       </c>
       <c r="F154" t="s">
-        <v>410</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>1915</v>
+        <v>1390</v>
       </c>
       <c r="B155" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C155" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="D155" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="E155" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="F155" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="B156" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C156" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D156" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="E156" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="F156" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>1901</v>
+        <v>1392</v>
       </c>
       <c r="B157" t="s">
-        <v>1899</v>
+        <v>143</v>
       </c>
       <c r="C157" t="s">
-        <v>1900</v>
+        <v>409</v>
       </c>
       <c r="D157" t="s">
-        <v>1902</v>
+        <v>673</v>
       </c>
       <c r="E157" t="s">
-        <v>1903</v>
+        <v>915</v>
       </c>
       <c r="F157" t="s">
-        <v>1904</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>1824</v>
+        <v>1393</v>
       </c>
       <c r="B158" t="s">
-        <v>1810</v>
+        <v>144</v>
       </c>
       <c r="C158" t="s">
-        <v>1825</v>
+        <v>411</v>
       </c>
       <c r="D158" t="s">
-        <v>1826</v>
+        <v>674</v>
       </c>
       <c r="E158" t="s">
-        <v>1827</v>
+        <v>410</v>
       </c>
       <c r="F158" t="s">
-        <v>1828</v>
+        <v>410</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>1908</v>
+        <v>1915</v>
       </c>
       <c r="B159" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="C159" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="D159" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
       <c r="E159" t="s">
-        <v>905</v>
+        <v>916</v>
       </c>
       <c r="F159" t="s">
-        <v>1148</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>1909</v>
+        <v>1394</v>
       </c>
       <c r="B160" t="s">
-        <v>1713</v>
+        <v>146</v>
       </c>
       <c r="C160" t="s">
-        <v>1714</v>
+        <v>413</v>
       </c>
       <c r="D160" t="s">
-        <v>1715</v>
+        <v>676</v>
       </c>
       <c r="E160" t="s">
-        <v>1716</v>
+        <v>917</v>
       </c>
       <c r="F160" t="s">
-        <v>1717</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>1837</v>
+        <v>1901</v>
       </c>
       <c r="B161" t="s">
-        <v>1811</v>
+        <v>1899</v>
       </c>
       <c r="C161" t="s">
-        <v>1829</v>
+        <v>1900</v>
       </c>
       <c r="D161" t="s">
-        <v>1834</v>
+        <v>1902</v>
       </c>
       <c r="E161" t="s">
-        <v>1835</v>
+        <v>1903</v>
       </c>
       <c r="F161" t="s">
-        <v>1836</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>1838</v>
+        <v>1824</v>
       </c>
       <c r="B162" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="C162" t="s">
-        <v>1830</v>
+        <v>1825</v>
       </c>
       <c r="D162" t="s">
-        <v>1831</v>
+        <v>1826</v>
       </c>
       <c r="E162" t="s">
-        <v>1832</v>
+        <v>1827</v>
       </c>
       <c r="F162" t="s">
-        <v>1833</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>1839</v>
+        <v>1908</v>
       </c>
       <c r="B163" t="s">
-        <v>1813</v>
+        <v>133</v>
       </c>
       <c r="C163" t="s">
-        <v>1840</v>
+        <v>399</v>
       </c>
       <c r="D163" t="s">
-        <v>1841</v>
+        <v>663</v>
       </c>
       <c r="E163" t="s">
-        <v>1842</v>
+        <v>905</v>
       </c>
       <c r="F163" t="s">
-        <v>1843</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>1845</v>
+        <v>1909</v>
       </c>
       <c r="B164" t="s">
-        <v>1814</v>
+        <v>1713</v>
       </c>
       <c r="C164" t="s">
-        <v>1844</v>
+        <v>1714</v>
       </c>
       <c r="D164" t="s">
-        <v>1846</v>
+        <v>1715</v>
       </c>
       <c r="E164" t="s">
-        <v>1847</v>
+        <v>1716</v>
       </c>
       <c r="F164" t="s">
-        <v>1848</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>1853</v>
+        <v>1837</v>
       </c>
       <c r="B165" t="s">
-        <v>1815</v>
+        <v>1811</v>
       </c>
       <c r="C165" t="s">
-        <v>1850</v>
+        <v>1829</v>
       </c>
       <c r="D165" t="s">
-        <v>1849</v>
+        <v>1834</v>
       </c>
       <c r="E165" t="s">
-        <v>1851</v>
+        <v>1835</v>
       </c>
       <c r="F165" t="s">
-        <v>1852</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
       <c r="B166" t="s">
-        <v>1816</v>
+        <v>1812</v>
       </c>
       <c r="C166" t="s">
-        <v>1856</v>
+        <v>1830</v>
       </c>
       <c r="D166" t="s">
-        <v>1857</v>
+        <v>1831</v>
       </c>
       <c r="E166" t="s">
-        <v>1855</v>
+        <v>1832</v>
       </c>
       <c r="F166" t="s">
-        <v>1858</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>1859</v>
+        <v>1839</v>
       </c>
       <c r="B167" t="s">
-        <v>1817</v>
+        <v>1813</v>
       </c>
       <c r="C167" t="s">
-        <v>1860</v>
+        <v>1840</v>
       </c>
       <c r="D167" t="s">
-        <v>1861</v>
+        <v>1841</v>
       </c>
       <c r="E167" t="s">
-        <v>1862</v>
+        <v>1842</v>
       </c>
       <c r="F167" t="s">
-        <v>1863</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>1868</v>
+        <v>1845</v>
       </c>
       <c r="B168" t="s">
-        <v>1818</v>
+        <v>1814</v>
       </c>
       <c r="C168" t="s">
-        <v>1864</v>
+        <v>1844</v>
       </c>
       <c r="D168" t="s">
-        <v>1865</v>
+        <v>1846</v>
       </c>
       <c r="E168" t="s">
-        <v>1866</v>
+        <v>1847</v>
       </c>
       <c r="F168" t="s">
-        <v>1867</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>1874</v>
+        <v>1853</v>
       </c>
       <c r="B169" t="s">
-        <v>1819</v>
+        <v>1815</v>
       </c>
       <c r="C169" t="s">
-        <v>1873</v>
+        <v>1850</v>
       </c>
       <c r="D169" t="s">
-        <v>1875</v>
+        <v>1849</v>
       </c>
       <c r="E169" t="s">
-        <v>1876</v>
+        <v>1851</v>
       </c>
       <c r="F169" t="s">
-        <v>1877</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>1882</v>
+        <v>1854</v>
       </c>
       <c r="B170" t="s">
-        <v>1820</v>
+        <v>1816</v>
       </c>
       <c r="C170" t="s">
-        <v>1869</v>
+        <v>1856</v>
       </c>
       <c r="D170" t="s">
-        <v>1870</v>
+        <v>1857</v>
       </c>
       <c r="E170" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
       <c r="F170" t="s">
-        <v>1872</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>1883</v>
+        <v>1859</v>
       </c>
       <c r="B171" t="s">
-        <v>1821</v>
+        <v>1817</v>
       </c>
       <c r="C171" t="s">
-        <v>1878</v>
+        <v>1860</v>
       </c>
       <c r="D171" t="s">
-        <v>1879</v>
+        <v>1861</v>
       </c>
       <c r="E171" t="s">
-        <v>1880</v>
+        <v>1862</v>
       </c>
       <c r="F171" t="s">
-        <v>1881</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>1888</v>
+        <v>1868</v>
       </c>
       <c r="B172" t="s">
-        <v>1822</v>
+        <v>1818</v>
       </c>
       <c r="C172" t="s">
-        <v>1886</v>
+        <v>1864</v>
       </c>
       <c r="D172" t="s">
-        <v>1884</v>
+        <v>1865</v>
       </c>
       <c r="E172" t="s">
-        <v>1885</v>
+        <v>1866</v>
       </c>
       <c r="F172" t="s">
-        <v>1887</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>1889</v>
+        <v>1874</v>
       </c>
       <c r="B173" t="s">
-        <v>1823</v>
+        <v>1819</v>
       </c>
       <c r="C173" t="s">
-        <v>1890</v>
+        <v>1873</v>
       </c>
       <c r="D173" t="s">
-        <v>1891</v>
+        <v>1875</v>
       </c>
       <c r="E173" t="s">
-        <v>1892</v>
+        <v>1876</v>
       </c>
       <c r="F173" t="s">
-        <v>1893</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>1386</v>
+        <v>1882</v>
       </c>
       <c r="B174" t="s">
-        <v>132</v>
+        <v>1820</v>
       </c>
       <c r="C174" t="s">
-        <v>398</v>
+        <v>1869</v>
       </c>
       <c r="D174" t="s">
-        <v>662</v>
+        <v>1870</v>
       </c>
       <c r="E174" t="s">
-        <v>904</v>
+        <v>1871</v>
       </c>
       <c r="F174" t="s">
-        <v>1147</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>1697</v>
+        <v>1883</v>
       </c>
       <c r="B175" t="s">
-        <v>1696</v>
+        <v>1821</v>
       </c>
       <c r="C175" t="s">
-        <v>1698</v>
+        <v>1878</v>
       </c>
       <c r="D175" t="s">
-        <v>1699</v>
+        <v>1879</v>
       </c>
       <c r="E175" t="s">
-        <v>1700</v>
+        <v>1880</v>
       </c>
       <c r="F175" t="s">
-        <v>1701</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>1395</v>
+        <v>1888</v>
       </c>
       <c r="B176" t="s">
-        <v>147</v>
+        <v>1822</v>
       </c>
       <c r="C176" t="s">
-        <v>414</v>
+        <v>1886</v>
       </c>
       <c r="D176" t="s">
-        <v>677</v>
+        <v>1884</v>
       </c>
       <c r="E176" t="s">
-        <v>918</v>
+        <v>1885</v>
       </c>
       <c r="F176" t="s">
-        <v>1161</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>1396</v>
+        <v>1889</v>
       </c>
       <c r="B177" t="s">
-        <v>148</v>
+        <v>1823</v>
       </c>
       <c r="C177" t="s">
-        <v>415</v>
+        <v>1890</v>
       </c>
       <c r="D177" t="s">
-        <v>678</v>
+        <v>1891</v>
       </c>
       <c r="E177" t="s">
-        <v>919</v>
+        <v>1892</v>
       </c>
       <c r="F177" t="s">
-        <v>1162</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>1397</v>
+        <v>1386</v>
       </c>
       <c r="B178" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="C178" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="D178" t="s">
-        <v>679</v>
+        <v>662</v>
       </c>
       <c r="E178" t="s">
-        <v>920</v>
+        <v>904</v>
       </c>
       <c r="F178" t="s">
-        <v>1163</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>1398</v>
+        <v>1697</v>
       </c>
       <c r="B179" t="s">
-        <v>150</v>
+        <v>1696</v>
       </c>
       <c r="C179" t="s">
-        <v>418</v>
+        <v>1698</v>
       </c>
       <c r="D179" t="s">
-        <v>680</v>
+        <v>1699</v>
       </c>
       <c r="E179" t="s">
-        <v>921</v>
+        <v>1700</v>
       </c>
       <c r="F179" t="s">
-        <v>1164</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="B180" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C180" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="D180" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="E180" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="F180" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="B181" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C181" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="D181" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E181" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="F181" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="B182" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C182" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D182" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="E182" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="F182" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="B183" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C183" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D183" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="E183" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F183" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="B184" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C184" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D184" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="E184" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="F184" t="s">
-        <v>422</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="B185" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C185" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D185" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="E185" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="F185" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>1912</v>
+        <v>1401</v>
       </c>
       <c r="B186" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C186" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D186" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="E186" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="F186" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>1907</v>
+        <v>1402</v>
       </c>
       <c r="B187" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C187" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="D187" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="E187" t="s">
-        <v>426</v>
+        <v>925</v>
       </c>
       <c r="F187" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="B188" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C188" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D188" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="E188" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="F188" t="s">
-        <v>1172</v>
+        <v>422</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>1910</v>
+        <v>1404</v>
       </c>
       <c r="B189" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C189" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D189" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E189" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="F189" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>1406</v>
+        <v>1912</v>
       </c>
       <c r="B190" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C190" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D190" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="E190" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="F190" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>1916</v>
+        <v>1907</v>
       </c>
       <c r="B191" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C191" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D191" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="E191" t="s">
-        <v>932</v>
+        <v>426</v>
       </c>
       <c r="F191" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="B192" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C192" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D192" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="E192" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="F192" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>1408</v>
+        <v>1910</v>
       </c>
       <c r="B193" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C193" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D193" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="E193" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="F193" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="B194" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C194" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D194" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="E194" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="F194" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>1410</v>
+        <v>1916</v>
       </c>
       <c r="B195" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C195" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D195" t="s">
-        <v>1261</v>
+        <v>692</v>
       </c>
       <c r="E195" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="F195" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="B196" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C196" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D196" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E196" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="F196" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="B197" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C197" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D197" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="E197" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="F197" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="B198" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C198" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D198" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="E198" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="F198" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="B199" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C199" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="D199" t="s">
-        <v>699</v>
+        <v>1261</v>
       </c>
       <c r="E199" t="s">
-        <v>439</v>
+        <v>936</v>
       </c>
       <c r="F199" t="s">
-        <v>439</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="B200" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C200" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="D200" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="E200" t="s">
-        <v>441</v>
+        <v>937</v>
       </c>
       <c r="F200" t="s">
-        <v>441</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="B201" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C201" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="D201" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="E201" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="F201" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="B202" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C202" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="D202" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="E202" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="F202" t="s">
-        <v>444</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="B203" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C203" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="D203" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="E203" t="s">
-        <v>942</v>
+        <v>439</v>
       </c>
       <c r="F203" t="s">
-        <v>1184</v>
+        <v>439</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="B204" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C204" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="D204" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="E204" t="s">
-        <v>943</v>
+        <v>441</v>
       </c>
       <c r="F204" t="s">
-        <v>1185</v>
+        <v>441</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="B205" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C205" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="D205" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="E205" t="s">
-        <v>448</v>
+        <v>940</v>
       </c>
       <c r="F205" t="s">
-        <v>448</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="B206" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C206" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D206" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="E206" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="F206" t="s">
-        <v>1186</v>
+        <v>444</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="B207" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C207" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="D207" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="E207" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="F207" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="B208" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C208" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="D208" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="E208" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="F208" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>1441</v>
+        <v>1420</v>
       </c>
       <c r="B209" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C209" t="s">
-        <v>783</v>
+        <v>449</v>
       </c>
       <c r="D209" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="E209" t="s">
-        <v>947</v>
+        <v>448</v>
       </c>
       <c r="F209" t="s">
-        <v>1189</v>
+        <v>448</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="B210" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C210" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D210" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="E210" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="F210" t="s">
-        <v>1065</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="B211" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C211" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D211" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="E211" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="F211" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="B212" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C212" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D212" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="E212" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="F212" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>1427</v>
+        <v>1441</v>
       </c>
       <c r="B213" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C213" t="s">
-        <v>456</v>
+        <v>783</v>
       </c>
       <c r="D213" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="E213" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="F213" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="B214" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C214" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D214" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="E214" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="F214" t="s">
-        <v>1193</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="B215" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C215" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D215" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="E215" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="F215" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
       <c r="B216" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C216" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D216" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="E216" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="F216" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="B217" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C217" t="s">
-        <v>1442</v>
+        <v>456</v>
       </c>
       <c r="D217" t="s">
-        <v>1443</v>
+        <v>713</v>
       </c>
       <c r="E217" t="s">
-        <v>1444</v>
+        <v>951</v>
       </c>
       <c r="F217" t="s">
-        <v>1445</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="B218" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C218" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D218" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E218" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="F218" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>1547</v>
+        <v>1429</v>
       </c>
       <c r="B219" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C219" t="s">
-        <v>499</v>
+        <v>458</v>
       </c>
       <c r="D219" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="E219" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="F219" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>1446</v>
+        <v>1430</v>
       </c>
       <c r="B220" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C220" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D220" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="E220" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="F220" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>1447</v>
+        <v>1431</v>
       </c>
       <c r="B221" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C221" t="s">
-        <v>501</v>
+        <v>1442</v>
       </c>
       <c r="D221" t="s">
-        <v>720</v>
+        <v>1443</v>
       </c>
       <c r="E221" t="s">
-        <v>958</v>
+        <v>1444</v>
       </c>
       <c r="F221" t="s">
-        <v>500</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>1448</v>
+        <v>1432</v>
       </c>
       <c r="B222" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C222" t="s">
-        <v>502</v>
+        <v>460</v>
       </c>
       <c r="D222" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="E222" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="F222" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>1449</v>
+        <v>1547</v>
       </c>
       <c r="B223" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C223" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="D223" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="E223" t="s">
-        <v>503</v>
+        <v>956</v>
       </c>
       <c r="F223" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>1744</v>
+        <v>1446</v>
       </c>
       <c r="B224" t="s">
-        <v>1745</v>
+        <v>191</v>
       </c>
       <c r="C224" t="s">
-        <v>1746</v>
+        <v>461</v>
       </c>
       <c r="D224" t="s">
-        <v>1747</v>
+        <v>719</v>
       </c>
       <c r="E224" t="s">
-        <v>1748</v>
+        <v>957</v>
       </c>
       <c r="F224" t="s">
-        <v>1749</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>1750</v>
+        <v>1447</v>
       </c>
       <c r="B225" t="s">
-        <v>1751</v>
+        <v>192</v>
       </c>
       <c r="C225" t="s">
-        <v>1755</v>
+        <v>501</v>
       </c>
       <c r="D225" t="s">
-        <v>1758</v>
+        <v>720</v>
       </c>
       <c r="E225" t="s">
-        <v>1757</v>
+        <v>958</v>
       </c>
       <c r="F225" t="s">
-        <v>1756</v>
+        <v>500</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>1752</v>
+        <v>1448</v>
       </c>
       <c r="B226" t="s">
-        <v>1753</v>
+        <v>193</v>
       </c>
       <c r="C226" t="s">
-        <v>1754</v>
+        <v>502</v>
       </c>
       <c r="D226" t="s">
-        <v>1759</v>
+        <v>721</v>
       </c>
       <c r="E226" t="s">
-        <v>1760</v>
+        <v>959</v>
       </c>
       <c r="F226" t="s">
-        <v>1761</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>1766</v>
+        <v>1449</v>
       </c>
       <c r="B227" t="s">
-        <v>1768</v>
+        <v>194</v>
       </c>
       <c r="C227" t="s">
-        <v>1767</v>
+        <v>504</v>
       </c>
       <c r="D227" t="s">
-        <v>1769</v>
+        <v>722</v>
       </c>
       <c r="E227" t="s">
-        <v>1770</v>
+        <v>503</v>
       </c>
       <c r="F227" t="s">
-        <v>1765</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>1771</v>
+        <v>1744</v>
       </c>
       <c r="B228" t="s">
-        <v>1762</v>
+        <v>1745</v>
       </c>
       <c r="C228" t="s">
-        <v>1772</v>
+        <v>1746</v>
       </c>
       <c r="D228" t="s">
-        <v>1763</v>
+        <v>1747</v>
       </c>
       <c r="E228" t="s">
-        <v>1764</v>
+        <v>1748</v>
       </c>
       <c r="F228" t="s">
-        <v>1765</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>1773</v>
+        <v>1750</v>
       </c>
       <c r="B229" t="s">
-        <v>1774</v>
+        <v>1751</v>
       </c>
       <c r="C229" t="s">
-        <v>1773</v>
+        <v>1755</v>
       </c>
       <c r="D229" t="s">
-        <v>1775</v>
+        <v>1758</v>
       </c>
       <c r="E229" t="s">
-        <v>1776</v>
+        <v>1757</v>
       </c>
       <c r="F229" t="s">
-        <v>1777</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>1778</v>
+        <v>1752</v>
       </c>
       <c r="B230" t="s">
-        <v>1779</v>
+        <v>1753</v>
       </c>
       <c r="C230" t="s">
-        <v>1780</v>
+        <v>1754</v>
       </c>
       <c r="D230" t="s">
-        <v>1781</v>
+        <v>1759</v>
       </c>
       <c r="E230" t="s">
-        <v>1782</v>
+        <v>1760</v>
       </c>
       <c r="F230" t="s">
-        <v>1783</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>1450</v>
+        <v>1766</v>
       </c>
       <c r="B231" t="s">
-        <v>195</v>
+        <v>1768</v>
       </c>
       <c r="C231" t="s">
-        <v>462</v>
+        <v>1767</v>
       </c>
       <c r="D231" t="s">
-        <v>723</v>
+        <v>1769</v>
       </c>
       <c r="E231" t="s">
-        <v>960</v>
+        <v>1770</v>
       </c>
       <c r="F231" t="s">
-        <v>1201</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>1451</v>
+        <v>1771</v>
       </c>
       <c r="B232" t="s">
-        <v>196</v>
+        <v>1762</v>
       </c>
       <c r="C232" t="s">
-        <v>505</v>
+        <v>1772</v>
       </c>
       <c r="D232" t="s">
-        <v>724</v>
+        <v>1763</v>
       </c>
       <c r="E232" t="s">
-        <v>961</v>
+        <v>1764</v>
       </c>
       <c r="F232" t="s">
-        <v>1202</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>1452</v>
+        <v>1773</v>
       </c>
       <c r="B233" t="s">
-        <v>197</v>
+        <v>1774</v>
       </c>
       <c r="C233" t="s">
-        <v>463</v>
+        <v>1773</v>
       </c>
       <c r="D233" t="s">
-        <v>725</v>
+        <v>1775</v>
       </c>
       <c r="E233" t="s">
-        <v>962</v>
+        <v>1776</v>
       </c>
       <c r="F233" t="s">
-        <v>1203</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>1453</v>
+        <v>1778</v>
       </c>
       <c r="B234" t="s">
-        <v>198</v>
+        <v>1779</v>
       </c>
       <c r="C234" t="s">
-        <v>464</v>
+        <v>1780</v>
       </c>
       <c r="D234" t="s">
-        <v>726</v>
+        <v>1781</v>
       </c>
       <c r="E234" t="s">
-        <v>963</v>
+        <v>1782</v>
       </c>
       <c r="F234" t="s">
-        <v>1204</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="B235" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C235" t="s">
-        <v>509</v>
+        <v>462</v>
       </c>
       <c r="D235" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="E235" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="F235" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="B236" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C236" t="s">
-        <v>465</v>
+        <v>505</v>
       </c>
       <c r="D236" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="E236" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="F236" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="B237" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C237" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D237" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="E237" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="F237" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>1799</v>
+        <v>1453</v>
       </c>
       <c r="B238" t="s">
-        <v>1797</v>
+        <v>198</v>
       </c>
       <c r="C238" t="s">
-        <v>1798</v>
+        <v>464</v>
       </c>
       <c r="D238" t="s">
-        <v>1800</v>
+        <v>726</v>
       </c>
       <c r="E238" t="s">
-        <v>1801</v>
+        <v>963</v>
       </c>
       <c r="F238" t="s">
-        <v>1802</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="B239" t="s">
-        <v>1622</v>
+        <v>199</v>
       </c>
       <c r="C239" t="s">
-        <v>1623</v>
+        <v>509</v>
       </c>
       <c r="D239" t="s">
-        <v>1624</v>
+        <v>727</v>
       </c>
       <c r="E239" t="s">
-        <v>1625</v>
+        <v>964</v>
       </c>
       <c r="F239" t="s">
-        <v>1626</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="B240" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C240" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D240" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E240" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="F240" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B241" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C241" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D241" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E241" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="F241" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>1460</v>
+        <v>1799</v>
       </c>
       <c r="B242" t="s">
-        <v>204</v>
+        <v>1797</v>
       </c>
       <c r="C242" t="s">
-        <v>524</v>
+        <v>1798</v>
       </c>
       <c r="D242" t="s">
-        <v>732</v>
+        <v>1800</v>
       </c>
       <c r="E242" t="s">
-        <v>969</v>
+        <v>1801</v>
       </c>
       <c r="F242" t="s">
-        <v>1210</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="B243" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
       <c r="C243" t="s">
-        <v>1618</v>
+        <v>1623</v>
       </c>
       <c r="D243" t="s">
-        <v>1619</v>
+        <v>1624</v>
       </c>
       <c r="E243" t="s">
-        <v>1620</v>
+        <v>1625</v>
       </c>
       <c r="F243" t="s">
-        <v>1621</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="B244" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C244" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D244" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="E244" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="F244" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="B245" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C245" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D245" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="E245" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="F245" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="B246" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C246" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="D246" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="E246" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="F246" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="B247" t="s">
-        <v>208</v>
+        <v>1617</v>
       </c>
       <c r="C247" t="s">
-        <v>471</v>
+        <v>1618</v>
       </c>
       <c r="D247" t="s">
-        <v>736</v>
+        <v>1619</v>
       </c>
       <c r="E247" t="s">
-        <v>973</v>
+        <v>1620</v>
       </c>
       <c r="F247" t="s">
-        <v>1214</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="B248" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="C248" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D248" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="E248" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="F248" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="B249" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="C249" t="s">
-        <v>784</v>
+        <v>470</v>
       </c>
       <c r="D249" t="s">
-        <v>786</v>
+        <v>734</v>
       </c>
       <c r="E249" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="F249" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="B250" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="C250" t="s">
-        <v>473</v>
+        <v>506</v>
       </c>
       <c r="D250" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="E250" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="F250" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="B251" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="C251" t="s">
-        <v>785</v>
+        <v>471</v>
       </c>
       <c r="D251" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="E251" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="F251" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="B252" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="C252" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D252" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E252" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="F252" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="B253" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="C253" t="s">
-        <v>475</v>
+        <v>784</v>
       </c>
       <c r="D253" t="s">
-        <v>741</v>
+        <v>786</v>
       </c>
       <c r="E253" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="F253" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="B254" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="C254" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D254" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="E254" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="F254" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="B255" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="C255" t="s">
-        <v>477</v>
+        <v>785</v>
       </c>
       <c r="D255" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="E255" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="F255" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="B256" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C256" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D256" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="E256" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="F256" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>1628</v>
+        <v>1471</v>
       </c>
       <c r="B257" t="s">
-        <v>1627</v>
+        <v>210</v>
       </c>
       <c r="C257" t="s">
-        <v>1629</v>
+        <v>475</v>
       </c>
       <c r="D257" t="s">
-        <v>1630</v>
+        <v>741</v>
       </c>
       <c r="E257" t="s">
-        <v>1631</v>
+        <v>979</v>
       </c>
       <c r="F257" t="s">
-        <v>1632</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="B258" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C258" t="s">
-        <v>508</v>
+        <v>476</v>
       </c>
       <c r="D258" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="E258" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="F258" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="B259" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C259" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D259" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E259" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="F259" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="B260" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C260" t="s">
-        <v>522</v>
+        <v>478</v>
       </c>
       <c r="D260" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="E260" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="F260" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>1478</v>
+        <v>1628</v>
       </c>
       <c r="B261" t="s">
-        <v>217</v>
+        <v>1627</v>
       </c>
       <c r="C261" t="s">
-        <v>480</v>
+        <v>1629</v>
       </c>
       <c r="D261" t="s">
-        <v>748</v>
+        <v>1630</v>
       </c>
       <c r="E261" t="s">
-        <v>986</v>
+        <v>1631</v>
       </c>
       <c r="F261" t="s">
-        <v>1227</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="B262" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C262" t="s">
-        <v>481</v>
+        <v>508</v>
       </c>
       <c r="D262" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="E262" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="F262" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="B263" t="s">
-        <v>24</v>
+        <v>215</v>
       </c>
       <c r="C263" t="s">
-        <v>521</v>
+        <v>479</v>
       </c>
       <c r="D263" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="E263" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="F263" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="B264" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C264" t="s">
-        <v>482</v>
+        <v>522</v>
       </c>
       <c r="D264" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="E264" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="F264" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>1610</v>
+        <v>1478</v>
       </c>
       <c r="B265" t="s">
-        <v>1609</v>
+        <v>217</v>
       </c>
       <c r="C265" t="s">
-        <v>1611</v>
+        <v>480</v>
       </c>
       <c r="D265" t="s">
-        <v>1612</v>
+        <v>748</v>
       </c>
       <c r="E265" t="s">
-        <v>1613</v>
+        <v>986</v>
       </c>
       <c r="F265" t="s">
-        <v>1614</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="B266" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C266" t="s">
-        <v>523</v>
+        <v>481</v>
       </c>
       <c r="D266" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="E266" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="F266" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="B267" t="s">
-        <v>221</v>
+        <v>24</v>
       </c>
       <c r="C267" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="D267" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="E267" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="F267" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>1515</v>
+        <v>1481</v>
       </c>
       <c r="B268" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C268" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D268" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="E268" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="F268" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>1485</v>
+        <v>1610</v>
       </c>
       <c r="B269" t="s">
-        <v>223</v>
+        <v>1609</v>
       </c>
       <c r="C269" t="s">
-        <v>484</v>
+        <v>1611</v>
       </c>
       <c r="D269" t="s">
-        <v>755</v>
+        <v>1612</v>
       </c>
       <c r="E269" t="s">
-        <v>993</v>
+        <v>1613</v>
       </c>
       <c r="F269" t="s">
-        <v>1234</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="B270" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C270" t="s">
-        <v>485</v>
+        <v>523</v>
       </c>
       <c r="D270" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="E270" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="F270" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>1489</v>
+        <v>1483</v>
       </c>
       <c r="B271" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C271" t="s">
-        <v>486</v>
+        <v>507</v>
       </c>
       <c r="D271" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="E271" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="F271" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>1487</v>
+        <v>1515</v>
       </c>
       <c r="B272" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C272" t="s">
-        <v>510</v>
+        <v>483</v>
       </c>
       <c r="D272" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="E272" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="F272" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="B273" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C273" t="s">
-        <v>511</v>
+        <v>484</v>
       </c>
       <c r="D273" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="E273" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="F273" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>1491</v>
+        <v>1486</v>
       </c>
       <c r="B274" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C274" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D274" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="E274" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="F274" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="B275" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C275" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D275" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="E275" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="F275" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>1494</v>
+        <v>1487</v>
       </c>
       <c r="B276" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C276" t="s">
-        <v>489</v>
+        <v>510</v>
       </c>
       <c r="D276" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="E276" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="F276" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>1495</v>
+        <v>1488</v>
       </c>
       <c r="B277" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C277" t="s">
-        <v>1524</v>
+        <v>511</v>
       </c>
       <c r="D277" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="E277" t="s">
-        <v>1525</v>
+        <v>997</v>
       </c>
       <c r="F277" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>1615</v>
+        <v>1491</v>
       </c>
       <c r="B278" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C278" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D278" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="E278" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="F278" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="B279" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C279" t="s">
-        <v>512</v>
+        <v>488</v>
       </c>
       <c r="D279" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="E279" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="F279" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="B280" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C280" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="D280" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="E280" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="F280" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>1635</v>
+        <v>1495</v>
       </c>
       <c r="B281" t="s">
-        <v>1633</v>
+        <v>235</v>
       </c>
       <c r="C281" t="s">
-        <v>1634</v>
+        <v>1524</v>
       </c>
       <c r="D281" t="s">
-        <v>1636</v>
+        <v>763</v>
       </c>
       <c r="E281" t="s">
-        <v>1637</v>
+        <v>1525</v>
       </c>
       <c r="F281" t="s">
-        <v>1638</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>1484</v>
+        <v>1615</v>
       </c>
       <c r="B282" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C282" t="s">
-        <v>514</v>
+        <v>490</v>
       </c>
       <c r="D282" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="E282" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="F282" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B283" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C283" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D283" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="E283" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="F283" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>1498</v>
+        <v>1492</v>
       </c>
       <c r="B284" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C284" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D284" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="E284" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="F284" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>1499</v>
+        <v>1635</v>
       </c>
       <c r="B285" t="s">
-        <v>242</v>
+        <v>1633</v>
       </c>
       <c r="C285" t="s">
-        <v>1500</v>
+        <v>1634</v>
       </c>
       <c r="D285" t="s">
-        <v>1501</v>
+        <v>1636</v>
       </c>
       <c r="E285" t="s">
-        <v>1502</v>
+        <v>1637</v>
       </c>
       <c r="F285" t="s">
-        <v>1503</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>1506</v>
+        <v>1484</v>
       </c>
       <c r="B286" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C286" t="s">
-        <v>491</v>
+        <v>514</v>
       </c>
       <c r="D286" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="E286" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="F286" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>1504</v>
+        <v>1497</v>
       </c>
       <c r="B287" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C287" t="s">
-        <v>492</v>
+        <v>515</v>
       </c>
       <c r="D287" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="E287" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="F287" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>1505</v>
+        <v>1498</v>
       </c>
       <c r="B288" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C288" t="s">
-        <v>493</v>
+        <v>516</v>
       </c>
       <c r="D288" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="E288" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F288" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>1639</v>
+        <v>1499</v>
       </c>
       <c r="B289" t="s">
-        <v>1641</v>
+        <v>242</v>
       </c>
       <c r="C289" t="s">
-        <v>1640</v>
+        <v>1500</v>
       </c>
       <c r="D289" t="s">
-        <v>1642</v>
+        <v>1501</v>
       </c>
       <c r="E289" t="s">
-        <v>1643</v>
+        <v>1502</v>
       </c>
       <c r="F289" t="s">
-        <v>1644</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="B290" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C290" t="s">
-        <v>517</v>
+        <v>491</v>
       </c>
       <c r="D290" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="E290" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="F290" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="B291" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C291" t="s">
-        <v>518</v>
+        <v>492</v>
       </c>
       <c r="D291" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="E291" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="F291" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="B292" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C292" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D292" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="E292" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="F292" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>1510</v>
+        <v>1639</v>
       </c>
       <c r="B293" t="s">
-        <v>249</v>
+        <v>1641</v>
       </c>
       <c r="C293" t="s">
-        <v>519</v>
+        <v>1640</v>
       </c>
       <c r="D293" t="s">
-        <v>776</v>
+        <v>1642</v>
       </c>
       <c r="E293" t="s">
-        <v>1013</v>
+        <v>1643</v>
       </c>
       <c r="F293" t="s">
-        <v>1255</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="B294" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C294" t="s">
-        <v>495</v>
+        <v>517</v>
       </c>
       <c r="D294" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="E294" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="F294" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="B295" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C295" t="s">
-        <v>496</v>
+        <v>518</v>
       </c>
       <c r="D295" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="E295" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="F295" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>1490</v>
+        <v>1509</v>
       </c>
       <c r="B296" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C296" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D296" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="E296" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="F296" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="B297" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C297" t="s">
-        <v>498</v>
+        <v>519</v>
       </c>
       <c r="D297" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="E297" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="F297" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="B298" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C298" t="s">
-        <v>520</v>
+        <v>495</v>
       </c>
       <c r="D298" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="E298" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="F298" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>1664</v>
+        <v>1512</v>
       </c>
       <c r="B299" t="s">
-        <v>1659</v>
+        <v>251</v>
       </c>
       <c r="C299" t="s">
-        <v>1660</v>
+        <v>496</v>
       </c>
       <c r="D299" t="s">
-        <v>1661</v>
+        <v>778</v>
       </c>
       <c r="E299" t="s">
-        <v>1662</v>
+        <v>1015</v>
       </c>
       <c r="F299" t="s">
-        <v>1663</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>1670</v>
+        <v>1490</v>
       </c>
       <c r="B300" t="s">
-        <v>1665</v>
+        <v>252</v>
       </c>
       <c r="C300" t="s">
-        <v>1666</v>
+        <v>497</v>
       </c>
       <c r="D300" t="s">
-        <v>1667</v>
+        <v>779</v>
       </c>
       <c r="E300" t="s">
-        <v>1668</v>
+        <v>1016</v>
       </c>
       <c r="F300" t="s">
-        <v>1669</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>1676</v>
+        <v>1513</v>
       </c>
       <c r="B301" t="s">
-        <v>1671</v>
+        <v>253</v>
       </c>
       <c r="C301" t="s">
-        <v>1672</v>
+        <v>498</v>
       </c>
       <c r="D301" t="s">
-        <v>1673</v>
+        <v>780</v>
       </c>
       <c r="E301" t="s">
-        <v>1674</v>
+        <v>1017</v>
       </c>
       <c r="F301" t="s">
-        <v>1675</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>1704</v>
+        <v>1514</v>
       </c>
       <c r="B302" t="s">
-        <v>1702</v>
+        <v>254</v>
       </c>
       <c r="C302" t="s">
-        <v>1805</v>
+        <v>520</v>
       </c>
       <c r="D302" t="s">
-        <v>1706</v>
+        <v>781</v>
       </c>
       <c r="E302" t="s">
-        <v>1707</v>
+        <v>1018</v>
       </c>
       <c r="F302" t="s">
-        <v>1708</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>1705</v>
+        <v>1664</v>
       </c>
       <c r="B303" t="s">
-        <v>1703</v>
+        <v>1659</v>
       </c>
       <c r="C303" t="s">
-        <v>1709</v>
+        <v>1660</v>
       </c>
       <c r="D303" t="s">
-        <v>1710</v>
+        <v>1661</v>
       </c>
       <c r="E303" t="s">
-        <v>1711</v>
+        <v>1662</v>
       </c>
       <c r="F303" t="s">
-        <v>1712</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>1804</v>
+        <v>1670</v>
       </c>
       <c r="B304" t="s">
-        <v>1803</v>
+        <v>1665</v>
       </c>
       <c r="C304" t="s">
-        <v>1806</v>
+        <v>1666</v>
       </c>
       <c r="D304" t="s">
-        <v>1807</v>
+        <v>1667</v>
       </c>
       <c r="E304" t="s">
-        <v>1808</v>
+        <v>1668</v>
       </c>
       <c r="F304" t="s">
-        <v>1809</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
       <c r="B305" t="s">
-        <v>1677</v>
+        <v>1671</v>
       </c>
       <c r="C305" t="s">
-        <v>1679</v>
+        <v>1672</v>
       </c>
       <c r="D305" t="s">
-        <v>1681</v>
+        <v>1673</v>
       </c>
       <c r="E305" t="s">
-        <v>1682</v>
+        <v>1674</v>
       </c>
       <c r="F305" t="s">
-        <v>1683</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>1685</v>
+        <v>1704</v>
       </c>
       <c r="B306" t="s">
-        <v>1678</v>
+        <v>1702</v>
       </c>
       <c r="C306" t="s">
-        <v>1684</v>
+        <v>1805</v>
       </c>
       <c r="D306" t="s">
-        <v>1686</v>
+        <v>1706</v>
       </c>
       <c r="E306" t="s">
-        <v>1687</v>
+        <v>1707</v>
       </c>
       <c r="F306" t="s">
-        <v>1688</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>1691</v>
+        <v>1705</v>
       </c>
       <c r="B307" t="s">
-        <v>1690</v>
+        <v>1703</v>
       </c>
       <c r="C307" t="s">
-        <v>1689</v>
+        <v>1709</v>
       </c>
       <c r="D307" t="s">
-        <v>1692</v>
+        <v>1710</v>
       </c>
       <c r="E307" t="s">
-        <v>1693</v>
+        <v>1711</v>
       </c>
       <c r="F307" t="s">
-        <v>1694</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>1554</v>
+        <v>1804</v>
       </c>
       <c r="B308" t="s">
-        <v>1532</v>
+        <v>1803</v>
       </c>
       <c r="C308" t="s">
-        <v>1567</v>
+        <v>1806</v>
       </c>
       <c r="D308" t="s">
-        <v>1576</v>
+        <v>1807</v>
       </c>
       <c r="E308" t="s">
-        <v>1587</v>
+        <v>1808</v>
       </c>
       <c r="F308" t="s">
-        <v>1598</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>1568</v>
+        <v>1680</v>
       </c>
       <c r="B309" t="s">
-        <v>1533</v>
+        <v>1677</v>
       </c>
       <c r="C309" t="s">
-        <v>1563</v>
+        <v>1679</v>
       </c>
       <c r="D309" t="s">
-        <v>1577</v>
+        <v>1681</v>
       </c>
       <c r="E309" t="s">
-        <v>1588</v>
+        <v>1682</v>
       </c>
       <c r="F309" t="s">
-        <v>1599</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>1569</v>
+        <v>1685</v>
       </c>
       <c r="B310" t="s">
-        <v>1534</v>
+        <v>1678</v>
       </c>
       <c r="C310" t="s">
-        <v>1564</v>
+        <v>1684</v>
       </c>
       <c r="D310" t="s">
-        <v>1578</v>
+        <v>1686</v>
       </c>
       <c r="E310" t="s">
-        <v>1589</v>
+        <v>1687</v>
       </c>
       <c r="F310" t="s">
-        <v>1600</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>1555</v>
+        <v>1691</v>
       </c>
       <c r="B311" t="s">
-        <v>1535</v>
+        <v>1690</v>
       </c>
       <c r="C311" t="s">
-        <v>1575</v>
+        <v>1689</v>
       </c>
       <c r="D311" t="s">
-        <v>1579</v>
+        <v>1692</v>
       </c>
       <c r="E311" t="s">
-        <v>1590</v>
+        <v>1693</v>
       </c>
       <c r="F311" t="s">
-        <v>1601</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="B312" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="C312" t="s">
-        <v>1574</v>
+        <v>1567</v>
       </c>
       <c r="D312" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
       <c r="E312" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="F312" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>1557</v>
+        <v>1568</v>
       </c>
       <c r="B313" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
       <c r="C313" t="s">
-        <v>1573</v>
+        <v>1563</v>
       </c>
       <c r="D313" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="E313" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="F313" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>1558</v>
+        <v>1569</v>
       </c>
       <c r="B314" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="C314" t="s">
-        <v>1572</v>
+        <v>1564</v>
       </c>
       <c r="D314" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
       <c r="E314" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="F314" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="B315" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
       <c r="C315" t="s">
-        <v>1571</v>
+        <v>1575</v>
       </c>
       <c r="D315" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="E315" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="F315" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="B316" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
       <c r="C316" t="s">
-        <v>1570</v>
+        <v>1574</v>
       </c>
       <c r="D316" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="E316" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="F316" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
       <c r="B317" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
       <c r="C317" t="s">
-        <v>1565</v>
+        <v>1573</v>
       </c>
       <c r="D317" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
       <c r="E317" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="F317" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>1562</v>
+        <v>1558</v>
       </c>
       <c r="B318" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="C318" t="s">
-        <v>1566</v>
+        <v>1572</v>
       </c>
       <c r="D318" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
       <c r="E318" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="F318" t="s">
-        <v>1608</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>1787</v>
+        <v>1559</v>
       </c>
       <c r="B319" t="s">
-        <v>1785</v>
+        <v>1539</v>
       </c>
       <c r="C319" t="s">
-        <v>1786</v>
+        <v>1571</v>
       </c>
       <c r="D319" t="s">
-        <v>1794</v>
+        <v>1583</v>
       </c>
       <c r="E319" t="s">
-        <v>1795</v>
+        <v>1594</v>
       </c>
       <c r="F319" t="s">
-        <v>1796</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>1789</v>
+        <v>1560</v>
       </c>
       <c r="B320" t="s">
-        <v>1788</v>
+        <v>1540</v>
       </c>
       <c r="C320" t="s">
-        <v>1790</v>
+        <v>1570</v>
       </c>
       <c r="D320" t="s">
-        <v>1791</v>
+        <v>1584</v>
       </c>
       <c r="E320" t="s">
-        <v>1792</v>
+        <v>1595</v>
       </c>
       <c r="F320" t="s">
-        <v>1793</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>1918</v>
+        <v>1561</v>
       </c>
       <c r="B321" t="s">
-        <v>1917</v>
+        <v>1541</v>
       </c>
       <c r="C321" t="s">
-        <v>1919</v>
+        <v>1565</v>
       </c>
       <c r="D321" t="s">
-        <v>1920</v>
+        <v>1585</v>
       </c>
       <c r="E321" t="s">
-        <v>1921</v>
+        <v>1596</v>
       </c>
       <c r="F321" t="s">
-        <v>1923</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>1895</v>
+        <v>1562</v>
       </c>
       <c r="B322" t="s">
-        <v>1894</v>
+        <v>1542</v>
       </c>
       <c r="C322" t="s">
-        <v>1896</v>
+        <v>1566</v>
       </c>
       <c r="D322" t="s">
-        <v>1897</v>
+        <v>1586</v>
       </c>
       <c r="E322" t="s">
-        <v>1898</v>
+        <v>1597</v>
       </c>
       <c r="F322" t="s">
-        <v>1922</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B323" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C323" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D323" t="s">
+        <v>1794</v>
+      </c>
+      <c r="E323" t="s">
+        <v>1795</v>
+      </c>
+      <c r="F323" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B324" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C324" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D324" t="s">
+        <v>1791</v>
+      </c>
+      <c r="E324" t="s">
+        <v>1792</v>
+      </c>
+      <c r="F324" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B325" t="s">
+        <v>1917</v>
+      </c>
+      <c r="C325" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D325" t="s">
+        <v>1920</v>
+      </c>
+      <c r="E325" t="s">
+        <v>1921</v>
+      </c>
+      <c r="F325" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B326" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C326" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D326" t="s">
+        <v>1897</v>
+      </c>
+      <c r="E326" t="s">
+        <v>1898</v>
+      </c>
+      <c r="F326" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
         <v>1550</v>
       </c>
-      <c r="B323" t="s">
+      <c r="B327" t="s">
         <v>1548</v>
       </c>
-      <c r="C323" t="s">
+      <c r="C327" t="s">
         <v>1549</v>
       </c>
-      <c r="D323" t="s">
+      <c r="D327" t="s">
         <v>1551</v>
       </c>
-      <c r="E323" t="s">
+      <c r="E327" t="s">
         <v>1552</v>
       </c>
-      <c r="F323" t="s">
+      <c r="F327" t="s">
         <v>1553</v>
       </c>
     </row>

--- a/lang/words_dict.xlsx
+++ b/lang/words_dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\si lab\Matlab Projects\Registration\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FE087A-1C7A-44FC-A7D2-A6EA620D23CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29167289-2AA4-4074-84CA-C5FC28835BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1968" uniqueCount="1954">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="1966">
   <si>
     <t>文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6668,13 +6668,54 @@
   </si>
   <si>
     <t>La operación de alineación de canales es irreversible, ¿continuar?</t>
+  </si>
+  <si>
+    <t>通道对齐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHANNEL_ALIGNMENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Channel Alignment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Выравнивание каналов</t>
+  </si>
+  <si>
+    <t>Alignement des canaux</t>
+  </si>
+  <si>
+    <t>Alineación de canales</t>
+  </si>
+  <si>
+    <t>正在对齐通道…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHANNEL_ALIGNING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aligning channels...</t>
+  </si>
+  <si>
+    <t>Выравнивание каналов...</t>
+  </si>
+  <si>
+    <t>Aligner les canaux...</t>
+  </si>
+  <si>
+    <t>Alineando canales...</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6684,6 +6725,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -6710,8 +6759,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6992,10 +7042,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F328"/>
+  <dimension ref="A1:F330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C242" workbookViewId="0">
-      <selection activeCell="F266" sqref="F266"/>
+    <sheetView tabSelected="1" topLeftCell="A275" workbookViewId="0">
+      <selection activeCell="H313" sqref="H313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7230,4419 +7280,4419 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1273</v>
+        <v>1955</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>1954</v>
       </c>
       <c r="C12" t="s">
-        <v>263</v>
+        <v>1956</v>
       </c>
       <c r="D12" t="s">
-        <v>537</v>
+        <v>1957</v>
       </c>
       <c r="E12" t="s">
-        <v>794</v>
-      </c>
-      <c r="F12" t="s">
-        <v>1026</v>
+        <v>1958</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>1959</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B13" t="s">
-        <v>1717</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D13" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E13" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F13" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B14" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="C14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D14" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E14" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F14" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B15" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="C15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D15" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E15" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F15" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B16" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="C16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D16" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E16" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F16" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>1720</v>
       </c>
       <c r="C17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D17" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E17" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F17" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1522</v>
+        <v>1278</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E18" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F18" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1507</v>
+        <v>1522</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E19" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F19" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1279</v>
+        <v>1507</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D20" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E20" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F20" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D21" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E21" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F21" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D22" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E22" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F22" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D23" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E23" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F23" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D24" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E24" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F24" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D25" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E25" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F25" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D26" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E26" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F26" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D27" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E27" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F27" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D28" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E28" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F28" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="B29" t="s">
-        <v>525</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>527</v>
+        <v>279</v>
       </c>
       <c r="D29" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E29" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F29" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B30" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C30" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D30" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E30" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F30" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>526</v>
       </c>
       <c r="C31" t="s">
-        <v>281</v>
+        <v>528</v>
       </c>
       <c r="D31" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E31" t="s">
-        <v>280</v>
+        <v>812</v>
       </c>
       <c r="F31" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D32" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E32" t="s">
-        <v>813</v>
+        <v>280</v>
       </c>
       <c r="F32" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D33" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E33" t="s">
-        <v>284</v>
+        <v>813</v>
       </c>
       <c r="F33" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D34" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E34" t="s">
-        <v>814</v>
+        <v>284</v>
       </c>
       <c r="F34" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C35" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D35" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E35" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F35" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D36" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E36" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F36" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D37" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E37" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F37" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C38" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D38" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E38" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F38" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C39" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D39" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E39" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F39" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D40" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E40" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F40" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C41" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D41" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E41" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F41" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="B42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C42" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D42" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E42" t="s">
-        <v>293</v>
+        <v>821</v>
       </c>
       <c r="F42" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C43" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D43" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E43" t="s">
-        <v>822</v>
+        <v>293</v>
       </c>
       <c r="F43" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C44" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D44" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E44" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F44" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C45" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D45" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E45" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F45" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="B46" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C46" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D46" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E46" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F46" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B47" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C47" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D47" t="s">
-        <v>1542</v>
+        <v>571</v>
       </c>
       <c r="E47" t="s">
-        <v>1543</v>
+        <v>825</v>
       </c>
       <c r="F47" t="s">
-        <v>1544</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="B48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C48" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D48" t="s">
-        <v>572</v>
+        <v>1542</v>
       </c>
       <c r="E48" t="s">
-        <v>826</v>
+        <v>1543</v>
       </c>
       <c r="F48" t="s">
-        <v>1061</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C49" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D49" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E49" t="s">
-        <v>815</v>
+        <v>826</v>
       </c>
       <c r="F49" t="s">
-        <v>1049</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="B50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C50" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D50" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E50" t="s">
-        <v>827</v>
+        <v>815</v>
       </c>
       <c r="F50" t="s">
-        <v>1062</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C51" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D51" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E51" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F51" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="B52" t="s">
-        <v>1545</v>
+        <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D52" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E52" t="s">
-        <v>304</v>
+        <v>828</v>
       </c>
       <c r="F52" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B53" t="s">
-        <v>46</v>
+        <v>1545</v>
       </c>
       <c r="C53" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D53" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E53" t="s">
-        <v>829</v>
+        <v>304</v>
       </c>
       <c r="F53" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="B54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C54" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D54" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E54" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F54" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C55" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D55" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E55" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="F55" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C56" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D56" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E56" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F56" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B57" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C57" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D57" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E57" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F57" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C58" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D58" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E58" t="s">
-        <v>311</v>
+        <v>833</v>
       </c>
       <c r="F58" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D59" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E59" t="s">
-        <v>834</v>
+        <v>311</v>
       </c>
       <c r="F59" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D60" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E60" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F60" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>1432</v>
+        <v>1319</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>1433</v>
+        <v>314</v>
       </c>
       <c r="D61" t="s">
-        <v>1434</v>
+        <v>584</v>
       </c>
       <c r="E61" t="s">
-        <v>1435</v>
+        <v>835</v>
       </c>
       <c r="F61" t="s">
-        <v>1436</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>1320</v>
+        <v>1432</v>
       </c>
       <c r="B62" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>315</v>
+        <v>1433</v>
       </c>
       <c r="D62" t="s">
-        <v>585</v>
+        <v>1434</v>
       </c>
       <c r="E62" t="s">
-        <v>836</v>
+        <v>1435</v>
       </c>
       <c r="F62" t="s">
-        <v>1073</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B63" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C63" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D63" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E63" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F63" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C64" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D64" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E64" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F64" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="B65" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C65" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D65" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E65" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F65" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B66" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C66" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D66" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E66" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F66" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="B67" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C67" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D67" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E67" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F67" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="B68" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C68" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D68" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E68" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F68" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B69" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C69" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D69" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E69" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F69" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B70" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C70" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D70" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E70" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F70" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B71" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C71" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D71" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E71" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F71" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1615</v>
+        <v>1329</v>
       </c>
       <c r="B72" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C72" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D72" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E72" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F72" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>1437</v>
+        <v>1615</v>
       </c>
       <c r="B73" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C73" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D73" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E73" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F73" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>1330</v>
+        <v>1437</v>
       </c>
       <c r="B74" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C74" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D74" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E74" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F74" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B75" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C75" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D75" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E75" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F75" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B76" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C76" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D76" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E76" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F76" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B77" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C77" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D77" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E77" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F77" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B78" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C78" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D78" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E78" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F78" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B79" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C79" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D79" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E79" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F79" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B80" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C80" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D80" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E80" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F80" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B81" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C81" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D81" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E81" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F81" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="B82" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C82" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D82" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E82" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F82" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="B83" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C83" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D83" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E83" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F83" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="B84" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C84" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D84" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E84" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F84" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="B85" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C85" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D85" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E85" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F85" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="B86" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C86" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D86" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E86" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F86" t="s">
-        <v>860</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B87" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C87" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D87" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E87" t="s">
-        <v>340</v>
+        <v>860</v>
       </c>
       <c r="F87" t="s">
-        <v>1097</v>
+        <v>860</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="B88" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C88" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D88" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E88" t="s">
-        <v>861</v>
+        <v>340</v>
       </c>
       <c r="F88" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="B89" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C89" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D89" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E89" t="s">
-        <v>344</v>
+        <v>861</v>
       </c>
       <c r="F89" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>1944</v>
+        <v>1345</v>
       </c>
       <c r="B90" t="s">
-        <v>1923</v>
+        <v>83</v>
       </c>
       <c r="C90" t="s">
-        <v>1927</v>
+        <v>345</v>
       </c>
       <c r="D90" t="s">
-        <v>1931</v>
+        <v>612</v>
       </c>
       <c r="E90" t="s">
-        <v>1935</v>
+        <v>344</v>
       </c>
       <c r="F90" t="s">
-        <v>1939</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="B91" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="C91" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="D91" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="E91" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="F91" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="B92" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="C92" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="D92" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="E92" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="F92" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="B93" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="C93" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="D93" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="E93" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="F93" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>1644</v>
+        <v>1946</v>
       </c>
       <c r="B94" t="s">
-        <v>84</v>
+        <v>1926</v>
       </c>
       <c r="C94" t="s">
-        <v>343</v>
+        <v>1930</v>
       </c>
       <c r="D94" t="s">
-        <v>613</v>
+        <v>1934</v>
       </c>
       <c r="E94" t="s">
-        <v>862</v>
+        <v>1938</v>
       </c>
       <c r="F94" t="s">
-        <v>1100</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>1346</v>
+        <v>1644</v>
       </c>
       <c r="B95" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C95" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D95" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E95" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F95" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="B96" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C96" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D96" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E96" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F96" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>1645</v>
+        <v>1347</v>
       </c>
       <c r="B97" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C97" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D97" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E97" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F97" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>1348</v>
+        <v>1645</v>
       </c>
       <c r="B98" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C98" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D98" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E98" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F98" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>1438</v>
+        <v>1348</v>
       </c>
       <c r="B99" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C99" t="s">
-        <v>524</v>
+        <v>357</v>
       </c>
       <c r="D99" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E99" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F99" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>1349</v>
+        <v>1438</v>
       </c>
       <c r="B100" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C100" t="s">
-        <v>349</v>
+        <v>524</v>
       </c>
       <c r="D100" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E100" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F100" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="B101" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C101" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D101" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E101" t="s">
-        <v>350</v>
+        <v>868</v>
       </c>
       <c r="F101" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="B102" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C102" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D102" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E102" t="s">
-        <v>869</v>
+        <v>350</v>
       </c>
       <c r="F102" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="B103" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C103" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D103" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E103" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F103" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B104" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C104" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D104" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E104" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F104" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B105" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C105" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D105" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E105" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="F105" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="B106" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C106" t="s">
-        <v>781</v>
+        <v>355</v>
       </c>
       <c r="D106" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E106" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F106" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="B107" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C107" t="s">
-        <v>356</v>
+        <v>781</v>
       </c>
       <c r="D107" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E107" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F107" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>1647</v>
+        <v>1356</v>
       </c>
       <c r="B108" t="s">
-        <v>1646</v>
+        <v>97</v>
       </c>
       <c r="C108" t="s">
-        <v>1648</v>
+        <v>356</v>
       </c>
       <c r="D108" t="s">
-        <v>1650</v>
+        <v>626</v>
       </c>
       <c r="E108" t="s">
-        <v>1651</v>
+        <v>874</v>
       </c>
       <c r="F108" t="s">
-        <v>1649</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>1653</v>
+        <v>1647</v>
       </c>
       <c r="B109" t="s">
-        <v>1652</v>
+        <v>1646</v>
       </c>
       <c r="C109" t="s">
-        <v>1654</v>
+        <v>1648</v>
       </c>
       <c r="D109" t="s">
-        <v>1655</v>
+        <v>1650</v>
       </c>
       <c r="E109" t="s">
-        <v>1656</v>
+        <v>1651</v>
       </c>
       <c r="F109" t="s">
-        <v>1657</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>1357</v>
+        <v>1653</v>
       </c>
       <c r="B110" t="s">
-        <v>98</v>
+        <v>1652</v>
       </c>
       <c r="C110" t="s">
-        <v>358</v>
+        <v>1654</v>
       </c>
       <c r="D110" t="s">
-        <v>627</v>
+        <v>1655</v>
       </c>
       <c r="E110" t="s">
-        <v>875</v>
+        <v>1656</v>
       </c>
       <c r="F110" t="s">
-        <v>1114</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B111" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C111" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D111" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E111" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F111" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="B112" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C112" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D112" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E112" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F112" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B113" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C113" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E113" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F113" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B114" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C114" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D114" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E114" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F114" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B115" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C115" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D115" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E115" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F115" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="B116" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C116" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D116" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E116" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F116" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B117" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C117" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D117" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E117" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F117" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B118" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C118" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D118" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E118" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F118" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="B119" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C119" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D119" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E119" t="s">
-        <v>367</v>
+        <v>883</v>
       </c>
       <c r="F119" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B120" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C120" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D120" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E120" t="s">
-        <v>884</v>
+        <v>367</v>
       </c>
       <c r="F120" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B121" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C121" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D121" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E121" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F121" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="B122" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C122" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D122" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E122" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F122" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>1694</v>
+        <v>1369</v>
       </c>
       <c r="B123" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C123" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D123" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E123" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F123" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>1370</v>
+        <v>1694</v>
       </c>
       <c r="B124" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C124" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D124" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E124" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F124" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="B125" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C125" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D125" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E125" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F125" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B126" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C126" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D126" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E126" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F126" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B127" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C127" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D127" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E127" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F127" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="B128" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C128" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D128" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E128" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F128" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="B129" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C129" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D129" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E129" t="s">
-        <v>378</v>
+        <v>892</v>
       </c>
       <c r="F129" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="B130" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C130" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D130" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E130" t="s">
-        <v>893</v>
+        <v>378</v>
       </c>
       <c r="F130" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B131" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C131" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D131" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E131" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F131" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B132" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C132" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D132" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E132" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F132" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="B133" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C133" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D133" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E133" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F133" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>1439</v>
+        <v>1379</v>
       </c>
       <c r="B134" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C134" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D134" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E134" t="s">
-        <v>384</v>
+        <v>896</v>
       </c>
       <c r="F134" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>1380</v>
+        <v>1439</v>
       </c>
       <c r="B135" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C135" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D135" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E135" t="s">
-        <v>897</v>
+        <v>384</v>
       </c>
       <c r="F135" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>1905</v>
+        <v>1380</v>
       </c>
       <c r="B136" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C136" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D136" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E136" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F136" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="B137" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C137" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D137" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E137" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F137" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>1381</v>
+        <v>1904</v>
       </c>
       <c r="B138" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C138" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D138" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E138" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F138" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B139" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C139" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D139" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E139" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F139" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B140" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C140" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D140" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E140" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F140" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B141" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C141" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D141" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E141" t="s">
-        <v>392</v>
+        <v>902</v>
       </c>
       <c r="F141" t="s">
-        <v>392</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>1741</v>
+        <v>1384</v>
       </c>
       <c r="B142" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C142" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D142" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E142" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F142" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="B143" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C143" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D143" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E143" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F143" t="s">
-        <v>1145</v>
+        <v>394</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>1721</v>
+        <v>1742</v>
       </c>
       <c r="B144" t="s">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="C144" t="s">
-        <v>1725</v>
+        <v>397</v>
       </c>
       <c r="D144" t="s">
-        <v>1731</v>
+        <v>660</v>
       </c>
       <c r="E144" t="s">
-        <v>1735</v>
+        <v>396</v>
       </c>
       <c r="F144" t="s">
-        <v>1737</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B145" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C145" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
       <c r="D145" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="E145" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="F145" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="B146" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C146" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="D146" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="E146" t="s">
-        <v>1726</v>
+        <v>1736</v>
       </c>
       <c r="F146" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="B147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C147" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="D147" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="E147" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="F147" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>1783</v>
+        <v>1724</v>
       </c>
       <c r="B148" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="C148" t="s">
-        <v>400</v>
+        <v>1730</v>
       </c>
       <c r="D148" t="s">
-        <v>663</v>
+        <v>1734</v>
       </c>
       <c r="E148" t="s">
-        <v>905</v>
+        <v>1727</v>
       </c>
       <c r="F148" t="s">
-        <v>1148</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>1912</v>
+        <v>1783</v>
       </c>
       <c r="B149" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C149" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D149" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E149" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F149" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>1910</v>
+        <v>1912</v>
       </c>
       <c r="B150" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C150" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D150" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E150" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F150" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>1913</v>
+        <v>1910</v>
       </c>
       <c r="B151" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C151" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D151" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E151" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F151" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>1386</v>
+        <v>1913</v>
       </c>
       <c r="B152" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C152" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D152" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E152" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F152" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="B153" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C153" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D153" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E153" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F153" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="B154" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C154" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D154" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E154" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F154" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B155" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C155" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D155" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E155" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="F155" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="B156" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C156" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D156" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E156" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F156" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="B157" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C157" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D157" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E157" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F157" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="B158" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C158" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D158" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E158" t="s">
-        <v>410</v>
+        <v>914</v>
       </c>
       <c r="F158" t="s">
-        <v>410</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>1914</v>
+        <v>1392</v>
       </c>
       <c r="B159" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C159" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D159" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E159" t="s">
-        <v>915</v>
+        <v>410</v>
       </c>
       <c r="F159" t="s">
-        <v>1158</v>
+        <v>410</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>1393</v>
+        <v>1914</v>
       </c>
       <c r="B160" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C160" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D160" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E160" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F160" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>1900</v>
+        <v>1393</v>
       </c>
       <c r="B161" t="s">
-        <v>1898</v>
+        <v>146</v>
       </c>
       <c r="C161" t="s">
-        <v>1899</v>
+        <v>413</v>
       </c>
       <c r="D161" t="s">
-        <v>1901</v>
+        <v>675</v>
       </c>
       <c r="E161" t="s">
-        <v>1902</v>
+        <v>916</v>
       </c>
       <c r="F161" t="s">
-        <v>1903</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>1823</v>
+        <v>1900</v>
       </c>
       <c r="B162" t="s">
-        <v>1809</v>
+        <v>1898</v>
       </c>
       <c r="C162" t="s">
-        <v>1824</v>
+        <v>1899</v>
       </c>
       <c r="D162" t="s">
-        <v>1825</v>
+        <v>1901</v>
       </c>
       <c r="E162" t="s">
-        <v>1826</v>
+        <v>1902</v>
       </c>
       <c r="F162" t="s">
-        <v>1827</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>1907</v>
+        <v>1823</v>
       </c>
       <c r="B163" t="s">
-        <v>133</v>
+        <v>1809</v>
       </c>
       <c r="C163" t="s">
-        <v>399</v>
+        <v>1824</v>
       </c>
       <c r="D163" t="s">
-        <v>662</v>
+        <v>1825</v>
       </c>
       <c r="E163" t="s">
-        <v>904</v>
+        <v>1826</v>
       </c>
       <c r="F163" t="s">
-        <v>1147</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="B164" t="s">
-        <v>1712</v>
+        <v>133</v>
       </c>
       <c r="C164" t="s">
-        <v>1713</v>
+        <v>399</v>
       </c>
       <c r="D164" t="s">
-        <v>1714</v>
+        <v>662</v>
       </c>
       <c r="E164" t="s">
-        <v>1715</v>
+        <v>904</v>
       </c>
       <c r="F164" t="s">
-        <v>1716</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>1836</v>
+        <v>1908</v>
       </c>
       <c r="B165" t="s">
-        <v>1810</v>
+        <v>1712</v>
       </c>
       <c r="C165" t="s">
-        <v>1828</v>
+        <v>1713</v>
       </c>
       <c r="D165" t="s">
-        <v>1833</v>
+        <v>1714</v>
       </c>
       <c r="E165" t="s">
-        <v>1834</v>
+        <v>1715</v>
       </c>
       <c r="F165" t="s">
-        <v>1835</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="B166" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="C166" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="D166" t="s">
-        <v>1830</v>
+        <v>1833</v>
       </c>
       <c r="E166" t="s">
-        <v>1831</v>
+        <v>1834</v>
       </c>
       <c r="F166" t="s">
-        <v>1832</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="B167" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="C167" t="s">
-        <v>1839</v>
+        <v>1829</v>
       </c>
       <c r="D167" t="s">
-        <v>1840</v>
+        <v>1830</v>
       </c>
       <c r="E167" t="s">
-        <v>1841</v>
+        <v>1831</v>
       </c>
       <c r="F167" t="s">
-        <v>1842</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>1844</v>
+        <v>1838</v>
       </c>
       <c r="B168" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="C168" t="s">
-        <v>1843</v>
+        <v>1839</v>
       </c>
       <c r="D168" t="s">
-        <v>1845</v>
+        <v>1840</v>
       </c>
       <c r="E168" t="s">
-        <v>1846</v>
+        <v>1841</v>
       </c>
       <c r="F168" t="s">
-        <v>1847</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>1852</v>
+        <v>1844</v>
       </c>
       <c r="B169" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="C169" t="s">
-        <v>1849</v>
+        <v>1843</v>
       </c>
       <c r="D169" t="s">
-        <v>1848</v>
+        <v>1845</v>
       </c>
       <c r="E169" t="s">
-        <v>1850</v>
+        <v>1846</v>
       </c>
       <c r="F169" t="s">
-        <v>1851</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="B170" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="C170" t="s">
-        <v>1855</v>
+        <v>1849</v>
       </c>
       <c r="D170" t="s">
-        <v>1856</v>
+        <v>1848</v>
       </c>
       <c r="E170" t="s">
-        <v>1854</v>
+        <v>1850</v>
       </c>
       <c r="F170" t="s">
-        <v>1857</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>1858</v>
+        <v>1853</v>
       </c>
       <c r="B171" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="C171" t="s">
-        <v>1859</v>
+        <v>1855</v>
       </c>
       <c r="D171" t="s">
-        <v>1860</v>
+        <v>1856</v>
       </c>
       <c r="E171" t="s">
-        <v>1861</v>
+        <v>1854</v>
       </c>
       <c r="F171" t="s">
-        <v>1862</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>1867</v>
+        <v>1858</v>
       </c>
       <c r="B172" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="C172" t="s">
-        <v>1863</v>
+        <v>1859</v>
       </c>
       <c r="D172" t="s">
-        <v>1864</v>
+        <v>1860</v>
       </c>
       <c r="E172" t="s">
-        <v>1865</v>
+        <v>1861</v>
       </c>
       <c r="F172" t="s">
-        <v>1866</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>1873</v>
+        <v>1867</v>
       </c>
       <c r="B173" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="C173" t="s">
-        <v>1872</v>
+        <v>1863</v>
       </c>
       <c r="D173" t="s">
-        <v>1874</v>
+        <v>1864</v>
       </c>
       <c r="E173" t="s">
-        <v>1875</v>
+        <v>1865</v>
       </c>
       <c r="F173" t="s">
-        <v>1876</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>1881</v>
+        <v>1873</v>
       </c>
       <c r="B174" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="C174" t="s">
-        <v>1868</v>
+        <v>1872</v>
       </c>
       <c r="D174" t="s">
-        <v>1869</v>
+        <v>1874</v>
       </c>
       <c r="E174" t="s">
-        <v>1870</v>
+        <v>1875</v>
       </c>
       <c r="F174" t="s">
-        <v>1871</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="B175" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="C175" t="s">
-        <v>1877</v>
+        <v>1868</v>
       </c>
       <c r="D175" t="s">
-        <v>1878</v>
+        <v>1869</v>
       </c>
       <c r="E175" t="s">
-        <v>1879</v>
+        <v>1870</v>
       </c>
       <c r="F175" t="s">
-        <v>1880</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>1887</v>
+        <v>1882</v>
       </c>
       <c r="B176" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="C176" t="s">
-        <v>1885</v>
+        <v>1877</v>
       </c>
       <c r="D176" t="s">
-        <v>1883</v>
+        <v>1878</v>
       </c>
       <c r="E176" t="s">
-        <v>1884</v>
+        <v>1879</v>
       </c>
       <c r="F176" t="s">
-        <v>1886</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="B177" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="C177" t="s">
-        <v>1889</v>
+        <v>1885</v>
       </c>
       <c r="D177" t="s">
-        <v>1890</v>
+        <v>1883</v>
       </c>
       <c r="E177" t="s">
-        <v>1891</v>
+        <v>1884</v>
       </c>
       <c r="F177" t="s">
-        <v>1892</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>1385</v>
+        <v>1888</v>
       </c>
       <c r="B178" t="s">
-        <v>132</v>
+        <v>1822</v>
       </c>
       <c r="C178" t="s">
-        <v>398</v>
+        <v>1889</v>
       </c>
       <c r="D178" t="s">
-        <v>661</v>
+        <v>1890</v>
       </c>
       <c r="E178" t="s">
-        <v>903</v>
+        <v>1891</v>
       </c>
       <c r="F178" t="s">
-        <v>1146</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>1696</v>
+        <v>1385</v>
       </c>
       <c r="B179" t="s">
-        <v>1695</v>
+        <v>132</v>
       </c>
       <c r="C179" t="s">
-        <v>1697</v>
+        <v>398</v>
       </c>
       <c r="D179" t="s">
-        <v>1698</v>
+        <v>661</v>
       </c>
       <c r="E179" t="s">
-        <v>1699</v>
+        <v>903</v>
       </c>
       <c r="F179" t="s">
-        <v>1700</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>1394</v>
+        <v>1696</v>
       </c>
       <c r="B180" t="s">
-        <v>147</v>
+        <v>1695</v>
       </c>
       <c r="C180" t="s">
-        <v>414</v>
+        <v>1697</v>
       </c>
       <c r="D180" t="s">
-        <v>676</v>
+        <v>1698</v>
       </c>
       <c r="E180" t="s">
-        <v>917</v>
+        <v>1699</v>
       </c>
       <c r="F180" t="s">
-        <v>1160</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B181" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C181" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D181" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E181" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F181" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="B182" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C182" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D182" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E182" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F182" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B183" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C183" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D183" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E183" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F183" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B184" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C184" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D184" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E184" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F184" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B185" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C185" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D185" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E185" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F185" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B186" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C186" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D186" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E186" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F186" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B187" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C187" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="D187" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E187" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F187" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B188" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C188" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="D188" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E188" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F188" t="s">
-        <v>422</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B189" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C189" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D189" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E189" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F189" t="s">
-        <v>1168</v>
+        <v>422</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>1911</v>
+        <v>1403</v>
       </c>
       <c r="B190" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C190" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D190" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E190" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F190" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>1906</v>
+        <v>1911</v>
       </c>
       <c r="B191" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C191" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D191" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E191" t="s">
-        <v>426</v>
+        <v>927</v>
       </c>
       <c r="F191" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>1404</v>
+        <v>1906</v>
       </c>
       <c r="B192" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C192" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D192" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E192" t="s">
-        <v>928</v>
+        <v>426</v>
       </c>
       <c r="F192" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>1909</v>
+        <v>1404</v>
       </c>
       <c r="B193" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C193" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D193" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E193" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F193" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>1405</v>
+        <v>1909</v>
       </c>
       <c r="B194" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C194" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D194" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E194" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F194" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>1915</v>
+        <v>1405</v>
       </c>
       <c r="B195" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C195" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D195" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E195" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F195" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>1406</v>
+        <v>1915</v>
       </c>
       <c r="B196" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C196" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D196" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E196" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F196" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B197" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C197" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D197" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E197" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F197" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B198" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C198" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D198" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E198" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F198" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B199" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C199" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D199" t="s">
-        <v>1260</v>
+        <v>694</v>
       </c>
       <c r="E199" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F199" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B200" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C200" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D200" t="s">
-        <v>695</v>
+        <v>1260</v>
       </c>
       <c r="E200" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F200" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B201" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C201" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D201" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E201" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F201" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B202" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C202" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D202" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E202" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F202" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B203" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C203" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D203" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E203" t="s">
-        <v>439</v>
+        <v>938</v>
       </c>
       <c r="F203" t="s">
-        <v>439</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B204" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C204" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D204" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E204" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F204" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B205" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C205" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D205" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E205" t="s">
-        <v>939</v>
+        <v>441</v>
       </c>
       <c r="F205" t="s">
-        <v>1182</v>
+        <v>441</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B206" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C206" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D206" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E206" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F206" t="s">
-        <v>444</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B207" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C207" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D207" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E207" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F207" t="s">
-        <v>1183</v>
+        <v>444</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B208" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C208" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D208" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E208" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F208" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B209" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C209" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D209" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E209" t="s">
-        <v>448</v>
+        <v>942</v>
       </c>
       <c r="F209" t="s">
-        <v>448</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B210" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C210" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D210" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E210" t="s">
-        <v>943</v>
+        <v>448</v>
       </c>
       <c r="F210" t="s">
-        <v>1185</v>
+        <v>448</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B211" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C211" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D211" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E211" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F211" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B212" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C212" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D212" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E212" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F212" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>1440</v>
+        <v>1422</v>
       </c>
       <c r="B213" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C213" t="s">
-        <v>782</v>
+        <v>452</v>
       </c>
       <c r="D213" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E213" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F213" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>1423</v>
+        <v>1440</v>
       </c>
       <c r="B214" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C214" t="s">
-        <v>453</v>
+        <v>782</v>
       </c>
       <c r="D214" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E214" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F214" t="s">
-        <v>1064</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B215" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C215" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D215" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E215" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F215" t="s">
-        <v>1189</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B216" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C216" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D216" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E216" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F216" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B217" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C217" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D217" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E217" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F217" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B218" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C218" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D218" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E218" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F218" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="B219" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C219" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D219" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E219" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F219" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="B220" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C220" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D220" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E220" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F220" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B221" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C221" t="s">
-        <v>1441</v>
+        <v>459</v>
       </c>
       <c r="D221" t="s">
-        <v>1442</v>
+        <v>715</v>
       </c>
       <c r="E221" t="s">
-        <v>1443</v>
+        <v>953</v>
       </c>
       <c r="F221" t="s">
-        <v>1444</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B222" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C222" t="s">
-        <v>460</v>
+        <v>1441</v>
       </c>
       <c r="D222" t="s">
-        <v>716</v>
+        <v>1442</v>
       </c>
       <c r="E222" t="s">
-        <v>954</v>
+        <v>1443</v>
       </c>
       <c r="F222" t="s">
-        <v>1195</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>1546</v>
+        <v>1431</v>
       </c>
       <c r="B223" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C223" t="s">
-        <v>498</v>
+        <v>460</v>
       </c>
       <c r="D223" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E223" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F223" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>1445</v>
+        <v>1546</v>
       </c>
       <c r="B224" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C224" t="s">
-        <v>461</v>
+        <v>498</v>
       </c>
       <c r="D224" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E224" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F224" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="B225" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C225" t="s">
-        <v>500</v>
+        <v>461</v>
       </c>
       <c r="D225" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E225" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F225" t="s">
-        <v>499</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="B226" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C226" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D226" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E226" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F226" t="s">
-        <v>1198</v>
+        <v>499</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="B227" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C227" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D227" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E227" t="s">
-        <v>502</v>
+        <v>958</v>
       </c>
       <c r="F227" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>1743</v>
+        <v>1448</v>
       </c>
       <c r="B228" t="s">
-        <v>1744</v>
+        <v>194</v>
       </c>
       <c r="C228" t="s">
-        <v>1745</v>
+        <v>503</v>
       </c>
       <c r="D228" t="s">
-        <v>1746</v>
+        <v>721</v>
       </c>
       <c r="E228" t="s">
-        <v>1747</v>
+        <v>502</v>
       </c>
       <c r="F228" t="s">
-        <v>1748</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>1749</v>
+        <v>1743</v>
       </c>
       <c r="B229" t="s">
-        <v>1750</v>
+        <v>1744</v>
       </c>
       <c r="C229" t="s">
-        <v>1754</v>
+        <v>1745</v>
       </c>
       <c r="D229" t="s">
-        <v>1757</v>
+        <v>1746</v>
       </c>
       <c r="E229" t="s">
-        <v>1756</v>
+        <v>1747</v>
       </c>
       <c r="F229" t="s">
-        <v>1755</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="B230" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="C230" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="D230" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="E230" t="s">
-        <v>1759</v>
+        <v>1756</v>
       </c>
       <c r="F230" t="s">
-        <v>1760</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>1765</v>
+        <v>1751</v>
       </c>
       <c r="B231" t="s">
-        <v>1767</v>
+        <v>1752</v>
       </c>
       <c r="C231" t="s">
-        <v>1766</v>
+        <v>1753</v>
       </c>
       <c r="D231" t="s">
-        <v>1768</v>
+        <v>1758</v>
       </c>
       <c r="E231" t="s">
-        <v>1769</v>
+        <v>1759</v>
       </c>
       <c r="F231" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>1770</v>
+        <v>1765</v>
       </c>
       <c r="B232" t="s">
-        <v>1761</v>
+        <v>1767</v>
       </c>
       <c r="C232" t="s">
-        <v>1771</v>
+        <v>1766</v>
       </c>
       <c r="D232" t="s">
-        <v>1762</v>
+        <v>1768</v>
       </c>
       <c r="E232" t="s">
-        <v>1763</v>
+        <v>1769</v>
       </c>
       <c r="F232" t="s">
         <v>1764</v>
@@ -11650,1921 +11700,1961 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="B233" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
       <c r="C233" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="D233" t="s">
-        <v>1774</v>
+        <v>1762</v>
       </c>
       <c r="E233" t="s">
-        <v>1775</v>
+        <v>1763</v>
       </c>
       <c r="F233" t="s">
-        <v>1776</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>1777</v>
+        <v>1772</v>
       </c>
       <c r="B234" t="s">
-        <v>1778</v>
+        <v>1773</v>
       </c>
       <c r="C234" t="s">
-        <v>1779</v>
+        <v>1772</v>
       </c>
       <c r="D234" t="s">
-        <v>1780</v>
+        <v>1774</v>
       </c>
       <c r="E234" t="s">
-        <v>1781</v>
+        <v>1775</v>
       </c>
       <c r="F234" t="s">
-        <v>1782</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>1449</v>
+        <v>1777</v>
       </c>
       <c r="B235" t="s">
-        <v>195</v>
+        <v>1778</v>
       </c>
       <c r="C235" t="s">
-        <v>462</v>
+        <v>1779</v>
       </c>
       <c r="D235" t="s">
-        <v>722</v>
+        <v>1780</v>
       </c>
       <c r="E235" t="s">
-        <v>959</v>
+        <v>1781</v>
       </c>
       <c r="F235" t="s">
-        <v>1200</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="B236" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C236" t="s">
-        <v>504</v>
+        <v>462</v>
       </c>
       <c r="D236" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E236" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F236" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="B237" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C237" t="s">
-        <v>463</v>
+        <v>504</v>
       </c>
       <c r="D237" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E237" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F237" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B238" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C238" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D238" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E238" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F238" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="B239" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C239" t="s">
-        <v>508</v>
+        <v>464</v>
       </c>
       <c r="D239" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E239" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F239" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="B240" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C240" t="s">
-        <v>465</v>
+        <v>508</v>
       </c>
       <c r="D240" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E240" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F240" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="B241" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C241" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D241" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E241" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F241" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>1798</v>
+        <v>1455</v>
       </c>
       <c r="B242" t="s">
-        <v>1796</v>
+        <v>201</v>
       </c>
       <c r="C242" t="s">
-        <v>1797</v>
+        <v>466</v>
       </c>
       <c r="D242" t="s">
-        <v>1799</v>
+        <v>728</v>
       </c>
       <c r="E242" t="s">
-        <v>1800</v>
+        <v>965</v>
       </c>
       <c r="F242" t="s">
-        <v>1801</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>1456</v>
+        <v>1798</v>
       </c>
       <c r="B243" t="s">
-        <v>1621</v>
+        <v>1796</v>
       </c>
       <c r="C243" t="s">
-        <v>1622</v>
+        <v>1797</v>
       </c>
       <c r="D243" t="s">
-        <v>1623</v>
+        <v>1799</v>
       </c>
       <c r="E243" t="s">
-        <v>1624</v>
+        <v>1800</v>
       </c>
       <c r="F243" t="s">
-        <v>1625</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="B244" t="s">
-        <v>202</v>
+        <v>1621</v>
       </c>
       <c r="C244" t="s">
-        <v>467</v>
+        <v>1622</v>
       </c>
       <c r="D244" t="s">
-        <v>729</v>
+        <v>1623</v>
       </c>
       <c r="E244" t="s">
-        <v>966</v>
+        <v>1624</v>
       </c>
       <c r="F244" t="s">
-        <v>1207</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="B245" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C245" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D245" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E245" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F245" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="B246" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C246" t="s">
-        <v>523</v>
+        <v>468</v>
       </c>
       <c r="D246" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E246" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F246" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="B247" t="s">
-        <v>1616</v>
+        <v>204</v>
       </c>
       <c r="C247" t="s">
-        <v>1617</v>
+        <v>523</v>
       </c>
       <c r="D247" t="s">
-        <v>1618</v>
+        <v>731</v>
       </c>
       <c r="E247" t="s">
-        <v>1619</v>
+        <v>968</v>
       </c>
       <c r="F247" t="s">
-        <v>1620</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B248" t="s">
-        <v>205</v>
+        <v>1616</v>
       </c>
       <c r="C248" t="s">
-        <v>469</v>
+        <v>1617</v>
       </c>
       <c r="D248" t="s">
-        <v>732</v>
+        <v>1618</v>
       </c>
       <c r="E248" t="s">
-        <v>969</v>
+        <v>1619</v>
       </c>
       <c r="F248" t="s">
-        <v>1210</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="B249" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C249" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D249" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E249" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F249" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="B250" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C250" t="s">
-        <v>505</v>
+        <v>470</v>
       </c>
       <c r="D250" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E250" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F250" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B251" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C251" t="s">
-        <v>471</v>
+        <v>505</v>
       </c>
       <c r="D251" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E251" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="F251" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="B252" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="C252" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D252" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E252" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F252" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="B253" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C253" t="s">
-        <v>783</v>
+        <v>472</v>
       </c>
       <c r="D253" t="s">
-        <v>785</v>
+        <v>736</v>
       </c>
       <c r="E253" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F253" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="B254" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C254" t="s">
-        <v>473</v>
+        <v>783</v>
       </c>
       <c r="D254" t="s">
-        <v>737</v>
+        <v>785</v>
       </c>
       <c r="E254" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F254" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="B255" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C255" t="s">
-        <v>784</v>
+        <v>473</v>
       </c>
       <c r="D255" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E255" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F255" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="B256" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="C256" t="s">
-        <v>474</v>
+        <v>784</v>
       </c>
       <c r="D256" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E256" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F256" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="B257" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C257" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D257" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E257" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F257" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="B258" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C258" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D258" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E258" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F258" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="B259" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C259" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D259" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E259" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F259" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="B260" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C260" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D260" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E260" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F260" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>1627</v>
+        <v>1473</v>
       </c>
       <c r="B261" t="s">
-        <v>1626</v>
+        <v>213</v>
       </c>
       <c r="C261" t="s">
-        <v>1628</v>
+        <v>478</v>
       </c>
       <c r="D261" t="s">
-        <v>1629</v>
+        <v>743</v>
       </c>
       <c r="E261" t="s">
-        <v>1630</v>
+        <v>981</v>
       </c>
       <c r="F261" t="s">
-        <v>1631</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>1474</v>
+        <v>1627</v>
       </c>
       <c r="B262" t="s">
-        <v>214</v>
+        <v>1626</v>
       </c>
       <c r="C262" t="s">
-        <v>507</v>
+        <v>1628</v>
       </c>
       <c r="D262" t="s">
-        <v>744</v>
+        <v>1629</v>
       </c>
       <c r="E262" t="s">
-        <v>982</v>
+        <v>1630</v>
       </c>
       <c r="F262" t="s">
-        <v>1223</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="B263" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C263" t="s">
-        <v>479</v>
+        <v>507</v>
       </c>
       <c r="D263" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E263" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F263" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="B264" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C264" t="s">
-        <v>521</v>
+        <v>479</v>
       </c>
       <c r="D264" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E264" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F264" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="B265" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C265" t="s">
-        <v>1949</v>
+        <v>521</v>
       </c>
       <c r="D265" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E265" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F265" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>1947</v>
+        <v>1477</v>
       </c>
       <c r="B266" t="s">
-        <v>1948</v>
+        <v>217</v>
       </c>
       <c r="C266" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="D266" t="s">
-        <v>1951</v>
+        <v>747</v>
       </c>
       <c r="E266" t="s">
-        <v>1952</v>
+        <v>985</v>
       </c>
       <c r="F266" t="s">
-        <v>1953</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>1478</v>
+        <v>1947</v>
       </c>
       <c r="B267" t="s">
-        <v>218</v>
+        <v>1948</v>
       </c>
       <c r="C267" t="s">
-        <v>480</v>
+        <v>1950</v>
       </c>
       <c r="D267" t="s">
-        <v>748</v>
+        <v>1951</v>
       </c>
       <c r="E267" t="s">
-        <v>986</v>
+        <v>1952</v>
       </c>
       <c r="F267" t="s">
-        <v>1227</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B268" t="s">
-        <v>24</v>
+        <v>218</v>
       </c>
       <c r="C268" t="s">
-        <v>520</v>
+        <v>480</v>
       </c>
       <c r="D268" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E268" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F268" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="B269" t="s">
-        <v>219</v>
+        <v>24</v>
       </c>
       <c r="C269" t="s">
-        <v>481</v>
+        <v>520</v>
       </c>
       <c r="D269" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E269" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F269" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>1609</v>
+        <v>1480</v>
       </c>
       <c r="B270" t="s">
-        <v>1608</v>
+        <v>219</v>
       </c>
       <c r="C270" t="s">
-        <v>1610</v>
+        <v>481</v>
       </c>
       <c r="D270" t="s">
-        <v>1611</v>
+        <v>750</v>
       </c>
       <c r="E270" t="s">
-        <v>1612</v>
+        <v>988</v>
       </c>
       <c r="F270" t="s">
-        <v>1613</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>1481</v>
+        <v>1609</v>
       </c>
       <c r="B271" t="s">
-        <v>220</v>
+        <v>1608</v>
       </c>
       <c r="C271" t="s">
-        <v>522</v>
+        <v>1610</v>
       </c>
       <c r="D271" t="s">
-        <v>751</v>
+        <v>1611</v>
       </c>
       <c r="E271" t="s">
-        <v>989</v>
+        <v>1612</v>
       </c>
       <c r="F271" t="s">
-        <v>1230</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="B272" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C272" t="s">
-        <v>506</v>
+        <v>522</v>
       </c>
       <c r="D272" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E272" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F272" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>1514</v>
+        <v>1482</v>
       </c>
       <c r="B273" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C273" t="s">
-        <v>482</v>
+        <v>506</v>
       </c>
       <c r="D273" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E273" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F273" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>1484</v>
+        <v>1514</v>
       </c>
       <c r="B274" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C274" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D274" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E274" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F274" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="B275" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C275" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D275" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E275" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F275" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="B276" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C276" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D276" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E276" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F276" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
       <c r="B277" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C277" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="D277" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E277" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F277" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="B278" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C278" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D278" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E278" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F278" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="B279" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C279" t="s">
-        <v>486</v>
+        <v>510</v>
       </c>
       <c r="D279" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E279" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="F279" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="B280" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C280" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D280" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E280" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F280" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="B281" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C281" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D281" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E281" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F281" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="B282" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C282" t="s">
-        <v>1523</v>
+        <v>488</v>
       </c>
       <c r="D282" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E282" t="s">
-        <v>1524</v>
+        <v>999</v>
       </c>
       <c r="F282" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>1614</v>
+        <v>1494</v>
       </c>
       <c r="B283" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C283" t="s">
-        <v>489</v>
+        <v>1523</v>
       </c>
       <c r="D283" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E283" t="s">
-        <v>1000</v>
+        <v>1524</v>
       </c>
       <c r="F283" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>1495</v>
+        <v>1614</v>
       </c>
       <c r="B284" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C284" t="s">
-        <v>511</v>
+        <v>489</v>
       </c>
       <c r="D284" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E284" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F284" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="B285" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C285" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D285" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E285" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F285" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>1634</v>
+        <v>1491</v>
       </c>
       <c r="B286" t="s">
-        <v>1632</v>
+        <v>238</v>
       </c>
       <c r="C286" t="s">
-        <v>1633</v>
+        <v>512</v>
       </c>
       <c r="D286" t="s">
-        <v>1635</v>
+        <v>765</v>
       </c>
       <c r="E286" t="s">
-        <v>1636</v>
+        <v>1002</v>
       </c>
       <c r="F286" t="s">
-        <v>1637</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>1483</v>
+        <v>1634</v>
       </c>
       <c r="B287" t="s">
-        <v>239</v>
+        <v>1632</v>
       </c>
       <c r="C287" t="s">
-        <v>513</v>
+        <v>1633</v>
       </c>
       <c r="D287" t="s">
-        <v>766</v>
+        <v>1635</v>
       </c>
       <c r="E287" t="s">
-        <v>1003</v>
+        <v>1636</v>
       </c>
       <c r="F287" t="s">
-        <v>1245</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>1496</v>
+        <v>1483</v>
       </c>
       <c r="B288" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C288" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D288" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E288" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F288" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B289" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C289" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D289" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E289" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F289" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="B290" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C290" t="s">
-        <v>1499</v>
+        <v>515</v>
       </c>
       <c r="D290" t="s">
-        <v>1500</v>
+        <v>768</v>
       </c>
       <c r="E290" t="s">
-        <v>1501</v>
+        <v>1005</v>
       </c>
       <c r="F290" t="s">
-        <v>1502</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>1505</v>
+        <v>1498</v>
       </c>
       <c r="B291" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C291" t="s">
-        <v>490</v>
+        <v>1499</v>
       </c>
       <c r="D291" t="s">
-        <v>769</v>
+        <v>1500</v>
       </c>
       <c r="E291" t="s">
-        <v>1006</v>
+        <v>1501</v>
       </c>
       <c r="F291" t="s">
-        <v>1248</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="B292" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C292" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D292" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E292" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F292" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="B293" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C293" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D293" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E293" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F293" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>1638</v>
+        <v>1504</v>
       </c>
       <c r="B294" t="s">
-        <v>1640</v>
+        <v>245</v>
       </c>
       <c r="C294" t="s">
-        <v>1639</v>
+        <v>492</v>
       </c>
       <c r="D294" t="s">
-        <v>1641</v>
+        <v>771</v>
       </c>
       <c r="E294" t="s">
-        <v>1642</v>
+        <v>1008</v>
       </c>
       <c r="F294" t="s">
-        <v>1643</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>1506</v>
+        <v>1638</v>
       </c>
       <c r="B295" t="s">
-        <v>246</v>
+        <v>1640</v>
       </c>
       <c r="C295" t="s">
-        <v>516</v>
+        <v>1639</v>
       </c>
       <c r="D295" t="s">
-        <v>772</v>
+        <v>1641</v>
       </c>
       <c r="E295" t="s">
-        <v>1009</v>
+        <v>1642</v>
       </c>
       <c r="F295" t="s">
-        <v>1251</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="B296" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C296" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D296" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E296" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F296" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B297" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C297" t="s">
-        <v>493</v>
+        <v>517</v>
       </c>
       <c r="D297" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E297" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="F297" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B298" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C298" t="s">
-        <v>518</v>
+        <v>493</v>
       </c>
       <c r="D298" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E298" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F298" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="B299" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C299" t="s">
-        <v>494</v>
+        <v>518</v>
       </c>
       <c r="D299" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E299" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="F299" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="B300" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C300" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D300" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E300" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F300" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>1489</v>
+        <v>1961</v>
       </c>
       <c r="B301" t="s">
-        <v>252</v>
+        <v>1960</v>
       </c>
       <c r="C301" t="s">
-        <v>496</v>
+        <v>1962</v>
       </c>
       <c r="D301" t="s">
-        <v>778</v>
+        <v>1963</v>
       </c>
       <c r="E301" t="s">
-        <v>1015</v>
+        <v>1964</v>
       </c>
       <c r="F301" t="s">
-        <v>1257</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="B302" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C302" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D302" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E302" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="F302" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>1513</v>
+        <v>1489</v>
       </c>
       <c r="B303" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C303" t="s">
-        <v>519</v>
+        <v>496</v>
       </c>
       <c r="D303" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E303" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="F303" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>1663</v>
+        <v>1512</v>
       </c>
       <c r="B304" t="s">
-        <v>1658</v>
+        <v>253</v>
       </c>
       <c r="C304" t="s">
-        <v>1659</v>
+        <v>497</v>
       </c>
       <c r="D304" t="s">
-        <v>1660</v>
+        <v>779</v>
       </c>
       <c r="E304" t="s">
-        <v>1661</v>
+        <v>1016</v>
       </c>
       <c r="F304" t="s">
-        <v>1662</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>1669</v>
+        <v>1513</v>
       </c>
       <c r="B305" t="s">
-        <v>1664</v>
+        <v>254</v>
       </c>
       <c r="C305" t="s">
-        <v>1665</v>
+        <v>519</v>
       </c>
       <c r="D305" t="s">
-        <v>1666</v>
+        <v>780</v>
       </c>
       <c r="E305" t="s">
-        <v>1667</v>
+        <v>1017</v>
       </c>
       <c r="F305" t="s">
-        <v>1668</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>1675</v>
+        <v>1663</v>
       </c>
       <c r="B306" t="s">
-        <v>1670</v>
+        <v>1658</v>
       </c>
       <c r="C306" t="s">
-        <v>1671</v>
+        <v>1659</v>
       </c>
       <c r="D306" t="s">
-        <v>1672</v>
+        <v>1660</v>
       </c>
       <c r="E306" t="s">
-        <v>1673</v>
+        <v>1661</v>
       </c>
       <c r="F306" t="s">
-        <v>1674</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>1703</v>
+        <v>1669</v>
       </c>
       <c r="B307" t="s">
-        <v>1701</v>
+        <v>1664</v>
       </c>
       <c r="C307" t="s">
-        <v>1804</v>
+        <v>1665</v>
       </c>
       <c r="D307" t="s">
-        <v>1705</v>
+        <v>1666</v>
       </c>
       <c r="E307" t="s">
-        <v>1706</v>
+        <v>1667</v>
       </c>
       <c r="F307" t="s">
-        <v>1707</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>1704</v>
+        <v>1675</v>
       </c>
       <c r="B308" t="s">
-        <v>1702</v>
+        <v>1670</v>
       </c>
       <c r="C308" t="s">
-        <v>1708</v>
+        <v>1671</v>
       </c>
       <c r="D308" t="s">
-        <v>1709</v>
+        <v>1672</v>
       </c>
       <c r="E308" t="s">
-        <v>1710</v>
+        <v>1673</v>
       </c>
       <c r="F308" t="s">
-        <v>1711</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>1803</v>
+        <v>1703</v>
       </c>
       <c r="B309" t="s">
-        <v>1802</v>
+        <v>1701</v>
       </c>
       <c r="C309" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D309" t="s">
-        <v>1806</v>
+        <v>1705</v>
       </c>
       <c r="E309" t="s">
-        <v>1807</v>
+        <v>1706</v>
       </c>
       <c r="F309" t="s">
-        <v>1808</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>1679</v>
+        <v>1704</v>
       </c>
       <c r="B310" t="s">
-        <v>1676</v>
+        <v>1702</v>
       </c>
       <c r="C310" t="s">
-        <v>1678</v>
+        <v>1708</v>
       </c>
       <c r="D310" t="s">
-        <v>1680</v>
+        <v>1709</v>
       </c>
       <c r="E310" t="s">
-        <v>1681</v>
+        <v>1710</v>
       </c>
       <c r="F310" t="s">
-        <v>1682</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>1684</v>
+        <v>1803</v>
       </c>
       <c r="B311" t="s">
-        <v>1677</v>
+        <v>1802</v>
       </c>
       <c r="C311" t="s">
-        <v>1683</v>
+        <v>1805</v>
       </c>
       <c r="D311" t="s">
-        <v>1685</v>
+        <v>1806</v>
       </c>
       <c r="E311" t="s">
-        <v>1686</v>
+        <v>1807</v>
       </c>
       <c r="F311" t="s">
-        <v>1687</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>1690</v>
+        <v>1679</v>
       </c>
       <c r="B312" t="s">
-        <v>1689</v>
+        <v>1676</v>
       </c>
       <c r="C312" t="s">
-        <v>1688</v>
+        <v>1678</v>
       </c>
       <c r="D312" t="s">
-        <v>1691</v>
+        <v>1680</v>
       </c>
       <c r="E312" t="s">
-        <v>1692</v>
+        <v>1681</v>
       </c>
       <c r="F312" t="s">
-        <v>1693</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>1553</v>
+        <v>1684</v>
       </c>
       <c r="B313" t="s">
-        <v>1531</v>
+        <v>1677</v>
       </c>
       <c r="C313" t="s">
-        <v>1566</v>
+        <v>1683</v>
       </c>
       <c r="D313" t="s">
-        <v>1575</v>
+        <v>1685</v>
       </c>
       <c r="E313" t="s">
-        <v>1586</v>
+        <v>1686</v>
       </c>
       <c r="F313" t="s">
-        <v>1597</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>1567</v>
+        <v>1690</v>
       </c>
       <c r="B314" t="s">
-        <v>1532</v>
+        <v>1689</v>
       </c>
       <c r="C314" t="s">
-        <v>1562</v>
+        <v>1688</v>
       </c>
       <c r="D314" t="s">
-        <v>1576</v>
+        <v>1691</v>
       </c>
       <c r="E314" t="s">
-        <v>1587</v>
+        <v>1692</v>
       </c>
       <c r="F314" t="s">
-        <v>1598</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>1568</v>
+        <v>1553</v>
       </c>
       <c r="B315" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="C315" t="s">
-        <v>1563</v>
+        <v>1566</v>
       </c>
       <c r="D315" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="E315" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="F315" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>1554</v>
+        <v>1567</v>
       </c>
       <c r="B316" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="C316" t="s">
-        <v>1574</v>
+        <v>1562</v>
       </c>
       <c r="D316" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="E316" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="F316" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>1555</v>
+        <v>1568</v>
       </c>
       <c r="B317" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="C317" t="s">
-        <v>1573</v>
+        <v>1563</v>
       </c>
       <c r="D317" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="E317" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="F317" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="B318" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="C318" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
       <c r="D318" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="E318" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="F318" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="B319" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="C319" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="D319" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="E319" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="F319" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="B320" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C320" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="D320" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="E320" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="F320" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="B321" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="C321" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="D321" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="E321" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="F321" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="B322" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="C322" t="s">
-        <v>1564</v>
+        <v>1570</v>
       </c>
       <c r="D322" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="E322" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="F322" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="B323" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="C323" t="s">
-        <v>1565</v>
+        <v>1569</v>
       </c>
       <c r="D323" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="E323" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="F323" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>1786</v>
+        <v>1560</v>
       </c>
       <c r="B324" t="s">
-        <v>1784</v>
+        <v>1540</v>
       </c>
       <c r="C324" t="s">
-        <v>1785</v>
+        <v>1564</v>
       </c>
       <c r="D324" t="s">
-        <v>1793</v>
+        <v>1584</v>
       </c>
       <c r="E324" t="s">
-        <v>1794</v>
+        <v>1595</v>
       </c>
       <c r="F324" t="s">
-        <v>1795</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>1788</v>
+        <v>1561</v>
       </c>
       <c r="B325" t="s">
-        <v>1787</v>
+        <v>1541</v>
       </c>
       <c r="C325" t="s">
-        <v>1789</v>
+        <v>1565</v>
       </c>
       <c r="D325" t="s">
-        <v>1790</v>
+        <v>1585</v>
       </c>
       <c r="E325" t="s">
-        <v>1791</v>
+        <v>1596</v>
       </c>
       <c r="F325" t="s">
-        <v>1792</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>1917</v>
+        <v>1786</v>
       </c>
       <c r="B326" t="s">
-        <v>1916</v>
+        <v>1784</v>
       </c>
       <c r="C326" t="s">
-        <v>1918</v>
+        <v>1785</v>
       </c>
       <c r="D326" t="s">
-        <v>1919</v>
+        <v>1793</v>
       </c>
       <c r="E326" t="s">
-        <v>1920</v>
+        <v>1794</v>
       </c>
       <c r="F326" t="s">
-        <v>1922</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>1894</v>
+        <v>1788</v>
       </c>
       <c r="B327" t="s">
-        <v>1893</v>
+        <v>1787</v>
       </c>
       <c r="C327" t="s">
-        <v>1895</v>
+        <v>1789</v>
       </c>
       <c r="D327" t="s">
-        <v>1896</v>
+        <v>1790</v>
       </c>
       <c r="E327" t="s">
-        <v>1897</v>
+        <v>1791</v>
       </c>
       <c r="F327" t="s">
-        <v>1921</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B328" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C328" t="s">
+        <v>1918</v>
+      </c>
+      <c r="D328" t="s">
+        <v>1919</v>
+      </c>
+      <c r="E328" t="s">
+        <v>1920</v>
+      </c>
+      <c r="F328" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B329" t="s">
+        <v>1893</v>
+      </c>
+      <c r="C329" t="s">
+        <v>1895</v>
+      </c>
+      <c r="D329" t="s">
+        <v>1896</v>
+      </c>
+      <c r="E329" t="s">
+        <v>1897</v>
+      </c>
+      <c r="F329" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
         <v>1549</v>
       </c>
-      <c r="B328" t="s">
+      <c r="B330" t="s">
         <v>1547</v>
       </c>
-      <c r="C328" t="s">
+      <c r="C330" t="s">
         <v>1548</v>
       </c>
-      <c r="D328" t="s">
+      <c r="D330" t="s">
         <v>1550</v>
       </c>
-      <c r="E328" t="s">
+      <c r="E330" t="s">
         <v>1551</v>
       </c>
-      <c r="F328" t="s">
+      <c r="F330" t="s">
         <v>1552</v>
       </c>
     </row>

--- a/lang/words_dict.xlsx
+++ b/lang/words_dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\si lab\Matlab Projects\Registration\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E917B977-F246-4363-9672-4B58D7673F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F98F0C8-F86D-4B9F-965A-EAE6DB93CFE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1020" windowWidth="29010" windowHeight="14265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2250" uniqueCount="2236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="2248">
   <si>
     <t>文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7658,38 +7658,81 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Письмо успешно отправлено!</t>
+  </si>
+  <si>
+    <t>Mail envoyé avec succès !</t>
+  </si>
+  <si>
+    <t>¡El correo enviado con éxito!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件发送失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Отправка электронной почты не удалась</t>
+  </si>
+  <si>
+    <t>Email sending failed</t>
+  </si>
+  <si>
+    <t>L'envoi d'e-mail a échoué</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error al enviar correo electrónico</t>
+  </si>
+  <si>
+    <t>EMAIL_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题反馈成功！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Mail sent successfully!</t>
-  </si>
-  <si>
-    <t>Письмо успешно отправлено!</t>
-  </si>
-  <si>
-    <t>Mail envoyé avec succès !</t>
-  </si>
-  <si>
-    <t>¡El correo enviado con éxito!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件发送失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Отправка электронной почты не удалась</t>
-  </si>
-  <si>
-    <t>Email sending failed</t>
-  </si>
-  <si>
-    <t>L'envoi d'e-mail a échoué</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Error al enviar correo electrónico</t>
-  </si>
-  <si>
-    <t>EMAIL_FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Problem feedback successfully!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Commentaires sur le problème avec succès !</t>
+  </si>
+  <si>
+    <t>Проблема обратная связь успешно!</t>
+  </si>
+  <si>
+    <t>¡Retroalimentación del problema exitosamente!</t>
+  </si>
+  <si>
+    <t>FEEDBACK_SUCCESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTINUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Continue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Продолжать</t>
+  </si>
+  <si>
+    <t>Continuer</t>
+  </si>
+  <si>
+    <t>Continuar</t>
   </si>
 </sst>
 </file>
@@ -8023,10 +8066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F375"/>
+  <dimension ref="A1:F377"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A348" workbookViewId="0">
-      <selection activeCell="A368" sqref="A368"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9941,3019 +9984,3019 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>2046</v>
+        <v>2243</v>
       </c>
       <c r="B96" t="s">
-        <v>78</v>
+        <v>2242</v>
       </c>
       <c r="C96" t="s">
-        <v>336</v>
+        <v>2244</v>
       </c>
       <c r="D96" t="s">
-        <v>604</v>
+        <v>2245</v>
       </c>
       <c r="E96" t="s">
-        <v>854</v>
+        <v>2246</v>
       </c>
       <c r="F96" t="s">
-        <v>1090</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>1303</v>
+        <v>2046</v>
       </c>
       <c r="B97" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C97" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D97" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E97" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F97" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="B98" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C98" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D98" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E98" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F98" t="s">
-        <v>856</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="B99" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C99" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D99" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E99" t="s">
-        <v>339</v>
+        <v>856</v>
       </c>
       <c r="F99" t="s">
-        <v>1092</v>
+        <v>856</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>2131</v>
+        <v>1305</v>
       </c>
       <c r="B100" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C100" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D100" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E100" t="s">
-        <v>857</v>
+        <v>339</v>
       </c>
       <c r="F100" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>1306</v>
+        <v>2131</v>
       </c>
       <c r="B101" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C101" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D101" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E101" t="s">
-        <v>343</v>
+        <v>857</v>
       </c>
       <c r="F101" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>1898</v>
+        <v>1306</v>
       </c>
       <c r="B102" t="s">
-        <v>1877</v>
+        <v>83</v>
       </c>
       <c r="C102" t="s">
-        <v>1881</v>
+        <v>344</v>
       </c>
       <c r="D102" t="s">
-        <v>1885</v>
+        <v>609</v>
       </c>
       <c r="E102" t="s">
-        <v>1889</v>
+        <v>343</v>
       </c>
       <c r="F102" t="s">
-        <v>1893</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="B103" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="C103" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="D103" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="E103" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="F103" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
       <c r="B104" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="C104" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="D104" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="E104" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="F104" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="B105" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="C105" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="D105" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="E105" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="F105" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>1598</v>
+        <v>1900</v>
       </c>
       <c r="B106" t="s">
-        <v>84</v>
+        <v>1880</v>
       </c>
       <c r="C106" t="s">
-        <v>342</v>
+        <v>1884</v>
       </c>
       <c r="D106" t="s">
-        <v>610</v>
+        <v>1888</v>
       </c>
       <c r="E106" t="s">
-        <v>858</v>
+        <v>1892</v>
       </c>
       <c r="F106" t="s">
-        <v>1095</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>1307</v>
+        <v>1598</v>
       </c>
       <c r="B107" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C107" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D107" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E107" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F107" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>2132</v>
+        <v>1307</v>
       </c>
       <c r="B108" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C108" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D108" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E108" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F108" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>1599</v>
+        <v>2132</v>
       </c>
       <c r="B109" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C109" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D109" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E109" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F109" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>1308</v>
+        <v>1599</v>
       </c>
       <c r="B110" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C110" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="D110" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E110" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F110" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>1392</v>
+        <v>1308</v>
       </c>
       <c r="B111" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C111" t="s">
-        <v>522</v>
+        <v>356</v>
       </c>
       <c r="D111" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E111" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F111" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>1309</v>
+        <v>1392</v>
       </c>
       <c r="B112" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C112" t="s">
-        <v>348</v>
+        <v>522</v>
       </c>
       <c r="D112" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E112" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F112" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B113" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C113" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D113" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E113" t="s">
-        <v>349</v>
+        <v>864</v>
       </c>
       <c r="F113" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="B114" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C114" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D114" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E114" t="s">
-        <v>865</v>
+        <v>349</v>
       </c>
       <c r="F114" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B115" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C115" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D115" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E115" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F115" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="B116" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C116" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D116" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E116" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F116" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B117" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C117" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D117" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E117" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F117" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B118" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C118" t="s">
-        <v>778</v>
+        <v>354</v>
       </c>
       <c r="D118" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E118" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F118" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B119" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C119" t="s">
-        <v>355</v>
+        <v>778</v>
       </c>
       <c r="D119" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E119" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F119" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>1601</v>
+        <v>1316</v>
       </c>
       <c r="B120" t="s">
-        <v>1600</v>
+        <v>97</v>
       </c>
       <c r="C120" t="s">
-        <v>1602</v>
+        <v>355</v>
       </c>
       <c r="D120" t="s">
-        <v>1604</v>
+        <v>623</v>
       </c>
       <c r="E120" t="s">
-        <v>1605</v>
+        <v>870</v>
       </c>
       <c r="F120" t="s">
-        <v>1603</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>1607</v>
+        <v>1601</v>
       </c>
       <c r="B121" t="s">
-        <v>1606</v>
+        <v>1600</v>
       </c>
       <c r="C121" t="s">
-        <v>1608</v>
+        <v>1602</v>
       </c>
       <c r="D121" t="s">
-        <v>1609</v>
+        <v>1604</v>
       </c>
       <c r="E121" t="s">
-        <v>1610</v>
+        <v>1605</v>
       </c>
       <c r="F121" t="s">
-        <v>1611</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>2133</v>
+        <v>1607</v>
       </c>
       <c r="B122" t="s">
-        <v>98</v>
+        <v>1606</v>
       </c>
       <c r="C122" t="s">
-        <v>357</v>
+        <v>1608</v>
       </c>
       <c r="D122" t="s">
-        <v>624</v>
+        <v>1609</v>
       </c>
       <c r="E122" t="s">
-        <v>871</v>
+        <v>1610</v>
       </c>
       <c r="F122" t="s">
-        <v>1109</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>1317</v>
+        <v>2133</v>
       </c>
       <c r="B123" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C123" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D123" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E123" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="F123" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B124" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C124" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D124" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E124" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F124" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B125" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C125" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D125" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E125" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F125" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="B126" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C126" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D126" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E126" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="F126" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B127" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C127" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D127" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E127" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F127" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B128" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C128" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D128" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E128" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F128" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="B129" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C129" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D129" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E129" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F129" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B130" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C130" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D130" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E130" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F130" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="B131" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C131" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D131" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E131" t="s">
-        <v>366</v>
+        <v>879</v>
       </c>
       <c r="F131" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="B132" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C132" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D132" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E132" t="s">
-        <v>880</v>
+        <v>366</v>
       </c>
       <c r="F132" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B133" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C133" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D133" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E133" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F133" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B134" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C134" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D134" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E134" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F134" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>1648</v>
+        <v>1328</v>
       </c>
       <c r="B135" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C135" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D135" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E135" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F135" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>2140</v>
+        <v>1648</v>
       </c>
       <c r="B136" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C136" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D136" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E136" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F136" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>1329</v>
+        <v>2140</v>
       </c>
       <c r="B137" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C137" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D137" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E137" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F137" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B138" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C138" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D138" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E138" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F138" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B139" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C139" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D139" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E139" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F139" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>2141</v>
+        <v>1331</v>
       </c>
       <c r="B140" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C140" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D140" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E140" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F140" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>1332</v>
+        <v>2141</v>
       </c>
       <c r="B141" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C141" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D141" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E141" t="s">
-        <v>377</v>
+        <v>888</v>
       </c>
       <c r="F141" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B142" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C142" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D142" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E142" t="s">
-        <v>889</v>
+        <v>377</v>
       </c>
       <c r="F142" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B143" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C143" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D143" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E143" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F143" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B144" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C144" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D144" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E144" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F144" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B145" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C145" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D145" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E145" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F145" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>1393</v>
+        <v>1336</v>
       </c>
       <c r="B146" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C146" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D146" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E146" t="s">
-        <v>383</v>
+        <v>892</v>
       </c>
       <c r="F146" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>2166</v>
+        <v>1393</v>
       </c>
       <c r="B147" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C147" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D147" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E147" t="s">
-        <v>893</v>
+        <v>383</v>
       </c>
       <c r="F147" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>1859</v>
+        <v>2166</v>
       </c>
       <c r="B148" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C148" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D148" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E148" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F148" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="B149" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C149" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D149" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E149" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F149" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>1337</v>
+        <v>1858</v>
       </c>
       <c r="B150" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C150" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D150" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E150" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F150" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="B151" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C151" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D151" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E151" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F151" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="B152" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C152" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D152" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E152" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F152" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="B153" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C153" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D153" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E153" t="s">
-        <v>391</v>
+        <v>898</v>
       </c>
       <c r="F153" t="s">
-        <v>391</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>1695</v>
+        <v>1340</v>
       </c>
       <c r="B154" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C154" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D154" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E154" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F154" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="B155" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C155" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D155" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E155" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F155" t="s">
-        <v>1140</v>
+        <v>393</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>1675</v>
+        <v>1696</v>
       </c>
       <c r="B156" t="s">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="C156" t="s">
-        <v>1679</v>
+        <v>396</v>
       </c>
       <c r="D156" t="s">
-        <v>1685</v>
+        <v>657</v>
       </c>
       <c r="E156" t="s">
-        <v>1689</v>
+        <v>395</v>
       </c>
       <c r="F156" t="s">
-        <v>1691</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="B157" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C157" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
       <c r="D157" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="E157" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="F157" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="B158" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C158" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="D158" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="E158" t="s">
-        <v>1680</v>
+        <v>1690</v>
       </c>
       <c r="F158" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="B159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C159" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="D159" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="E159" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="F159" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>1737</v>
+        <v>1678</v>
       </c>
       <c r="B160" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="C160" t="s">
-        <v>399</v>
+        <v>1684</v>
       </c>
       <c r="D160" t="s">
-        <v>660</v>
+        <v>1688</v>
       </c>
       <c r="E160" t="s">
-        <v>901</v>
+        <v>1681</v>
       </c>
       <c r="F160" t="s">
-        <v>1143</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>1866</v>
+        <v>1737</v>
       </c>
       <c r="B161" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C161" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D161" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E161" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F161" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>1864</v>
+        <v>1866</v>
       </c>
       <c r="B162" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C162" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D162" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E162" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F162" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>1867</v>
+        <v>1864</v>
       </c>
       <c r="B163" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C163" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D163" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E163" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F163" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>1342</v>
+        <v>1867</v>
       </c>
       <c r="B164" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C164" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D164" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E164" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="F164" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B165" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C165" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D165" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E165" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F165" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="B166" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C166" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D166" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E166" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F166" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="B167" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C167" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D167" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E167" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F167" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>2167</v>
+        <v>1345</v>
       </c>
       <c r="B168" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C168" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D168" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E168" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F168" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>1346</v>
+        <v>2167</v>
       </c>
       <c r="B169" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C169" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D169" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E169" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F169" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="B170" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C170" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D170" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E170" t="s">
-        <v>409</v>
+        <v>910</v>
       </c>
       <c r="F170" t="s">
-        <v>409</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>1969</v>
+        <v>1347</v>
       </c>
       <c r="B171" t="s">
-        <v>1970</v>
+        <v>144</v>
       </c>
       <c r="C171" t="s">
-        <v>1971</v>
+        <v>410</v>
       </c>
       <c r="D171" t="s">
-        <v>1972</v>
+        <v>670</v>
       </c>
       <c r="E171" t="s">
-        <v>1973</v>
+        <v>409</v>
       </c>
       <c r="F171" t="s">
-        <v>1974</v>
+        <v>409</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>1868</v>
+        <v>1969</v>
       </c>
       <c r="B172" t="s">
-        <v>145</v>
+        <v>1970</v>
       </c>
       <c r="C172" t="s">
-        <v>411</v>
+        <v>1971</v>
       </c>
       <c r="D172" t="s">
-        <v>671</v>
+        <v>1972</v>
       </c>
       <c r="E172" t="s">
-        <v>911</v>
+        <v>1973</v>
       </c>
       <c r="F172" t="s">
-        <v>1153</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>1348</v>
+        <v>1868</v>
       </c>
       <c r="B173" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C173" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D173" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E173" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="F173" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>1854</v>
+        <v>1348</v>
       </c>
       <c r="B174" t="s">
-        <v>1852</v>
+        <v>146</v>
       </c>
       <c r="C174" t="s">
-        <v>1853</v>
+        <v>412</v>
       </c>
       <c r="D174" t="s">
-        <v>1855</v>
+        <v>672</v>
       </c>
       <c r="E174" t="s">
-        <v>1856</v>
+        <v>912</v>
       </c>
       <c r="F174" t="s">
-        <v>1857</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>1777</v>
+        <v>1854</v>
       </c>
       <c r="B175" t="s">
-        <v>1763</v>
+        <v>1852</v>
       </c>
       <c r="C175" t="s">
-        <v>1778</v>
+        <v>1853</v>
       </c>
       <c r="D175" t="s">
-        <v>1779</v>
+        <v>1855</v>
       </c>
       <c r="E175" t="s">
-        <v>1780</v>
+        <v>1856</v>
       </c>
       <c r="F175" t="s">
-        <v>1781</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>1861</v>
+        <v>1777</v>
       </c>
       <c r="B176" t="s">
-        <v>133</v>
+        <v>1763</v>
       </c>
       <c r="C176" t="s">
-        <v>398</v>
+        <v>1778</v>
       </c>
       <c r="D176" t="s">
-        <v>659</v>
+        <v>1779</v>
       </c>
       <c r="E176" t="s">
-        <v>900</v>
+        <v>1780</v>
       </c>
       <c r="F176" t="s">
-        <v>1142</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="B177" t="s">
-        <v>1666</v>
+        <v>133</v>
       </c>
       <c r="C177" t="s">
-        <v>1667</v>
+        <v>398</v>
       </c>
       <c r="D177" t="s">
-        <v>1668</v>
+        <v>659</v>
       </c>
       <c r="E177" t="s">
-        <v>1669</v>
+        <v>900</v>
       </c>
       <c r="F177" t="s">
-        <v>1670</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>1790</v>
+        <v>1862</v>
       </c>
       <c r="B178" t="s">
-        <v>1764</v>
+        <v>1666</v>
       </c>
       <c r="C178" t="s">
-        <v>1782</v>
+        <v>1667</v>
       </c>
       <c r="D178" t="s">
-        <v>1787</v>
+        <v>1668</v>
       </c>
       <c r="E178" t="s">
-        <v>1788</v>
+        <v>1669</v>
       </c>
       <c r="F178" t="s">
-        <v>1789</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="B179" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="C179" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="D179" t="s">
-        <v>1784</v>
+        <v>1787</v>
       </c>
       <c r="E179" t="s">
-        <v>1785</v>
+        <v>1788</v>
       </c>
       <c r="F179" t="s">
-        <v>1786</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="B180" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="C180" t="s">
-        <v>1793</v>
+        <v>1783</v>
       </c>
       <c r="D180" t="s">
-        <v>1794</v>
+        <v>1784</v>
       </c>
       <c r="E180" t="s">
-        <v>1795</v>
+        <v>1785</v>
       </c>
       <c r="F180" t="s">
-        <v>1796</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>1798</v>
+        <v>1792</v>
       </c>
       <c r="B181" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="C181" t="s">
-        <v>1797</v>
+        <v>1793</v>
       </c>
       <c r="D181" t="s">
-        <v>1799</v>
+        <v>1794</v>
       </c>
       <c r="E181" t="s">
-        <v>1800</v>
+        <v>1795</v>
       </c>
       <c r="F181" t="s">
-        <v>1801</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>1806</v>
+        <v>1798</v>
       </c>
       <c r="B182" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="C182" t="s">
-        <v>1803</v>
+        <v>1797</v>
       </c>
       <c r="D182" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="E182" t="s">
-        <v>1804</v>
+        <v>1800</v>
       </c>
       <c r="F182" t="s">
-        <v>1805</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="B183" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="C183" t="s">
-        <v>1809</v>
+        <v>1803</v>
       </c>
       <c r="D183" t="s">
-        <v>1810</v>
+        <v>1802</v>
       </c>
       <c r="E183" t="s">
-        <v>1808</v>
+        <v>1804</v>
       </c>
       <c r="F183" t="s">
-        <v>1811</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>1812</v>
+        <v>1807</v>
       </c>
       <c r="B184" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="C184" t="s">
-        <v>1813</v>
+        <v>1809</v>
       </c>
       <c r="D184" t="s">
-        <v>1814</v>
+        <v>1810</v>
       </c>
       <c r="E184" t="s">
-        <v>1815</v>
+        <v>1808</v>
       </c>
       <c r="F184" t="s">
-        <v>1816</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>1821</v>
+        <v>1812</v>
       </c>
       <c r="B185" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="C185" t="s">
-        <v>1817</v>
+        <v>1813</v>
       </c>
       <c r="D185" t="s">
-        <v>1818</v>
+        <v>1814</v>
       </c>
       <c r="E185" t="s">
-        <v>1819</v>
+        <v>1815</v>
       </c>
       <c r="F185" t="s">
-        <v>1820</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>1827</v>
+        <v>1821</v>
       </c>
       <c r="B186" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="C186" t="s">
-        <v>1826</v>
+        <v>1817</v>
       </c>
       <c r="D186" t="s">
-        <v>1828</v>
+        <v>1818</v>
       </c>
       <c r="E186" t="s">
-        <v>1829</v>
+        <v>1819</v>
       </c>
       <c r="F186" t="s">
-        <v>1830</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>1835</v>
+        <v>1827</v>
       </c>
       <c r="B187" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="C187" t="s">
-        <v>1822</v>
+        <v>1826</v>
       </c>
       <c r="D187" t="s">
-        <v>1823</v>
+        <v>1828</v>
       </c>
       <c r="E187" t="s">
-        <v>1824</v>
+        <v>1829</v>
       </c>
       <c r="F187" t="s">
-        <v>1825</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="B188" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="C188" t="s">
-        <v>1831</v>
+        <v>1822</v>
       </c>
       <c r="D188" t="s">
-        <v>1832</v>
+        <v>1823</v>
       </c>
       <c r="E188" t="s">
-        <v>1833</v>
+        <v>1824</v>
       </c>
       <c r="F188" t="s">
-        <v>1834</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>1841</v>
+        <v>1836</v>
       </c>
       <c r="B189" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="C189" t="s">
-        <v>1839</v>
+        <v>1831</v>
       </c>
       <c r="D189" t="s">
-        <v>1837</v>
+        <v>1832</v>
       </c>
       <c r="E189" t="s">
-        <v>1838</v>
+        <v>1833</v>
       </c>
       <c r="F189" t="s">
-        <v>1840</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="B190" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="C190" t="s">
-        <v>1843</v>
+        <v>1839</v>
       </c>
       <c r="D190" t="s">
-        <v>1844</v>
+        <v>1837</v>
       </c>
       <c r="E190" t="s">
-        <v>1845</v>
+        <v>1838</v>
       </c>
       <c r="F190" t="s">
-        <v>1846</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>1341</v>
+        <v>1842</v>
       </c>
       <c r="B191" t="s">
-        <v>132</v>
+        <v>1776</v>
       </c>
       <c r="C191" t="s">
-        <v>397</v>
+        <v>1843</v>
       </c>
       <c r="D191" t="s">
-        <v>658</v>
+        <v>1844</v>
       </c>
       <c r="E191" t="s">
-        <v>899</v>
+        <v>1845</v>
       </c>
       <c r="F191" t="s">
-        <v>1141</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>1650</v>
+        <v>1341</v>
       </c>
       <c r="B192" t="s">
-        <v>1649</v>
+        <v>132</v>
       </c>
       <c r="C192" t="s">
-        <v>1651</v>
+        <v>397</v>
       </c>
       <c r="D192" t="s">
-        <v>1652</v>
+        <v>658</v>
       </c>
       <c r="E192" t="s">
-        <v>1653</v>
+        <v>899</v>
       </c>
       <c r="F192" t="s">
-        <v>1654</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>1349</v>
+        <v>1650</v>
       </c>
       <c r="B193" t="s">
-        <v>147</v>
+        <v>1649</v>
       </c>
       <c r="C193" t="s">
-        <v>413</v>
+        <v>1651</v>
       </c>
       <c r="D193" t="s">
-        <v>673</v>
+        <v>1652</v>
       </c>
       <c r="E193" t="s">
-        <v>913</v>
+        <v>1653</v>
       </c>
       <c r="F193" t="s">
-        <v>1155</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="B194" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C194" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D194" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E194" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F194" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="B195" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C195" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D195" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E195" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F195" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="B196" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C196" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D196" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E196" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F196" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B197" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C197" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D197" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E197" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F197" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B198" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C198" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D198" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E198" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F198" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="B199" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C199" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D199" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E199" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F199" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="B200" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C200" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="D200" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E200" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F200" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="B201" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C201" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D201" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E201" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F201" t="s">
-        <v>421</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B202" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C202" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D202" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E202" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F202" t="s">
-        <v>1163</v>
+        <v>421</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>1865</v>
+        <v>1358</v>
       </c>
       <c r="B203" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C203" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D203" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E203" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F203" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>1860</v>
+        <v>1865</v>
       </c>
       <c r="B204" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C204" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D204" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E204" t="s">
-        <v>425</v>
+        <v>923</v>
       </c>
       <c r="F204" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>1359</v>
+        <v>1860</v>
       </c>
       <c r="B205" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C205" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D205" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E205" t="s">
-        <v>924</v>
+        <v>425</v>
       </c>
       <c r="F205" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>1863</v>
+        <v>1359</v>
       </c>
       <c r="B206" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C206" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D206" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E206" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F206" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>1360</v>
+        <v>1863</v>
       </c>
       <c r="B207" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C207" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D207" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E207" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F207" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>1869</v>
+        <v>1360</v>
       </c>
       <c r="B208" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C208" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D208" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E208" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F208" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>2168</v>
+        <v>1869</v>
       </c>
       <c r="B209" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C209" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D209" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E209" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F209" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>1361</v>
+        <v>2168</v>
       </c>
       <c r="B210" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C210" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D210" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E210" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F210" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B211" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C211" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D211" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E211" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F211" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="B212" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C212" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D212" t="s">
-        <v>1255</v>
+        <v>691</v>
       </c>
       <c r="E212" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F212" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B213" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C213" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D213" t="s">
-        <v>692</v>
+        <v>1255</v>
       </c>
       <c r="E213" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F213" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B214" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C214" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D214" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E214" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F214" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="B215" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C215" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D215" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E215" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F215" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B216" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C216" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D216" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E216" t="s">
-        <v>438</v>
+        <v>934</v>
       </c>
       <c r="F216" t="s">
-        <v>438</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B217" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C217" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D217" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E217" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F217" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="B218" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C218" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D218" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E218" t="s">
-        <v>935</v>
+        <v>440</v>
       </c>
       <c r="F218" t="s">
-        <v>1177</v>
+        <v>440</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="B219" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C219" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D219" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E219" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F219" t="s">
-        <v>443</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="B220" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C220" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D220" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E220" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F220" t="s">
-        <v>1178</v>
+        <v>443</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B221" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C221" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D221" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E221" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F221" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B222" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C222" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D222" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E222" t="s">
-        <v>447</v>
+        <v>938</v>
       </c>
       <c r="F222" t="s">
-        <v>447</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="B223" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C223" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D223" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E223" t="s">
-        <v>939</v>
+        <v>447</v>
       </c>
       <c r="F223" t="s">
-        <v>1180</v>
+        <v>447</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="B224" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C224" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D224" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E224" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F224" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="B225" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C225" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D225" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E225" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F225" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>1394</v>
+        <v>1376</v>
       </c>
       <c r="B226" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C226" t="s">
-        <v>779</v>
+        <v>451</v>
       </c>
       <c r="D226" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E226" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F226" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>1377</v>
+        <v>1394</v>
       </c>
       <c r="B227" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C227" t="s">
-        <v>452</v>
+        <v>779</v>
       </c>
       <c r="D227" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E227" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F227" t="s">
-        <v>1059</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B228" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C228" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D228" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E228" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F228" t="s">
-        <v>1184</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="B229" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C229" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D229" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E229" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F229" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B230" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C230" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D230" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E230" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F230" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B231" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C231" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D231" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E231" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F231" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B232" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C232" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D232" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E232" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F232" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B233" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C233" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D233" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E233" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F233" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B234" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C234" t="s">
-        <v>1395</v>
+        <v>458</v>
       </c>
       <c r="D234" t="s">
-        <v>1396</v>
+        <v>712</v>
       </c>
       <c r="E234" t="s">
-        <v>1397</v>
+        <v>949</v>
       </c>
       <c r="F234" t="s">
-        <v>1398</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B235" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C235" t="s">
-        <v>459</v>
+        <v>1395</v>
       </c>
       <c r="D235" t="s">
-        <v>713</v>
+        <v>1396</v>
       </c>
       <c r="E235" t="s">
-        <v>950</v>
+        <v>1397</v>
       </c>
       <c r="F235" t="s">
-        <v>1190</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>1500</v>
+        <v>1385</v>
       </c>
       <c r="B236" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C236" t="s">
-        <v>496</v>
+        <v>459</v>
       </c>
       <c r="D236" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E236" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F236" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>1399</v>
+        <v>1500</v>
       </c>
       <c r="B237" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C237" t="s">
-        <v>460</v>
+        <v>496</v>
       </c>
       <c r="D237" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E237" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F237" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>1975</v>
+        <v>1399</v>
       </c>
       <c r="B238" t="s">
-        <v>1976</v>
+        <v>191</v>
       </c>
       <c r="C238" t="s">
-        <v>1977</v>
+        <v>460</v>
       </c>
       <c r="D238" t="s">
-        <v>1978</v>
+        <v>715</v>
       </c>
       <c r="E238" t="s">
-        <v>1979</v>
+        <v>952</v>
       </c>
       <c r="F238" t="s">
-        <v>1980</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>1400</v>
+        <v>1975</v>
       </c>
       <c r="B239" t="s">
-        <v>192</v>
+        <v>1976</v>
       </c>
       <c r="C239" t="s">
-        <v>498</v>
+        <v>1977</v>
       </c>
       <c r="D239" t="s">
-        <v>716</v>
+        <v>1978</v>
       </c>
       <c r="E239" t="s">
-        <v>953</v>
+        <v>1979</v>
       </c>
       <c r="F239" t="s">
-        <v>497</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B240" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C240" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D240" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E240" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="F240" t="s">
-        <v>1193</v>
+        <v>497</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B241" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C241" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D241" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E241" t="s">
-        <v>500</v>
+        <v>954</v>
       </c>
       <c r="F241" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>1697</v>
+        <v>1402</v>
       </c>
       <c r="B242" t="s">
-        <v>1698</v>
+        <v>194</v>
       </c>
       <c r="C242" t="s">
-        <v>1699</v>
+        <v>501</v>
       </c>
       <c r="D242" t="s">
-        <v>1700</v>
+        <v>718</v>
       </c>
       <c r="E242" t="s">
-        <v>1701</v>
+        <v>500</v>
       </c>
       <c r="F242" t="s">
-        <v>1702</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>1703</v>
+        <v>1697</v>
       </c>
       <c r="B243" t="s">
-        <v>1704</v>
+        <v>1698</v>
       </c>
       <c r="C243" t="s">
-        <v>1708</v>
+        <v>1699</v>
       </c>
       <c r="D243" t="s">
-        <v>1711</v>
+        <v>1700</v>
       </c>
       <c r="E243" t="s">
-        <v>1710</v>
+        <v>1701</v>
       </c>
       <c r="F243" t="s">
-        <v>1709</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="B244" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="C244" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="D244" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="E244" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
       <c r="F244" t="s">
-        <v>1714</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>1719</v>
+        <v>1705</v>
       </c>
       <c r="B245" t="s">
-        <v>1721</v>
+        <v>1706</v>
       </c>
       <c r="C245" t="s">
-        <v>1720</v>
+        <v>1707</v>
       </c>
       <c r="D245" t="s">
-        <v>1722</v>
+        <v>1712</v>
       </c>
       <c r="E245" t="s">
-        <v>1723</v>
+        <v>1713</v>
       </c>
       <c r="F245" t="s">
-        <v>1718</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>1724</v>
+        <v>1719</v>
       </c>
       <c r="B246" t="s">
-        <v>1715</v>
+        <v>1721</v>
       </c>
       <c r="C246" t="s">
-        <v>1725</v>
+        <v>1720</v>
       </c>
       <c r="D246" t="s">
-        <v>1716</v>
+        <v>1722</v>
       </c>
       <c r="E246" t="s">
-        <v>1717</v>
+        <v>1723</v>
       </c>
       <c r="F246" t="s">
         <v>1718</v>
@@ -12961,2581 +13004,2621 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="B247" t="s">
-        <v>1727</v>
+        <v>1715</v>
       </c>
       <c r="C247" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="D247" t="s">
-        <v>1728</v>
+        <v>1716</v>
       </c>
       <c r="E247" t="s">
-        <v>1729</v>
+        <v>1717</v>
       </c>
       <c r="F247" t="s">
-        <v>1730</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
       <c r="B248" t="s">
-        <v>1732</v>
+        <v>1727</v>
       </c>
       <c r="C248" t="s">
-        <v>1733</v>
+        <v>1726</v>
       </c>
       <c r="D248" t="s">
-        <v>1734</v>
+        <v>1728</v>
       </c>
       <c r="E248" t="s">
-        <v>1735</v>
+        <v>1729</v>
       </c>
       <c r="F248" t="s">
-        <v>1736</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>1403</v>
+        <v>1731</v>
       </c>
       <c r="B249" t="s">
-        <v>195</v>
+        <v>1732</v>
       </c>
       <c r="C249" t="s">
-        <v>461</v>
+        <v>1733</v>
       </c>
       <c r="D249" t="s">
-        <v>719</v>
+        <v>1734</v>
       </c>
       <c r="E249" t="s">
-        <v>955</v>
+        <v>1735</v>
       </c>
       <c r="F249" t="s">
-        <v>1195</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B250" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C250" t="s">
-        <v>502</v>
+        <v>461</v>
       </c>
       <c r="D250" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E250" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F250" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B251" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C251" t="s">
-        <v>462</v>
+        <v>502</v>
       </c>
       <c r="D251" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E251" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F251" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B252" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C252" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D252" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E252" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F252" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B253" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C253" t="s">
-        <v>506</v>
+        <v>463</v>
       </c>
       <c r="D253" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E253" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F253" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B254" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C254" t="s">
-        <v>464</v>
+        <v>506</v>
       </c>
       <c r="D254" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E254" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F254" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B255" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C255" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D255" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E255" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F255" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>1752</v>
+        <v>1409</v>
       </c>
       <c r="B256" t="s">
-        <v>1750</v>
+        <v>201</v>
       </c>
       <c r="C256" t="s">
-        <v>1751</v>
+        <v>465</v>
       </c>
       <c r="D256" t="s">
-        <v>1753</v>
+        <v>725</v>
       </c>
       <c r="E256" t="s">
-        <v>1754</v>
+        <v>961</v>
       </c>
       <c r="F256" t="s">
-        <v>1755</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>1410</v>
+        <v>1752</v>
       </c>
       <c r="B257" t="s">
-        <v>1575</v>
+        <v>1750</v>
       </c>
       <c r="C257" t="s">
-        <v>1576</v>
+        <v>1751</v>
       </c>
       <c r="D257" t="s">
-        <v>1577</v>
+        <v>1753</v>
       </c>
       <c r="E257" t="s">
-        <v>1578</v>
+        <v>1754</v>
       </c>
       <c r="F257" t="s">
-        <v>1579</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B258" t="s">
-        <v>202</v>
+        <v>1575</v>
       </c>
       <c r="C258" t="s">
-        <v>466</v>
+        <v>1576</v>
       </c>
       <c r="D258" t="s">
-        <v>726</v>
+        <v>1577</v>
       </c>
       <c r="E258" t="s">
-        <v>962</v>
+        <v>1578</v>
       </c>
       <c r="F258" t="s">
-        <v>1202</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B259" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C259" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D259" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E259" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F259" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B260" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C260" t="s">
-        <v>521</v>
+        <v>467</v>
       </c>
       <c r="D260" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E260" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F260" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B261" t="s">
-        <v>1570</v>
+        <v>204</v>
       </c>
       <c r="C261" t="s">
-        <v>1571</v>
+        <v>521</v>
       </c>
       <c r="D261" t="s">
-        <v>1572</v>
+        <v>728</v>
       </c>
       <c r="E261" t="s">
-        <v>1573</v>
+        <v>964</v>
       </c>
       <c r="F261" t="s">
-        <v>1574</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B262" t="s">
-        <v>205</v>
+        <v>1570</v>
       </c>
       <c r="C262" t="s">
-        <v>468</v>
+        <v>1571</v>
       </c>
       <c r="D262" t="s">
-        <v>729</v>
+        <v>1572</v>
       </c>
       <c r="E262" t="s">
-        <v>965</v>
+        <v>1573</v>
       </c>
       <c r="F262" t="s">
-        <v>1205</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B263" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C263" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D263" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E263" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F263" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B264" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C264" t="s">
-        <v>503</v>
+        <v>469</v>
       </c>
       <c r="D264" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E264" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F264" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B265" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C265" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="D265" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E265" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F265" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B266" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="C266" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D266" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E266" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F266" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B267" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C267" t="s">
-        <v>780</v>
+        <v>471</v>
       </c>
       <c r="D267" t="s">
-        <v>782</v>
+        <v>733</v>
       </c>
       <c r="E267" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F267" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B268" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C268" t="s">
-        <v>472</v>
+        <v>780</v>
       </c>
       <c r="D268" t="s">
-        <v>734</v>
+        <v>782</v>
       </c>
       <c r="E268" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F268" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B269" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C269" t="s">
-        <v>781</v>
+        <v>472</v>
       </c>
       <c r="D269" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E269" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="F269" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B270" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="C270" t="s">
-        <v>473</v>
+        <v>781</v>
       </c>
       <c r="D270" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E270" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F270" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B271" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C271" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D271" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E271" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F271" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B272" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C272" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D272" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E272" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F272" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B273" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C273" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D273" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E273" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F273" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B274" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C274" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D274" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E274" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F274" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>1581</v>
+        <v>1427</v>
       </c>
       <c r="B275" t="s">
-        <v>1580</v>
+        <v>213</v>
       </c>
       <c r="C275" t="s">
-        <v>1582</v>
+        <v>477</v>
       </c>
       <c r="D275" t="s">
-        <v>1583</v>
+        <v>740</v>
       </c>
       <c r="E275" t="s">
-        <v>1584</v>
+        <v>977</v>
       </c>
       <c r="F275" t="s">
-        <v>1585</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>1428</v>
+        <v>1581</v>
       </c>
       <c r="B276" t="s">
-        <v>214</v>
+        <v>1580</v>
       </c>
       <c r="C276" t="s">
-        <v>505</v>
+        <v>1582</v>
       </c>
       <c r="D276" t="s">
-        <v>741</v>
+        <v>1583</v>
       </c>
       <c r="E276" t="s">
-        <v>978</v>
+        <v>1584</v>
       </c>
       <c r="F276" t="s">
-        <v>1218</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="B277" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C277" t="s">
-        <v>478</v>
+        <v>505</v>
       </c>
       <c r="D277" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E277" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F277" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B278" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C278" t="s">
-        <v>519</v>
+        <v>478</v>
       </c>
       <c r="D278" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E278" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F278" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B279" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C279" t="s">
-        <v>1903</v>
+        <v>519</v>
       </c>
       <c r="D279" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E279" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F279" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>1901</v>
+        <v>1431</v>
       </c>
       <c r="B280" t="s">
-        <v>1902</v>
+        <v>217</v>
       </c>
       <c r="C280" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="D280" t="s">
-        <v>1905</v>
+        <v>744</v>
       </c>
       <c r="E280" t="s">
-        <v>1906</v>
+        <v>981</v>
       </c>
       <c r="F280" t="s">
-        <v>1907</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>1432</v>
+        <v>1901</v>
       </c>
       <c r="B281" t="s">
-        <v>218</v>
+        <v>1902</v>
       </c>
       <c r="C281" t="s">
-        <v>479</v>
+        <v>1904</v>
       </c>
       <c r="D281" t="s">
-        <v>745</v>
+        <v>1905</v>
       </c>
       <c r="E281" t="s">
-        <v>982</v>
+        <v>1906</v>
       </c>
       <c r="F281" t="s">
-        <v>1222</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B282" t="s">
-        <v>24</v>
+        <v>218</v>
       </c>
       <c r="C282" t="s">
-        <v>518</v>
+        <v>479</v>
       </c>
       <c r="D282" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E282" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F282" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B283" t="s">
-        <v>219</v>
+        <v>24</v>
       </c>
       <c r="C283" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="D283" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E283" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F283" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>1563</v>
+        <v>1434</v>
       </c>
       <c r="B284" t="s">
-        <v>1562</v>
+        <v>219</v>
       </c>
       <c r="C284" t="s">
-        <v>1564</v>
+        <v>480</v>
       </c>
       <c r="D284" t="s">
-        <v>1565</v>
+        <v>747</v>
       </c>
       <c r="E284" t="s">
-        <v>1566</v>
+        <v>984</v>
       </c>
       <c r="F284" t="s">
-        <v>1567</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>1435</v>
+        <v>1563</v>
       </c>
       <c r="B285" t="s">
-        <v>220</v>
+        <v>1562</v>
       </c>
       <c r="C285" t="s">
-        <v>520</v>
+        <v>1564</v>
       </c>
       <c r="D285" t="s">
-        <v>748</v>
+        <v>1565</v>
       </c>
       <c r="E285" t="s">
-        <v>985</v>
+        <v>1566</v>
       </c>
       <c r="F285" t="s">
-        <v>1225</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B286" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C286" t="s">
-        <v>504</v>
+        <v>520</v>
       </c>
       <c r="D286" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E286" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F286" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>1468</v>
+        <v>1436</v>
       </c>
       <c r="B287" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C287" t="s">
-        <v>481</v>
+        <v>504</v>
       </c>
       <c r="D287" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E287" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F287" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>1438</v>
+        <v>1468</v>
       </c>
       <c r="B288" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C288" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D288" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E288" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F288" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B289" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C289" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D289" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E289" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F289" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="B290" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C290" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D290" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E290" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F290" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
       <c r="B291" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C291" t="s">
-        <v>507</v>
+        <v>484</v>
       </c>
       <c r="D291" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E291" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F291" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B292" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C292" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D292" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E292" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F292" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="B293" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C293" t="s">
-        <v>485</v>
+        <v>508</v>
       </c>
       <c r="D293" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E293" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F293" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="B294" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C294" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D294" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E294" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F294" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="B295" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C295" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D295" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E295" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F295" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="B296" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C296" t="s">
-        <v>1477</v>
+        <v>487</v>
       </c>
       <c r="D296" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E296" t="s">
-        <v>1478</v>
+        <v>995</v>
       </c>
       <c r="F296" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>1568</v>
+        <v>1448</v>
       </c>
       <c r="B297" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C297" t="s">
-        <v>488</v>
+        <v>1477</v>
       </c>
       <c r="D297" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E297" t="s">
-        <v>996</v>
+        <v>1478</v>
       </c>
       <c r="F297" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>1449</v>
+        <v>1568</v>
       </c>
       <c r="B298" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C298" t="s">
-        <v>509</v>
+        <v>488</v>
       </c>
       <c r="D298" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E298" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="F298" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>1445</v>
+        <v>1449</v>
       </c>
       <c r="B299" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C299" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D299" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E299" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F299" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>1588</v>
+        <v>1445</v>
       </c>
       <c r="B300" t="s">
-        <v>1586</v>
+        <v>238</v>
       </c>
       <c r="C300" t="s">
-        <v>1587</v>
+        <v>510</v>
       </c>
       <c r="D300" t="s">
-        <v>1589</v>
+        <v>762</v>
       </c>
       <c r="E300" t="s">
-        <v>1590</v>
+        <v>998</v>
       </c>
       <c r="F300" t="s">
-        <v>1591</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>1437</v>
+        <v>1588</v>
       </c>
       <c r="B301" t="s">
-        <v>239</v>
+        <v>1586</v>
       </c>
       <c r="C301" t="s">
-        <v>511</v>
+        <v>1587</v>
       </c>
       <c r="D301" t="s">
-        <v>763</v>
+        <v>1589</v>
       </c>
       <c r="E301" t="s">
-        <v>999</v>
+        <v>1590</v>
       </c>
       <c r="F301" t="s">
-        <v>1240</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>1450</v>
+        <v>1437</v>
       </c>
       <c r="B302" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C302" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D302" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E302" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F302" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="B303" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C303" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D303" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E303" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F303" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B304" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C304" t="s">
-        <v>1453</v>
+        <v>513</v>
       </c>
       <c r="D304" t="s">
-        <v>1454</v>
+        <v>765</v>
       </c>
       <c r="E304" t="s">
-        <v>1455</v>
+        <v>1001</v>
       </c>
       <c r="F304" t="s">
-        <v>1456</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>1459</v>
+        <v>1452</v>
       </c>
       <c r="B305" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C305" t="s">
-        <v>489</v>
+        <v>1453</v>
       </c>
       <c r="D305" t="s">
-        <v>766</v>
+        <v>1454</v>
       </c>
       <c r="E305" t="s">
-        <v>1002</v>
+        <v>1455</v>
       </c>
       <c r="F305" t="s">
-        <v>1243</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="B306" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C306" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D306" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E306" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F306" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="B307" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C307" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D307" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E307" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F307" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>1592</v>
+        <v>1458</v>
       </c>
       <c r="B308" t="s">
-        <v>1594</v>
+        <v>245</v>
       </c>
       <c r="C308" t="s">
-        <v>1593</v>
+        <v>491</v>
       </c>
       <c r="D308" t="s">
-        <v>1595</v>
+        <v>768</v>
       </c>
       <c r="E308" t="s">
-        <v>1596</v>
+        <v>1004</v>
       </c>
       <c r="F308" t="s">
-        <v>1597</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>1460</v>
+        <v>1592</v>
       </c>
       <c r="B309" t="s">
-        <v>246</v>
+        <v>1594</v>
       </c>
       <c r="C309" t="s">
-        <v>514</v>
+        <v>1593</v>
       </c>
       <c r="D309" t="s">
-        <v>769</v>
+        <v>1595</v>
       </c>
       <c r="E309" t="s">
-        <v>1005</v>
+        <v>1596</v>
       </c>
       <c r="F309" t="s">
-        <v>1246</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B310" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C310" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D310" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E310" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F310" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="B311" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C311" t="s">
-        <v>492</v>
+        <v>515</v>
       </c>
       <c r="D311" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E311" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F311" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="B312" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C312" t="s">
-        <v>516</v>
+        <v>492</v>
       </c>
       <c r="D312" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E312" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F312" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B313" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C313" t="s">
-        <v>493</v>
+        <v>516</v>
       </c>
       <c r="D313" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E313" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F313" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>1915</v>
+        <v>1464</v>
       </c>
       <c r="B314" t="s">
-        <v>1914</v>
+        <v>250</v>
       </c>
       <c r="C314" t="s">
-        <v>1916</v>
+        <v>493</v>
       </c>
       <c r="D314" t="s">
-        <v>1917</v>
+        <v>773</v>
       </c>
       <c r="E314" t="s">
-        <v>1918</v>
+        <v>1009</v>
       </c>
       <c r="F314" t="s">
-        <v>1919</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>1465</v>
+        <v>1915</v>
       </c>
       <c r="B315" t="s">
-        <v>251</v>
+        <v>1914</v>
       </c>
       <c r="C315" t="s">
-        <v>494</v>
+        <v>1916</v>
       </c>
       <c r="D315" t="s">
-        <v>774</v>
+        <v>1917</v>
       </c>
       <c r="E315" t="s">
-        <v>1010</v>
+        <v>1918</v>
       </c>
       <c r="F315" t="s">
-        <v>1251</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>1443</v>
+        <v>1465</v>
       </c>
       <c r="B316" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C316" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D316" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E316" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="F316" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>1466</v>
+        <v>1443</v>
       </c>
       <c r="B317" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C317" t="s">
-        <v>1926</v>
+        <v>495</v>
       </c>
       <c r="D317" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E317" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F317" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="B318" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C318" t="s">
-        <v>517</v>
+        <v>1926</v>
       </c>
       <c r="D318" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E318" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="F318" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>1617</v>
+        <v>1467</v>
       </c>
       <c r="B319" t="s">
-        <v>1612</v>
+        <v>254</v>
       </c>
       <c r="C319" t="s">
-        <v>1613</v>
+        <v>517</v>
       </c>
       <c r="D319" t="s">
-        <v>1614</v>
+        <v>777</v>
       </c>
       <c r="E319" t="s">
-        <v>1615</v>
+        <v>1013</v>
       </c>
       <c r="F319" t="s">
-        <v>1616</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>1623</v>
+        <v>1617</v>
       </c>
       <c r="B320" t="s">
-        <v>1618</v>
+        <v>1612</v>
       </c>
       <c r="C320" t="s">
-        <v>1619</v>
+        <v>1613</v>
       </c>
       <c r="D320" t="s">
-        <v>1620</v>
+        <v>1614</v>
       </c>
       <c r="E320" t="s">
-        <v>1621</v>
+        <v>1615</v>
       </c>
       <c r="F320" t="s">
-        <v>1622</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>1629</v>
+        <v>1623</v>
       </c>
       <c r="B321" t="s">
-        <v>1624</v>
+        <v>1618</v>
       </c>
       <c r="C321" t="s">
-        <v>1625</v>
+        <v>1619</v>
       </c>
       <c r="D321" t="s">
-        <v>1626</v>
+        <v>1620</v>
       </c>
       <c r="E321" t="s">
-        <v>1627</v>
+        <v>1621</v>
       </c>
       <c r="F321" t="s">
-        <v>1628</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>1657</v>
+        <v>1629</v>
       </c>
       <c r="B322" t="s">
-        <v>1655</v>
+        <v>1624</v>
       </c>
       <c r="C322" t="s">
-        <v>1758</v>
+        <v>1625</v>
       </c>
       <c r="D322" t="s">
-        <v>1659</v>
+        <v>1626</v>
       </c>
       <c r="E322" t="s">
-        <v>1660</v>
+        <v>1627</v>
       </c>
       <c r="F322" t="s">
-        <v>1661</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="B323" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="C323" t="s">
-        <v>1662</v>
+        <v>1758</v>
       </c>
       <c r="D323" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="E323" t="s">
-        <v>1664</v>
+        <v>1660</v>
       </c>
       <c r="F323" t="s">
-        <v>1665</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>1757</v>
+        <v>1658</v>
       </c>
       <c r="B324" t="s">
-        <v>1756</v>
+        <v>1656</v>
       </c>
       <c r="C324" t="s">
-        <v>1759</v>
+        <v>1662</v>
       </c>
       <c r="D324" t="s">
-        <v>1760</v>
+        <v>1663</v>
       </c>
       <c r="E324" t="s">
-        <v>1761</v>
+        <v>1664</v>
       </c>
       <c r="F324" t="s">
-        <v>1762</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>1633</v>
+        <v>1757</v>
       </c>
       <c r="B325" t="s">
-        <v>1630</v>
+        <v>1756</v>
       </c>
       <c r="C325" t="s">
-        <v>1632</v>
+        <v>1759</v>
       </c>
       <c r="D325" t="s">
-        <v>1634</v>
+        <v>1760</v>
       </c>
       <c r="E325" t="s">
-        <v>1635</v>
+        <v>1761</v>
       </c>
       <c r="F325" t="s">
-        <v>1636</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>1638</v>
+        <v>1633</v>
       </c>
       <c r="B326" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="C326" t="s">
-        <v>1637</v>
+        <v>1632</v>
       </c>
       <c r="D326" t="s">
-        <v>1639</v>
+        <v>1634</v>
       </c>
       <c r="E326" t="s">
-        <v>1640</v>
+        <v>1635</v>
       </c>
       <c r="F326" t="s">
-        <v>1641</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>1644</v>
+        <v>1638</v>
       </c>
       <c r="B327" t="s">
-        <v>1643</v>
+        <v>1631</v>
       </c>
       <c r="C327" t="s">
-        <v>1642</v>
+        <v>1637</v>
       </c>
       <c r="D327" t="s">
-        <v>1645</v>
+        <v>1639</v>
       </c>
       <c r="E327" t="s">
-        <v>1646</v>
+        <v>1640</v>
       </c>
       <c r="F327" t="s">
-        <v>1647</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>1507</v>
+        <v>1644</v>
       </c>
       <c r="B328" t="s">
-        <v>1485</v>
+        <v>1643</v>
       </c>
       <c r="C328" t="s">
-        <v>1520</v>
+        <v>1642</v>
       </c>
       <c r="D328" t="s">
-        <v>1529</v>
+        <v>1645</v>
       </c>
       <c r="E328" t="s">
-        <v>1540</v>
+        <v>1646</v>
       </c>
       <c r="F328" t="s">
-        <v>1551</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>1521</v>
+        <v>1507</v>
       </c>
       <c r="B329" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="C329" t="s">
-        <v>1516</v>
+        <v>1520</v>
       </c>
       <c r="D329" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="E329" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="F329" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="B330" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="C330" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="D330" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="E330" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="F330" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>1508</v>
+        <v>1522</v>
       </c>
       <c r="B331" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="C331" t="s">
-        <v>1528</v>
+        <v>1517</v>
       </c>
       <c r="D331" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="E331" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="F331" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B332" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C332" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="D332" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="E332" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="F332" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="B333" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C333" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="D333" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="E333" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="F333" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="B334" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="C334" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="D334" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="E334" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="F334" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="B335" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="C335" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="D335" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="E335" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="F335" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="B336" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C336" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="D336" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="E336" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="F336" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B337" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="C337" t="s">
-        <v>1518</v>
+        <v>1523</v>
       </c>
       <c r="D337" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="E337" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="F337" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="B338" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="C338" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="D338" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="E338" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="F338" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>1740</v>
+        <v>1515</v>
       </c>
       <c r="B339" t="s">
-        <v>1738</v>
+        <v>1495</v>
       </c>
       <c r="C339" t="s">
-        <v>1739</v>
+        <v>1519</v>
       </c>
       <c r="D339" t="s">
-        <v>1747</v>
+        <v>1539</v>
       </c>
       <c r="E339" t="s">
-        <v>1748</v>
+        <v>1550</v>
       </c>
       <c r="F339" t="s">
-        <v>1749</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="B340" t="s">
-        <v>1741</v>
+        <v>1738</v>
       </c>
       <c r="C340" t="s">
-        <v>1743</v>
+        <v>1739</v>
       </c>
       <c r="D340" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
       <c r="E340" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="F340" t="s">
-        <v>1746</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>1871</v>
+        <v>1742</v>
       </c>
       <c r="B341" t="s">
-        <v>1870</v>
+        <v>1741</v>
       </c>
       <c r="C341" t="s">
-        <v>1872</v>
+        <v>1743</v>
       </c>
       <c r="D341" t="s">
-        <v>1873</v>
+        <v>1744</v>
       </c>
       <c r="E341" t="s">
-        <v>1874</v>
+        <v>1745</v>
       </c>
       <c r="F341" t="s">
-        <v>1876</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>1848</v>
+        <v>1871</v>
       </c>
       <c r="B342" t="s">
-        <v>1847</v>
+        <v>1870</v>
       </c>
       <c r="C342" t="s">
-        <v>1849</v>
+        <v>1872</v>
       </c>
       <c r="D342" t="s">
-        <v>1850</v>
+        <v>1873</v>
       </c>
       <c r="E342" t="s">
-        <v>1851</v>
+        <v>1874</v>
       </c>
       <c r="F342" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>2004</v>
+        <v>1848</v>
       </c>
       <c r="B343" t="s">
-        <v>2000</v>
+        <v>1847</v>
       </c>
       <c r="C343" t="s">
-        <v>2002</v>
+        <v>1849</v>
       </c>
       <c r="D343" t="s">
-        <v>2006</v>
+        <v>1850</v>
       </c>
       <c r="E343" t="s">
-        <v>2008</v>
+        <v>1851</v>
       </c>
       <c r="F343" t="s">
-        <v>2010</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B344" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C344" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D344" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E344" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="F344" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>2032</v>
+        <v>2005</v>
       </c>
       <c r="B345" t="s">
-        <v>2031</v>
+        <v>2001</v>
       </c>
       <c r="C345" t="s">
-        <v>2033</v>
+        <v>2003</v>
       </c>
       <c r="D345" t="s">
-        <v>2035</v>
+        <v>2007</v>
       </c>
       <c r="E345" t="s">
-        <v>2036</v>
+        <v>2009</v>
       </c>
       <c r="F345" t="s">
-        <v>2034</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>2113</v>
+        <v>2032</v>
       </c>
       <c r="B346" t="s">
-        <v>2047</v>
+        <v>2031</v>
       </c>
       <c r="C346" t="s">
-        <v>2060</v>
+        <v>2033</v>
       </c>
       <c r="D346" t="s">
-        <v>2075</v>
+        <v>2035</v>
       </c>
       <c r="E346" t="s">
-        <v>2088</v>
+        <v>2036</v>
       </c>
       <c r="F346" t="s">
-        <v>2099</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="B347" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="C347" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="D347" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="E347" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="F347" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
       <c r="B348" t="s">
-        <v>2050</v>
+        <v>2048</v>
       </c>
       <c r="C348" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="D348" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="E348" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="F348" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="B349" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="C349" t="s">
-        <v>2068</v>
+        <v>2062</v>
       </c>
       <c r="D349" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="E349" t="s">
-        <v>2067</v>
+        <v>2090</v>
       </c>
       <c r="F349" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B350" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="C350" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="D350" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="E350" t="s">
-        <v>2091</v>
+        <v>2067</v>
       </c>
       <c r="F350" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="B351" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="C351" t="s">
-        <v>2071</v>
+        <v>2069</v>
       </c>
       <c r="D351" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="E351" t="s">
-        <v>2070</v>
+        <v>2091</v>
       </c>
       <c r="F351" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>2171</v>
+        <v>2117</v>
       </c>
       <c r="B352" t="s">
-        <v>2170</v>
+        <v>2053</v>
       </c>
       <c r="C352" t="s">
-        <v>2172</v>
+        <v>2071</v>
       </c>
       <c r="D352" t="s">
-        <v>2173</v>
+        <v>2080</v>
       </c>
       <c r="E352" t="s">
-        <v>2174</v>
+        <v>2070</v>
       </c>
       <c r="F352" t="s">
-        <v>2175</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>2118</v>
+        <v>2171</v>
       </c>
       <c r="B353" t="s">
-        <v>2054</v>
+        <v>2170</v>
       </c>
       <c r="C353" t="s">
-        <v>2072</v>
+        <v>2172</v>
       </c>
       <c r="D353" t="s">
-        <v>2081</v>
+        <v>2173</v>
       </c>
       <c r="E353" t="s">
-        <v>2092</v>
+        <v>2174</v>
       </c>
       <c r="F353" t="s">
-        <v>2105</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="B354" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="C354" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="D354" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="E354" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="F354" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="B355" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="C355" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="D355" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="E355" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="F355" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="B356" t="s">
-        <v>2063</v>
+        <v>2056</v>
       </c>
       <c r="C356" t="s">
-        <v>2064</v>
+        <v>2074</v>
       </c>
       <c r="D356" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="E356" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="F356" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="B357" t="s">
-        <v>2057</v>
+        <v>2063</v>
       </c>
       <c r="C357" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D357" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="E357" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="F357" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="B358" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="C358" t="s">
-        <v>2059</v>
+        <v>2065</v>
       </c>
       <c r="D358" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="E358" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="F358" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>2177</v>
+        <v>2123</v>
       </c>
       <c r="B359" t="s">
-        <v>2176</v>
+        <v>2058</v>
       </c>
       <c r="C359" t="s">
-        <v>2178</v>
+        <v>2059</v>
       </c>
       <c r="D359" t="s">
-        <v>2179</v>
+        <v>2086</v>
       </c>
       <c r="E359" t="s">
-        <v>2180</v>
+        <v>2097</v>
       </c>
       <c r="F359" t="s">
-        <v>2181</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>2207</v>
+        <v>2177</v>
       </c>
       <c r="B360" t="s">
-        <v>2206</v>
+        <v>2176</v>
       </c>
       <c r="C360" t="s">
-        <v>2208</v>
+        <v>2178</v>
       </c>
       <c r="D360" t="s">
-        <v>2209</v>
+        <v>2179</v>
       </c>
       <c r="E360" t="s">
-        <v>2210</v>
+        <v>2180</v>
       </c>
       <c r="F360" t="s">
-        <v>2211</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>2197</v>
+        <v>2207</v>
       </c>
       <c r="B361" t="s">
-        <v>2182</v>
+        <v>2206</v>
       </c>
       <c r="C361" t="s">
-        <v>2185</v>
+        <v>2208</v>
       </c>
       <c r="D361" t="s">
-        <v>2188</v>
+        <v>2209</v>
       </c>
       <c r="E361" t="s">
-        <v>2191</v>
+        <v>2210</v>
       </c>
       <c r="F361" t="s">
-        <v>2194</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="B362" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="C362" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="D362" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="E362" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="F362" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="B363" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="C363" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="D363" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="E363" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="F363" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>2217</v>
+        <v>2199</v>
       </c>
       <c r="B364" t="s">
-        <v>2212</v>
+        <v>2184</v>
       </c>
       <c r="C364" t="s">
-        <v>2213</v>
+        <v>2187</v>
       </c>
       <c r="D364" t="s">
-        <v>2214</v>
+        <v>2190</v>
       </c>
       <c r="E364" t="s">
-        <v>2215</v>
+        <v>2193</v>
       </c>
       <c r="F364" t="s">
-        <v>2216</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="B365" t="s">
-        <v>2219</v>
+        <v>2212</v>
       </c>
       <c r="C365" t="s">
-        <v>2220</v>
+        <v>2213</v>
       </c>
       <c r="D365" t="s">
-        <v>2221</v>
+        <v>2214</v>
       </c>
       <c r="E365" t="s">
-        <v>2222</v>
+        <v>2215</v>
       </c>
       <c r="F365" t="s">
-        <v>2223</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>2224</v>
+        <v>2218</v>
       </c>
       <c r="B366" t="s">
-        <v>2225</v>
+        <v>2219</v>
       </c>
       <c r="C366" t="s">
-        <v>2226</v>
+        <v>2220</v>
       </c>
       <c r="D366" t="s">
-        <v>2227</v>
+        <v>2221</v>
       </c>
       <c r="E366" t="s">
-        <v>2228</v>
+        <v>2222</v>
       </c>
       <c r="F366" t="s">
-        <v>2229</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
+        <v>2241</v>
+      </c>
+      <c r="B367" t="s">
         <v>2235</v>
       </c>
-      <c r="B367" t="s">
-        <v>2230</v>
-      </c>
       <c r="C367" t="s">
-        <v>2232</v>
+        <v>2237</v>
       </c>
       <c r="D367" t="s">
-        <v>2231</v>
+        <v>2239</v>
       </c>
       <c r="E367" t="s">
-        <v>2233</v>
+        <v>2238</v>
       </c>
       <c r="F367" t="s">
-        <v>2234</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>2124</v>
+        <v>2224</v>
       </c>
       <c r="B368" t="s">
-        <v>2049</v>
+        <v>2225</v>
       </c>
       <c r="C368" t="s">
-        <v>2066</v>
+        <v>2236</v>
       </c>
       <c r="D368" t="s">
-        <v>2087</v>
+        <v>2226</v>
       </c>
       <c r="E368" t="s">
-        <v>2098</v>
+        <v>2227</v>
       </c>
       <c r="F368" t="s">
-        <v>2111</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>2162</v>
+        <v>2234</v>
       </c>
       <c r="B369" t="s">
-        <v>2142</v>
+        <v>2229</v>
       </c>
       <c r="C369" t="s">
-        <v>2149</v>
+        <v>2231</v>
       </c>
       <c r="D369" t="s">
-        <v>2150</v>
+        <v>2230</v>
       </c>
       <c r="E369" t="s">
-        <v>2154</v>
+        <v>2232</v>
       </c>
       <c r="F369" t="s">
-        <v>2158</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>2163</v>
+        <v>2124</v>
       </c>
       <c r="B370" t="s">
-        <v>2143</v>
+        <v>2049</v>
       </c>
       <c r="C370" t="s">
-        <v>2146</v>
+        <v>2066</v>
       </c>
       <c r="D370" t="s">
-        <v>2151</v>
+        <v>2087</v>
       </c>
       <c r="E370" t="s">
-        <v>2155</v>
+        <v>2098</v>
       </c>
       <c r="F370" t="s">
-        <v>2159</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="B371" t="s">
-        <v>2144</v>
+        <v>2142</v>
       </c>
       <c r="C371" t="s">
-        <v>2147</v>
+        <v>2149</v>
       </c>
       <c r="D371" t="s">
-        <v>2152</v>
+        <v>2150</v>
       </c>
       <c r="E371" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="F371" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="B372" t="s">
-        <v>2145</v>
+        <v>2143</v>
       </c>
       <c r="C372" t="s">
-        <v>2148</v>
+        <v>2146</v>
       </c>
       <c r="D372" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="E372" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="F372" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>2125</v>
+        <v>2164</v>
       </c>
       <c r="B373" t="s">
-        <v>2126</v>
+        <v>2144</v>
       </c>
       <c r="C373" t="s">
-        <v>2127</v>
+        <v>2147</v>
       </c>
       <c r="D373" t="s">
-        <v>2128</v>
+        <v>2152</v>
       </c>
       <c r="E373" t="s">
-        <v>2129</v>
+        <v>2156</v>
       </c>
       <c r="F373" t="s">
-        <v>2130</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>2201</v>
+        <v>2165</v>
       </c>
       <c r="B374" t="s">
-        <v>2200</v>
+        <v>2145</v>
       </c>
       <c r="C374" t="s">
-        <v>2202</v>
+        <v>2148</v>
       </c>
       <c r="D374" t="s">
-        <v>2203</v>
+        <v>2153</v>
       </c>
       <c r="E374" t="s">
-        <v>2204</v>
+        <v>2157</v>
       </c>
       <c r="F374" t="s">
-        <v>2205</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
+        <v>2125</v>
+      </c>
+      <c r="B375" t="s">
+        <v>2126</v>
+      </c>
+      <c r="C375" t="s">
+        <v>2127</v>
+      </c>
+      <c r="D375" t="s">
+        <v>2128</v>
+      </c>
+      <c r="E375" t="s">
+        <v>2129</v>
+      </c>
+      <c r="F375" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>2201</v>
+      </c>
+      <c r="B376" t="s">
+        <v>2200</v>
+      </c>
+      <c r="C376" t="s">
+        <v>2202</v>
+      </c>
+      <c r="D376" t="s">
+        <v>2203</v>
+      </c>
+      <c r="E376" t="s">
+        <v>2204</v>
+      </c>
+      <c r="F376" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
         <v>1503</v>
       </c>
-      <c r="B375" t="s">
+      <c r="B377" t="s">
         <v>1501</v>
       </c>
-      <c r="C375" t="s">
+      <c r="C377" t="s">
         <v>1502</v>
       </c>
-      <c r="D375" t="s">
+      <c r="D377" t="s">
         <v>1504</v>
       </c>
-      <c r="E375" t="s">
+      <c r="E377" t="s">
         <v>1505</v>
       </c>
-      <c r="F375" t="s">
+      <c r="F377" t="s">
         <v>1506</v>
       </c>
     </row>

--- a/lang/words_dict.xlsx
+++ b/lang/words_dict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\si lab\Matlab Projects\Registration\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F98F0C8-F86D-4B9F-965A-EAE6DB93CFE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD645DF-6BB4-41E0-B23B-8F4C0AC1B3D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1020" windowWidth="29010" windowHeight="14265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="2248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2268" uniqueCount="2254">
   <si>
     <t>文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7074,10 +7074,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>问题报告程序不会收集您的隐私</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>此处包含用于复现问题的附加文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7105,10 +7101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The problem reporting process does not collect your privacy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Attach Folder</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7173,9 +7165,6 @@
     <t>Процедура сообщения о проблеме:</t>
   </si>
   <si>
-    <t>Процесс сообщения о проблемах не обеспечивает конфиденциальность вашей информации.</t>
-  </si>
-  <si>
     <t>Дополнительные файлы для воспроизведения проблемы включены здесь.</t>
   </si>
   <si>
@@ -7206,9 +7195,6 @@
     <t>Procédure de signalement des problèmes :</t>
   </si>
   <si>
-    <t>Le processus de signalement de problèmes ne collecte pas votre vie privée</t>
-  </si>
-  <si>
     <t>Des fichiers supplémentaires pour reproduire le problème sont inclus ici</t>
   </si>
   <si>
@@ -7245,9 +7231,6 @@
     <t>Procedimiento de notificación de problemas:</t>
   </si>
   <si>
-    <t>El proceso de notificación de problemas no recopila su privacidad</t>
-  </si>
-  <si>
     <t>Aquí se incluyen archivos adicionales para reproducir el problema.</t>
   </si>
   <si>
@@ -7733,6 +7716,46 @@
   </si>
   <si>
     <t>Continuar</t>
+  </si>
+  <si>
+    <t>问题报告程序不会收集您的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐私</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>privacy</t>
+  </si>
+  <si>
+    <t>PRIVACY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confidentialité</t>
+  </si>
+  <si>
+    <t>privacidad</t>
+  </si>
+  <si>
+    <t>конфиденциальность</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The problem reporting process does not collect your </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Процесс сообщения о проблемах не собирает ваши </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Le processus de signalement de problèmes ne collecte pas vos </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">El proceso de informe de problemas no recopila su </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -8066,10 +8089,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F377"/>
+  <dimension ref="A1:F378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91"/>
+    <sheetView tabSelected="1" topLeftCell="C348" workbookViewId="0">
+      <selection activeCell="F369" sqref="F369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8607,24 +8630,24 @@
         <v>1476</v>
       </c>
       <c r="B27" t="s">
+        <v>2129</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2130</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2132</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2133</v>
+      </c>
+      <c r="F27" t="s">
         <v>2134</v>
-      </c>
-      <c r="C27" t="s">
-        <v>2135</v>
-      </c>
-      <c r="D27" t="s">
-        <v>2137</v>
-      </c>
-      <c r="E27" t="s">
-        <v>2138</v>
-      </c>
-      <c r="F27" t="s">
-        <v>2139</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>2136</v>
+        <v>2131</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
@@ -9784,7 +9807,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>2169</v>
+        <v>2164</v>
       </c>
       <c r="B86" t="s">
         <v>72</v>
@@ -9984,22 +10007,22 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>2243</v>
+        <v>2238</v>
       </c>
       <c r="B96" t="s">
+        <v>2237</v>
+      </c>
+      <c r="C96" t="s">
+        <v>2239</v>
+      </c>
+      <c r="D96" t="s">
+        <v>2240</v>
+      </c>
+      <c r="E96" t="s">
+        <v>2241</v>
+      </c>
+      <c r="F96" t="s">
         <v>2242</v>
-      </c>
-      <c r="C96" t="s">
-        <v>2244</v>
-      </c>
-      <c r="D96" t="s">
-        <v>2245</v>
-      </c>
-      <c r="E96" t="s">
-        <v>2246</v>
-      </c>
-      <c r="F96" t="s">
-        <v>2247</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -10084,7 +10107,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>2131</v>
+        <v>2126</v>
       </c>
       <c r="B101" t="s">
         <v>82</v>
@@ -10244,7 +10267,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>2132</v>
+        <v>2127</v>
       </c>
       <c r="B109" t="s">
         <v>86</v>
@@ -10524,7 +10547,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>2133</v>
+        <v>2128</v>
       </c>
       <c r="B123" t="s">
         <v>98</v>
@@ -10804,7 +10827,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>2140</v>
+        <v>2135</v>
       </c>
       <c r="B137" t="s">
         <v>112</v>
@@ -10884,7 +10907,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>2141</v>
+        <v>2136</v>
       </c>
       <c r="B141" t="s">
         <v>116</v>
@@ -11024,7 +11047,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>2166</v>
+        <v>2161</v>
       </c>
       <c r="B148" t="s">
         <v>123</v>
@@ -11444,7 +11467,7 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>2167</v>
+        <v>2162</v>
       </c>
       <c r="B169" t="s">
         <v>142</v>
@@ -12264,7 +12287,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>2168</v>
+        <v>2163</v>
       </c>
       <c r="B210" t="s">
         <v>163</v>
@@ -15004,621 +15027,641 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>2113</v>
+        <v>2108</v>
       </c>
       <c r="B347" t="s">
         <v>2047</v>
       </c>
       <c r="C347" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="D347" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
       <c r="E347" t="s">
-        <v>2088</v>
+        <v>2085</v>
       </c>
       <c r="F347" t="s">
-        <v>2099</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>2112</v>
+        <v>2107</v>
       </c>
       <c r="B348" t="s">
         <v>2048</v>
       </c>
       <c r="C348" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="D348" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
       <c r="E348" t="s">
-        <v>2089</v>
+        <v>2086</v>
       </c>
       <c r="F348" t="s">
-        <v>2100</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>2114</v>
+        <v>2109</v>
       </c>
       <c r="B349" t="s">
         <v>2050</v>
       </c>
       <c r="C349" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="D349" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="E349" t="s">
-        <v>2090</v>
+        <v>2087</v>
       </c>
       <c r="F349" t="s">
-        <v>2101</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>2115</v>
+        <v>2110</v>
       </c>
       <c r="B350" t="s">
         <v>2051</v>
       </c>
       <c r="C350" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
       <c r="D350" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="E350" t="s">
-        <v>2067</v>
+        <v>2065</v>
       </c>
       <c r="F350" t="s">
-        <v>2102</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>2116</v>
+        <v>2111</v>
       </c>
       <c r="B351" t="s">
         <v>2052</v>
       </c>
       <c r="C351" t="s">
-        <v>2069</v>
+        <v>2067</v>
       </c>
       <c r="D351" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
       <c r="E351" t="s">
-        <v>2091</v>
+        <v>2088</v>
       </c>
       <c r="F351" t="s">
-        <v>2103</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>2117</v>
+        <v>2112</v>
       </c>
       <c r="B352" t="s">
         <v>2053</v>
       </c>
       <c r="C352" t="s">
-        <v>2071</v>
+        <v>2069</v>
       </c>
       <c r="D352" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
       <c r="E352" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
       <c r="F352" t="s">
-        <v>2104</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>2171</v>
+        <v>2166</v>
       </c>
       <c r="B353" t="s">
+        <v>2165</v>
+      </c>
+      <c r="C353" t="s">
+        <v>2167</v>
+      </c>
+      <c r="D353" t="s">
+        <v>2168</v>
+      </c>
+      <c r="E353" t="s">
+        <v>2169</v>
+      </c>
+      <c r="F353" t="s">
         <v>2170</v>
-      </c>
-      <c r="C353" t="s">
-        <v>2172</v>
-      </c>
-      <c r="D353" t="s">
-        <v>2173</v>
-      </c>
-      <c r="E353" t="s">
-        <v>2174</v>
-      </c>
-      <c r="F353" t="s">
-        <v>2175</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>2118</v>
+        <v>2113</v>
       </c>
       <c r="B354" t="s">
         <v>2054</v>
       </c>
       <c r="C354" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
       <c r="D354" t="s">
-        <v>2081</v>
+        <v>2079</v>
       </c>
       <c r="E354" t="s">
-        <v>2092</v>
+        <v>2089</v>
       </c>
       <c r="F354" t="s">
-        <v>2105</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>2119</v>
+        <v>2114</v>
       </c>
       <c r="B355" t="s">
         <v>2055</v>
       </c>
       <c r="C355" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="D355" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
       <c r="E355" t="s">
-        <v>2093</v>
+        <v>2090</v>
       </c>
       <c r="F355" t="s">
-        <v>2106</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
       <c r="B356" t="s">
         <v>2056</v>
       </c>
       <c r="C356" t="s">
-        <v>2074</v>
+        <v>2072</v>
       </c>
       <c r="D356" t="s">
-        <v>2083</v>
+        <v>2081</v>
       </c>
       <c r="E356" t="s">
-        <v>2094</v>
+        <v>2091</v>
       </c>
       <c r="F356" t="s">
-        <v>2107</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>2121</v>
+        <v>2116</v>
       </c>
       <c r="B357" t="s">
+        <v>2062</v>
+      </c>
+      <c r="C357" t="s">
         <v>2063</v>
       </c>
-      <c r="C357" t="s">
-        <v>2064</v>
-      </c>
       <c r="D357" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
       <c r="E357" t="s">
-        <v>2095</v>
+        <v>2092</v>
       </c>
       <c r="F357" t="s">
-        <v>2108</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>2122</v>
+        <v>2117</v>
       </c>
       <c r="B358" t="s">
-        <v>2057</v>
+        <v>2243</v>
       </c>
       <c r="C358" t="s">
-        <v>2065</v>
+        <v>2250</v>
       </c>
       <c r="D358" t="s">
-        <v>2085</v>
+        <v>2251</v>
       </c>
       <c r="E358" t="s">
-        <v>2096</v>
+        <v>2252</v>
       </c>
       <c r="F358" t="s">
-        <v>2109</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>2123</v>
+        <v>2246</v>
       </c>
       <c r="B359" t="s">
-        <v>2058</v>
+        <v>2244</v>
       </c>
       <c r="C359" t="s">
-        <v>2059</v>
+        <v>2245</v>
       </c>
       <c r="D359" t="s">
-        <v>2086</v>
+        <v>2249</v>
       </c>
       <c r="E359" t="s">
-        <v>2097</v>
+        <v>2247</v>
       </c>
       <c r="F359" t="s">
-        <v>2110</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>2177</v>
+        <v>2118</v>
       </c>
       <c r="B360" t="s">
-        <v>2176</v>
+        <v>2057</v>
       </c>
       <c r="C360" t="s">
-        <v>2178</v>
+        <v>2058</v>
       </c>
       <c r="D360" t="s">
-        <v>2179</v>
+        <v>2083</v>
       </c>
       <c r="E360" t="s">
-        <v>2180</v>
+        <v>2093</v>
       </c>
       <c r="F360" t="s">
-        <v>2181</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>2207</v>
+        <v>2172</v>
       </c>
       <c r="B361" t="s">
-        <v>2206</v>
+        <v>2171</v>
       </c>
       <c r="C361" t="s">
-        <v>2208</v>
+        <v>2173</v>
       </c>
       <c r="D361" t="s">
-        <v>2209</v>
+        <v>2174</v>
       </c>
       <c r="E361" t="s">
-        <v>2210</v>
+        <v>2175</v>
       </c>
       <c r="F361" t="s">
-        <v>2211</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>2197</v>
+        <v>2202</v>
       </c>
       <c r="B362" t="s">
-        <v>2182</v>
+        <v>2201</v>
       </c>
       <c r="C362" t="s">
-        <v>2185</v>
+        <v>2203</v>
       </c>
       <c r="D362" t="s">
-        <v>2188</v>
+        <v>2204</v>
       </c>
       <c r="E362" t="s">
-        <v>2191</v>
+        <v>2205</v>
       </c>
       <c r="F362" t="s">
-        <v>2194</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>2198</v>
+        <v>2192</v>
       </c>
       <c r="B363" t="s">
+        <v>2177</v>
+      </c>
+      <c r="C363" t="s">
+        <v>2180</v>
+      </c>
+      <c r="D363" t="s">
         <v>2183</v>
       </c>
-      <c r="C363" t="s">
+      <c r="E363" t="s">
         <v>2186</v>
       </c>
-      <c r="D363" t="s">
+      <c r="F363" t="s">
         <v>2189</v>
-      </c>
-      <c r="E363" t="s">
-        <v>2192</v>
-      </c>
-      <c r="F363" t="s">
-        <v>2195</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>2199</v>
+        <v>2193</v>
       </c>
       <c r="B364" t="s">
+        <v>2178</v>
+      </c>
+      <c r="C364" t="s">
+        <v>2181</v>
+      </c>
+      <c r="D364" t="s">
         <v>2184</v>
       </c>
-      <c r="C364" t="s">
+      <c r="E364" t="s">
         <v>2187</v>
       </c>
-      <c r="D364" t="s">
+      <c r="F364" t="s">
         <v>2190</v>
-      </c>
-      <c r="E364" t="s">
-        <v>2193</v>
-      </c>
-      <c r="F364" t="s">
-        <v>2196</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>2217</v>
+        <v>2194</v>
       </c>
       <c r="B365" t="s">
-        <v>2212</v>
+        <v>2179</v>
       </c>
       <c r="C365" t="s">
-        <v>2213</v>
+        <v>2182</v>
       </c>
       <c r="D365" t="s">
-        <v>2214</v>
+        <v>2185</v>
       </c>
       <c r="E365" t="s">
-        <v>2215</v>
+        <v>2188</v>
       </c>
       <c r="F365" t="s">
-        <v>2216</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>2218</v>
+        <v>2212</v>
       </c>
       <c r="B366" t="s">
-        <v>2219</v>
+        <v>2207</v>
       </c>
       <c r="C366" t="s">
-        <v>2220</v>
+        <v>2208</v>
       </c>
       <c r="D366" t="s">
-        <v>2221</v>
+        <v>2209</v>
       </c>
       <c r="E366" t="s">
-        <v>2222</v>
+        <v>2210</v>
       </c>
       <c r="F366" t="s">
-        <v>2223</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>2241</v>
+        <v>2213</v>
       </c>
       <c r="B367" t="s">
-        <v>2235</v>
+        <v>2214</v>
       </c>
       <c r="C367" t="s">
-        <v>2237</v>
+        <v>2215</v>
       </c>
       <c r="D367" t="s">
-        <v>2239</v>
+        <v>2216</v>
       </c>
       <c r="E367" t="s">
-        <v>2238</v>
+        <v>2217</v>
       </c>
       <c r="F367" t="s">
-        <v>2240</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>2224</v>
+        <v>2236</v>
       </c>
       <c r="B368" t="s">
-        <v>2225</v>
+        <v>2230</v>
       </c>
       <c r="C368" t="s">
-        <v>2236</v>
+        <v>2232</v>
       </c>
       <c r="D368" t="s">
-        <v>2226</v>
+        <v>2234</v>
       </c>
       <c r="E368" t="s">
-        <v>2227</v>
+        <v>2233</v>
       </c>
       <c r="F368" t="s">
-        <v>2228</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>2234</v>
+        <v>2219</v>
       </c>
       <c r="B369" t="s">
-        <v>2229</v>
+        <v>2220</v>
       </c>
       <c r="C369" t="s">
         <v>2231</v>
       </c>
       <c r="D369" t="s">
-        <v>2230</v>
+        <v>2221</v>
       </c>
       <c r="E369" t="s">
-        <v>2232</v>
+        <v>2222</v>
       </c>
       <c r="F369" t="s">
-        <v>2233</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>2124</v>
+        <v>2229</v>
       </c>
       <c r="B370" t="s">
-        <v>2049</v>
+        <v>2224</v>
       </c>
       <c r="C370" t="s">
-        <v>2066</v>
+        <v>2226</v>
       </c>
       <c r="D370" t="s">
-        <v>2087</v>
+        <v>2225</v>
       </c>
       <c r="E370" t="s">
-        <v>2098</v>
+        <v>2227</v>
       </c>
       <c r="F370" t="s">
-        <v>2111</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>2162</v>
+        <v>2119</v>
       </c>
       <c r="B371" t="s">
-        <v>2142</v>
+        <v>2049</v>
       </c>
       <c r="C371" t="s">
-        <v>2149</v>
+        <v>2064</v>
       </c>
       <c r="D371" t="s">
-        <v>2150</v>
+        <v>2084</v>
       </c>
       <c r="E371" t="s">
-        <v>2154</v>
+        <v>2094</v>
       </c>
       <c r="F371" t="s">
-        <v>2158</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>2163</v>
+        <v>2157</v>
       </c>
       <c r="B372" t="s">
-        <v>2143</v>
+        <v>2137</v>
       </c>
       <c r="C372" t="s">
-        <v>2146</v>
+        <v>2144</v>
       </c>
       <c r="D372" t="s">
-        <v>2151</v>
+        <v>2145</v>
       </c>
       <c r="E372" t="s">
-        <v>2155</v>
+        <v>2149</v>
       </c>
       <c r="F372" t="s">
-        <v>2159</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>2164</v>
+        <v>2158</v>
       </c>
       <c r="B373" t="s">
-        <v>2144</v>
+        <v>2138</v>
       </c>
       <c r="C373" t="s">
-        <v>2147</v>
+        <v>2141</v>
       </c>
       <c r="D373" t="s">
-        <v>2152</v>
+        <v>2146</v>
       </c>
       <c r="E373" t="s">
-        <v>2156</v>
+        <v>2150</v>
       </c>
       <c r="F373" t="s">
-        <v>2160</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>2165</v>
+        <v>2159</v>
       </c>
       <c r="B374" t="s">
-        <v>2145</v>
+        <v>2139</v>
       </c>
       <c r="C374" t="s">
-        <v>2148</v>
+        <v>2142</v>
       </c>
       <c r="D374" t="s">
-        <v>2153</v>
+        <v>2147</v>
       </c>
       <c r="E374" t="s">
-        <v>2157</v>
+        <v>2151</v>
       </c>
       <c r="F374" t="s">
-        <v>2161</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>2125</v>
+        <v>2160</v>
       </c>
       <c r="B375" t="s">
-        <v>2126</v>
+        <v>2140</v>
       </c>
       <c r="C375" t="s">
-        <v>2127</v>
+        <v>2143</v>
       </c>
       <c r="D375" t="s">
-        <v>2128</v>
+        <v>2148</v>
       </c>
       <c r="E375" t="s">
-        <v>2129</v>
+        <v>2152</v>
       </c>
       <c r="F375" t="s">
-        <v>2130</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>2201</v>
+        <v>2120</v>
       </c>
       <c r="B376" t="s">
-        <v>2200</v>
+        <v>2121</v>
       </c>
       <c r="C376" t="s">
-        <v>2202</v>
+        <v>2122</v>
       </c>
       <c r="D376" t="s">
-        <v>2203</v>
+        <v>2123</v>
       </c>
       <c r="E376" t="s">
-        <v>2204</v>
+        <v>2124</v>
       </c>
       <c r="F376" t="s">
-        <v>2205</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
+        <v>2196</v>
+      </c>
+      <c r="B377" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C377" t="s">
+        <v>2197</v>
+      </c>
+      <c r="D377" t="s">
+        <v>2198</v>
+      </c>
+      <c r="E377" t="s">
+        <v>2199</v>
+      </c>
+      <c r="F377" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
         <v>1503</v>
       </c>
-      <c r="B377" t="s">
+      <c r="B378" t="s">
         <v>1501</v>
       </c>
-      <c r="C377" t="s">
+      <c r="C378" t="s">
         <v>1502</v>
       </c>
-      <c r="D377" t="s">
+      <c r="D378" t="s">
         <v>1504</v>
       </c>
-      <c r="E377" t="s">
+      <c r="E378" t="s">
         <v>1505</v>
       </c>
-      <c r="F377" t="s">
+      <c r="F378" t="s">
         <v>1506</v>
       </c>
     </row>

--- a/lang/words_dict.xlsx
+++ b/lang/words_dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\si lab\Matlab Projects\Registration\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD645DF-6BB4-41E0-B23B-8F4C0AC1B3D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750C2C17-F4E1-4CA5-9F95-4721B076735D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2268" uniqueCount="2254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2292" uniqueCount="2278">
   <si>
     <t>文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7755,6 +7755,87 @@
   </si>
   <si>
     <t xml:space="preserve">El proceso de informe de problemas no recopila su </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROI过多，请重新绘制后尝试添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出蒙版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPORT_MASK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙版及区域属性导出成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There are too many ROIs, please redraw and try to add them.</t>
+  </si>
+  <si>
+    <t>Mask and area attributes exported successfully.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Слишком много ROI, перерисуйте и попробуйте добавить их.</t>
+  </si>
+  <si>
+    <t>Атрибуты маски и области успешно экспортированы.</t>
+  </si>
+  <si>
+    <t>Il y a trop de ROI, veuillez redessiner et essayer de les ajouter.</t>
+  </si>
+  <si>
+    <t>Attributs de masque et de zone exportés avec succès.</t>
+  </si>
+  <si>
+    <t>Hay demasiados ROI, vuelva a dibujarlos e intente agregarlos.</t>
+  </si>
+  <si>
+    <t>Los atributos de máscara y área se exportaron correctamente.</t>
+  </si>
+  <si>
+    <t>TOO_MUCH_ROI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPORT_MASK_SUCCESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现多连通区域，已选取最大单连通子集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multi-connected regions are found, and the largest singly connected subset has been selected</t>
+  </si>
+  <si>
+    <t>Обнаружены многосвязные регионы и выбрано наибольшее односвязное подмножество.</t>
+  </si>
+  <si>
+    <t>Des régions multi-connectées sont trouvées et le plus grand sous-ensemble mono-connecté a été sélectionné</t>
+  </si>
+  <si>
+    <t>Se encuentran regiones multiconectadas y se ha seleccionado el subconjunto más grande conectado individualmente</t>
+  </si>
+  <si>
+    <t>Export mask</t>
+  </si>
+  <si>
+    <t>Экспортировать маску</t>
+  </si>
+  <si>
+    <t>Masque d'exportation</t>
+  </si>
+  <si>
+    <t>Máscara de exportación</t>
+  </si>
+  <si>
+    <t>MULTI_CONNECTION</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8089,10 +8170,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F378"/>
+  <dimension ref="A1:F382"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C348" workbookViewId="0">
-      <selection activeCell="F369" sqref="F369"/>
+    <sheetView tabSelected="1" topLeftCell="A364" workbookViewId="0">
+      <selection activeCell="E391" sqref="E391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8647,4399 +8728,4399 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>2131</v>
+        <v>2256</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>2255</v>
       </c>
       <c r="C28" t="s">
-        <v>268</v>
+        <v>2273</v>
       </c>
       <c r="D28" t="s">
-        <v>540</v>
+        <v>2274</v>
       </c>
       <c r="E28" t="s">
-        <v>796</v>
+        <v>2275</v>
       </c>
       <c r="F28" t="s">
-        <v>1027</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1461</v>
+        <v>2131</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D29" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E29" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F29" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1993</v>
+        <v>1461</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D30" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E30" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F30" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C31" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D31" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E31" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F31" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C32" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D32" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E32" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F32" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1999</v>
+        <v>1995</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C33" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D33" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E33" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F33" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1996</v>
+        <v>1999</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D34" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E34" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F34" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D35" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E35" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F35" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1266</v>
+        <v>1997</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D36" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E36" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F36" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1998</v>
+        <v>1266</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D37" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E37" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F37" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>1267</v>
+        <v>1998</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C38" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D38" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E38" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F38" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>2012</v>
+        <v>1267</v>
       </c>
       <c r="B39" t="s">
-        <v>523</v>
+        <v>25</v>
       </c>
       <c r="C39" t="s">
-        <v>525</v>
+        <v>278</v>
       </c>
       <c r="D39" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E39" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F39" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B40" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C40" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D40" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F40" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B41" t="s">
-        <v>26</v>
+        <v>524</v>
       </c>
       <c r="C41" t="s">
-        <v>280</v>
+        <v>526</v>
       </c>
       <c r="D41" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E41" t="s">
-        <v>279</v>
+        <v>808</v>
       </c>
       <c r="F41" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D42" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E42" t="s">
-        <v>809</v>
+        <v>279</v>
       </c>
       <c r="F42" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C43" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D43" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E43" t="s">
-        <v>283</v>
+        <v>809</v>
       </c>
       <c r="F43" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C44" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E44" t="s">
-        <v>810</v>
+        <v>283</v>
       </c>
       <c r="F44" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C45" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D45" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E45" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F45" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C46" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D46" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E46" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F46" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>1268</v>
+        <v>2019</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D47" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E47" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F47" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>2020</v>
+        <v>1268</v>
       </c>
       <c r="B48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C48" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D48" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E48" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F48" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C49" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D49" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E49" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F49" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>1269</v>
+        <v>2021</v>
       </c>
       <c r="B50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C50" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D50" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E50" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F50" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C51" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D51" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E51" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F51" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>2022</v>
+        <v>1270</v>
       </c>
       <c r="B52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C52" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D52" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E52" t="s">
-        <v>292</v>
+        <v>817</v>
       </c>
       <c r="F52" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C53" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D53" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E53" t="s">
-        <v>818</v>
+        <v>292</v>
       </c>
       <c r="F53" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C54" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D54" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E54" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F54" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B55" t="s">
-        <v>2026</v>
+        <v>39</v>
       </c>
       <c r="C55" t="s">
-        <v>2027</v>
+        <v>295</v>
       </c>
       <c r="D55" t="s">
-        <v>2028</v>
+        <v>566</v>
       </c>
       <c r="E55" t="s">
-        <v>2029</v>
+        <v>819</v>
       </c>
       <c r="F55" t="s">
-        <v>2030</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>2037</v>
+        <v>2025</v>
       </c>
       <c r="B56" t="s">
-        <v>41</v>
+        <v>2026</v>
       </c>
       <c r="C56" t="s">
-        <v>296</v>
+        <v>2027</v>
       </c>
       <c r="D56" t="s">
-        <v>567</v>
+        <v>2028</v>
       </c>
       <c r="E56" t="s">
-        <v>820</v>
+        <v>2029</v>
       </c>
       <c r="F56" t="s">
-        <v>1054</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>1271</v>
+        <v>2037</v>
       </c>
       <c r="B57" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C57" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D57" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E57" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F57" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>2038</v>
+        <v>1271</v>
       </c>
       <c r="B58" t="s">
-        <v>2039</v>
+        <v>40</v>
       </c>
       <c r="C58" t="s">
-        <v>2040</v>
+        <v>297</v>
       </c>
       <c r="D58" t="s">
-        <v>2041</v>
+        <v>568</v>
       </c>
       <c r="E58" t="s">
-        <v>2042</v>
+        <v>821</v>
       </c>
       <c r="F58" t="s">
-        <v>2043</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>1272</v>
+        <v>2038</v>
       </c>
       <c r="B59" t="s">
-        <v>42</v>
+        <v>2039</v>
       </c>
       <c r="C59" t="s">
-        <v>298</v>
+        <v>2040</v>
       </c>
       <c r="D59" t="s">
-        <v>1496</v>
+        <v>2041</v>
       </c>
       <c r="E59" t="s">
-        <v>1497</v>
+        <v>2042</v>
       </c>
       <c r="F59" t="s">
-        <v>1498</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>2044</v>
+        <v>1272</v>
       </c>
       <c r="B60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C60" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D60" t="s">
-        <v>569</v>
+        <v>1496</v>
       </c>
       <c r="E60" t="s">
-        <v>822</v>
+        <v>1497</v>
       </c>
       <c r="F60" t="s">
-        <v>1056</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>1273</v>
+        <v>2044</v>
       </c>
       <c r="B61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C61" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D61" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E61" t="s">
-        <v>811</v>
+        <v>822</v>
       </c>
       <c r="F61" t="s">
-        <v>1044</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C62" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D62" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E62" t="s">
-        <v>823</v>
+        <v>811</v>
       </c>
       <c r="F62" t="s">
-        <v>1057</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B63" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C63" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D63" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E63" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F63" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>2045</v>
+        <v>1275</v>
       </c>
       <c r="B64" t="s">
-        <v>1499</v>
+        <v>58</v>
       </c>
       <c r="C64" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D64" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E64" t="s">
-        <v>303</v>
+        <v>824</v>
       </c>
       <c r="F64" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>1276</v>
+        <v>2045</v>
       </c>
       <c r="B65" t="s">
-        <v>46</v>
+        <v>1499</v>
       </c>
       <c r="C65" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D65" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E65" t="s">
-        <v>825</v>
+        <v>303</v>
       </c>
       <c r="F65" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C66" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D66" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E66" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F66" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="B67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C67" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D67" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E67" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F67" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C68" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D68" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E68" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F68" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B69" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C69" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D69" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E69" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F69" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="B70" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C70" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D70" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E70" t="s">
-        <v>310</v>
+        <v>829</v>
       </c>
       <c r="F70" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B71" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C71" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D71" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E71" t="s">
-        <v>830</v>
+        <v>310</v>
       </c>
       <c r="F71" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="B72" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C72" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D72" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E72" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="F72" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>1386</v>
+        <v>1283</v>
       </c>
       <c r="B73" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C73" t="s">
-        <v>1387</v>
+        <v>313</v>
       </c>
       <c r="D73" t="s">
-        <v>1388</v>
+        <v>581</v>
       </c>
       <c r="E73" t="s">
-        <v>1389</v>
+        <v>831</v>
       </c>
       <c r="F73" t="s">
-        <v>1390</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>1284</v>
+        <v>1386</v>
       </c>
       <c r="B74" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C74" t="s">
-        <v>314</v>
+        <v>1387</v>
       </c>
       <c r="D74" t="s">
-        <v>582</v>
+        <v>1388</v>
       </c>
       <c r="E74" t="s">
-        <v>832</v>
+        <v>1389</v>
       </c>
       <c r="F74" t="s">
-        <v>1068</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B75" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C75" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D75" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E75" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F75" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B76" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C76" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D76" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E76" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F76" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B77" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C77" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D77" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E77" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F77" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="B78" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C78" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D78" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E78" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F78" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B79" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C79" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D79" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E79" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F79" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B80" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C80" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D80" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E80" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F80" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B81" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C81" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D81" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E81" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F81" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B82" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C82" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D82" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E82" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F82" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="B83" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C83" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D83" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E83" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F83" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>1569</v>
+        <v>1293</v>
       </c>
       <c r="B84" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C84" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E84" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F84" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>1391</v>
+        <v>1569</v>
       </c>
       <c r="B85" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C85" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D85" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E85" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F85" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>2164</v>
+        <v>1391</v>
       </c>
       <c r="B86" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C86" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D86" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E86" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F86" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>1294</v>
+        <v>2164</v>
       </c>
       <c r="B87" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C87" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D87" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E87" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F87" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B88" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C88" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D88" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E88" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F88" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B89" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C89" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D89" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E89" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F89" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="B90" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C90" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D90" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E90" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F90" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="B91" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C91" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D91" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E91" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F91" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="B92" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C92" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D92" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E92" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F92" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B93" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C93" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D93" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E93" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F93" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="B94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C94" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D94" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E94" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F94" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B95" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C95" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D95" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E95" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F95" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>2238</v>
+        <v>1302</v>
       </c>
       <c r="B96" t="s">
-        <v>2237</v>
+        <v>77</v>
       </c>
       <c r="C96" t="s">
-        <v>2239</v>
+        <v>335</v>
       </c>
       <c r="D96" t="s">
-        <v>2240</v>
+        <v>603</v>
       </c>
       <c r="E96" t="s">
-        <v>2241</v>
+        <v>853</v>
       </c>
       <c r="F96" t="s">
-        <v>2242</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>2046</v>
+        <v>2238</v>
       </c>
       <c r="B97" t="s">
-        <v>78</v>
+        <v>2237</v>
       </c>
       <c r="C97" t="s">
-        <v>336</v>
+        <v>2239</v>
       </c>
       <c r="D97" t="s">
-        <v>604</v>
+        <v>2240</v>
       </c>
       <c r="E97" t="s">
-        <v>854</v>
+        <v>2241</v>
       </c>
       <c r="F97" t="s">
-        <v>1090</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>1303</v>
+        <v>2046</v>
       </c>
       <c r="B98" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C98" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D98" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E98" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F98" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="B99" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C99" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D99" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E99" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F99" t="s">
-        <v>856</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="B100" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C100" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D100" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E100" t="s">
-        <v>339</v>
+        <v>856</v>
       </c>
       <c r="F100" t="s">
-        <v>1092</v>
+        <v>856</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>2126</v>
+        <v>1305</v>
       </c>
       <c r="B101" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C101" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D101" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E101" t="s">
-        <v>857</v>
+        <v>339</v>
       </c>
       <c r="F101" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>1306</v>
+        <v>2126</v>
       </c>
       <c r="B102" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C102" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D102" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E102" t="s">
-        <v>343</v>
+        <v>857</v>
       </c>
       <c r="F102" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>1898</v>
+        <v>1306</v>
       </c>
       <c r="B103" t="s">
-        <v>1877</v>
+        <v>83</v>
       </c>
       <c r="C103" t="s">
-        <v>1881</v>
+        <v>344</v>
       </c>
       <c r="D103" t="s">
-        <v>1885</v>
+        <v>609</v>
       </c>
       <c r="E103" t="s">
-        <v>1889</v>
+        <v>343</v>
       </c>
       <c r="F103" t="s">
-        <v>1893</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="B104" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="C104" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="D104" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="E104" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="F104" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
       <c r="B105" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="C105" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="D105" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="E105" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="F105" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="B106" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="C106" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="D106" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="E106" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="F106" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>1598</v>
+        <v>1900</v>
       </c>
       <c r="B107" t="s">
-        <v>84</v>
+        <v>1880</v>
       </c>
       <c r="C107" t="s">
-        <v>342</v>
+        <v>1884</v>
       </c>
       <c r="D107" t="s">
-        <v>610</v>
+        <v>1888</v>
       </c>
       <c r="E107" t="s">
-        <v>858</v>
+        <v>1892</v>
       </c>
       <c r="F107" t="s">
-        <v>1095</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>1307</v>
+        <v>1598</v>
       </c>
       <c r="B108" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C108" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D108" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E108" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F108" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>2127</v>
+        <v>1307</v>
       </c>
       <c r="B109" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C109" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D109" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E109" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F109" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>1599</v>
+        <v>2127</v>
       </c>
       <c r="B110" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C110" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D110" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E110" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F110" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>1308</v>
+        <v>1599</v>
       </c>
       <c r="B111" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C111" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="D111" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E111" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F111" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>1392</v>
+        <v>1308</v>
       </c>
       <c r="B112" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C112" t="s">
-        <v>522</v>
+        <v>356</v>
       </c>
       <c r="D112" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E112" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F112" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>1309</v>
+        <v>1392</v>
       </c>
       <c r="B113" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C113" t="s">
-        <v>348</v>
+        <v>522</v>
       </c>
       <c r="D113" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E113" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F113" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B114" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C114" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D114" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E114" t="s">
-        <v>349</v>
+        <v>864</v>
       </c>
       <c r="F114" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="B115" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C115" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D115" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E115" t="s">
-        <v>865</v>
+        <v>349</v>
       </c>
       <c r="F115" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B116" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C116" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D116" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E116" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F116" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="B117" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C117" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D117" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E117" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F117" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B118" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C118" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D118" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E118" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F118" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B119" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C119" t="s">
-        <v>778</v>
+        <v>354</v>
       </c>
       <c r="D119" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E119" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F119" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B120" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C120" t="s">
-        <v>355</v>
+        <v>778</v>
       </c>
       <c r="D120" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E120" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F120" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>1601</v>
+        <v>1316</v>
       </c>
       <c r="B121" t="s">
-        <v>1600</v>
+        <v>97</v>
       </c>
       <c r="C121" t="s">
-        <v>1602</v>
+        <v>355</v>
       </c>
       <c r="D121" t="s">
-        <v>1604</v>
+        <v>623</v>
       </c>
       <c r="E121" t="s">
-        <v>1605</v>
+        <v>870</v>
       </c>
       <c r="F121" t="s">
-        <v>1603</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>1607</v>
+        <v>1601</v>
       </c>
       <c r="B122" t="s">
-        <v>1606</v>
+        <v>1600</v>
       </c>
       <c r="C122" t="s">
-        <v>1608</v>
+        <v>1602</v>
       </c>
       <c r="D122" t="s">
-        <v>1609</v>
+        <v>1604</v>
       </c>
       <c r="E122" t="s">
-        <v>1610</v>
+        <v>1605</v>
       </c>
       <c r="F122" t="s">
-        <v>1611</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>2128</v>
+        <v>1607</v>
       </c>
       <c r="B123" t="s">
-        <v>98</v>
+        <v>1606</v>
       </c>
       <c r="C123" t="s">
-        <v>357</v>
+        <v>1608</v>
       </c>
       <c r="D123" t="s">
-        <v>624</v>
+        <v>1609</v>
       </c>
       <c r="E123" t="s">
-        <v>871</v>
+        <v>1610</v>
       </c>
       <c r="F123" t="s">
-        <v>1109</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>1317</v>
+        <v>2128</v>
       </c>
       <c r="B124" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C124" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D124" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E124" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="F124" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B125" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C125" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D125" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E125" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F125" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B126" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C126" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D126" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E126" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F126" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="B127" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C127" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D127" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E127" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="F127" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B128" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C128" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D128" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E128" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F128" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B129" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C129" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D129" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E129" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F129" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="B130" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C130" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D130" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E130" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F130" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B131" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C131" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D131" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E131" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F131" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="B132" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C132" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D132" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E132" t="s">
-        <v>366</v>
+        <v>879</v>
       </c>
       <c r="F132" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="B133" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C133" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D133" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E133" t="s">
-        <v>880</v>
+        <v>366</v>
       </c>
       <c r="F133" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B134" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C134" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D134" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E134" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F134" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B135" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C135" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D135" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E135" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F135" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>1648</v>
+        <v>1328</v>
       </c>
       <c r="B136" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C136" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D136" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E136" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F136" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>2135</v>
+        <v>1648</v>
       </c>
       <c r="B137" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C137" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D137" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E137" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F137" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>1329</v>
+        <v>2135</v>
       </c>
       <c r="B138" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C138" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D138" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E138" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F138" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B139" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C139" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D139" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E139" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F139" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B140" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C140" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D140" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E140" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F140" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>2136</v>
+        <v>1331</v>
       </c>
       <c r="B141" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C141" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D141" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E141" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F141" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>1332</v>
+        <v>2136</v>
       </c>
       <c r="B142" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C142" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D142" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E142" t="s">
-        <v>377</v>
+        <v>888</v>
       </c>
       <c r="F142" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B143" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C143" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D143" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E143" t="s">
-        <v>889</v>
+        <v>377</v>
       </c>
       <c r="F143" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B144" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C144" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D144" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E144" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F144" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B145" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C145" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D145" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E145" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F145" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B146" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C146" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D146" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E146" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F146" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>1393</v>
+        <v>1336</v>
       </c>
       <c r="B147" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C147" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D147" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E147" t="s">
-        <v>383</v>
+        <v>892</v>
       </c>
       <c r="F147" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>2161</v>
+        <v>1393</v>
       </c>
       <c r="B148" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C148" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D148" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E148" t="s">
-        <v>893</v>
+        <v>383</v>
       </c>
       <c r="F148" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>1859</v>
+        <v>2161</v>
       </c>
       <c r="B149" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C149" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D149" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E149" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F149" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="B150" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C150" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D150" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E150" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F150" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>1337</v>
+        <v>1858</v>
       </c>
       <c r="B151" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C151" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D151" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E151" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F151" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="B152" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C152" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D152" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E152" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F152" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="B153" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C153" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D153" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E153" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F153" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="B154" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C154" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D154" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E154" t="s">
-        <v>391</v>
+        <v>898</v>
       </c>
       <c r="F154" t="s">
-        <v>391</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>1695</v>
+        <v>1340</v>
       </c>
       <c r="B155" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C155" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D155" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E155" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F155" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="B156" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C156" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D156" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E156" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F156" t="s">
-        <v>1140</v>
+        <v>393</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>1675</v>
+        <v>1696</v>
       </c>
       <c r="B157" t="s">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="C157" t="s">
-        <v>1679</v>
+        <v>396</v>
       </c>
       <c r="D157" t="s">
-        <v>1685</v>
+        <v>657</v>
       </c>
       <c r="E157" t="s">
-        <v>1689</v>
+        <v>395</v>
       </c>
       <c r="F157" t="s">
-        <v>1691</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="B158" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C158" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
       <c r="D158" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="E158" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="F158" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="B159" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C159" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="D159" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="E159" t="s">
-        <v>1680</v>
+        <v>1690</v>
       </c>
       <c r="F159" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="B160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C160" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="D160" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="E160" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="F160" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>1737</v>
+        <v>1678</v>
       </c>
       <c r="B161" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="C161" t="s">
-        <v>399</v>
+        <v>1684</v>
       </c>
       <c r="D161" t="s">
-        <v>660</v>
+        <v>1688</v>
       </c>
       <c r="E161" t="s">
-        <v>901</v>
+        <v>1681</v>
       </c>
       <c r="F161" t="s">
-        <v>1143</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>1866</v>
+        <v>1737</v>
       </c>
       <c r="B162" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C162" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D162" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E162" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F162" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>1864</v>
+        <v>1866</v>
       </c>
       <c r="B163" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C163" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D163" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E163" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F163" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>1867</v>
+        <v>1864</v>
       </c>
       <c r="B164" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C164" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D164" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E164" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F164" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>1342</v>
+        <v>1867</v>
       </c>
       <c r="B165" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C165" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D165" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E165" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="F165" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B166" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C166" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D166" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E166" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F166" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="B167" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C167" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D167" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E167" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F167" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="B168" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C168" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D168" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E168" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F168" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>2162</v>
+        <v>1345</v>
       </c>
       <c r="B169" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C169" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D169" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E169" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F169" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>1346</v>
+        <v>2162</v>
       </c>
       <c r="B170" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C170" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D170" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E170" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F170" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="B171" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C171" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D171" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E171" t="s">
-        <v>409</v>
+        <v>910</v>
       </c>
       <c r="F171" t="s">
-        <v>409</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>1969</v>
+        <v>1347</v>
       </c>
       <c r="B172" t="s">
-        <v>1970</v>
+        <v>144</v>
       </c>
       <c r="C172" t="s">
-        <v>1971</v>
+        <v>410</v>
       </c>
       <c r="D172" t="s">
-        <v>1972</v>
+        <v>670</v>
       </c>
       <c r="E172" t="s">
-        <v>1973</v>
+        <v>409</v>
       </c>
       <c r="F172" t="s">
-        <v>1974</v>
+        <v>409</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>1868</v>
+        <v>1969</v>
       </c>
       <c r="B173" t="s">
-        <v>145</v>
+        <v>1970</v>
       </c>
       <c r="C173" t="s">
-        <v>411</v>
+        <v>1971</v>
       </c>
       <c r="D173" t="s">
-        <v>671</v>
+        <v>1972</v>
       </c>
       <c r="E173" t="s">
-        <v>911</v>
+        <v>1973</v>
       </c>
       <c r="F173" t="s">
-        <v>1153</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>1348</v>
+        <v>1868</v>
       </c>
       <c r="B174" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C174" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D174" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E174" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="F174" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>1854</v>
+        <v>1348</v>
       </c>
       <c r="B175" t="s">
-        <v>1852</v>
+        <v>146</v>
       </c>
       <c r="C175" t="s">
-        <v>1853</v>
+        <v>412</v>
       </c>
       <c r="D175" t="s">
-        <v>1855</v>
+        <v>672</v>
       </c>
       <c r="E175" t="s">
-        <v>1856</v>
+        <v>912</v>
       </c>
       <c r="F175" t="s">
-        <v>1857</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>1777</v>
+        <v>1854</v>
       </c>
       <c r="B176" t="s">
-        <v>1763</v>
+        <v>1852</v>
       </c>
       <c r="C176" t="s">
-        <v>1778</v>
+        <v>1853</v>
       </c>
       <c r="D176" t="s">
-        <v>1779</v>
+        <v>1855</v>
       </c>
       <c r="E176" t="s">
-        <v>1780</v>
+        <v>1856</v>
       </c>
       <c r="F176" t="s">
-        <v>1781</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>1861</v>
+        <v>1777</v>
       </c>
       <c r="B177" t="s">
-        <v>133</v>
+        <v>1763</v>
       </c>
       <c r="C177" t="s">
-        <v>398</v>
+        <v>1778</v>
       </c>
       <c r="D177" t="s">
-        <v>659</v>
+        <v>1779</v>
       </c>
       <c r="E177" t="s">
-        <v>900</v>
+        <v>1780</v>
       </c>
       <c r="F177" t="s">
-        <v>1142</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="B178" t="s">
-        <v>1666</v>
+        <v>133</v>
       </c>
       <c r="C178" t="s">
-        <v>1667</v>
+        <v>398</v>
       </c>
       <c r="D178" t="s">
-        <v>1668</v>
+        <v>659</v>
       </c>
       <c r="E178" t="s">
-        <v>1669</v>
+        <v>900</v>
       </c>
       <c r="F178" t="s">
-        <v>1670</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>1790</v>
+        <v>1862</v>
       </c>
       <c r="B179" t="s">
-        <v>1764</v>
+        <v>1666</v>
       </c>
       <c r="C179" t="s">
-        <v>1782</v>
+        <v>1667</v>
       </c>
       <c r="D179" t="s">
-        <v>1787</v>
+        <v>1668</v>
       </c>
       <c r="E179" t="s">
-        <v>1788</v>
+        <v>1669</v>
       </c>
       <c r="F179" t="s">
-        <v>1789</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="B180" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="C180" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="D180" t="s">
-        <v>1784</v>
+        <v>1787</v>
       </c>
       <c r="E180" t="s">
-        <v>1785</v>
+        <v>1788</v>
       </c>
       <c r="F180" t="s">
-        <v>1786</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="B181" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="C181" t="s">
-        <v>1793</v>
+        <v>1783</v>
       </c>
       <c r="D181" t="s">
-        <v>1794</v>
+        <v>1784</v>
       </c>
       <c r="E181" t="s">
-        <v>1795</v>
+        <v>1785</v>
       </c>
       <c r="F181" t="s">
-        <v>1796</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>1798</v>
+        <v>1792</v>
       </c>
       <c r="B182" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="C182" t="s">
-        <v>1797</v>
+        <v>1793</v>
       </c>
       <c r="D182" t="s">
-        <v>1799</v>
+        <v>1794</v>
       </c>
       <c r="E182" t="s">
-        <v>1800</v>
+        <v>1795</v>
       </c>
       <c r="F182" t="s">
-        <v>1801</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>1806</v>
+        <v>1798</v>
       </c>
       <c r="B183" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="C183" t="s">
-        <v>1803</v>
+        <v>1797</v>
       </c>
       <c r="D183" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="E183" t="s">
-        <v>1804</v>
+        <v>1800</v>
       </c>
       <c r="F183" t="s">
-        <v>1805</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="B184" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="C184" t="s">
-        <v>1809</v>
+        <v>1803</v>
       </c>
       <c r="D184" t="s">
-        <v>1810</v>
+        <v>1802</v>
       </c>
       <c r="E184" t="s">
-        <v>1808</v>
+        <v>1804</v>
       </c>
       <c r="F184" t="s">
-        <v>1811</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>1812</v>
+        <v>1807</v>
       </c>
       <c r="B185" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="C185" t="s">
-        <v>1813</v>
+        <v>1809</v>
       </c>
       <c r="D185" t="s">
-        <v>1814</v>
+        <v>1810</v>
       </c>
       <c r="E185" t="s">
-        <v>1815</v>
+        <v>1808</v>
       </c>
       <c r="F185" t="s">
-        <v>1816</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>1821</v>
+        <v>1812</v>
       </c>
       <c r="B186" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="C186" t="s">
-        <v>1817</v>
+        <v>1813</v>
       </c>
       <c r="D186" t="s">
-        <v>1818</v>
+        <v>1814</v>
       </c>
       <c r="E186" t="s">
-        <v>1819</v>
+        <v>1815</v>
       </c>
       <c r="F186" t="s">
-        <v>1820</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>1827</v>
+        <v>1821</v>
       </c>
       <c r="B187" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="C187" t="s">
-        <v>1826</v>
+        <v>1817</v>
       </c>
       <c r="D187" t="s">
-        <v>1828</v>
+        <v>1818</v>
       </c>
       <c r="E187" t="s">
-        <v>1829</v>
+        <v>1819</v>
       </c>
       <c r="F187" t="s">
-        <v>1830</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>1835</v>
+        <v>1827</v>
       </c>
       <c r="B188" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="C188" t="s">
-        <v>1822</v>
+        <v>1826</v>
       </c>
       <c r="D188" t="s">
-        <v>1823</v>
+        <v>1828</v>
       </c>
       <c r="E188" t="s">
-        <v>1824</v>
+        <v>1829</v>
       </c>
       <c r="F188" t="s">
-        <v>1825</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="B189" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="C189" t="s">
-        <v>1831</v>
+        <v>1822</v>
       </c>
       <c r="D189" t="s">
-        <v>1832</v>
+        <v>1823</v>
       </c>
       <c r="E189" t="s">
-        <v>1833</v>
+        <v>1824</v>
       </c>
       <c r="F189" t="s">
-        <v>1834</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>1841</v>
+        <v>1836</v>
       </c>
       <c r="B190" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="C190" t="s">
-        <v>1839</v>
+        <v>1831</v>
       </c>
       <c r="D190" t="s">
-        <v>1837</v>
+        <v>1832</v>
       </c>
       <c r="E190" t="s">
-        <v>1838</v>
+        <v>1833</v>
       </c>
       <c r="F190" t="s">
-        <v>1840</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="B191" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="C191" t="s">
-        <v>1843</v>
+        <v>1839</v>
       </c>
       <c r="D191" t="s">
-        <v>1844</v>
+        <v>1837</v>
       </c>
       <c r="E191" t="s">
-        <v>1845</v>
+        <v>1838</v>
       </c>
       <c r="F191" t="s">
-        <v>1846</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>1341</v>
+        <v>1842</v>
       </c>
       <c r="B192" t="s">
-        <v>132</v>
+        <v>1776</v>
       </c>
       <c r="C192" t="s">
-        <v>397</v>
+        <v>1843</v>
       </c>
       <c r="D192" t="s">
-        <v>658</v>
+        <v>1844</v>
       </c>
       <c r="E192" t="s">
-        <v>899</v>
+        <v>1845</v>
       </c>
       <c r="F192" t="s">
-        <v>1141</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>1650</v>
+        <v>1341</v>
       </c>
       <c r="B193" t="s">
-        <v>1649</v>
+        <v>132</v>
       </c>
       <c r="C193" t="s">
-        <v>1651</v>
+        <v>397</v>
       </c>
       <c r="D193" t="s">
-        <v>1652</v>
+        <v>658</v>
       </c>
       <c r="E193" t="s">
-        <v>1653</v>
+        <v>899</v>
       </c>
       <c r="F193" t="s">
-        <v>1654</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>1349</v>
+        <v>1650</v>
       </c>
       <c r="B194" t="s">
-        <v>147</v>
+        <v>1649</v>
       </c>
       <c r="C194" t="s">
-        <v>413</v>
+        <v>1651</v>
       </c>
       <c r="D194" t="s">
-        <v>673</v>
+        <v>1652</v>
       </c>
       <c r="E194" t="s">
-        <v>913</v>
+        <v>1653</v>
       </c>
       <c r="F194" t="s">
-        <v>1155</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="B195" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C195" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D195" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E195" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F195" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="B196" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C196" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D196" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E196" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F196" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="B197" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C197" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D197" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E197" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F197" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B198" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C198" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D198" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E198" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F198" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B199" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C199" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D199" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E199" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F199" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="B200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C200" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D200" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E200" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F200" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="B201" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C201" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="D201" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E201" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F201" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="B202" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C202" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D202" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E202" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F202" t="s">
-        <v>421</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B203" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C203" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D203" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E203" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F203" t="s">
-        <v>1163</v>
+        <v>421</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>1865</v>
+        <v>1358</v>
       </c>
       <c r="B204" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C204" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D204" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E204" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F204" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>1860</v>
+        <v>1865</v>
       </c>
       <c r="B205" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C205" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D205" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E205" t="s">
-        <v>425</v>
+        <v>923</v>
       </c>
       <c r="F205" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>1359</v>
+        <v>1860</v>
       </c>
       <c r="B206" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C206" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D206" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E206" t="s">
-        <v>924</v>
+        <v>425</v>
       </c>
       <c r="F206" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>1863</v>
+        <v>1359</v>
       </c>
       <c r="B207" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C207" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D207" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E207" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F207" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>1360</v>
+        <v>1863</v>
       </c>
       <c r="B208" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C208" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D208" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E208" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F208" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>1869</v>
+        <v>1360</v>
       </c>
       <c r="B209" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C209" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D209" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E209" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F209" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>2163</v>
+        <v>1869</v>
       </c>
       <c r="B210" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C210" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D210" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E210" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F210" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>1361</v>
+        <v>2163</v>
       </c>
       <c r="B211" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C211" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D211" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E211" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F211" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B212" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C212" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D212" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E212" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F212" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="B213" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C213" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D213" t="s">
-        <v>1255</v>
+        <v>691</v>
       </c>
       <c r="E213" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F213" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B214" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C214" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D214" t="s">
-        <v>692</v>
+        <v>1255</v>
       </c>
       <c r="E214" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F214" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B215" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C215" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D215" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E215" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F215" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="B216" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C216" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D216" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E216" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F216" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B217" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C217" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D217" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E217" t="s">
-        <v>438</v>
+        <v>934</v>
       </c>
       <c r="F217" t="s">
-        <v>438</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B218" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C218" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D218" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E218" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F218" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="B219" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C219" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D219" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E219" t="s">
-        <v>935</v>
+        <v>440</v>
       </c>
       <c r="F219" t="s">
-        <v>1177</v>
+        <v>440</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="B220" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C220" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D220" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E220" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F220" t="s">
-        <v>443</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="B221" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C221" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D221" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E221" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F221" t="s">
-        <v>1178</v>
+        <v>443</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B222" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C222" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D222" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E222" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F222" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B223" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C223" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D223" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E223" t="s">
-        <v>447</v>
+        <v>938</v>
       </c>
       <c r="F223" t="s">
-        <v>447</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="B224" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C224" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D224" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E224" t="s">
-        <v>939</v>
+        <v>447</v>
       </c>
       <c r="F224" t="s">
-        <v>1180</v>
+        <v>447</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="B225" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C225" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D225" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E225" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F225" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="B226" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C226" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D226" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E226" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F226" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>1394</v>
+        <v>1376</v>
       </c>
       <c r="B227" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C227" t="s">
-        <v>779</v>
+        <v>451</v>
       </c>
       <c r="D227" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E227" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F227" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>1377</v>
+        <v>1394</v>
       </c>
       <c r="B228" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C228" t="s">
-        <v>452</v>
+        <v>779</v>
       </c>
       <c r="D228" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E228" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F228" t="s">
-        <v>1059</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B229" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C229" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D229" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E229" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F229" t="s">
-        <v>1184</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="B230" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C230" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D230" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E230" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F230" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B231" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C231" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D231" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E231" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F231" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B232" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C232" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D232" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E232" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F232" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B233" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C233" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D233" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E233" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F233" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B234" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C234" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D234" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E234" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F234" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B235" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C235" t="s">
-        <v>1395</v>
+        <v>458</v>
       </c>
       <c r="D235" t="s">
-        <v>1396</v>
+        <v>712</v>
       </c>
       <c r="E235" t="s">
-        <v>1397</v>
+        <v>949</v>
       </c>
       <c r="F235" t="s">
-        <v>1398</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B236" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C236" t="s">
-        <v>459</v>
+        <v>1395</v>
       </c>
       <c r="D236" t="s">
-        <v>713</v>
+        <v>1396</v>
       </c>
       <c r="E236" t="s">
-        <v>950</v>
+        <v>1397</v>
       </c>
       <c r="F236" t="s">
-        <v>1190</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>1500</v>
+        <v>1385</v>
       </c>
       <c r="B237" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C237" t="s">
-        <v>496</v>
+        <v>459</v>
       </c>
       <c r="D237" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E237" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F237" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>1399</v>
+        <v>1500</v>
       </c>
       <c r="B238" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C238" t="s">
-        <v>460</v>
+        <v>496</v>
       </c>
       <c r="D238" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E238" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F238" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>1975</v>
+        <v>1399</v>
       </c>
       <c r="B239" t="s">
-        <v>1976</v>
+        <v>191</v>
       </c>
       <c r="C239" t="s">
-        <v>1977</v>
+        <v>460</v>
       </c>
       <c r="D239" t="s">
-        <v>1978</v>
+        <v>715</v>
       </c>
       <c r="E239" t="s">
-        <v>1979</v>
+        <v>952</v>
       </c>
       <c r="F239" t="s">
-        <v>1980</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>1400</v>
+        <v>1975</v>
       </c>
       <c r="B240" t="s">
-        <v>192</v>
+        <v>1976</v>
       </c>
       <c r="C240" t="s">
-        <v>498</v>
+        <v>1977</v>
       </c>
       <c r="D240" t="s">
-        <v>716</v>
+        <v>1978</v>
       </c>
       <c r="E240" t="s">
-        <v>953</v>
+        <v>1979</v>
       </c>
       <c r="F240" t="s">
-        <v>497</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B241" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C241" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D241" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E241" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="F241" t="s">
-        <v>1193</v>
+        <v>497</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B242" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C242" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D242" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E242" t="s">
-        <v>500</v>
+        <v>954</v>
       </c>
       <c r="F242" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>1697</v>
+        <v>1402</v>
       </c>
       <c r="B243" t="s">
-        <v>1698</v>
+        <v>194</v>
       </c>
       <c r="C243" t="s">
-        <v>1699</v>
+        <v>501</v>
       </c>
       <c r="D243" t="s">
-        <v>1700</v>
+        <v>718</v>
       </c>
       <c r="E243" t="s">
-        <v>1701</v>
+        <v>500</v>
       </c>
       <c r="F243" t="s">
-        <v>1702</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>1703</v>
+        <v>1697</v>
       </c>
       <c r="B244" t="s">
-        <v>1704</v>
+        <v>1698</v>
       </c>
       <c r="C244" t="s">
-        <v>1708</v>
+        <v>1699</v>
       </c>
       <c r="D244" t="s">
-        <v>1711</v>
+        <v>1700</v>
       </c>
       <c r="E244" t="s">
-        <v>1710</v>
+        <v>1701</v>
       </c>
       <c r="F244" t="s">
-        <v>1709</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="B245" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="C245" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="D245" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="E245" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
       <c r="F245" t="s">
-        <v>1714</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>1719</v>
+        <v>1705</v>
       </c>
       <c r="B246" t="s">
-        <v>1721</v>
+        <v>1706</v>
       </c>
       <c r="C246" t="s">
-        <v>1720</v>
+        <v>1707</v>
       </c>
       <c r="D246" t="s">
-        <v>1722</v>
+        <v>1712</v>
       </c>
       <c r="E246" t="s">
-        <v>1723</v>
+        <v>1713</v>
       </c>
       <c r="F246" t="s">
-        <v>1718</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>1724</v>
+        <v>1719</v>
       </c>
       <c r="B247" t="s">
-        <v>1715</v>
+        <v>1721</v>
       </c>
       <c r="C247" t="s">
-        <v>1725</v>
+        <v>1720</v>
       </c>
       <c r="D247" t="s">
-        <v>1716</v>
+        <v>1722</v>
       </c>
       <c r="E247" t="s">
-        <v>1717</v>
+        <v>1723</v>
       </c>
       <c r="F247" t="s">
         <v>1718</v>
@@ -13047,2621 +13128,2701 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="B248" t="s">
-        <v>1727</v>
+        <v>1715</v>
       </c>
       <c r="C248" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="D248" t="s">
-        <v>1728</v>
+        <v>1716</v>
       </c>
       <c r="E248" t="s">
-        <v>1729</v>
+        <v>1717</v>
       </c>
       <c r="F248" t="s">
-        <v>1730</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
       <c r="B249" t="s">
-        <v>1732</v>
+        <v>1727</v>
       </c>
       <c r="C249" t="s">
-        <v>1733</v>
+        <v>1726</v>
       </c>
       <c r="D249" t="s">
-        <v>1734</v>
+        <v>1728</v>
       </c>
       <c r="E249" t="s">
-        <v>1735</v>
+        <v>1729</v>
       </c>
       <c r="F249" t="s">
-        <v>1736</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>1403</v>
+        <v>1731</v>
       </c>
       <c r="B250" t="s">
-        <v>195</v>
+        <v>1732</v>
       </c>
       <c r="C250" t="s">
-        <v>461</v>
+        <v>1733</v>
       </c>
       <c r="D250" t="s">
-        <v>719</v>
+        <v>1734</v>
       </c>
       <c r="E250" t="s">
-        <v>955</v>
+        <v>1735</v>
       </c>
       <c r="F250" t="s">
-        <v>1195</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B251" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C251" t="s">
-        <v>502</v>
+        <v>461</v>
       </c>
       <c r="D251" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E251" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F251" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B252" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C252" t="s">
-        <v>462</v>
+        <v>502</v>
       </c>
       <c r="D252" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E252" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F252" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B253" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C253" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D253" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E253" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F253" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B254" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C254" t="s">
-        <v>506</v>
+        <v>463</v>
       </c>
       <c r="D254" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E254" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F254" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B255" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C255" t="s">
-        <v>464</v>
+        <v>506</v>
       </c>
       <c r="D255" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E255" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F255" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B256" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C256" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D256" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E256" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F256" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>1752</v>
+        <v>1409</v>
       </c>
       <c r="B257" t="s">
-        <v>1750</v>
+        <v>201</v>
       </c>
       <c r="C257" t="s">
-        <v>1751</v>
+        <v>465</v>
       </c>
       <c r="D257" t="s">
-        <v>1753</v>
+        <v>725</v>
       </c>
       <c r="E257" t="s">
-        <v>1754</v>
+        <v>961</v>
       </c>
       <c r="F257" t="s">
-        <v>1755</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>1410</v>
+        <v>1752</v>
       </c>
       <c r="B258" t="s">
-        <v>1575</v>
+        <v>1750</v>
       </c>
       <c r="C258" t="s">
-        <v>1576</v>
+        <v>1751</v>
       </c>
       <c r="D258" t="s">
-        <v>1577</v>
+        <v>1753</v>
       </c>
       <c r="E258" t="s">
-        <v>1578</v>
+        <v>1754</v>
       </c>
       <c r="F258" t="s">
-        <v>1579</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B259" t="s">
-        <v>202</v>
+        <v>1575</v>
       </c>
       <c r="C259" t="s">
-        <v>466</v>
+        <v>1576</v>
       </c>
       <c r="D259" t="s">
-        <v>726</v>
+        <v>1577</v>
       </c>
       <c r="E259" t="s">
-        <v>962</v>
+        <v>1578</v>
       </c>
       <c r="F259" t="s">
-        <v>1202</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B260" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C260" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D260" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E260" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F260" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B261" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C261" t="s">
-        <v>521</v>
+        <v>467</v>
       </c>
       <c r="D261" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E261" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F261" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B262" t="s">
-        <v>1570</v>
+        <v>204</v>
       </c>
       <c r="C262" t="s">
-        <v>1571</v>
+        <v>521</v>
       </c>
       <c r="D262" t="s">
-        <v>1572</v>
+        <v>728</v>
       </c>
       <c r="E262" t="s">
-        <v>1573</v>
+        <v>964</v>
       </c>
       <c r="F262" t="s">
-        <v>1574</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B263" t="s">
-        <v>205</v>
+        <v>1570</v>
       </c>
       <c r="C263" t="s">
-        <v>468</v>
+        <v>1571</v>
       </c>
       <c r="D263" t="s">
-        <v>729</v>
+        <v>1572</v>
       </c>
       <c r="E263" t="s">
-        <v>965</v>
+        <v>1573</v>
       </c>
       <c r="F263" t="s">
-        <v>1205</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B264" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C264" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D264" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E264" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F264" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B265" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C265" t="s">
-        <v>503</v>
+        <v>469</v>
       </c>
       <c r="D265" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E265" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F265" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B266" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C266" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="D266" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E266" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F266" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B267" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="C267" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D267" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E267" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F267" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B268" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C268" t="s">
-        <v>780</v>
+        <v>471</v>
       </c>
       <c r="D268" t="s">
-        <v>782</v>
+        <v>733</v>
       </c>
       <c r="E268" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F268" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B269" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C269" t="s">
-        <v>472</v>
+        <v>780</v>
       </c>
       <c r="D269" t="s">
-        <v>734</v>
+        <v>782</v>
       </c>
       <c r="E269" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F269" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B270" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C270" t="s">
-        <v>781</v>
+        <v>472</v>
       </c>
       <c r="D270" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E270" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="F270" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B271" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="C271" t="s">
-        <v>473</v>
+        <v>781</v>
       </c>
       <c r="D271" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E271" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F271" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B272" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C272" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D272" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E272" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F272" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B273" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C273" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D273" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E273" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F273" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B274" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C274" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D274" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E274" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F274" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B275" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C275" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D275" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E275" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F275" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>1581</v>
+        <v>1427</v>
       </c>
       <c r="B276" t="s">
-        <v>1580</v>
+        <v>213</v>
       </c>
       <c r="C276" t="s">
-        <v>1582</v>
+        <v>477</v>
       </c>
       <c r="D276" t="s">
-        <v>1583</v>
+        <v>740</v>
       </c>
       <c r="E276" t="s">
-        <v>1584</v>
+        <v>977</v>
       </c>
       <c r="F276" t="s">
-        <v>1585</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>1428</v>
+        <v>1581</v>
       </c>
       <c r="B277" t="s">
-        <v>214</v>
+        <v>1580</v>
       </c>
       <c r="C277" t="s">
-        <v>505</v>
+        <v>1582</v>
       </c>
       <c r="D277" t="s">
-        <v>741</v>
+        <v>1583</v>
       </c>
       <c r="E277" t="s">
-        <v>978</v>
+        <v>1584</v>
       </c>
       <c r="F277" t="s">
-        <v>1218</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="B278" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C278" t="s">
-        <v>478</v>
+        <v>505</v>
       </c>
       <c r="D278" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E278" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F278" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B279" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C279" t="s">
-        <v>519</v>
+        <v>478</v>
       </c>
       <c r="D279" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E279" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F279" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B280" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C280" t="s">
-        <v>1903</v>
+        <v>519</v>
       </c>
       <c r="D280" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E280" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F280" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>1901</v>
+        <v>1431</v>
       </c>
       <c r="B281" t="s">
-        <v>1902</v>
+        <v>217</v>
       </c>
       <c r="C281" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="D281" t="s">
-        <v>1905</v>
+        <v>744</v>
       </c>
       <c r="E281" t="s">
-        <v>1906</v>
+        <v>981</v>
       </c>
       <c r="F281" t="s">
-        <v>1907</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>1432</v>
+        <v>1901</v>
       </c>
       <c r="B282" t="s">
-        <v>218</v>
+        <v>1902</v>
       </c>
       <c r="C282" t="s">
-        <v>479</v>
+        <v>1904</v>
       </c>
       <c r="D282" t="s">
-        <v>745</v>
+        <v>1905</v>
       </c>
       <c r="E282" t="s">
-        <v>982</v>
+        <v>1906</v>
       </c>
       <c r="F282" t="s">
-        <v>1222</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B283" t="s">
-        <v>24</v>
+        <v>218</v>
       </c>
       <c r="C283" t="s">
-        <v>518</v>
+        <v>479</v>
       </c>
       <c r="D283" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E283" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F283" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B284" t="s">
-        <v>219</v>
+        <v>24</v>
       </c>
       <c r="C284" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="D284" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E284" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F284" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>1563</v>
+        <v>1434</v>
       </c>
       <c r="B285" t="s">
-        <v>1562</v>
+        <v>219</v>
       </c>
       <c r="C285" t="s">
-        <v>1564</v>
+        <v>480</v>
       </c>
       <c r="D285" t="s">
-        <v>1565</v>
+        <v>747</v>
       </c>
       <c r="E285" t="s">
-        <v>1566</v>
+        <v>984</v>
       </c>
       <c r="F285" t="s">
-        <v>1567</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>1435</v>
+        <v>1563</v>
       </c>
       <c r="B286" t="s">
-        <v>220</v>
+        <v>1562</v>
       </c>
       <c r="C286" t="s">
-        <v>520</v>
+        <v>1564</v>
       </c>
       <c r="D286" t="s">
-        <v>748</v>
+        <v>1565</v>
       </c>
       <c r="E286" t="s">
-        <v>985</v>
+        <v>1566</v>
       </c>
       <c r="F286" t="s">
-        <v>1225</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B287" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C287" t="s">
-        <v>504</v>
+        <v>520</v>
       </c>
       <c r="D287" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E287" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F287" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>1468</v>
+        <v>1436</v>
       </c>
       <c r="B288" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C288" t="s">
-        <v>481</v>
+        <v>504</v>
       </c>
       <c r="D288" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E288" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F288" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>1438</v>
+        <v>1468</v>
       </c>
       <c r="B289" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C289" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D289" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E289" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F289" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B290" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C290" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D290" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E290" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F290" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="B291" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C291" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D291" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E291" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F291" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
       <c r="B292" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C292" t="s">
-        <v>507</v>
+        <v>484</v>
       </c>
       <c r="D292" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E292" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F292" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B293" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C293" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D293" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E293" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F293" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="B294" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C294" t="s">
-        <v>485</v>
+        <v>508</v>
       </c>
       <c r="D294" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E294" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F294" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="B295" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C295" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D295" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E295" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F295" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="B296" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C296" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D296" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E296" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F296" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="B297" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C297" t="s">
-        <v>1477</v>
+        <v>487</v>
       </c>
       <c r="D297" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E297" t="s">
-        <v>1478</v>
+        <v>995</v>
       </c>
       <c r="F297" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>1568</v>
+        <v>1448</v>
       </c>
       <c r="B298" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C298" t="s">
-        <v>488</v>
+        <v>1477</v>
       </c>
       <c r="D298" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E298" t="s">
-        <v>996</v>
+        <v>1478</v>
       </c>
       <c r="F298" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>1449</v>
+        <v>1568</v>
       </c>
       <c r="B299" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C299" t="s">
-        <v>509</v>
+        <v>488</v>
       </c>
       <c r="D299" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E299" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="F299" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>1445</v>
+        <v>1449</v>
       </c>
       <c r="B300" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C300" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D300" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E300" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F300" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>1588</v>
+        <v>1445</v>
       </c>
       <c r="B301" t="s">
-        <v>1586</v>
+        <v>238</v>
       </c>
       <c r="C301" t="s">
-        <v>1587</v>
+        <v>510</v>
       </c>
       <c r="D301" t="s">
-        <v>1589</v>
+        <v>762</v>
       </c>
       <c r="E301" t="s">
-        <v>1590</v>
+        <v>998</v>
       </c>
       <c r="F301" t="s">
-        <v>1591</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>1437</v>
+        <v>1588</v>
       </c>
       <c r="B302" t="s">
-        <v>239</v>
+        <v>1586</v>
       </c>
       <c r="C302" t="s">
-        <v>511</v>
+        <v>1587</v>
       </c>
       <c r="D302" t="s">
-        <v>763</v>
+        <v>1589</v>
       </c>
       <c r="E302" t="s">
-        <v>999</v>
+        <v>1590</v>
       </c>
       <c r="F302" t="s">
-        <v>1240</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>1450</v>
+        <v>1437</v>
       </c>
       <c r="B303" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C303" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D303" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E303" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F303" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="B304" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C304" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D304" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E304" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F304" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B305" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C305" t="s">
-        <v>1453</v>
+        <v>513</v>
       </c>
       <c r="D305" t="s">
-        <v>1454</v>
+        <v>765</v>
       </c>
       <c r="E305" t="s">
-        <v>1455</v>
+        <v>1001</v>
       </c>
       <c r="F305" t="s">
-        <v>1456</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>1459</v>
+        <v>1452</v>
       </c>
       <c r="B306" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C306" t="s">
-        <v>489</v>
+        <v>1453</v>
       </c>
       <c r="D306" t="s">
-        <v>766</v>
+        <v>1454</v>
       </c>
       <c r="E306" t="s">
-        <v>1002</v>
+        <v>1455</v>
       </c>
       <c r="F306" t="s">
-        <v>1243</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="B307" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C307" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D307" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E307" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F307" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="B308" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C308" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D308" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E308" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F308" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>1592</v>
+        <v>1458</v>
       </c>
       <c r="B309" t="s">
-        <v>1594</v>
+        <v>245</v>
       </c>
       <c r="C309" t="s">
-        <v>1593</v>
+        <v>491</v>
       </c>
       <c r="D309" t="s">
-        <v>1595</v>
+        <v>768</v>
       </c>
       <c r="E309" t="s">
-        <v>1596</v>
+        <v>1004</v>
       </c>
       <c r="F309" t="s">
-        <v>1597</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>1460</v>
+        <v>1592</v>
       </c>
       <c r="B310" t="s">
-        <v>246</v>
+        <v>1594</v>
       </c>
       <c r="C310" t="s">
-        <v>514</v>
+        <v>1593</v>
       </c>
       <c r="D310" t="s">
-        <v>769</v>
+        <v>1595</v>
       </c>
       <c r="E310" t="s">
-        <v>1005</v>
+        <v>1596</v>
       </c>
       <c r="F310" t="s">
-        <v>1246</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B311" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C311" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D311" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E311" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F311" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="B312" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C312" t="s">
-        <v>492</v>
+        <v>515</v>
       </c>
       <c r="D312" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E312" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F312" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="B313" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C313" t="s">
-        <v>516</v>
+        <v>492</v>
       </c>
       <c r="D313" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E313" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F313" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B314" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C314" t="s">
-        <v>493</v>
+        <v>516</v>
       </c>
       <c r="D314" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E314" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F314" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>1915</v>
+        <v>1464</v>
       </c>
       <c r="B315" t="s">
-        <v>1914</v>
+        <v>250</v>
       </c>
       <c r="C315" t="s">
-        <v>1916</v>
+        <v>493</v>
       </c>
       <c r="D315" t="s">
-        <v>1917</v>
+        <v>773</v>
       </c>
       <c r="E315" t="s">
-        <v>1918</v>
+        <v>1009</v>
       </c>
       <c r="F315" t="s">
-        <v>1919</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>1465</v>
+        <v>1915</v>
       </c>
       <c r="B316" t="s">
-        <v>251</v>
+        <v>1914</v>
       </c>
       <c r="C316" t="s">
-        <v>494</v>
+        <v>1916</v>
       </c>
       <c r="D316" t="s">
-        <v>774</v>
+        <v>1917</v>
       </c>
       <c r="E316" t="s">
-        <v>1010</v>
+        <v>1918</v>
       </c>
       <c r="F316" t="s">
-        <v>1251</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>1443</v>
+        <v>1465</v>
       </c>
       <c r="B317" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C317" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D317" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E317" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="F317" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>1466</v>
+        <v>1443</v>
       </c>
       <c r="B318" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C318" t="s">
-        <v>1926</v>
+        <v>495</v>
       </c>
       <c r="D318" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E318" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F318" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="B319" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C319" t="s">
-        <v>517</v>
+        <v>1926</v>
       </c>
       <c r="D319" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E319" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="F319" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>1617</v>
+        <v>1467</v>
       </c>
       <c r="B320" t="s">
-        <v>1612</v>
+        <v>254</v>
       </c>
       <c r="C320" t="s">
-        <v>1613</v>
+        <v>517</v>
       </c>
       <c r="D320" t="s">
-        <v>1614</v>
+        <v>777</v>
       </c>
       <c r="E320" t="s">
-        <v>1615</v>
+        <v>1013</v>
       </c>
       <c r="F320" t="s">
-        <v>1616</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>1623</v>
+        <v>1617</v>
       </c>
       <c r="B321" t="s">
-        <v>1618</v>
+        <v>1612</v>
       </c>
       <c r="C321" t="s">
-        <v>1619</v>
+        <v>1613</v>
       </c>
       <c r="D321" t="s">
-        <v>1620</v>
+        <v>1614</v>
       </c>
       <c r="E321" t="s">
-        <v>1621</v>
+        <v>1615</v>
       </c>
       <c r="F321" t="s">
-        <v>1622</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>1629</v>
+        <v>1623</v>
       </c>
       <c r="B322" t="s">
-        <v>1624</v>
+        <v>1618</v>
       </c>
       <c r="C322" t="s">
-        <v>1625</v>
+        <v>1619</v>
       </c>
       <c r="D322" t="s">
-        <v>1626</v>
+        <v>1620</v>
       </c>
       <c r="E322" t="s">
-        <v>1627</v>
+        <v>1621</v>
       </c>
       <c r="F322" t="s">
-        <v>1628</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>1657</v>
+        <v>1629</v>
       </c>
       <c r="B323" t="s">
-        <v>1655</v>
+        <v>1624</v>
       </c>
       <c r="C323" t="s">
-        <v>1758</v>
+        <v>1625</v>
       </c>
       <c r="D323" t="s">
-        <v>1659</v>
+        <v>1626</v>
       </c>
       <c r="E323" t="s">
-        <v>1660</v>
+        <v>1627</v>
       </c>
       <c r="F323" t="s">
-        <v>1661</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="B324" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="C324" t="s">
-        <v>1662</v>
+        <v>1758</v>
       </c>
       <c r="D324" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="E324" t="s">
-        <v>1664</v>
+        <v>1660</v>
       </c>
       <c r="F324" t="s">
-        <v>1665</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>1757</v>
+        <v>1658</v>
       </c>
       <c r="B325" t="s">
-        <v>1756</v>
+        <v>1656</v>
       </c>
       <c r="C325" t="s">
-        <v>1759</v>
+        <v>1662</v>
       </c>
       <c r="D325" t="s">
-        <v>1760</v>
+        <v>1663</v>
       </c>
       <c r="E325" t="s">
-        <v>1761</v>
+        <v>1664</v>
       </c>
       <c r="F325" t="s">
-        <v>1762</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>1633</v>
+        <v>1757</v>
       </c>
       <c r="B326" t="s">
-        <v>1630</v>
+        <v>1756</v>
       </c>
       <c r="C326" t="s">
-        <v>1632</v>
+        <v>1759</v>
       </c>
       <c r="D326" t="s">
-        <v>1634</v>
+        <v>1760</v>
       </c>
       <c r="E326" t="s">
-        <v>1635</v>
+        <v>1761</v>
       </c>
       <c r="F326" t="s">
-        <v>1636</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>1638</v>
+        <v>1633</v>
       </c>
       <c r="B327" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="C327" t="s">
-        <v>1637</v>
+        <v>1632</v>
       </c>
       <c r="D327" t="s">
-        <v>1639</v>
+        <v>1634</v>
       </c>
       <c r="E327" t="s">
-        <v>1640</v>
+        <v>1635</v>
       </c>
       <c r="F327" t="s">
-        <v>1641</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>1644</v>
+        <v>1638</v>
       </c>
       <c r="B328" t="s">
-        <v>1643</v>
+        <v>1631</v>
       </c>
       <c r="C328" t="s">
-        <v>1642</v>
+        <v>1637</v>
       </c>
       <c r="D328" t="s">
-        <v>1645</v>
+        <v>1639</v>
       </c>
       <c r="E328" t="s">
-        <v>1646</v>
+        <v>1640</v>
       </c>
       <c r="F328" t="s">
-        <v>1647</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>1507</v>
+        <v>1644</v>
       </c>
       <c r="B329" t="s">
-        <v>1485</v>
+        <v>1643</v>
       </c>
       <c r="C329" t="s">
-        <v>1520</v>
+        <v>1642</v>
       </c>
       <c r="D329" t="s">
-        <v>1529</v>
+        <v>1645</v>
       </c>
       <c r="E329" t="s">
-        <v>1540</v>
+        <v>1646</v>
       </c>
       <c r="F329" t="s">
-        <v>1551</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>1521</v>
+        <v>1507</v>
       </c>
       <c r="B330" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="C330" t="s">
-        <v>1516</v>
+        <v>1520</v>
       </c>
       <c r="D330" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="E330" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="F330" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="B331" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="C331" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="D331" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="E331" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="F331" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>1508</v>
+        <v>1522</v>
       </c>
       <c r="B332" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="C332" t="s">
-        <v>1528</v>
+        <v>1517</v>
       </c>
       <c r="D332" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="E332" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="F332" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B333" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C333" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="D333" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="E333" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="F333" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="B334" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C334" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="D334" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="E334" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="F334" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="B335" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="C335" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="D335" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="E335" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="F335" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="B336" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="C336" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="D336" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="E336" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="F336" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="B337" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C337" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="D337" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="E337" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="F337" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B338" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="C338" t="s">
-        <v>1518</v>
+        <v>1523</v>
       </c>
       <c r="D338" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="E338" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="F338" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="B339" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="C339" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="D339" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="E339" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="F339" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>1740</v>
+        <v>1515</v>
       </c>
       <c r="B340" t="s">
-        <v>1738</v>
+        <v>1495</v>
       </c>
       <c r="C340" t="s">
-        <v>1739</v>
+        <v>1519</v>
       </c>
       <c r="D340" t="s">
-        <v>1747</v>
+        <v>1539</v>
       </c>
       <c r="E340" t="s">
-        <v>1748</v>
+        <v>1550</v>
       </c>
       <c r="F340" t="s">
-        <v>1749</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="B341" t="s">
-        <v>1741</v>
+        <v>1738</v>
       </c>
       <c r="C341" t="s">
-        <v>1743</v>
+        <v>1739</v>
       </c>
       <c r="D341" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
       <c r="E341" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="F341" t="s">
-        <v>1746</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>1871</v>
+        <v>1742</v>
       </c>
       <c r="B342" t="s">
-        <v>1870</v>
+        <v>1741</v>
       </c>
       <c r="C342" t="s">
-        <v>1872</v>
+        <v>1743</v>
       </c>
       <c r="D342" t="s">
-        <v>1873</v>
+        <v>1744</v>
       </c>
       <c r="E342" t="s">
-        <v>1874</v>
+        <v>1745</v>
       </c>
       <c r="F342" t="s">
-        <v>1876</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>1848</v>
+        <v>1871</v>
       </c>
       <c r="B343" t="s">
-        <v>1847</v>
+        <v>1870</v>
       </c>
       <c r="C343" t="s">
-        <v>1849</v>
+        <v>1872</v>
       </c>
       <c r="D343" t="s">
-        <v>1850</v>
+        <v>1873</v>
       </c>
       <c r="E343" t="s">
-        <v>1851</v>
+        <v>1874</v>
       </c>
       <c r="F343" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>2004</v>
+        <v>1848</v>
       </c>
       <c r="B344" t="s">
-        <v>2000</v>
+        <v>1847</v>
       </c>
       <c r="C344" t="s">
-        <v>2002</v>
+        <v>1849</v>
       </c>
       <c r="D344" t="s">
-        <v>2006</v>
+        <v>1850</v>
       </c>
       <c r="E344" t="s">
-        <v>2008</v>
+        <v>1851</v>
       </c>
       <c r="F344" t="s">
-        <v>2010</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B345" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C345" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D345" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E345" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="F345" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>2032</v>
+        <v>2005</v>
       </c>
       <c r="B346" t="s">
-        <v>2031</v>
+        <v>2001</v>
       </c>
       <c r="C346" t="s">
-        <v>2033</v>
+        <v>2003</v>
       </c>
       <c r="D346" t="s">
-        <v>2035</v>
+        <v>2007</v>
       </c>
       <c r="E346" t="s">
-        <v>2036</v>
+        <v>2009</v>
       </c>
       <c r="F346" t="s">
-        <v>2034</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>2108</v>
+        <v>2032</v>
       </c>
       <c r="B347" t="s">
-        <v>2047</v>
+        <v>2031</v>
       </c>
       <c r="C347" t="s">
-        <v>2059</v>
+        <v>2033</v>
       </c>
       <c r="D347" t="s">
-        <v>2073</v>
+        <v>2035</v>
       </c>
       <c r="E347" t="s">
-        <v>2085</v>
+        <v>2036</v>
       </c>
       <c r="F347" t="s">
-        <v>2095</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="B348" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="C348" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="D348" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="E348" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="F348" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="B349" t="s">
-        <v>2050</v>
+        <v>2048</v>
       </c>
       <c r="C349" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="D349" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="E349" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="F349" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="B350" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="C350" t="s">
-        <v>2066</v>
+        <v>2061</v>
       </c>
       <c r="D350" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="E350" t="s">
-        <v>2065</v>
+        <v>2087</v>
       </c>
       <c r="F350" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="B351" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="C351" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="D351" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="E351" t="s">
-        <v>2088</v>
+        <v>2065</v>
       </c>
       <c r="F351" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="B352" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="C352" t="s">
-        <v>2069</v>
+        <v>2067</v>
       </c>
       <c r="D352" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="E352" t="s">
-        <v>2068</v>
+        <v>2088</v>
       </c>
       <c r="F352" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>2166</v>
+        <v>2112</v>
       </c>
       <c r="B353" t="s">
-        <v>2165</v>
+        <v>2053</v>
       </c>
       <c r="C353" t="s">
-        <v>2167</v>
+        <v>2069</v>
       </c>
       <c r="D353" t="s">
-        <v>2168</v>
+        <v>2078</v>
       </c>
       <c r="E353" t="s">
-        <v>2169</v>
+        <v>2068</v>
       </c>
       <c r="F353" t="s">
-        <v>2170</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>2113</v>
+        <v>2166</v>
       </c>
       <c r="B354" t="s">
-        <v>2054</v>
+        <v>2165</v>
       </c>
       <c r="C354" t="s">
-        <v>2070</v>
+        <v>2167</v>
       </c>
       <c r="D354" t="s">
-        <v>2079</v>
+        <v>2168</v>
       </c>
       <c r="E354" t="s">
-        <v>2089</v>
+        <v>2169</v>
       </c>
       <c r="F354" t="s">
-        <v>2101</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="B355" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="C355" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="D355" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="E355" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="F355" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="B356" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="C356" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="D356" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="E356" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="F356" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B357" t="s">
-        <v>2062</v>
+        <v>2056</v>
       </c>
       <c r="C357" t="s">
-        <v>2063</v>
+        <v>2072</v>
       </c>
       <c r="D357" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="E357" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="F357" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="B358" t="s">
-        <v>2243</v>
+        <v>2062</v>
       </c>
       <c r="C358" t="s">
-        <v>2250</v>
+        <v>2063</v>
       </c>
       <c r="D358" t="s">
-        <v>2251</v>
+        <v>2082</v>
       </c>
       <c r="E358" t="s">
-        <v>2252</v>
+        <v>2092</v>
       </c>
       <c r="F358" t="s">
-        <v>2253</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>2246</v>
+        <v>2117</v>
       </c>
       <c r="B359" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="C359" t="s">
-        <v>2245</v>
+        <v>2250</v>
       </c>
       <c r="D359" t="s">
-        <v>2249</v>
+        <v>2251</v>
       </c>
       <c r="E359" t="s">
-        <v>2247</v>
+        <v>2252</v>
       </c>
       <c r="F359" t="s">
-        <v>2248</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>2118</v>
+        <v>2246</v>
       </c>
       <c r="B360" t="s">
-        <v>2057</v>
+        <v>2244</v>
       </c>
       <c r="C360" t="s">
-        <v>2058</v>
+        <v>2245</v>
       </c>
       <c r="D360" t="s">
-        <v>2083</v>
+        <v>2249</v>
       </c>
       <c r="E360" t="s">
-        <v>2093</v>
+        <v>2247</v>
       </c>
       <c r="F360" t="s">
-        <v>2105</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>2172</v>
+        <v>2118</v>
       </c>
       <c r="B361" t="s">
-        <v>2171</v>
+        <v>2057</v>
       </c>
       <c r="C361" t="s">
-        <v>2173</v>
+        <v>2058</v>
       </c>
       <c r="D361" t="s">
-        <v>2174</v>
+        <v>2083</v>
       </c>
       <c r="E361" t="s">
-        <v>2175</v>
+        <v>2093</v>
       </c>
       <c r="F361" t="s">
-        <v>2176</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>2202</v>
+        <v>2172</v>
       </c>
       <c r="B362" t="s">
-        <v>2201</v>
+        <v>2171</v>
       </c>
       <c r="C362" t="s">
-        <v>2203</v>
+        <v>2173</v>
       </c>
       <c r="D362" t="s">
-        <v>2204</v>
+        <v>2174</v>
       </c>
       <c r="E362" t="s">
-        <v>2205</v>
+        <v>2175</v>
       </c>
       <c r="F362" t="s">
-        <v>2206</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>2192</v>
+        <v>2202</v>
       </c>
       <c r="B363" t="s">
-        <v>2177</v>
+        <v>2201</v>
       </c>
       <c r="C363" t="s">
-        <v>2180</v>
+        <v>2203</v>
       </c>
       <c r="D363" t="s">
-        <v>2183</v>
+        <v>2204</v>
       </c>
       <c r="E363" t="s">
-        <v>2186</v>
+        <v>2205</v>
       </c>
       <c r="F363" t="s">
-        <v>2189</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="B364" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="C364" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="D364" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="E364" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="F364" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="B365" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="C365" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="D365" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="E365" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="F365" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>2212</v>
+        <v>2194</v>
       </c>
       <c r="B366" t="s">
-        <v>2207</v>
+        <v>2179</v>
       </c>
       <c r="C366" t="s">
-        <v>2208</v>
+        <v>2182</v>
       </c>
       <c r="D366" t="s">
-        <v>2209</v>
+        <v>2185</v>
       </c>
       <c r="E366" t="s">
-        <v>2210</v>
+        <v>2188</v>
       </c>
       <c r="F366" t="s">
-        <v>2211</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="B367" t="s">
-        <v>2214</v>
+        <v>2207</v>
       </c>
       <c r="C367" t="s">
-        <v>2215</v>
+        <v>2208</v>
       </c>
       <c r="D367" t="s">
-        <v>2216</v>
+        <v>2209</v>
       </c>
       <c r="E367" t="s">
-        <v>2217</v>
+        <v>2210</v>
       </c>
       <c r="F367" t="s">
-        <v>2218</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>2236</v>
+        <v>2213</v>
       </c>
       <c r="B368" t="s">
-        <v>2230</v>
+        <v>2214</v>
       </c>
       <c r="C368" t="s">
-        <v>2232</v>
+        <v>2215</v>
       </c>
       <c r="D368" t="s">
-        <v>2234</v>
+        <v>2216</v>
       </c>
       <c r="E368" t="s">
-        <v>2233</v>
+        <v>2217</v>
       </c>
       <c r="F368" t="s">
-        <v>2235</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>2219</v>
+        <v>2236</v>
       </c>
       <c r="B369" t="s">
-        <v>2220</v>
+        <v>2230</v>
       </c>
       <c r="C369" t="s">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="D369" t="s">
-        <v>2221</v>
+        <v>2234</v>
       </c>
       <c r="E369" t="s">
-        <v>2222</v>
+        <v>2233</v>
       </c>
       <c r="F369" t="s">
-        <v>2223</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>2229</v>
+        <v>2219</v>
       </c>
       <c r="B370" t="s">
-        <v>2224</v>
+        <v>2220</v>
       </c>
       <c r="C370" t="s">
-        <v>2226</v>
+        <v>2231</v>
       </c>
       <c r="D370" t="s">
-        <v>2225</v>
+        <v>2221</v>
       </c>
       <c r="E370" t="s">
-        <v>2227</v>
+        <v>2222</v>
       </c>
       <c r="F370" t="s">
-        <v>2228</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>2119</v>
+        <v>2229</v>
       </c>
       <c r="B371" t="s">
-        <v>2049</v>
+        <v>2224</v>
       </c>
       <c r="C371" t="s">
-        <v>2064</v>
+        <v>2226</v>
       </c>
       <c r="D371" t="s">
-        <v>2084</v>
+        <v>2225</v>
       </c>
       <c r="E371" t="s">
-        <v>2094</v>
+        <v>2227</v>
       </c>
       <c r="F371" t="s">
-        <v>2106</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>2157</v>
+        <v>2119</v>
       </c>
       <c r="B372" t="s">
-        <v>2137</v>
+        <v>2049</v>
       </c>
       <c r="C372" t="s">
-        <v>2144</v>
+        <v>2064</v>
       </c>
       <c r="D372" t="s">
-        <v>2145</v>
+        <v>2084</v>
       </c>
       <c r="E372" t="s">
-        <v>2149</v>
+        <v>2094</v>
       </c>
       <c r="F372" t="s">
-        <v>2153</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="B373" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="C373" t="s">
-        <v>2141</v>
+        <v>2144</v>
       </c>
       <c r="D373" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="E373" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="F373" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="B374" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="C374" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="D374" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="E374" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="F374" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="B375" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="C375" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="D375" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="E375" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="F375" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>2120</v>
+        <v>2160</v>
       </c>
       <c r="B376" t="s">
-        <v>2121</v>
+        <v>2140</v>
       </c>
       <c r="C376" t="s">
-        <v>2122</v>
+        <v>2143</v>
       </c>
       <c r="D376" t="s">
-        <v>2123</v>
+        <v>2148</v>
       </c>
       <c r="E376" t="s">
-        <v>2124</v>
+        <v>2152</v>
       </c>
       <c r="F376" t="s">
-        <v>2125</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>2196</v>
+        <v>2120</v>
       </c>
       <c r="B377" t="s">
-        <v>2195</v>
+        <v>2121</v>
       </c>
       <c r="C377" t="s">
-        <v>2197</v>
+        <v>2122</v>
       </c>
       <c r="D377" t="s">
-        <v>2198</v>
+        <v>2123</v>
       </c>
       <c r="E377" t="s">
-        <v>2199</v>
+        <v>2124</v>
       </c>
       <c r="F377" t="s">
-        <v>2200</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
+        <v>2196</v>
+      </c>
+      <c r="B378" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C378" t="s">
+        <v>2197</v>
+      </c>
+      <c r="D378" t="s">
+        <v>2198</v>
+      </c>
+      <c r="E378" t="s">
+        <v>2199</v>
+      </c>
+      <c r="F378" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>2266</v>
+      </c>
+      <c r="B379" t="s">
+        <v>2254</v>
+      </c>
+      <c r="C379" t="s">
+        <v>2258</v>
+      </c>
+      <c r="D379" t="s">
+        <v>2260</v>
+      </c>
+      <c r="E379" t="s">
+        <v>2262</v>
+      </c>
+      <c r="F379" t="s">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>2267</v>
+      </c>
+      <c r="B380" t="s">
+        <v>2257</v>
+      </c>
+      <c r="C380" t="s">
+        <v>2259</v>
+      </c>
+      <c r="D380" t="s">
+        <v>2261</v>
+      </c>
+      <c r="E380" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F380" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>2277</v>
+      </c>
+      <c r="B381" t="s">
+        <v>2268</v>
+      </c>
+      <c r="C381" t="s">
+        <v>2269</v>
+      </c>
+      <c r="D381" t="s">
+        <v>2270</v>
+      </c>
+      <c r="E381" t="s">
+        <v>2271</v>
+      </c>
+      <c r="F381" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
         <v>1503</v>
       </c>
-      <c r="B378" t="s">
+      <c r="B382" t="s">
         <v>1501</v>
       </c>
-      <c r="C378" t="s">
+      <c r="C382" t="s">
         <v>1502</v>
       </c>
-      <c r="D378" t="s">
+      <c r="D382" t="s">
         <v>1504</v>
       </c>
-      <c r="E378" t="s">
+      <c r="E382" t="s">
         <v>1505</v>
       </c>
-      <c r="F378" t="s">
+      <c r="F382" t="s">
         <v>1506</v>
       </c>
     </row>

--- a/lang/words_dict.xlsx
+++ b/lang/words_dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\si lab\Matlab Projects\Registration\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6708F6-1788-487D-A961-3C3FA46CFE12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDC852C-B444-4F3D-9AAE-74FB80E8CC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2286" uniqueCount="2272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2304" uniqueCount="2290">
   <si>
     <t>文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7821,6 +7821,69 @@
   <si>
     <t>lineal (rápido)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行模态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共享</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独占</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RUN_MODAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHARED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXCLUSIVE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Run Modal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exclusive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shared</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Запустить модальное окно</t>
+  </si>
+  <si>
+    <t>Общий</t>
+  </si>
+  <si>
+    <t>Эксклюзивный</t>
+  </si>
+  <si>
+    <t>Exécuter modal</t>
+  </si>
+  <si>
+    <t>partagé</t>
+  </si>
+  <si>
+    <t>Exclusif</t>
+  </si>
+  <si>
+    <t>Ejecutar modal</t>
+  </si>
+  <si>
+    <t>Compartido</t>
+  </si>
+  <si>
+    <t>Exclusivo</t>
   </si>
 </sst>
 </file>
@@ -8154,10 +8217,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F381"/>
+  <dimension ref="A1:F384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A334" workbookViewId="0">
-      <selection activeCell="A343" sqref="A343"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51:F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9172,6621 +9235,6681 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1259</v>
+        <v>2275</v>
       </c>
       <c r="B51" t="s">
-        <v>35</v>
+        <v>2272</v>
       </c>
       <c r="C51" t="s">
-        <v>288</v>
+        <v>2278</v>
       </c>
       <c r="D51" t="s">
-        <v>558</v>
+        <v>2281</v>
       </c>
       <c r="E51" t="s">
-        <v>810</v>
+        <v>2284</v>
       </c>
       <c r="F51" t="s">
-        <v>1041</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>1260</v>
+        <v>2276</v>
       </c>
       <c r="B52" t="s">
-        <v>36</v>
+        <v>2273</v>
       </c>
       <c r="C52" t="s">
-        <v>289</v>
+        <v>2280</v>
       </c>
       <c r="D52" t="s">
-        <v>559</v>
+        <v>2282</v>
       </c>
       <c r="E52" t="s">
-        <v>811</v>
+        <v>2285</v>
       </c>
       <c r="F52" t="s">
-        <v>1042</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>2010</v>
+        <v>2277</v>
       </c>
       <c r="B53" t="s">
-        <v>37</v>
+        <v>2274</v>
       </c>
       <c r="C53" t="s">
-        <v>291</v>
+        <v>2279</v>
       </c>
       <c r="D53" t="s">
-        <v>560</v>
+        <v>2283</v>
       </c>
       <c r="E53" t="s">
-        <v>290</v>
+        <v>2286</v>
       </c>
       <c r="F53" t="s">
-        <v>1043</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>2011</v>
+        <v>1259</v>
       </c>
       <c r="B54" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C54" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D54" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="E54" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="F54" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>2012</v>
+        <v>1260</v>
       </c>
       <c r="B55" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C55" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D55" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="E55" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F55" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="B56" t="s">
-        <v>2014</v>
+        <v>37</v>
       </c>
       <c r="C56" t="s">
-        <v>2015</v>
+        <v>291</v>
       </c>
       <c r="D56" t="s">
-        <v>2016</v>
+        <v>560</v>
       </c>
       <c r="E56" t="s">
-        <v>2017</v>
+        <v>290</v>
       </c>
       <c r="F56" t="s">
-        <v>2018</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>2025</v>
+        <v>2011</v>
       </c>
       <c r="B57" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C57" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D57" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E57" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F57" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>1261</v>
+        <v>2012</v>
       </c>
       <c r="B58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C58" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D58" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E58" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F58" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>2026</v>
+        <v>2013</v>
       </c>
       <c r="B59" t="s">
-        <v>2027</v>
+        <v>2014</v>
       </c>
       <c r="C59" t="s">
-        <v>2028</v>
+        <v>2015</v>
       </c>
       <c r="D59" t="s">
-        <v>2029</v>
+        <v>2016</v>
       </c>
       <c r="E59" t="s">
-        <v>2030</v>
+        <v>2017</v>
       </c>
       <c r="F59" t="s">
-        <v>2031</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>1262</v>
+        <v>2025</v>
       </c>
       <c r="B60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C60" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D60" t="s">
-        <v>1484</v>
+        <v>563</v>
       </c>
       <c r="E60" t="s">
-        <v>1485</v>
+        <v>814</v>
       </c>
       <c r="F60" t="s">
-        <v>1486</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>2032</v>
+        <v>1261</v>
       </c>
       <c r="B61" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C61" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D61" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E61" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F61" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>1263</v>
+        <v>2026</v>
       </c>
       <c r="B62" t="s">
-        <v>44</v>
+        <v>2027</v>
       </c>
       <c r="C62" t="s">
-        <v>298</v>
+        <v>2028</v>
       </c>
       <c r="D62" t="s">
-        <v>566</v>
+        <v>2029</v>
       </c>
       <c r="E62" t="s">
-        <v>805</v>
+        <v>2030</v>
       </c>
       <c r="F62" t="s">
-        <v>1036</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="B63" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C63" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D63" t="s">
-        <v>567</v>
+        <v>1484</v>
       </c>
       <c r="E63" t="s">
-        <v>817</v>
+        <v>1485</v>
       </c>
       <c r="F63" t="s">
-        <v>1049</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>1265</v>
+        <v>2032</v>
       </c>
       <c r="B64" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C64" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D64" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="E64" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="F64" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>2033</v>
+        <v>1263</v>
       </c>
       <c r="B65" t="s">
-        <v>1487</v>
+        <v>44</v>
       </c>
       <c r="C65" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D65" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E65" t="s">
-        <v>301</v>
+        <v>805</v>
       </c>
       <c r="F65" t="s">
-        <v>1051</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="B66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C66" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D66" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="E66" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="F66" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="B67" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C67" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D67" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="E67" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="F67" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>1268</v>
+        <v>2033</v>
       </c>
       <c r="B68" t="s">
-        <v>48</v>
+        <v>1487</v>
       </c>
       <c r="C68" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D68" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="E68" t="s">
-        <v>821</v>
+        <v>301</v>
       </c>
       <c r="F68" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="B69" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C69" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D69" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E69" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="F69" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="B70" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C70" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D70" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="E70" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="F70" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="B71" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C71" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D71" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="E71" t="s">
-        <v>308</v>
+        <v>821</v>
       </c>
       <c r="F71" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="B72" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C72" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D72" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="E72" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="F72" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="B73" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C73" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D73" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E73" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F73" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>1374</v>
+        <v>1271</v>
       </c>
       <c r="B74" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C74" t="s">
-        <v>1375</v>
+        <v>309</v>
       </c>
       <c r="D74" t="s">
-        <v>1376</v>
+        <v>575</v>
       </c>
       <c r="E74" t="s">
-        <v>1377</v>
+        <v>308</v>
       </c>
       <c r="F74" t="s">
-        <v>1378</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="B75" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C75" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D75" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E75" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="F75" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="B76" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C76" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D76" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E76" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F76" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>1276</v>
+        <v>1374</v>
       </c>
       <c r="B77" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C77" t="s">
-        <v>314</v>
+        <v>1375</v>
       </c>
       <c r="D77" t="s">
-        <v>580</v>
+        <v>1376</v>
       </c>
       <c r="E77" t="s">
-        <v>828</v>
+        <v>1377</v>
       </c>
       <c r="F77" t="s">
-        <v>1062</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B78" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C78" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D78" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="E78" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="F78" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="B79" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C79" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D79" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="E79" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="F79" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="B80" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C80" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D80" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E80" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="F80" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="B81" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C81" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D81" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E81" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="F81" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="B82" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C82" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D82" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E82" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="F82" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="B83" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C83" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D83" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="E83" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="F83" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="B84" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C84" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D84" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="E84" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="F84" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>1557</v>
+        <v>1281</v>
       </c>
       <c r="B85" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C85" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D85" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E85" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="F85" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>1379</v>
+        <v>1282</v>
       </c>
       <c r="B86" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C86" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D86" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="E86" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="F86" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>2152</v>
+        <v>1283</v>
       </c>
       <c r="B87" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C87" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D87" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E87" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="F87" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>1284</v>
+        <v>1557</v>
       </c>
       <c r="B88" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C88" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D88" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E88" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="F88" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>1285</v>
+        <v>1379</v>
       </c>
       <c r="B89" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C89" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D89" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="E89" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="F89" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>1286</v>
+        <v>2152</v>
       </c>
       <c r="B90" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C90" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D90" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E90" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="F90" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="B91" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C91" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D91" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="E91" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="F91" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="B92" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C92" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D92" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="E92" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="F92" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="B93" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C93" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D93" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E93" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="F93" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="B94" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C94" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D94" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="E94" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="F94" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="B95" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C95" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D95" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="E95" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="F95" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="B96" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C96" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D96" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="E96" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="F96" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>2226</v>
+        <v>1290</v>
       </c>
       <c r="B97" t="s">
-        <v>2225</v>
+        <v>75</v>
       </c>
       <c r="C97" t="s">
-        <v>2227</v>
+        <v>331</v>
       </c>
       <c r="D97" t="s">
-        <v>2228</v>
+        <v>597</v>
       </c>
       <c r="E97" t="s">
-        <v>2229</v>
+        <v>845</v>
       </c>
       <c r="F97" t="s">
-        <v>2230</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>2034</v>
+        <v>1291</v>
       </c>
       <c r="B98" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C98" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D98" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E98" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="F98" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="B99" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C99" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D99" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E99" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F99" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>1294</v>
+        <v>2226</v>
       </c>
       <c r="B100" t="s">
-        <v>80</v>
+        <v>2225</v>
       </c>
       <c r="C100" t="s">
-        <v>336</v>
+        <v>2227</v>
       </c>
       <c r="D100" t="s">
-        <v>602</v>
+        <v>2228</v>
       </c>
       <c r="E100" t="s">
-        <v>850</v>
+        <v>2229</v>
       </c>
       <c r="F100" t="s">
-        <v>850</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>1295</v>
+        <v>2034</v>
       </c>
       <c r="B101" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C101" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D101" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E101" t="s">
-        <v>337</v>
+        <v>848</v>
       </c>
       <c r="F101" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>2114</v>
+        <v>1293</v>
       </c>
       <c r="B102" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C102" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D102" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="E102" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F102" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="B103" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C103" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D103" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E103" t="s">
-        <v>341</v>
+        <v>850</v>
       </c>
       <c r="F103" t="s">
-        <v>1086</v>
+        <v>850</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>1886</v>
+        <v>1295</v>
       </c>
       <c r="B104" t="s">
-        <v>1865</v>
+        <v>81</v>
       </c>
       <c r="C104" t="s">
-        <v>1869</v>
+        <v>338</v>
       </c>
       <c r="D104" t="s">
-        <v>1873</v>
+        <v>603</v>
       </c>
       <c r="E104" t="s">
-        <v>1877</v>
+        <v>337</v>
       </c>
       <c r="F104" t="s">
-        <v>1881</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>1885</v>
+        <v>2114</v>
       </c>
       <c r="B105" t="s">
-        <v>1866</v>
+        <v>82</v>
       </c>
       <c r="C105" t="s">
-        <v>1870</v>
+        <v>339</v>
       </c>
       <c r="D105" t="s">
-        <v>1874</v>
+        <v>604</v>
       </c>
       <c r="E105" t="s">
-        <v>1878</v>
+        <v>851</v>
       </c>
       <c r="F105" t="s">
-        <v>1882</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>1887</v>
+        <v>1296</v>
       </c>
       <c r="B106" t="s">
-        <v>1867</v>
+        <v>83</v>
       </c>
       <c r="C106" t="s">
-        <v>1871</v>
+        <v>342</v>
       </c>
       <c r="D106" t="s">
-        <v>1875</v>
+        <v>605</v>
       </c>
       <c r="E106" t="s">
-        <v>1879</v>
+        <v>341</v>
       </c>
       <c r="F106" t="s">
-        <v>1883</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="B107" t="s">
-        <v>1868</v>
+        <v>1865</v>
       </c>
       <c r="C107" t="s">
-        <v>1872</v>
+        <v>1869</v>
       </c>
       <c r="D107" t="s">
-        <v>1876</v>
+        <v>1873</v>
       </c>
       <c r="E107" t="s">
-        <v>1880</v>
+        <v>1877</v>
       </c>
       <c r="F107" t="s">
-        <v>1884</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>1586</v>
+        <v>1885</v>
       </c>
       <c r="B108" t="s">
-        <v>84</v>
+        <v>1866</v>
       </c>
       <c r="C108" t="s">
-        <v>340</v>
+        <v>1870</v>
       </c>
       <c r="D108" t="s">
-        <v>606</v>
+        <v>1874</v>
       </c>
       <c r="E108" t="s">
-        <v>852</v>
+        <v>1878</v>
       </c>
       <c r="F108" t="s">
-        <v>1087</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>1297</v>
+        <v>1887</v>
       </c>
       <c r="B109" t="s">
-        <v>85</v>
+        <v>1867</v>
       </c>
       <c r="C109" t="s">
-        <v>343</v>
+        <v>1871</v>
       </c>
       <c r="D109" t="s">
-        <v>607</v>
+        <v>1875</v>
       </c>
       <c r="E109" t="s">
-        <v>853</v>
+        <v>1879</v>
       </c>
       <c r="F109" t="s">
-        <v>1088</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>2115</v>
+        <v>1888</v>
       </c>
       <c r="B110" t="s">
-        <v>86</v>
+        <v>1868</v>
       </c>
       <c r="C110" t="s">
-        <v>344</v>
+        <v>1872</v>
       </c>
       <c r="D110" t="s">
-        <v>608</v>
+        <v>1876</v>
       </c>
       <c r="E110" t="s">
-        <v>854</v>
+        <v>1880</v>
       </c>
       <c r="F110" t="s">
-        <v>1089</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="B111" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C111" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D111" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E111" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="F111" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="B112" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C112" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="D112" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="E112" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="F112" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>1380</v>
+        <v>2115</v>
       </c>
       <c r="B113" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C113" t="s">
-        <v>518</v>
+        <v>344</v>
       </c>
       <c r="D113" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E113" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="F113" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>1299</v>
+        <v>1587</v>
       </c>
       <c r="B114" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C114" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D114" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E114" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="F114" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="B115" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C115" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="D115" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="E115" t="s">
-        <v>347</v>
+        <v>856</v>
       </c>
       <c r="F115" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>1301</v>
+        <v>1380</v>
       </c>
       <c r="B116" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C116" t="s">
-        <v>349</v>
+        <v>518</v>
       </c>
       <c r="D116" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E116" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="F116" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B117" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C117" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D117" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="E117" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="F117" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="B118" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C118" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D118" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E118" t="s">
-        <v>861</v>
+        <v>347</v>
       </c>
       <c r="F118" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="B119" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C119" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D119" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E119" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="F119" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="B120" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C120" t="s">
-        <v>772</v>
+        <v>350</v>
       </c>
       <c r="D120" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="E120" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="F120" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="B121" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C121" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D121" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="E121" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="F121" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>1589</v>
+        <v>1304</v>
       </c>
       <c r="B122" t="s">
-        <v>1588</v>
+        <v>95</v>
       </c>
       <c r="C122" t="s">
-        <v>1590</v>
+        <v>352</v>
       </c>
       <c r="D122" t="s">
-        <v>1592</v>
+        <v>617</v>
       </c>
       <c r="E122" t="s">
-        <v>1593</v>
+        <v>862</v>
       </c>
       <c r="F122" t="s">
-        <v>1591</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>1595</v>
+        <v>1305</v>
       </c>
       <c r="B123" t="s">
-        <v>1594</v>
+        <v>96</v>
       </c>
       <c r="C123" t="s">
-        <v>1596</v>
+        <v>772</v>
       </c>
       <c r="D123" t="s">
-        <v>1597</v>
+        <v>618</v>
       </c>
       <c r="E123" t="s">
-        <v>1598</v>
+        <v>863</v>
       </c>
       <c r="F123" t="s">
-        <v>1599</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>2116</v>
+        <v>1306</v>
       </c>
       <c r="B124" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C124" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D124" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E124" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F124" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>1307</v>
+        <v>1589</v>
       </c>
       <c r="B125" t="s">
-        <v>99</v>
+        <v>1588</v>
       </c>
       <c r="C125" t="s">
-        <v>357</v>
+        <v>1590</v>
       </c>
       <c r="D125" t="s">
-        <v>621</v>
+        <v>1592</v>
       </c>
       <c r="E125" t="s">
-        <v>866</v>
+        <v>1593</v>
       </c>
       <c r="F125" t="s">
-        <v>1102</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>1308</v>
+        <v>1595</v>
       </c>
       <c r="B126" t="s">
-        <v>100</v>
+        <v>1594</v>
       </c>
       <c r="C126" t="s">
-        <v>356</v>
+        <v>1596</v>
       </c>
       <c r="D126" t="s">
-        <v>622</v>
+        <v>1597</v>
       </c>
       <c r="E126" t="s">
-        <v>867</v>
+        <v>1598</v>
       </c>
       <c r="F126" t="s">
-        <v>1103</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>1309</v>
+        <v>2116</v>
       </c>
       <c r="B127" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C127" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D127" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="E127" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="F127" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="B128" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C128" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D128" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E128" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="F128" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="B129" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C129" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D129" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="E129" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="F129" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="B130" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C130" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D130" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E130" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="F130" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="B131" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C131" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D131" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="E131" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="F131" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="B132" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C132" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D132" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="E132" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="F132" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="B133" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C133" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D133" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="E133" t="s">
-        <v>364</v>
+        <v>871</v>
       </c>
       <c r="F133" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="B134" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C134" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D134" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E134" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F134" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="B135" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C135" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D135" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E135" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="F135" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>1636</v>
+        <v>1315</v>
       </c>
       <c r="B136" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C136" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D136" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="E136" t="s">
-        <v>876</v>
+        <v>364</v>
       </c>
       <c r="F136" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>2123</v>
+        <v>1316</v>
       </c>
       <c r="B137" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C137" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D137" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E137" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="F137" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B138" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C138" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D138" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="E138" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="F138" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>1319</v>
+        <v>1636</v>
       </c>
       <c r="B139" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C139" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D139" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="E139" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="F139" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>1320</v>
+        <v>2123</v>
       </c>
       <c r="B140" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C140" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D140" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="E140" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="F140" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>2124</v>
+        <v>1318</v>
       </c>
       <c r="B141" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C141" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D141" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="E141" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="F141" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="B142" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C142" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D142" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E142" t="s">
-        <v>374</v>
+        <v>879</v>
       </c>
       <c r="F142" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="B143" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C143" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D143" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E143" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F143" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>1323</v>
+        <v>2124</v>
       </c>
       <c r="B144" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C144" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D144" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E144" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="F144" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="B145" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C145" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D145" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="E145" t="s">
-        <v>884</v>
+        <v>374</v>
       </c>
       <c r="F145" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="B146" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C146" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D146" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="E146" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="F146" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>1381</v>
+        <v>1323</v>
       </c>
       <c r="B147" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C147" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D147" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="E147" t="s">
-        <v>380</v>
+        <v>883</v>
       </c>
       <c r="F147" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>2149</v>
+        <v>1324</v>
       </c>
       <c r="B148" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C148" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D148" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="E148" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="F148" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>1847</v>
+        <v>1325</v>
       </c>
       <c r="B149" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C149" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D149" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="E149" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="F149" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>1846</v>
+        <v>1381</v>
       </c>
       <c r="B150" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C150" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D150" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E150" t="s">
-        <v>888</v>
+        <v>380</v>
       </c>
       <c r="F150" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>1326</v>
+        <v>2149</v>
       </c>
       <c r="B151" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C151" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D151" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E151" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="F151" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>1327</v>
+        <v>1847</v>
       </c>
       <c r="B152" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C152" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D152" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="E152" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="F152" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>1328</v>
+        <v>1846</v>
       </c>
       <c r="B153" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C153" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D153" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="E153" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="F153" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="B154" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C154" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D154" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="E154" t="s">
-        <v>388</v>
+        <v>889</v>
       </c>
       <c r="F154" t="s">
-        <v>388</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>1683</v>
+        <v>1327</v>
       </c>
       <c r="B155" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C155" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D155" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="E155" t="s">
-        <v>390</v>
+        <v>890</v>
       </c>
       <c r="F155" t="s">
-        <v>390</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>1684</v>
+        <v>1328</v>
       </c>
       <c r="B156" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C156" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D156" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="E156" t="s">
-        <v>392</v>
+        <v>891</v>
       </c>
       <c r="F156" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>1663</v>
+        <v>1329</v>
       </c>
       <c r="B157" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="C157" t="s">
-        <v>1667</v>
+        <v>389</v>
       </c>
       <c r="D157" t="s">
-        <v>1673</v>
+        <v>650</v>
       </c>
       <c r="E157" t="s">
-        <v>1677</v>
+        <v>388</v>
       </c>
       <c r="F157" t="s">
-        <v>1679</v>
+        <v>388</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>1664</v>
+        <v>1683</v>
       </c>
       <c r="B158" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="C158" t="s">
-        <v>1670</v>
+        <v>391</v>
       </c>
       <c r="D158" t="s">
-        <v>1674</v>
+        <v>651</v>
       </c>
       <c r="E158" t="s">
-        <v>1678</v>
+        <v>390</v>
       </c>
       <c r="F158" t="s">
-        <v>1680</v>
+        <v>390</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>1665</v>
+        <v>1684</v>
       </c>
       <c r="B159" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="C159" t="s">
-        <v>1671</v>
+        <v>393</v>
       </c>
       <c r="D159" t="s">
-        <v>1675</v>
+        <v>652</v>
       </c>
       <c r="E159" t="s">
-        <v>1668</v>
+        <v>392</v>
       </c>
       <c r="F159" t="s">
-        <v>1681</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="B160" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C160" t="s">
-        <v>1672</v>
+        <v>1667</v>
       </c>
       <c r="D160" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
       <c r="E160" t="s">
-        <v>1669</v>
+        <v>1677</v>
       </c>
       <c r="F160" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>1725</v>
+        <v>1664</v>
       </c>
       <c r="B161" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="C161" t="s">
-        <v>396</v>
+        <v>1670</v>
       </c>
       <c r="D161" t="s">
-        <v>655</v>
+        <v>1674</v>
       </c>
       <c r="E161" t="s">
-        <v>894</v>
+        <v>1678</v>
       </c>
       <c r="F161" t="s">
-        <v>1134</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>1854</v>
+        <v>1665</v>
       </c>
       <c r="B162" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="C162" t="s">
-        <v>397</v>
+        <v>1671</v>
       </c>
       <c r="D162" t="s">
-        <v>656</v>
+        <v>1675</v>
       </c>
       <c r="E162" t="s">
-        <v>895</v>
+        <v>1668</v>
       </c>
       <c r="F162" t="s">
-        <v>1135</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>1852</v>
+        <v>1666</v>
       </c>
       <c r="B163" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="C163" t="s">
-        <v>398</v>
+        <v>1672</v>
       </c>
       <c r="D163" t="s">
-        <v>657</v>
+        <v>1676</v>
       </c>
       <c r="E163" t="s">
-        <v>896</v>
+        <v>1669</v>
       </c>
       <c r="F163" t="s">
-        <v>1136</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>1855</v>
+        <v>1725</v>
       </c>
       <c r="B164" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C164" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D164" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="E164" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="F164" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>1331</v>
+        <v>1854</v>
       </c>
       <c r="B165" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C165" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D165" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E165" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="F165" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>2267</v>
+        <v>1852</v>
       </c>
       <c r="B166" t="s">
-        <v>2266</v>
+        <v>135</v>
       </c>
       <c r="C166" t="s">
-        <v>2268</v>
+        <v>398</v>
       </c>
       <c r="D166" t="s">
-        <v>2269</v>
+        <v>657</v>
       </c>
       <c r="E166" t="s">
-        <v>2270</v>
+        <v>896</v>
       </c>
       <c r="F166" t="s">
-        <v>2271</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>1332</v>
+        <v>1855</v>
       </c>
       <c r="B167" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C167" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D167" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E167" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="F167" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="B168" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C168" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D168" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E168" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="F168" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>2150</v>
+        <v>2267</v>
       </c>
       <c r="B169" t="s">
-        <v>140</v>
+        <v>2266</v>
       </c>
       <c r="C169" t="s">
-        <v>403</v>
+        <v>2268</v>
       </c>
       <c r="D169" t="s">
-        <v>662</v>
+        <v>2269</v>
       </c>
       <c r="E169" t="s">
-        <v>901</v>
+        <v>2270</v>
       </c>
       <c r="F169" t="s">
-        <v>1141</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="B170" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C170" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D170" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E170" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="F170" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="B171" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C171" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D171" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E171" t="s">
-        <v>405</v>
+        <v>900</v>
       </c>
       <c r="F171" t="s">
-        <v>405</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>1957</v>
+        <v>2150</v>
       </c>
       <c r="B172" t="s">
-        <v>1958</v>
+        <v>140</v>
       </c>
       <c r="C172" t="s">
-        <v>1959</v>
+        <v>403</v>
       </c>
       <c r="D172" t="s">
-        <v>1960</v>
+        <v>662</v>
       </c>
       <c r="E172" t="s">
-        <v>1961</v>
+        <v>901</v>
       </c>
       <c r="F172" t="s">
-        <v>1962</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>1856</v>
+        <v>1334</v>
       </c>
       <c r="B173" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C173" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D173" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E173" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F173" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B174" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C174" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D174" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E174" t="s">
-        <v>904</v>
+        <v>405</v>
       </c>
       <c r="F174" t="s">
-        <v>1144</v>
+        <v>405</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>1842</v>
+        <v>1957</v>
       </c>
       <c r="B175" t="s">
-        <v>1840</v>
+        <v>1958</v>
       </c>
       <c r="C175" t="s">
-        <v>1841</v>
+        <v>1959</v>
       </c>
       <c r="D175" t="s">
-        <v>1843</v>
+        <v>1960</v>
       </c>
       <c r="E175" t="s">
-        <v>1844</v>
+        <v>1961</v>
       </c>
       <c r="F175" t="s">
-        <v>1845</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>1765</v>
+        <v>1856</v>
       </c>
       <c r="B176" t="s">
-        <v>1751</v>
+        <v>143</v>
       </c>
       <c r="C176" t="s">
-        <v>1766</v>
+        <v>407</v>
       </c>
       <c r="D176" t="s">
-        <v>1767</v>
+        <v>665</v>
       </c>
       <c r="E176" t="s">
-        <v>1768</v>
+        <v>903</v>
       </c>
       <c r="F176" t="s">
-        <v>1769</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>1849</v>
+        <v>1336</v>
       </c>
       <c r="B177" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="C177" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="D177" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="E177" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
       <c r="F177" t="s">
-        <v>1133</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>1850</v>
+        <v>1842</v>
       </c>
       <c r="B178" t="s">
-        <v>1654</v>
+        <v>1840</v>
       </c>
       <c r="C178" t="s">
-        <v>1655</v>
+        <v>1841</v>
       </c>
       <c r="D178" t="s">
-        <v>1656</v>
+        <v>1843</v>
       </c>
       <c r="E178" t="s">
-        <v>1657</v>
+        <v>1844</v>
       </c>
       <c r="F178" t="s">
-        <v>1658</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>1778</v>
+        <v>1765</v>
       </c>
       <c r="B179" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C179" t="s">
-        <v>1770</v>
+        <v>1766</v>
       </c>
       <c r="D179" t="s">
-        <v>1775</v>
+        <v>1767</v>
       </c>
       <c r="E179" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="F179" t="s">
-        <v>1777</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>1779</v>
+        <v>1849</v>
       </c>
       <c r="B180" t="s">
-        <v>1753</v>
+        <v>132</v>
       </c>
       <c r="C180" t="s">
-        <v>1771</v>
+        <v>395</v>
       </c>
       <c r="D180" t="s">
-        <v>1772</v>
+        <v>654</v>
       </c>
       <c r="E180" t="s">
-        <v>1773</v>
+        <v>893</v>
       </c>
       <c r="F180" t="s">
-        <v>1774</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>1780</v>
+        <v>1850</v>
       </c>
       <c r="B181" t="s">
-        <v>1754</v>
+        <v>1654</v>
       </c>
       <c r="C181" t="s">
-        <v>1781</v>
+        <v>1655</v>
       </c>
       <c r="D181" t="s">
-        <v>1782</v>
+        <v>1656</v>
       </c>
       <c r="E181" t="s">
-        <v>1783</v>
+        <v>1657</v>
       </c>
       <c r="F181" t="s">
-        <v>1784</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>1786</v>
+        <v>1778</v>
       </c>
       <c r="B182" t="s">
-        <v>1755</v>
+        <v>1752</v>
       </c>
       <c r="C182" t="s">
-        <v>1785</v>
+        <v>1770</v>
       </c>
       <c r="D182" t="s">
-        <v>1787</v>
+        <v>1775</v>
       </c>
       <c r="E182" t="s">
-        <v>1788</v>
+        <v>1776</v>
       </c>
       <c r="F182" t="s">
-        <v>1789</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>1794</v>
+        <v>1779</v>
       </c>
       <c r="B183" t="s">
-        <v>1756</v>
+        <v>1753</v>
       </c>
       <c r="C183" t="s">
-        <v>1791</v>
+        <v>1771</v>
       </c>
       <c r="D183" t="s">
-        <v>1790</v>
+        <v>1772</v>
       </c>
       <c r="E183" t="s">
-        <v>1792</v>
+        <v>1773</v>
       </c>
       <c r="F183" t="s">
-        <v>1793</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>1795</v>
+        <v>1780</v>
       </c>
       <c r="B184" t="s">
-        <v>1757</v>
+        <v>1754</v>
       </c>
       <c r="C184" t="s">
-        <v>1797</v>
+        <v>1781</v>
       </c>
       <c r="D184" t="s">
-        <v>1798</v>
+        <v>1782</v>
       </c>
       <c r="E184" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
       <c r="F184" t="s">
-        <v>1799</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>1800</v>
+        <v>1786</v>
       </c>
       <c r="B185" t="s">
-        <v>1758</v>
+        <v>1755</v>
       </c>
       <c r="C185" t="s">
-        <v>1801</v>
+        <v>1785</v>
       </c>
       <c r="D185" t="s">
-        <v>1802</v>
+        <v>1787</v>
       </c>
       <c r="E185" t="s">
-        <v>1803</v>
+        <v>1788</v>
       </c>
       <c r="F185" t="s">
-        <v>1804</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>1809</v>
+        <v>1794</v>
       </c>
       <c r="B186" t="s">
-        <v>1759</v>
+        <v>1756</v>
       </c>
       <c r="C186" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
       <c r="D186" t="s">
-        <v>1806</v>
+        <v>1790</v>
       </c>
       <c r="E186" t="s">
-        <v>1807</v>
+        <v>1792</v>
       </c>
       <c r="F186" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>1815</v>
+        <v>1795</v>
       </c>
       <c r="B187" t="s">
-        <v>1760</v>
+        <v>1757</v>
       </c>
       <c r="C187" t="s">
-        <v>1814</v>
+        <v>1797</v>
       </c>
       <c r="D187" t="s">
-        <v>1816</v>
+        <v>1798</v>
       </c>
       <c r="E187" t="s">
-        <v>1817</v>
+        <v>1796</v>
       </c>
       <c r="F187" t="s">
-        <v>1818</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>1823</v>
+        <v>1800</v>
       </c>
       <c r="B188" t="s">
-        <v>1761</v>
+        <v>1758</v>
       </c>
       <c r="C188" t="s">
-        <v>1810</v>
+        <v>1801</v>
       </c>
       <c r="D188" t="s">
-        <v>1811</v>
+        <v>1802</v>
       </c>
       <c r="E188" t="s">
-        <v>1812</v>
+        <v>1803</v>
       </c>
       <c r="F188" t="s">
-        <v>1813</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>1824</v>
+        <v>1809</v>
       </c>
       <c r="B189" t="s">
-        <v>1762</v>
+        <v>1759</v>
       </c>
       <c r="C189" t="s">
-        <v>1819</v>
+        <v>1805</v>
       </c>
       <c r="D189" t="s">
-        <v>1820</v>
+        <v>1806</v>
       </c>
       <c r="E189" t="s">
-        <v>1821</v>
+        <v>1807</v>
       </c>
       <c r="F189" t="s">
-        <v>1822</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>1829</v>
+        <v>1815</v>
       </c>
       <c r="B190" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
       <c r="C190" t="s">
-        <v>1827</v>
+        <v>1814</v>
       </c>
       <c r="D190" t="s">
-        <v>1825</v>
+        <v>1816</v>
       </c>
       <c r="E190" t="s">
-        <v>1826</v>
+        <v>1817</v>
       </c>
       <c r="F190" t="s">
-        <v>1828</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>1830</v>
+        <v>1823</v>
       </c>
       <c r="B191" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
       <c r="C191" t="s">
-        <v>1831</v>
+        <v>1810</v>
       </c>
       <c r="D191" t="s">
-        <v>1832</v>
+        <v>1811</v>
       </c>
       <c r="E191" t="s">
-        <v>1833</v>
+        <v>1812</v>
       </c>
       <c r="F191" t="s">
-        <v>1834</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>1330</v>
+        <v>1824</v>
       </c>
       <c r="B192" t="s">
-        <v>131</v>
+        <v>1762</v>
       </c>
       <c r="C192" t="s">
-        <v>394</v>
+        <v>1819</v>
       </c>
       <c r="D192" t="s">
-        <v>653</v>
+        <v>1820</v>
       </c>
       <c r="E192" t="s">
-        <v>892</v>
+        <v>1821</v>
       </c>
       <c r="F192" t="s">
-        <v>1132</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>1638</v>
+        <v>1829</v>
       </c>
       <c r="B193" t="s">
-        <v>1637</v>
+        <v>1763</v>
       </c>
       <c r="C193" t="s">
-        <v>1639</v>
+        <v>1827</v>
       </c>
       <c r="D193" t="s">
-        <v>1640</v>
+        <v>1825</v>
       </c>
       <c r="E193" t="s">
-        <v>1641</v>
+        <v>1826</v>
       </c>
       <c r="F193" t="s">
-        <v>1642</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>1337</v>
+        <v>1830</v>
       </c>
       <c r="B194" t="s">
-        <v>145</v>
+        <v>1764</v>
       </c>
       <c r="C194" t="s">
-        <v>409</v>
+        <v>1831</v>
       </c>
       <c r="D194" t="s">
-        <v>667</v>
+        <v>1832</v>
       </c>
       <c r="E194" t="s">
-        <v>905</v>
+        <v>1833</v>
       </c>
       <c r="F194" t="s">
-        <v>1145</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
       <c r="B195" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="C195" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="D195" t="s">
-        <v>668</v>
+        <v>653</v>
       </c>
       <c r="E195" t="s">
-        <v>906</v>
+        <v>892</v>
       </c>
       <c r="F195" t="s">
-        <v>1146</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>1339</v>
+        <v>1638</v>
       </c>
       <c r="B196" t="s">
-        <v>147</v>
+        <v>1637</v>
       </c>
       <c r="C196" t="s">
-        <v>412</v>
+        <v>1639</v>
       </c>
       <c r="D196" t="s">
-        <v>669</v>
+        <v>1640</v>
       </c>
       <c r="E196" t="s">
-        <v>907</v>
+        <v>1641</v>
       </c>
       <c r="F196" t="s">
-        <v>1147</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="B197" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C197" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D197" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="E197" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="F197" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="B198" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C198" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D198" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="E198" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="F198" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B199" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C199" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D199" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="E199" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="F199" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="B200" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C200" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D200" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="E200" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="F200" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="B201" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C201" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="D201" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="E201" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="F201" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="B202" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C202" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D202" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="E202" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="F202" t="s">
-        <v>417</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="B203" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C203" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D203" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="E203" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="F203" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>1853</v>
+        <v>1344</v>
       </c>
       <c r="B204" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C204" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="D204" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="E204" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="F204" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>1848</v>
+        <v>1345</v>
       </c>
       <c r="B205" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C205" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D205" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="E205" t="s">
-        <v>421</v>
+        <v>913</v>
       </c>
       <c r="F205" t="s">
-        <v>1155</v>
+        <v>417</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="B206" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C206" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D206" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="E206" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="F206" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>1851</v>
+        <v>1853</v>
       </c>
       <c r="B207" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C207" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D207" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="E207" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="F207" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>1348</v>
+        <v>1848</v>
       </c>
       <c r="B208" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C208" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D208" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="E208" t="s">
-        <v>918</v>
+        <v>421</v>
       </c>
       <c r="F208" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>1857</v>
+        <v>1347</v>
       </c>
       <c r="B209" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C209" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D209" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="E209" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="F209" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>2151</v>
+        <v>1851</v>
       </c>
       <c r="B210" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C210" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D210" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="E210" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="F210" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B211" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C211" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D211" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="E211" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="F211" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>1350</v>
+        <v>1857</v>
       </c>
       <c r="B212" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C212" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D212" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="E212" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="F212" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>1351</v>
+        <v>2151</v>
       </c>
       <c r="B213" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C213" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D213" t="s">
-        <v>1245</v>
+        <v>683</v>
       </c>
       <c r="E213" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="F213" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="B214" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C214" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D214" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E214" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="F214" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="B215" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C215" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D215" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E215" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="F215" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="B216" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C216" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D216" t="s">
-        <v>688</v>
+        <v>1245</v>
       </c>
       <c r="E216" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="F216" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="B217" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C217" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D217" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="E217" t="s">
-        <v>434</v>
+        <v>924</v>
       </c>
       <c r="F217" t="s">
-        <v>434</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="B218" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C218" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D218" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="E218" t="s">
-        <v>436</v>
+        <v>925</v>
       </c>
       <c r="F218" t="s">
-        <v>436</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="B219" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C219" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D219" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="E219" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F219" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="B220" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C220" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="D220" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="E220" t="s">
-        <v>928</v>
+        <v>434</v>
       </c>
       <c r="F220" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="B221" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C221" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D221" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="E221" t="s">
-        <v>929</v>
+        <v>436</v>
       </c>
       <c r="F221" t="s">
-        <v>1168</v>
+        <v>436</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="B222" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C222" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D222" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E222" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="F222" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="B223" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C223" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D223" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E223" t="s">
-        <v>443</v>
+        <v>928</v>
       </c>
       <c r="F223" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="B224" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C224" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D224" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E224" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="F224" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="B225" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C225" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D225" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="E225" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="F225" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="B226" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C226" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D226" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="E226" t="s">
-        <v>933</v>
+        <v>443</v>
       </c>
       <c r="F226" t="s">
-        <v>1172</v>
+        <v>443</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>1382</v>
+        <v>1362</v>
       </c>
       <c r="B227" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C227" t="s">
-        <v>773</v>
+        <v>445</v>
       </c>
       <c r="D227" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="E227" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="F227" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="B228" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C228" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D228" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="E228" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="F228" t="s">
-        <v>1051</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="B229" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C229" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D229" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E229" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="F229" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>1367</v>
+        <v>1382</v>
       </c>
       <c r="B230" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C230" t="s">
-        <v>450</v>
+        <v>773</v>
       </c>
       <c r="D230" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="E230" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="F230" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="B231" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C231" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D231" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E231" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="F231" t="s">
-        <v>1176</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="B232" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C232" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D232" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="E232" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="F232" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="B233" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C233" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D233" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="E233" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="F233" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="B234" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C234" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D234" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="E234" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="F234" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="B235" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C235" t="s">
-        <v>1383</v>
+        <v>452</v>
       </c>
       <c r="D235" t="s">
-        <v>1384</v>
+        <v>704</v>
       </c>
       <c r="E235" t="s">
-        <v>1385</v>
+        <v>939</v>
       </c>
       <c r="F235" t="s">
-        <v>1386</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="B236" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C236" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D236" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E236" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="F236" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>1488</v>
+        <v>1371</v>
       </c>
       <c r="B237" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C237" t="s">
-        <v>492</v>
+        <v>454</v>
       </c>
       <c r="D237" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E237" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="F237" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>1387</v>
+        <v>1372</v>
       </c>
       <c r="B238" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C238" t="s">
-        <v>456</v>
+        <v>1383</v>
       </c>
       <c r="D238" t="s">
-        <v>709</v>
+        <v>1384</v>
       </c>
       <c r="E238" t="s">
-        <v>944</v>
+        <v>1385</v>
       </c>
       <c r="F238" t="s">
-        <v>1182</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>1963</v>
+        <v>1373</v>
       </c>
       <c r="B239" t="s">
-        <v>1964</v>
+        <v>187</v>
       </c>
       <c r="C239" t="s">
-        <v>1965</v>
+        <v>455</v>
       </c>
       <c r="D239" t="s">
-        <v>1966</v>
+        <v>707</v>
       </c>
       <c r="E239" t="s">
-        <v>1967</v>
+        <v>942</v>
       </c>
       <c r="F239" t="s">
-        <v>1968</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>1388</v>
+        <v>1488</v>
       </c>
       <c r="B240" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C240" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D240" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E240" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="F240" t="s">
-        <v>493</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="B241" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C241" t="s">
-        <v>495</v>
+        <v>456</v>
       </c>
       <c r="D241" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E241" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="F241" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>1390</v>
+        <v>1963</v>
       </c>
       <c r="B242" t="s">
-        <v>192</v>
+        <v>1964</v>
       </c>
       <c r="C242" t="s">
-        <v>497</v>
+        <v>1965</v>
       </c>
       <c r="D242" t="s">
-        <v>712</v>
+        <v>1966</v>
       </c>
       <c r="E242" t="s">
-        <v>496</v>
+        <v>1967</v>
       </c>
       <c r="F242" t="s">
-        <v>1184</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>1685</v>
+        <v>1388</v>
       </c>
       <c r="B243" t="s">
-        <v>1686</v>
+        <v>190</v>
       </c>
       <c r="C243" t="s">
-        <v>1687</v>
+        <v>494</v>
       </c>
       <c r="D243" t="s">
-        <v>1688</v>
+        <v>710</v>
       </c>
       <c r="E243" t="s">
-        <v>1689</v>
+        <v>945</v>
       </c>
       <c r="F243" t="s">
-        <v>1690</v>
+        <v>493</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>1691</v>
+        <v>1389</v>
       </c>
       <c r="B244" t="s">
-        <v>1692</v>
+        <v>191</v>
       </c>
       <c r="C244" t="s">
-        <v>1696</v>
+        <v>495</v>
       </c>
       <c r="D244" t="s">
-        <v>1699</v>
+        <v>711</v>
       </c>
       <c r="E244" t="s">
-        <v>1698</v>
+        <v>946</v>
       </c>
       <c r="F244" t="s">
-        <v>1697</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>1693</v>
+        <v>1390</v>
       </c>
       <c r="B245" t="s">
-        <v>1694</v>
+        <v>192</v>
       </c>
       <c r="C245" t="s">
-        <v>1695</v>
+        <v>497</v>
       </c>
       <c r="D245" t="s">
-        <v>1700</v>
+        <v>712</v>
       </c>
       <c r="E245" t="s">
-        <v>1701</v>
+        <v>496</v>
       </c>
       <c r="F245" t="s">
-        <v>1702</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>1707</v>
+        <v>1685</v>
       </c>
       <c r="B246" t="s">
-        <v>1709</v>
+        <v>1686</v>
       </c>
       <c r="C246" t="s">
-        <v>1708</v>
+        <v>1687</v>
       </c>
       <c r="D246" t="s">
-        <v>1710</v>
+        <v>1688</v>
       </c>
       <c r="E246" t="s">
-        <v>1711</v>
+        <v>1689</v>
       </c>
       <c r="F246" t="s">
-        <v>1706</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>1712</v>
+        <v>1691</v>
       </c>
       <c r="B247" t="s">
-        <v>1703</v>
+        <v>1692</v>
       </c>
       <c r="C247" t="s">
-        <v>1713</v>
+        <v>1696</v>
       </c>
       <c r="D247" t="s">
-        <v>1704</v>
+        <v>1699</v>
       </c>
       <c r="E247" t="s">
-        <v>1705</v>
+        <v>1698</v>
       </c>
       <c r="F247" t="s">
-        <v>1706</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>1714</v>
+        <v>1693</v>
       </c>
       <c r="B248" t="s">
-        <v>1715</v>
+        <v>1694</v>
       </c>
       <c r="C248" t="s">
-        <v>1714</v>
+        <v>1695</v>
       </c>
       <c r="D248" t="s">
-        <v>1716</v>
+        <v>1700</v>
       </c>
       <c r="E248" t="s">
-        <v>1717</v>
+        <v>1701</v>
       </c>
       <c r="F248" t="s">
-        <v>1718</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>1719</v>
+        <v>1707</v>
       </c>
       <c r="B249" t="s">
-        <v>1720</v>
+        <v>1709</v>
       </c>
       <c r="C249" t="s">
-        <v>1721</v>
+        <v>1708</v>
       </c>
       <c r="D249" t="s">
-        <v>1722</v>
+        <v>1710</v>
       </c>
       <c r="E249" t="s">
-        <v>1723</v>
+        <v>1711</v>
       </c>
       <c r="F249" t="s">
-        <v>1724</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>1391</v>
+        <v>1712</v>
       </c>
       <c r="B250" t="s">
-        <v>193</v>
+        <v>1703</v>
       </c>
       <c r="C250" t="s">
-        <v>457</v>
+        <v>1713</v>
       </c>
       <c r="D250" t="s">
-        <v>713</v>
+        <v>1704</v>
       </c>
       <c r="E250" t="s">
-        <v>947</v>
+        <v>1705</v>
       </c>
       <c r="F250" t="s">
-        <v>1185</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>1392</v>
+        <v>1714</v>
       </c>
       <c r="B251" t="s">
-        <v>194</v>
+        <v>1715</v>
       </c>
       <c r="C251" t="s">
-        <v>498</v>
+        <v>1714</v>
       </c>
       <c r="D251" t="s">
-        <v>714</v>
+        <v>1716</v>
       </c>
       <c r="E251" t="s">
-        <v>948</v>
+        <v>1717</v>
       </c>
       <c r="F251" t="s">
-        <v>1186</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>1393</v>
+        <v>1719</v>
       </c>
       <c r="B252" t="s">
-        <v>195</v>
+        <v>1720</v>
       </c>
       <c r="C252" t="s">
-        <v>458</v>
+        <v>1721</v>
       </c>
       <c r="D252" t="s">
-        <v>715</v>
+        <v>1722</v>
       </c>
       <c r="E252" t="s">
-        <v>949</v>
+        <v>1723</v>
       </c>
       <c r="F252" t="s">
-        <v>1187</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="B253" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C253" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D253" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="E253" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="F253" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="B254" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C254" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D254" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E254" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="F254" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="B255" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C255" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D255" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="E255" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="F255" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="B256" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C256" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D256" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="E256" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="F256" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>1740</v>
+        <v>1395</v>
       </c>
       <c r="B257" t="s">
-        <v>1738</v>
+        <v>197</v>
       </c>
       <c r="C257" t="s">
-        <v>1739</v>
+        <v>502</v>
       </c>
       <c r="D257" t="s">
-        <v>1741</v>
+        <v>717</v>
       </c>
       <c r="E257" t="s">
-        <v>1742</v>
+        <v>951</v>
       </c>
       <c r="F257" t="s">
-        <v>1743</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="B258" t="s">
-        <v>1563</v>
+        <v>198</v>
       </c>
       <c r="C258" t="s">
-        <v>1564</v>
+        <v>460</v>
       </c>
       <c r="D258" t="s">
-        <v>1565</v>
+        <v>718</v>
       </c>
       <c r="E258" t="s">
-        <v>1566</v>
+        <v>952</v>
       </c>
       <c r="F258" t="s">
-        <v>1567</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="B259" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C259" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D259" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E259" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="F259" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>1400</v>
+        <v>1740</v>
       </c>
       <c r="B260" t="s">
-        <v>201</v>
+        <v>1738</v>
       </c>
       <c r="C260" t="s">
-        <v>463</v>
+        <v>1739</v>
       </c>
       <c r="D260" t="s">
-        <v>721</v>
+        <v>1741</v>
       </c>
       <c r="E260" t="s">
-        <v>955</v>
+        <v>1742</v>
       </c>
       <c r="F260" t="s">
-        <v>1193</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="B261" t="s">
-        <v>202</v>
+        <v>1563</v>
       </c>
       <c r="C261" t="s">
-        <v>517</v>
+        <v>1564</v>
       </c>
       <c r="D261" t="s">
-        <v>722</v>
+        <v>1565</v>
       </c>
       <c r="E261" t="s">
-        <v>956</v>
+        <v>1566</v>
       </c>
       <c r="F261" t="s">
-        <v>1194</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="B262" t="s">
-        <v>1558</v>
+        <v>200</v>
       </c>
       <c r="C262" t="s">
-        <v>1559</v>
+        <v>462</v>
       </c>
       <c r="D262" t="s">
-        <v>1560</v>
+        <v>720</v>
       </c>
       <c r="E262" t="s">
-        <v>1561</v>
+        <v>954</v>
       </c>
       <c r="F262" t="s">
-        <v>1562</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="B263" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C263" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D263" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E263" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="F263" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="B264" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C264" t="s">
-        <v>465</v>
+        <v>517</v>
       </c>
       <c r="D264" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E264" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="F264" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="B265" t="s">
-        <v>205</v>
+        <v>1558</v>
       </c>
       <c r="C265" t="s">
-        <v>499</v>
+        <v>1559</v>
       </c>
       <c r="D265" t="s">
-        <v>725</v>
+        <v>1560</v>
       </c>
       <c r="E265" t="s">
-        <v>959</v>
+        <v>1561</v>
       </c>
       <c r="F265" t="s">
-        <v>1197</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="B266" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C266" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D266" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="E266" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="F266" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="B267" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="C267" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D267" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="E267" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="F267" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="B268" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="C268" t="s">
-        <v>774</v>
+        <v>499</v>
       </c>
       <c r="D268" t="s">
-        <v>776</v>
+        <v>725</v>
       </c>
       <c r="E268" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="F268" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="B269" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C269" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D269" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E269" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="F269" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="B270" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C270" t="s">
-        <v>775</v>
+        <v>467</v>
       </c>
       <c r="D270" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="E270" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="F270" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="B271" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="C271" t="s">
-        <v>469</v>
+        <v>774</v>
       </c>
       <c r="D271" t="s">
-        <v>730</v>
+        <v>776</v>
       </c>
       <c r="E271" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="F271" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="B272" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="C272" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D272" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="E272" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="F272" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="B273" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="C273" t="s">
-        <v>471</v>
+        <v>775</v>
       </c>
       <c r="D273" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="E273" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="F273" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="B274" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C274" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D274" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="E274" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="F274" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="B275" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C275" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D275" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="E275" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="F275" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>1569</v>
+        <v>1413</v>
       </c>
       <c r="B276" t="s">
-        <v>1568</v>
+        <v>209</v>
       </c>
       <c r="C276" t="s">
-        <v>1570</v>
+        <v>471</v>
       </c>
       <c r="D276" t="s">
-        <v>1571</v>
+        <v>732</v>
       </c>
       <c r="E276" t="s">
-        <v>1572</v>
+        <v>967</v>
       </c>
       <c r="F276" t="s">
-        <v>1573</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="B277" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C277" t="s">
-        <v>501</v>
+        <v>472</v>
       </c>
       <c r="D277" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E277" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="F277" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="B278" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C278" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D278" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E278" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="F278" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>1418</v>
+        <v>1569</v>
       </c>
       <c r="B279" t="s">
-        <v>214</v>
+        <v>1568</v>
       </c>
       <c r="C279" t="s">
-        <v>515</v>
+        <v>1570</v>
       </c>
       <c r="D279" t="s">
-        <v>737</v>
+        <v>1571</v>
       </c>
       <c r="E279" t="s">
-        <v>972</v>
+        <v>1572</v>
       </c>
       <c r="F279" t="s">
-        <v>1210</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="B280" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C280" t="s">
-        <v>1891</v>
+        <v>501</v>
       </c>
       <c r="D280" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="E280" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="F280" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>1889</v>
+        <v>1417</v>
       </c>
       <c r="B281" t="s">
-        <v>1890</v>
+        <v>213</v>
       </c>
       <c r="C281" t="s">
-        <v>1892</v>
+        <v>474</v>
       </c>
       <c r="D281" t="s">
-        <v>1893</v>
+        <v>736</v>
       </c>
       <c r="E281" t="s">
-        <v>1894</v>
+        <v>971</v>
       </c>
       <c r="F281" t="s">
-        <v>1895</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="B282" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C282" t="s">
-        <v>475</v>
+        <v>515</v>
       </c>
       <c r="D282" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E282" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="F282" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="B283" t="s">
-        <v>24</v>
+        <v>215</v>
       </c>
       <c r="C283" t="s">
-        <v>514</v>
+        <v>1891</v>
       </c>
       <c r="D283" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E283" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="F283" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>1422</v>
+        <v>1889</v>
       </c>
       <c r="B284" t="s">
-        <v>217</v>
+        <v>1890</v>
       </c>
       <c r="C284" t="s">
-        <v>476</v>
+        <v>1892</v>
       </c>
       <c r="D284" t="s">
-        <v>741</v>
+        <v>1893</v>
       </c>
       <c r="E284" t="s">
-        <v>976</v>
+        <v>1894</v>
       </c>
       <c r="F284" t="s">
-        <v>1214</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>1551</v>
+        <v>1420</v>
       </c>
       <c r="B285" t="s">
-        <v>1550</v>
+        <v>216</v>
       </c>
       <c r="C285" t="s">
-        <v>1552</v>
+        <v>475</v>
       </c>
       <c r="D285" t="s">
-        <v>1553</v>
+        <v>739</v>
       </c>
       <c r="E285" t="s">
-        <v>1554</v>
+        <v>974</v>
       </c>
       <c r="F285" t="s">
-        <v>1555</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="B286" t="s">
-        <v>218</v>
+        <v>24</v>
       </c>
       <c r="C286" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D286" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E286" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="F286" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="B287" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C287" t="s">
-        <v>500</v>
+        <v>476</v>
       </c>
       <c r="D287" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E287" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="F287" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>1456</v>
+        <v>1551</v>
       </c>
       <c r="B288" t="s">
-        <v>220</v>
+        <v>1550</v>
       </c>
       <c r="C288" t="s">
-        <v>477</v>
+        <v>1552</v>
       </c>
       <c r="D288" t="s">
-        <v>744</v>
+        <v>1553</v>
       </c>
       <c r="E288" t="s">
-        <v>979</v>
+        <v>1554</v>
       </c>
       <c r="F288" t="s">
-        <v>1217</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="B289" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C289" t="s">
-        <v>478</v>
+        <v>516</v>
       </c>
       <c r="D289" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="E289" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="F289" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="B290" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C290" t="s">
-        <v>479</v>
+        <v>500</v>
       </c>
       <c r="D290" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E290" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="F290" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>1430</v>
+        <v>1456</v>
       </c>
       <c r="B291" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C291" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D291" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="E291" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="F291" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="B292" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C292" t="s">
-        <v>503</v>
+        <v>478</v>
       </c>
       <c r="D292" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="E292" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="F292" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="B293" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C293" t="s">
-        <v>504</v>
+        <v>479</v>
       </c>
       <c r="D293" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="E293" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="F293" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="B294" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C294" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D294" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="E294" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="F294" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>1434</v>
+        <v>1428</v>
       </c>
       <c r="B295" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C295" t="s">
-        <v>482</v>
+        <v>503</v>
       </c>
       <c r="D295" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="E295" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="F295" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>1435</v>
+        <v>1429</v>
       </c>
       <c r="B296" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C296" t="s">
-        <v>483</v>
+        <v>504</v>
       </c>
       <c r="D296" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="E296" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="F296" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="B297" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C297" t="s">
-        <v>1465</v>
+        <v>481</v>
       </c>
       <c r="D297" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="E297" t="s">
-        <v>1466</v>
+        <v>985</v>
       </c>
       <c r="F297" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>1556</v>
+        <v>1434</v>
       </c>
       <c r="B298" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C298" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D298" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="E298" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="F298" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="B299" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C299" t="s">
-        <v>505</v>
+        <v>483</v>
       </c>
       <c r="D299" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="E299" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="F299" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>1433</v>
+        <v>1436</v>
       </c>
       <c r="B300" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C300" t="s">
-        <v>506</v>
+        <v>1465</v>
       </c>
       <c r="D300" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="E300" t="s">
-        <v>990</v>
+        <v>1466</v>
       </c>
       <c r="F300" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>1576</v>
+        <v>1556</v>
       </c>
       <c r="B301" t="s">
-        <v>1574</v>
+        <v>234</v>
       </c>
       <c r="C301" t="s">
-        <v>1575</v>
+        <v>484</v>
       </c>
       <c r="D301" t="s">
-        <v>1577</v>
+        <v>754</v>
       </c>
       <c r="E301" t="s">
-        <v>1578</v>
+        <v>988</v>
       </c>
       <c r="F301" t="s">
-        <v>1579</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>1425</v>
+        <v>1437</v>
       </c>
       <c r="B302" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C302" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D302" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E302" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="F302" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>1438</v>
+        <v>1433</v>
       </c>
       <c r="B303" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C303" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D303" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E303" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="F303" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>1439</v>
+        <v>1576</v>
       </c>
       <c r="B304" t="s">
-        <v>239</v>
+        <v>1574</v>
       </c>
       <c r="C304" t="s">
-        <v>509</v>
+        <v>1575</v>
       </c>
       <c r="D304" t="s">
-        <v>759</v>
+        <v>1577</v>
       </c>
       <c r="E304" t="s">
-        <v>993</v>
+        <v>1578</v>
       </c>
       <c r="F304" t="s">
-        <v>1232</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>1440</v>
+        <v>1425</v>
       </c>
       <c r="B305" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C305" t="s">
-        <v>1441</v>
+        <v>507</v>
       </c>
       <c r="D305" t="s">
-        <v>1442</v>
+        <v>757</v>
       </c>
       <c r="E305" t="s">
-        <v>1443</v>
+        <v>991</v>
       </c>
       <c r="F305" t="s">
-        <v>1444</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>1447</v>
+        <v>1438</v>
       </c>
       <c r="B306" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C306" t="s">
-        <v>485</v>
+        <v>508</v>
       </c>
       <c r="D306" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E306" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="F306" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>1445</v>
+        <v>1439</v>
       </c>
       <c r="B307" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C307" t="s">
-        <v>486</v>
+        <v>509</v>
       </c>
       <c r="D307" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E307" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="F307" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>1446</v>
+        <v>1440</v>
       </c>
       <c r="B308" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C308" t="s">
-        <v>487</v>
+        <v>1441</v>
       </c>
       <c r="D308" t="s">
-        <v>762</v>
+        <v>1442</v>
       </c>
       <c r="E308" t="s">
-        <v>996</v>
+        <v>1443</v>
       </c>
       <c r="F308" t="s">
-        <v>1235</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>1580</v>
+        <v>1447</v>
       </c>
       <c r="B309" t="s">
-        <v>1582</v>
+        <v>241</v>
       </c>
       <c r="C309" t="s">
-        <v>1581</v>
+        <v>485</v>
       </c>
       <c r="D309" t="s">
-        <v>1583</v>
+        <v>760</v>
       </c>
       <c r="E309" t="s">
-        <v>1584</v>
+        <v>994</v>
       </c>
       <c r="F309" t="s">
-        <v>1585</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="B310" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C310" t="s">
-        <v>510</v>
+        <v>486</v>
       </c>
       <c r="D310" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E310" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="F310" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="B311" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C311" t="s">
-        <v>511</v>
+        <v>487</v>
       </c>
       <c r="D311" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E311" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="F311" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>1450</v>
+        <v>1580</v>
       </c>
       <c r="B312" t="s">
-        <v>246</v>
+        <v>1582</v>
       </c>
       <c r="C312" t="s">
-        <v>488</v>
+        <v>1581</v>
       </c>
       <c r="D312" t="s">
-        <v>765</v>
+        <v>1583</v>
       </c>
       <c r="E312" t="s">
-        <v>999</v>
+        <v>1584</v>
       </c>
       <c r="F312" t="s">
-        <v>1238</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="B313" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C313" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D313" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="E313" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="F313" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="B314" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C314" t="s">
-        <v>489</v>
+        <v>511</v>
       </c>
       <c r="D314" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="E314" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="F314" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>1903</v>
+        <v>1450</v>
       </c>
       <c r="B315" t="s">
-        <v>1902</v>
+        <v>246</v>
       </c>
       <c r="C315" t="s">
-        <v>1904</v>
+        <v>488</v>
       </c>
       <c r="D315" t="s">
-        <v>1905</v>
+        <v>765</v>
       </c>
       <c r="E315" t="s">
-        <v>1906</v>
+        <v>999</v>
       </c>
       <c r="F315" t="s">
-        <v>1907</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="B316" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C316" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
       <c r="D316" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="E316" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="F316" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>1431</v>
+        <v>1452</v>
       </c>
       <c r="B317" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C317" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D317" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E317" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="F317" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>1454</v>
+        <v>1903</v>
       </c>
       <c r="B318" t="s">
-        <v>251</v>
+        <v>1902</v>
       </c>
       <c r="C318" t="s">
-        <v>1914</v>
+        <v>1904</v>
       </c>
       <c r="D318" t="s">
-        <v>770</v>
+        <v>1905</v>
       </c>
       <c r="E318" t="s">
-        <v>1004</v>
+        <v>1906</v>
       </c>
       <c r="F318" t="s">
-        <v>1243</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="B319" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C319" t="s">
-        <v>513</v>
+        <v>490</v>
       </c>
       <c r="D319" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="E319" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="F319" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>1605</v>
+        <v>1431</v>
       </c>
       <c r="B320" t="s">
-        <v>1600</v>
+        <v>250</v>
       </c>
       <c r="C320" t="s">
-        <v>1601</v>
+        <v>491</v>
       </c>
       <c r="D320" t="s">
-        <v>1602</v>
+        <v>769</v>
       </c>
       <c r="E320" t="s">
-        <v>1603</v>
+        <v>1003</v>
       </c>
       <c r="F320" t="s">
-        <v>1604</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>1611</v>
+        <v>1454</v>
       </c>
       <c r="B321" t="s">
-        <v>1606</v>
+        <v>251</v>
       </c>
       <c r="C321" t="s">
-        <v>1607</v>
+        <v>1914</v>
       </c>
       <c r="D321" t="s">
-        <v>1608</v>
+        <v>770</v>
       </c>
       <c r="E321" t="s">
-        <v>1609</v>
+        <v>1004</v>
       </c>
       <c r="F321" t="s">
-        <v>1610</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>1617</v>
+        <v>1455</v>
       </c>
       <c r="B322" t="s">
-        <v>1612</v>
+        <v>252</v>
       </c>
       <c r="C322" t="s">
-        <v>1613</v>
+        <v>513</v>
       </c>
       <c r="D322" t="s">
-        <v>1614</v>
+        <v>771</v>
       </c>
       <c r="E322" t="s">
-        <v>1615</v>
+        <v>1005</v>
       </c>
       <c r="F322" t="s">
-        <v>1616</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>1645</v>
+        <v>1605</v>
       </c>
       <c r="B323" t="s">
-        <v>1643</v>
+        <v>1600</v>
       </c>
       <c r="C323" t="s">
-        <v>1746</v>
+        <v>1601</v>
       </c>
       <c r="D323" t="s">
-        <v>1647</v>
+        <v>1602</v>
       </c>
       <c r="E323" t="s">
-        <v>1648</v>
+        <v>1603</v>
       </c>
       <c r="F323" t="s">
-        <v>1649</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>1646</v>
+        <v>1611</v>
       </c>
       <c r="B324" t="s">
-        <v>1644</v>
+        <v>1606</v>
       </c>
       <c r="C324" t="s">
-        <v>1650</v>
+        <v>1607</v>
       </c>
       <c r="D324" t="s">
-        <v>1651</v>
+        <v>1608</v>
       </c>
       <c r="E324" t="s">
-        <v>1652</v>
+        <v>1609</v>
       </c>
       <c r="F324" t="s">
-        <v>1653</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>1745</v>
+        <v>1617</v>
       </c>
       <c r="B325" t="s">
-        <v>1744</v>
+        <v>1612</v>
       </c>
       <c r="C325" t="s">
-        <v>1747</v>
+        <v>1613</v>
       </c>
       <c r="D325" t="s">
-        <v>1748</v>
+        <v>1614</v>
       </c>
       <c r="E325" t="s">
-        <v>1749</v>
+        <v>1615</v>
       </c>
       <c r="F325" t="s">
-        <v>1750</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>1621</v>
+        <v>1645</v>
       </c>
       <c r="B326" t="s">
-        <v>1618</v>
+        <v>1643</v>
       </c>
       <c r="C326" t="s">
-        <v>1620</v>
+        <v>1746</v>
       </c>
       <c r="D326" t="s">
-        <v>1622</v>
+        <v>1647</v>
       </c>
       <c r="E326" t="s">
-        <v>1623</v>
+        <v>1648</v>
       </c>
       <c r="F326" t="s">
-        <v>1624</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>1626</v>
+        <v>1646</v>
       </c>
       <c r="B327" t="s">
-        <v>1619</v>
+        <v>1644</v>
       </c>
       <c r="C327" t="s">
-        <v>1625</v>
+        <v>1650</v>
       </c>
       <c r="D327" t="s">
-        <v>1627</v>
+        <v>1651</v>
       </c>
       <c r="E327" t="s">
-        <v>1628</v>
+        <v>1652</v>
       </c>
       <c r="F327" t="s">
-        <v>1629</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>1632</v>
+        <v>1745</v>
       </c>
       <c r="B328" t="s">
-        <v>1631</v>
+        <v>1744</v>
       </c>
       <c r="C328" t="s">
-        <v>1630</v>
+        <v>1747</v>
       </c>
       <c r="D328" t="s">
-        <v>1633</v>
+        <v>1748</v>
       </c>
       <c r="E328" t="s">
-        <v>1634</v>
+        <v>1749</v>
       </c>
       <c r="F328" t="s">
-        <v>1635</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>1495</v>
+        <v>1621</v>
       </c>
       <c r="B329" t="s">
-        <v>1473</v>
+        <v>1618</v>
       </c>
       <c r="C329" t="s">
-        <v>1508</v>
+        <v>1620</v>
       </c>
       <c r="D329" t="s">
-        <v>1517</v>
+        <v>1622</v>
       </c>
       <c r="E329" t="s">
-        <v>1528</v>
+        <v>1623</v>
       </c>
       <c r="F329" t="s">
-        <v>1539</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>1509</v>
+        <v>1626</v>
       </c>
       <c r="B330" t="s">
-        <v>1474</v>
+        <v>1619</v>
       </c>
       <c r="C330" t="s">
-        <v>1504</v>
+        <v>1625</v>
       </c>
       <c r="D330" t="s">
-        <v>1518</v>
+        <v>1627</v>
       </c>
       <c r="E330" t="s">
-        <v>1529</v>
+        <v>1628</v>
       </c>
       <c r="F330" t="s">
-        <v>1540</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>1510</v>
+        <v>1632</v>
       </c>
       <c r="B331" t="s">
-        <v>1475</v>
+        <v>1631</v>
       </c>
       <c r="C331" t="s">
-        <v>1505</v>
+        <v>1630</v>
       </c>
       <c r="D331" t="s">
-        <v>1519</v>
+        <v>1633</v>
       </c>
       <c r="E331" t="s">
-        <v>1530</v>
+        <v>1634</v>
       </c>
       <c r="F331" t="s">
-        <v>1541</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B332" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="C332" t="s">
-        <v>1516</v>
+        <v>1508</v>
       </c>
       <c r="D332" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="E332" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
       <c r="F332" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>1497</v>
+        <v>1509</v>
       </c>
       <c r="B333" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="C333" t="s">
-        <v>1515</v>
+        <v>1504</v>
       </c>
       <c r="D333" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="E333" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="F333" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>1498</v>
+        <v>1510</v>
       </c>
       <c r="B334" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="C334" t="s">
-        <v>1514</v>
+        <v>1505</v>
       </c>
       <c r="D334" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
       <c r="E334" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="F334" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="B335" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="C335" t="s">
-        <v>1513</v>
+        <v>1516</v>
       </c>
       <c r="D335" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="E335" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="F335" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="B336" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="C336" t="s">
-        <v>1512</v>
+        <v>1515</v>
       </c>
       <c r="D336" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
       <c r="E336" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
       <c r="F336" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="B337" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="C337" t="s">
-        <v>1511</v>
+        <v>1514</v>
       </c>
       <c r="D337" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
       <c r="E337" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="F337" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="B338" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="C338" t="s">
-        <v>1506</v>
+        <v>1513</v>
       </c>
       <c r="D338" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
       <c r="E338" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="F338" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
       <c r="B339" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="C339" t="s">
-        <v>1507</v>
+        <v>1512</v>
       </c>
       <c r="D339" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
       <c r="E339" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="F339" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>1728</v>
+        <v>1501</v>
       </c>
       <c r="B340" t="s">
-        <v>1726</v>
+        <v>1481</v>
       </c>
       <c r="C340" t="s">
-        <v>1727</v>
+        <v>1511</v>
       </c>
       <c r="D340" t="s">
-        <v>1735</v>
+        <v>1525</v>
       </c>
       <c r="E340" t="s">
-        <v>1736</v>
+        <v>1536</v>
       </c>
       <c r="F340" t="s">
-        <v>1737</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>1730</v>
+        <v>1502</v>
       </c>
       <c r="B341" t="s">
-        <v>1729</v>
+        <v>1482</v>
       </c>
       <c r="C341" t="s">
-        <v>1731</v>
+        <v>1506</v>
       </c>
       <c r="D341" t="s">
-        <v>1732</v>
+        <v>1526</v>
       </c>
       <c r="E341" t="s">
-        <v>1733</v>
+        <v>1537</v>
       </c>
       <c r="F341" t="s">
-        <v>1734</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>1859</v>
+        <v>1503</v>
       </c>
       <c r="B342" t="s">
-        <v>1858</v>
+        <v>1483</v>
       </c>
       <c r="C342" t="s">
-        <v>1860</v>
+        <v>1507</v>
       </c>
       <c r="D342" t="s">
-        <v>1861</v>
+        <v>1527</v>
       </c>
       <c r="E342" t="s">
-        <v>1862</v>
+        <v>1538</v>
       </c>
       <c r="F342" t="s">
-        <v>1864</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>1836</v>
+        <v>1728</v>
       </c>
       <c r="B343" t="s">
-        <v>1835</v>
+        <v>1726</v>
       </c>
       <c r="C343" t="s">
-        <v>1837</v>
+        <v>1727</v>
       </c>
       <c r="D343" t="s">
-        <v>1838</v>
+        <v>1735</v>
       </c>
       <c r="E343" t="s">
-        <v>1839</v>
+        <v>1736</v>
       </c>
       <c r="F343" t="s">
-        <v>1863</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>1992</v>
+        <v>1730</v>
       </c>
       <c r="B344" t="s">
-        <v>1988</v>
+        <v>1729</v>
       </c>
       <c r="C344" t="s">
-        <v>1990</v>
+        <v>1731</v>
       </c>
       <c r="D344" t="s">
-        <v>1994</v>
+        <v>1732</v>
       </c>
       <c r="E344" t="s">
-        <v>1996</v>
+        <v>1733</v>
       </c>
       <c r="F344" t="s">
-        <v>1998</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>1993</v>
+        <v>1859</v>
       </c>
       <c r="B345" t="s">
-        <v>1989</v>
+        <v>1858</v>
       </c>
       <c r="C345" t="s">
-        <v>1991</v>
+        <v>1860</v>
       </c>
       <c r="D345" t="s">
-        <v>1995</v>
+        <v>1861</v>
       </c>
       <c r="E345" t="s">
-        <v>1997</v>
+        <v>1862</v>
       </c>
       <c r="F345" t="s">
-        <v>1999</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>2020</v>
+        <v>1836</v>
       </c>
       <c r="B346" t="s">
-        <v>2019</v>
+        <v>1835</v>
       </c>
       <c r="C346" t="s">
-        <v>2021</v>
+        <v>1837</v>
       </c>
       <c r="D346" t="s">
-        <v>2023</v>
+        <v>1838</v>
       </c>
       <c r="E346" t="s">
-        <v>2024</v>
+        <v>1839</v>
       </c>
       <c r="F346" t="s">
-        <v>2022</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>2096</v>
+        <v>1992</v>
       </c>
       <c r="B347" t="s">
-        <v>2035</v>
+        <v>1988</v>
       </c>
       <c r="C347" t="s">
-        <v>2047</v>
+        <v>1990</v>
       </c>
       <c r="D347" t="s">
-        <v>2061</v>
+        <v>1994</v>
       </c>
       <c r="E347" t="s">
-        <v>2073</v>
+        <v>1996</v>
       </c>
       <c r="F347" t="s">
-        <v>2083</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>2095</v>
+        <v>1993</v>
       </c>
       <c r="B348" t="s">
-        <v>2036</v>
+        <v>1989</v>
       </c>
       <c r="C348" t="s">
-        <v>2048</v>
+        <v>1991</v>
       </c>
       <c r="D348" t="s">
-        <v>2062</v>
+        <v>1995</v>
       </c>
       <c r="E348" t="s">
-        <v>2074</v>
+        <v>1997</v>
       </c>
       <c r="F348" t="s">
-        <v>2084</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>2097</v>
+        <v>2020</v>
       </c>
       <c r="B349" t="s">
-        <v>2038</v>
+        <v>2019</v>
       </c>
       <c r="C349" t="s">
-        <v>2049</v>
+        <v>2021</v>
       </c>
       <c r="D349" t="s">
-        <v>2063</v>
+        <v>2023</v>
       </c>
       <c r="E349" t="s">
-        <v>2075</v>
+        <v>2024</v>
       </c>
       <c r="F349" t="s">
-        <v>2085</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
       <c r="B350" t="s">
-        <v>2039</v>
+        <v>2035</v>
       </c>
       <c r="C350" t="s">
-        <v>2054</v>
+        <v>2047</v>
       </c>
       <c r="D350" t="s">
-        <v>2064</v>
+        <v>2061</v>
       </c>
       <c r="E350" t="s">
-        <v>2053</v>
+        <v>2073</v>
       </c>
       <c r="F350" t="s">
-        <v>2086</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>2099</v>
+        <v>2095</v>
       </c>
       <c r="B351" t="s">
-        <v>2040</v>
+        <v>2036</v>
       </c>
       <c r="C351" t="s">
-        <v>2055</v>
+        <v>2048</v>
       </c>
       <c r="D351" t="s">
-        <v>2065</v>
+        <v>2062</v>
       </c>
       <c r="E351" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
       <c r="F351" t="s">
-        <v>2087</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>2100</v>
+        <v>2097</v>
       </c>
       <c r="B352" t="s">
-        <v>2041</v>
+        <v>2038</v>
       </c>
       <c r="C352" t="s">
-        <v>2057</v>
+        <v>2049</v>
       </c>
       <c r="D352" t="s">
-        <v>2066</v>
+        <v>2063</v>
       </c>
       <c r="E352" t="s">
-        <v>2056</v>
+        <v>2075</v>
       </c>
       <c r="F352" t="s">
-        <v>2088</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>2154</v>
+        <v>2098</v>
       </c>
       <c r="B353" t="s">
-        <v>2153</v>
+        <v>2039</v>
       </c>
       <c r="C353" t="s">
-        <v>2155</v>
+        <v>2054</v>
       </c>
       <c r="D353" t="s">
-        <v>2156</v>
+        <v>2064</v>
       </c>
       <c r="E353" t="s">
-        <v>2157</v>
+        <v>2053</v>
       </c>
       <c r="F353" t="s">
-        <v>2158</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>2101</v>
+        <v>2099</v>
       </c>
       <c r="B354" t="s">
-        <v>2042</v>
+        <v>2040</v>
       </c>
       <c r="C354" t="s">
-        <v>2058</v>
+        <v>2055</v>
       </c>
       <c r="D354" t="s">
-        <v>2067</v>
+        <v>2065</v>
       </c>
       <c r="E354" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="F354" t="s">
-        <v>2089</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>2102</v>
+        <v>2100</v>
       </c>
       <c r="B355" t="s">
-        <v>2043</v>
+        <v>2041</v>
       </c>
       <c r="C355" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="D355" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
       <c r="E355" t="s">
-        <v>2078</v>
+        <v>2056</v>
       </c>
       <c r="F355" t="s">
-        <v>2090</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>2103</v>
+        <v>2154</v>
       </c>
       <c r="B356" t="s">
-        <v>2044</v>
+        <v>2153</v>
       </c>
       <c r="C356" t="s">
-        <v>2060</v>
+        <v>2155</v>
       </c>
       <c r="D356" t="s">
-        <v>2069</v>
+        <v>2156</v>
       </c>
       <c r="E356" t="s">
-        <v>2079</v>
+        <v>2157</v>
       </c>
       <c r="F356" t="s">
-        <v>2091</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>2104</v>
+        <v>2101</v>
       </c>
       <c r="B357" t="s">
-        <v>2050</v>
+        <v>2042</v>
       </c>
       <c r="C357" t="s">
-        <v>2051</v>
+        <v>2058</v>
       </c>
       <c r="D357" t="s">
-        <v>2070</v>
+        <v>2067</v>
       </c>
       <c r="E357" t="s">
-        <v>2080</v>
+        <v>2077</v>
       </c>
       <c r="F357" t="s">
-        <v>2092</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>2105</v>
+        <v>2102</v>
       </c>
       <c r="B358" t="s">
-        <v>2231</v>
+        <v>2043</v>
       </c>
       <c r="C358" t="s">
-        <v>2238</v>
+        <v>2059</v>
       </c>
       <c r="D358" t="s">
-        <v>2239</v>
+        <v>2068</v>
       </c>
       <c r="E358" t="s">
-        <v>2240</v>
+        <v>2078</v>
       </c>
       <c r="F358" t="s">
-        <v>2241</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>2234</v>
+        <v>2103</v>
       </c>
       <c r="B359" t="s">
-        <v>2232</v>
+        <v>2044</v>
       </c>
       <c r="C359" t="s">
-        <v>2233</v>
+        <v>2060</v>
       </c>
       <c r="D359" t="s">
-        <v>2237</v>
+        <v>2069</v>
       </c>
       <c r="E359" t="s">
-        <v>2235</v>
+        <v>2079</v>
       </c>
       <c r="F359" t="s">
-        <v>2236</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
       <c r="B360" t="s">
-        <v>2045</v>
+        <v>2050</v>
       </c>
       <c r="C360" t="s">
-        <v>2046</v>
+        <v>2051</v>
       </c>
       <c r="D360" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="E360" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="F360" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>2160</v>
+        <v>2105</v>
       </c>
       <c r="B361" t="s">
-        <v>2159</v>
+        <v>2231</v>
       </c>
       <c r="C361" t="s">
-        <v>2161</v>
+        <v>2238</v>
       </c>
       <c r="D361" t="s">
-        <v>2162</v>
+        <v>2239</v>
       </c>
       <c r="E361" t="s">
-        <v>2163</v>
+        <v>2240</v>
       </c>
       <c r="F361" t="s">
-        <v>2164</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>2190</v>
+        <v>2234</v>
       </c>
       <c r="B362" t="s">
-        <v>2189</v>
+        <v>2232</v>
       </c>
       <c r="C362" t="s">
-        <v>2191</v>
+        <v>2233</v>
       </c>
       <c r="D362" t="s">
-        <v>2192</v>
+        <v>2237</v>
       </c>
       <c r="E362" t="s">
-        <v>2193</v>
+        <v>2235</v>
       </c>
       <c r="F362" t="s">
-        <v>2194</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>2180</v>
+        <v>2106</v>
       </c>
       <c r="B363" t="s">
-        <v>2165</v>
+        <v>2045</v>
       </c>
       <c r="C363" t="s">
-        <v>2168</v>
+        <v>2046</v>
       </c>
       <c r="D363" t="s">
-        <v>2171</v>
+        <v>2071</v>
       </c>
       <c r="E363" t="s">
-        <v>2174</v>
+        <v>2081</v>
       </c>
       <c r="F363" t="s">
-        <v>2177</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>2181</v>
+        <v>2160</v>
       </c>
       <c r="B364" t="s">
-        <v>2166</v>
+        <v>2159</v>
       </c>
       <c r="C364" t="s">
-        <v>2169</v>
+        <v>2161</v>
       </c>
       <c r="D364" t="s">
-        <v>2172</v>
+        <v>2162</v>
       </c>
       <c r="E364" t="s">
-        <v>2175</v>
+        <v>2163</v>
       </c>
       <c r="F364" t="s">
-        <v>2178</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>2182</v>
+        <v>2190</v>
       </c>
       <c r="B365" t="s">
-        <v>2167</v>
+        <v>2189</v>
       </c>
       <c r="C365" t="s">
-        <v>2170</v>
+        <v>2191</v>
       </c>
       <c r="D365" t="s">
-        <v>2173</v>
+        <v>2192</v>
       </c>
       <c r="E365" t="s">
-        <v>2176</v>
+        <v>2193</v>
       </c>
       <c r="F365" t="s">
-        <v>2179</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>2200</v>
+        <v>2180</v>
       </c>
       <c r="B366" t="s">
-        <v>2195</v>
+        <v>2165</v>
       </c>
       <c r="C366" t="s">
-        <v>2196</v>
+        <v>2168</v>
       </c>
       <c r="D366" t="s">
-        <v>2197</v>
+        <v>2171</v>
       </c>
       <c r="E366" t="s">
-        <v>2198</v>
+        <v>2174</v>
       </c>
       <c r="F366" t="s">
-        <v>2199</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>2201</v>
+        <v>2181</v>
       </c>
       <c r="B367" t="s">
-        <v>2202</v>
+        <v>2166</v>
       </c>
       <c r="C367" t="s">
-        <v>2203</v>
+        <v>2169</v>
       </c>
       <c r="D367" t="s">
-        <v>2204</v>
+        <v>2172</v>
       </c>
       <c r="E367" t="s">
-        <v>2205</v>
+        <v>2175</v>
       </c>
       <c r="F367" t="s">
-        <v>2206</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>2224</v>
+        <v>2182</v>
       </c>
       <c r="B368" t="s">
-        <v>2218</v>
+        <v>2167</v>
       </c>
       <c r="C368" t="s">
-        <v>2220</v>
+        <v>2170</v>
       </c>
       <c r="D368" t="s">
-        <v>2222</v>
+        <v>2173</v>
       </c>
       <c r="E368" t="s">
-        <v>2221</v>
+        <v>2176</v>
       </c>
       <c r="F368" t="s">
-        <v>2223</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>2207</v>
+        <v>2200</v>
       </c>
       <c r="B369" t="s">
-        <v>2208</v>
+        <v>2195</v>
       </c>
       <c r="C369" t="s">
-        <v>2219</v>
+        <v>2196</v>
       </c>
       <c r="D369" t="s">
-        <v>2209</v>
+        <v>2197</v>
       </c>
       <c r="E369" t="s">
-        <v>2210</v>
+        <v>2198</v>
       </c>
       <c r="F369" t="s">
-        <v>2211</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>2217</v>
+        <v>2201</v>
       </c>
       <c r="B370" t="s">
-        <v>2212</v>
+        <v>2202</v>
       </c>
       <c r="C370" t="s">
-        <v>2214</v>
+        <v>2203</v>
       </c>
       <c r="D370" t="s">
-        <v>2213</v>
+        <v>2204</v>
       </c>
       <c r="E370" t="s">
-        <v>2215</v>
+        <v>2205</v>
       </c>
       <c r="F370" t="s">
-        <v>2216</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>2107</v>
+        <v>2224</v>
       </c>
       <c r="B371" t="s">
-        <v>2037</v>
+        <v>2218</v>
       </c>
       <c r="C371" t="s">
-        <v>2052</v>
+        <v>2220</v>
       </c>
       <c r="D371" t="s">
-        <v>2072</v>
+        <v>2222</v>
       </c>
       <c r="E371" t="s">
-        <v>2082</v>
+        <v>2221</v>
       </c>
       <c r="F371" t="s">
-        <v>2094</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>2145</v>
+        <v>2207</v>
       </c>
       <c r="B372" t="s">
-        <v>2125</v>
+        <v>2208</v>
       </c>
       <c r="C372" t="s">
-        <v>2132</v>
+        <v>2219</v>
       </c>
       <c r="D372" t="s">
-        <v>2133</v>
+        <v>2209</v>
       </c>
       <c r="E372" t="s">
-        <v>2137</v>
+        <v>2210</v>
       </c>
       <c r="F372" t="s">
-        <v>2141</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>2146</v>
+        <v>2217</v>
       </c>
       <c r="B373" t="s">
-        <v>2126</v>
+        <v>2212</v>
       </c>
       <c r="C373" t="s">
-        <v>2129</v>
+        <v>2214</v>
       </c>
       <c r="D373" t="s">
-        <v>2134</v>
+        <v>2213</v>
       </c>
       <c r="E373" t="s">
-        <v>2138</v>
+        <v>2215</v>
       </c>
       <c r="F373" t="s">
-        <v>2142</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>2147</v>
+        <v>2107</v>
       </c>
       <c r="B374" t="s">
-        <v>2127</v>
+        <v>2037</v>
       </c>
       <c r="C374" t="s">
-        <v>2130</v>
+        <v>2052</v>
       </c>
       <c r="D374" t="s">
-        <v>2135</v>
+        <v>2072</v>
       </c>
       <c r="E374" t="s">
-        <v>2139</v>
+        <v>2082</v>
       </c>
       <c r="F374" t="s">
-        <v>2143</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>2148</v>
+        <v>2145</v>
       </c>
       <c r="B375" t="s">
-        <v>2128</v>
+        <v>2125</v>
       </c>
       <c r="C375" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="D375" t="s">
-        <v>2136</v>
+        <v>2133</v>
       </c>
       <c r="E375" t="s">
-        <v>2140</v>
+        <v>2137</v>
       </c>
       <c r="F375" t="s">
-        <v>2144</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>2108</v>
+        <v>2146</v>
       </c>
       <c r="B376" t="s">
-        <v>2109</v>
+        <v>2126</v>
       </c>
       <c r="C376" t="s">
-        <v>2110</v>
+        <v>2129</v>
       </c>
       <c r="D376" t="s">
-        <v>2111</v>
+        <v>2134</v>
       </c>
       <c r="E376" t="s">
-        <v>2112</v>
+        <v>2138</v>
       </c>
       <c r="F376" t="s">
-        <v>2113</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>2184</v>
+        <v>2147</v>
       </c>
       <c r="B377" t="s">
-        <v>2183</v>
+        <v>2127</v>
       </c>
       <c r="C377" t="s">
-        <v>2185</v>
+        <v>2130</v>
       </c>
       <c r="D377" t="s">
-        <v>2186</v>
+        <v>2135</v>
       </c>
       <c r="E377" t="s">
-        <v>2187</v>
+        <v>2139</v>
       </c>
       <c r="F377" t="s">
-        <v>2188</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>2254</v>
+        <v>2148</v>
       </c>
       <c r="B378" t="s">
-        <v>2242</v>
+        <v>2128</v>
       </c>
       <c r="C378" t="s">
-        <v>2246</v>
+        <v>2131</v>
       </c>
       <c r="D378" t="s">
-        <v>2248</v>
+        <v>2136</v>
       </c>
       <c r="E378" t="s">
-        <v>2250</v>
+        <v>2140</v>
       </c>
       <c r="F378" t="s">
-        <v>2252</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>2255</v>
+        <v>2108</v>
       </c>
       <c r="B379" t="s">
-        <v>2245</v>
+        <v>2109</v>
       </c>
       <c r="C379" t="s">
-        <v>2247</v>
+        <v>2110</v>
       </c>
       <c r="D379" t="s">
-        <v>2249</v>
+        <v>2111</v>
       </c>
       <c r="E379" t="s">
-        <v>2251</v>
+        <v>2112</v>
       </c>
       <c r="F379" t="s">
-        <v>2253</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>2265</v>
+        <v>2184</v>
       </c>
       <c r="B380" t="s">
-        <v>2256</v>
+        <v>2183</v>
       </c>
       <c r="C380" t="s">
-        <v>2257</v>
+        <v>2185</v>
       </c>
       <c r="D380" t="s">
-        <v>2258</v>
+        <v>2186</v>
       </c>
       <c r="E380" t="s">
-        <v>2259</v>
+        <v>2187</v>
       </c>
       <c r="F380" t="s">
-        <v>2260</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
+        <v>2254</v>
+      </c>
+      <c r="B381" t="s">
+        <v>2242</v>
+      </c>
+      <c r="C381" t="s">
+        <v>2246</v>
+      </c>
+      <c r="D381" t="s">
+        <v>2248</v>
+      </c>
+      <c r="E381" t="s">
+        <v>2250</v>
+      </c>
+      <c r="F381" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>2255</v>
+      </c>
+      <c r="B382" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C382" t="s">
+        <v>2247</v>
+      </c>
+      <c r="D382" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E382" t="s">
+        <v>2251</v>
+      </c>
+      <c r="F382" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>2265</v>
+      </c>
+      <c r="B383" t="s">
+        <v>2256</v>
+      </c>
+      <c r="C383" t="s">
+        <v>2257</v>
+      </c>
+      <c r="D383" t="s">
+        <v>2258</v>
+      </c>
+      <c r="E383" t="s">
+        <v>2259</v>
+      </c>
+      <c r="F383" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
         <v>1491</v>
       </c>
-      <c r="B381" t="s">
+      <c r="B384" t="s">
         <v>1489</v>
       </c>
-      <c r="C381" t="s">
+      <c r="C384" t="s">
         <v>1490</v>
       </c>
-      <c r="D381" t="s">
+      <c r="D384" t="s">
         <v>1492</v>
       </c>
-      <c r="E381" t="s">
+      <c r="E384" t="s">
         <v>1493</v>
       </c>
-      <c r="F381" t="s">
+      <c r="F384" t="s">
         <v>1494</v>
       </c>
     </row>

--- a/lang/words_dict.xlsx
+++ b/lang/words_dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\si lab\Matlab Projects\Registration\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDC852C-B444-4F3D-9AAE-74FB80E8CC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F680FAE2-AC05-452C-86AC-795A3FE1474C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2304" uniqueCount="2290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2316" uniqueCount="2302">
   <si>
     <t>文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7827,10 +7827,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>共享</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>独占</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7839,10 +7835,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SHARED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EXCLUSIVE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7855,35 +7847,84 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Shared</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Запустить модальное окно</t>
   </si>
   <si>
-    <t>Общий</t>
-  </si>
-  <si>
     <t>Эксклюзивный</t>
   </si>
   <si>
     <t>Exécuter modal</t>
   </si>
   <si>
-    <t>partagé</t>
-  </si>
-  <si>
     <t>Exclusif</t>
   </si>
   <si>
     <t>Ejecutar modal</t>
   </si>
   <si>
-    <t>Compartido</t>
-  </si>
-  <si>
     <t>Exclusivo</t>
+  </si>
+  <si>
+    <t>EXCLUSIVE_WARNING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您当前运行于服务器模式，独占模式可能造成MATLAB崩溃，继续？</t>
+  </si>
+  <si>
+    <t>You are currently running in server mode. Exclusive mode may cause MATLAB to crash. Continue?</t>
+  </si>
+  <si>
+    <t>В настоящее время вы работаете в режиме сервера. Эксклюзивный режим может привести к сбою MATLAB. Продолжить?</t>
+  </si>
+  <si>
+    <t>Vous utilisez actuellement le mode serveur. Le mode exclusif peut provoquer le blocage de MATLAB. Continuer ?</t>
+  </si>
+  <si>
+    <t>Actualmente está ejecutando en modo servidor. El modo exclusivo puede provocar que MATLAB se bloquee. ¿Continuar?</t>
+  </si>
+  <si>
+    <t>LOW_MEMPRY_WARNING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可用内存过小，独占模式启用失败</t>
+  </si>
+  <si>
+    <t>The available memory is too small and the exclusive mode cannot be enabled.</t>
+  </si>
+  <si>
+    <t>Доступная память слишком мала, и эксклюзивный режим невозможно включить.</t>
+  </si>
+  <si>
+    <t>La mémoire disponible est trop petite et le mode exclusif ne peut pas être activé.</t>
+  </si>
+  <si>
+    <t>La memoria disponible es demasiado pequeña y no se puede habilitar el modo exclusivo.</t>
+  </si>
+  <si>
+    <t>DISTRIBUTED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分布式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distributed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Распределенный</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distribué</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Repartido</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -8217,10 +8258,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F384"/>
+  <dimension ref="A1:F386"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51:F53"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9235,62 +9276,62 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="B51" t="s">
         <v>2272</v>
       </c>
       <c r="C51" t="s">
+        <v>2276</v>
+      </c>
+      <c r="D51" t="s">
         <v>2278</v>
       </c>
-      <c r="D51" t="s">
-        <v>2281</v>
-      </c>
       <c r="E51" t="s">
-        <v>2284</v>
+        <v>2280</v>
       </c>
       <c r="F51" t="s">
-        <v>2287</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>2276</v>
+        <v>2296</v>
       </c>
       <c r="B52" t="s">
-        <v>2273</v>
+        <v>2297</v>
       </c>
       <c r="C52" t="s">
-        <v>2280</v>
+        <v>2298</v>
       </c>
       <c r="D52" t="s">
-        <v>2282</v>
+        <v>2299</v>
       </c>
       <c r="E52" t="s">
-        <v>2285</v>
+        <v>2300</v>
       </c>
       <c r="F52" t="s">
-        <v>2288</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>2275</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2273</v>
+      </c>
+      <c r="C53" t="s">
         <v>2277</v>
       </c>
-      <c r="B53" t="s">
-        <v>2274</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>2279</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
+        <v>2281</v>
+      </c>
+      <c r="F53" t="s">
         <v>2283</v>
-      </c>
-      <c r="E53" t="s">
-        <v>2286</v>
-      </c>
-      <c r="F53" t="s">
-        <v>2289</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -15895,21 +15936,61 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
+        <v>2284</v>
+      </c>
+      <c r="B384" t="s">
+        <v>2285</v>
+      </c>
+      <c r="C384" t="s">
+        <v>2286</v>
+      </c>
+      <c r="D384" t="s">
+        <v>2287</v>
+      </c>
+      <c r="E384" t="s">
+        <v>2288</v>
+      </c>
+      <c r="F384" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>2290</v>
+      </c>
+      <c r="B385" t="s">
+        <v>2291</v>
+      </c>
+      <c r="C385" t="s">
+        <v>2292</v>
+      </c>
+      <c r="D385" t="s">
+        <v>2293</v>
+      </c>
+      <c r="E385" t="s">
+        <v>2294</v>
+      </c>
+      <c r="F385" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
         <v>1491</v>
       </c>
-      <c r="B384" t="s">
+      <c r="B386" t="s">
         <v>1489</v>
       </c>
-      <c r="C384" t="s">
+      <c r="C386" t="s">
         <v>1490</v>
       </c>
-      <c r="D384" t="s">
+      <c r="D386" t="s">
         <v>1492</v>
       </c>
-      <c r="E384" t="s">
+      <c r="E386" t="s">
         <v>1493</v>
       </c>
-      <c r="F384" t="s">
+      <c r="F386" t="s">
         <v>1494</v>
       </c>
     </row>

--- a/lang/words_dict.xlsx
+++ b/lang/words_dict.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab Projects\Registration\lang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\si lab\Matlab Projects\Registration\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADA7859-6EA2-4567-8A05-4051B187B3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B83163-B03F-4ADE-BC6C-3FD187F93AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="21806" windowHeight="13886" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="1158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="1182">
   <si>
     <t>文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -515,10 +515,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>自动配准(全局)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>配准模板</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -531,10 +527,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>相似</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>仿射</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -563,10 +555,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>初始迭代步长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>迭代数上限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -583,10 +571,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>启用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>自动配准(局部)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1510,10 +1494,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Global Registration(Auto)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Registration Template</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1526,10 +1506,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Similarity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Affine</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1558,10 +1534,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Initial Iteration Step</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Max Iteration Number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1578,10 +1550,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Enable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Local Registration(Auto)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1658,10 +1626,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Photobleaching Compensation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Precision</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2241,9 +2205,6 @@
     <t>RIGID</t>
   </si>
   <si>
-    <t>SIMILARITY</t>
-  </si>
-  <si>
     <t>AFFINE</t>
   </si>
   <si>
@@ -2259,9 +2220,6 @@
     <t>PYRAMID_COEFFICIENT</t>
   </si>
   <si>
-    <t>ENABLE</t>
-  </si>
-  <si>
     <t>GRID_UNIT_SIZE</t>
   </si>
   <si>
@@ -2304,9 +2262,6 @@
     <t>ROBUSTNESS_COEFFICIENT</t>
   </si>
   <si>
-    <t>COMPENSATION_PHOTOBLEACHING</t>
-  </si>
-  <si>
     <t>SCALE</t>
   </si>
   <si>
@@ -3030,38 +2985,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>手动配准(全局)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GLOBAL_REGISTRATION_MANUAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Global Registration(Manual)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前配准模式：手动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前配准模式：自动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REGMODE_CURRENT_MANUAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REGMODE_CURRENT_AUTO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Current Registration Mode: Automatic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>尺度阈值(um)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3222,18 +3145,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>长时程模式与一般模式同时启用，将关闭一般模式，继续？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LONG_TERM_NORMAL_CONFLICT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The long-term mode and the normal mode are enabled at the same time, the normal mode will be turned off. Continue?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>执行长时程配准</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3246,21 +3157,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当前配准模式：长时程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REGMODE_CURRENT_LONGTERM</t>
-  </si>
-  <si>
-    <t>Current Registration Mode: Manual</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Current Registration Mode: Long-Term</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>关键帧</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3440,18 +3336,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>自动配准(长时程)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Long-Term Registration(Auto)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LONGTERM_REGISTRATION_AUTO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SAMPLING</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3484,10 +3368,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>INITIAL_ITERATION_STEP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ITERATION_COEFFICIENT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3500,18 +3380,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一般模式与长时程模式同时启用，将关闭长时程模式，继续？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NORMAL_LONG_TERM_CONFLICT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The normal mode and the long-term mode are enabled at the same time, the normal mode will be turned off. Continue?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>仅平移</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3520,10 +3388,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>平移，旋转，各向同性拉伸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>平移，旋转，各向异性拉伸，反射与剪切</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3536,10 +3400,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>translation, rotation, and isotropic scaling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>translation, rotation, anisotropic scaling, reflection, and shearing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3552,10 +3412,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SIMILARITY_TOOLTIP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AFFINE_TOOLTIP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4154,10 +4010,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GLOBAL_REGISTRATION_AUTO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LOCAL_REGISTRATION_AUTO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4458,6 +4310,254 @@
   </si>
   <si>
     <t>Task Viewer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中值滤波器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高斯滤波器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEDIAN_FILTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPEN_OPERATOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAUSSIAN_FILTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Median Filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open Operator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gaussian Filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z优化公差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z Optimal Tolerance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z_OPTIMAL_TOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADVANCED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Advanced</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Preprocessing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PREPROCESSING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大迭代步长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum Iteration Step</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX_ITERATION_STEP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOCK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REGMODE_CURRENT_MGLOBAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REGMODE_CURRENT_GLOBAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REGMODE_CURRENT_LTGLOBAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REGMODE_CURRENT_LTLOCAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REGMODE_CURRENT_LOCAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前配准模式：全局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current Registration Mode: Global</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前配准模式：局部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current Registration Mode: Local</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前配准模式：全局(手动)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current Registration Mode: Global(Manually)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前配准模式：全局(长时程)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current Registration Mode: Global(Long-Term)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前配准模式：局部(长时程)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current Registration Mode: Local(Long-Term)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REPLENISH_PHOTOBLEACHING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Replenish Photobleaching</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GLOBAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Global</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>局部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局(手动)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局(长时程)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>局部(长时程)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Global(Manually)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Global(Long-Term)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local(Long-Term)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOCAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MGLOBAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LTGLOBAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LTLOCAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMON</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4792,4278 +4892,4365 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F387"/>
+  <dimension ref="A1:F395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="D144" sqref="D144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.140625" customWidth="1"/>
-    <col min="2" max="2" width="47.640625" customWidth="1"/>
-    <col min="3" max="3" width="55.140625" customWidth="1"/>
-    <col min="4" max="4" width="47.2109375" customWidth="1"/>
-    <col min="5" max="5" width="48.2109375" customWidth="1"/>
-    <col min="6" max="6" width="43.5" customWidth="1"/>
+    <col min="1" max="1" width="34.125" customWidth="1"/>
+    <col min="2" max="2" width="47.625" customWidth="1"/>
+    <col min="3" max="3" width="55.125" customWidth="1"/>
+    <col min="4" max="5" width="9.875" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="C1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
       <c r="B3" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="C3" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>969</v>
+        <v>932</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>971</v>
+        <v>934</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>972</v>
+        <v>935</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>970</v>
+        <v>933</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="B10" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
       <c r="C10" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>974</v>
+        <v>937</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>933</v>
+        <v>896</v>
       </c>
       <c r="B12" t="s">
-        <v>932</v>
+        <v>895</v>
       </c>
       <c r="C12" t="s">
-        <v>934</v>
+        <v>897</v>
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>901</v>
+      </c>
+      <c r="B13" t="s">
+        <v>902</v>
+      </c>
+      <c r="C13" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>910</v>
+      </c>
+      <c r="B14" t="s">
+        <v>906</v>
+      </c>
+      <c r="C14" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>911</v>
+      </c>
+      <c r="B15" t="s">
+        <v>912</v>
+      </c>
+      <c r="C15" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>907</v>
+      </c>
+      <c r="B16" t="s">
+        <v>908</v>
+      </c>
+      <c r="C16" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>914</v>
+      </c>
+      <c r="B17" t="s">
+        <v>915</v>
+      </c>
+      <c r="C17" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>919</v>
+      </c>
+      <c r="B18" t="s">
+        <v>917</v>
+      </c>
+      <c r="C18" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>920</v>
+      </c>
+      <c r="B19" t="s">
+        <v>922</v>
+      </c>
+      <c r="C19" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>921</v>
+      </c>
+      <c r="B20" t="s">
+        <v>923</v>
+      </c>
+      <c r="C20" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>938</v>
-      </c>
-      <c r="B13" t="s">
-        <v>939</v>
-      </c>
-      <c r="C13" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>947</v>
-      </c>
-      <c r="B14" t="s">
-        <v>943</v>
-      </c>
-      <c r="C14" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>948</v>
-      </c>
-      <c r="B15" t="s">
-        <v>949</v>
-      </c>
-      <c r="C15" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>944</v>
-      </c>
-      <c r="B16" t="s">
-        <v>945</v>
-      </c>
-      <c r="C16" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>951</v>
-      </c>
-      <c r="B17" t="s">
-        <v>952</v>
-      </c>
-      <c r="C17" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>956</v>
-      </c>
-      <c r="B18" t="s">
-        <v>954</v>
-      </c>
-      <c r="C18" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>957</v>
-      </c>
-      <c r="B19" t="s">
-        <v>959</v>
-      </c>
-      <c r="C19" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>958</v>
-      </c>
-      <c r="B20" t="s">
-        <v>960</v>
-      </c>
-      <c r="C20" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>975</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
       </c>
       <c r="C21" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>939</v>
+      </c>
+      <c r="B22" t="s">
+        <v>785</v>
+      </c>
+      <c r="C22" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>499</v>
+      </c>
+      <c r="B23" t="s">
+        <v>786</v>
+      </c>
+      <c r="C23" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>500</v>
+      </c>
+      <c r="B24" t="s">
+        <v>787</v>
+      </c>
+      <c r="C24" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>501</v>
+      </c>
+      <c r="B25" t="s">
+        <v>788</v>
+      </c>
+      <c r="C25" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>976</v>
-      </c>
-      <c r="B22" t="s">
-        <v>805</v>
-      </c>
-      <c r="C22" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>508</v>
-      </c>
-      <c r="B23" t="s">
-        <v>806</v>
-      </c>
-      <c r="C23" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>509</v>
-      </c>
-      <c r="B24" t="s">
-        <v>807</v>
-      </c>
-      <c r="C24" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>510</v>
-      </c>
-      <c r="B25" t="s">
-        <v>808</v>
-      </c>
-      <c r="C25" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>977</v>
+        <v>940</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="B27" t="s">
-        <v>1060</v>
+        <v>1023</v>
       </c>
       <c r="C27" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1127</v>
+        <v>1089</v>
       </c>
       <c r="B28" t="s">
-        <v>1126</v>
+        <v>1088</v>
       </c>
       <c r="C28" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1062</v>
+        <v>1025</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="B30" t="s">
         <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>978</v>
+        <v>941</v>
       </c>
       <c r="B31" t="s">
         <v>17</v>
       </c>
       <c r="C31" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>979</v>
+        <v>942</v>
       </c>
       <c r="B32" t="s">
         <v>18</v>
       </c>
       <c r="C32" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>980</v>
+        <v>943</v>
       </c>
       <c r="B33" t="s">
         <v>19</v>
       </c>
       <c r="C33" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>984</v>
+        <v>947</v>
       </c>
       <c r="B34" t="s">
         <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>981</v>
+        <v>944</v>
       </c>
       <c r="B35" t="s">
         <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>982</v>
+        <v>945</v>
       </c>
       <c r="B36" t="s">
         <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="B37" t="s">
         <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>983</v>
+        <v>946</v>
       </c>
       <c r="B38" t="s">
         <v>24</v>
       </c>
       <c r="C38" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="B39" t="s">
         <v>25</v>
       </c>
       <c r="C39" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>991</v>
+        <v>954</v>
       </c>
       <c r="B40" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="C40" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>992</v>
+        <v>955</v>
       </c>
       <c r="B41" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="C41" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>993</v>
+        <v>956</v>
       </c>
       <c r="B42" t="s">
         <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>994</v>
+        <v>957</v>
       </c>
       <c r="B43" t="s">
         <v>27</v>
       </c>
       <c r="C43" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>995</v>
+        <v>958</v>
       </c>
       <c r="B44" t="s">
         <v>28</v>
       </c>
       <c r="C44" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>996</v>
+        <v>959</v>
       </c>
       <c r="B45" t="s">
         <v>29</v>
       </c>
       <c r="C45" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>997</v>
+        <v>960</v>
       </c>
       <c r="B46" t="s">
         <v>30</v>
       </c>
       <c r="C46" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>998</v>
+        <v>961</v>
       </c>
       <c r="B47" t="s">
         <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="B48" t="s">
         <v>32</v>
       </c>
       <c r="C48" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>999</v>
+        <v>962</v>
       </c>
       <c r="B49" t="s">
         <v>33</v>
       </c>
       <c r="C49" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>1000</v>
+        <v>963</v>
       </c>
       <c r="B50" t="s">
         <v>34</v>
       </c>
       <c r="C50" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1142</v>
+        <v>1104</v>
       </c>
       <c r="B51" t="s">
-        <v>1140</v>
+        <v>1102</v>
       </c>
       <c r="C51" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>1152</v>
+        <v>1114</v>
       </c>
       <c r="B52" t="s">
-        <v>1153</v>
+        <v>1115</v>
       </c>
       <c r="C52" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1143</v>
+        <v>1105</v>
       </c>
       <c r="B53" t="s">
-        <v>1141</v>
+        <v>1103</v>
       </c>
       <c r="C53" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>1156</v>
+        <v>1118</v>
       </c>
       <c r="B54" t="s">
-        <v>1155</v>
+        <v>1117</v>
       </c>
       <c r="C54" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="B55" t="s">
         <v>35</v>
       </c>
       <c r="C55" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="B56" t="s">
         <v>36</v>
       </c>
       <c r="C56" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>1001</v>
+        <v>964</v>
       </c>
       <c r="B57" t="s">
         <v>37</v>
       </c>
       <c r="C57" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>1002</v>
+        <v>965</v>
       </c>
       <c r="B58" t="s">
         <v>38</v>
       </c>
       <c r="C58" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>1003</v>
+        <v>966</v>
       </c>
       <c r="B59" t="s">
         <v>39</v>
       </c>
       <c r="C59" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>1004</v>
+        <v>967</v>
       </c>
       <c r="B60" t="s">
-        <v>1005</v>
+        <v>968</v>
       </c>
       <c r="C60" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>1010</v>
+        <v>973</v>
       </c>
       <c r="B61" t="s">
         <v>41</v>
       </c>
       <c r="C61" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="B62" t="s">
         <v>40</v>
       </c>
       <c r="C62" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>1011</v>
+        <v>974</v>
       </c>
       <c r="B63" t="s">
-        <v>1012</v>
+        <v>975</v>
       </c>
       <c r="C63" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="B64" t="s">
         <v>42</v>
       </c>
       <c r="C64" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>1014</v>
+        <v>977</v>
       </c>
       <c r="B65" t="s">
         <v>43</v>
       </c>
       <c r="C65" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="B66" t="s">
         <v>44</v>
       </c>
       <c r="C66" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="B67" t="s">
         <v>45</v>
       </c>
       <c r="C67" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="B68" t="s">
         <v>58</v>
       </c>
       <c r="C68" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>1015</v>
+        <v>978</v>
       </c>
       <c r="B69" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="C69" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="B70" t="s">
         <v>46</v>
       </c>
       <c r="C70" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="B71" t="s">
         <v>47</v>
       </c>
       <c r="C71" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="B72" t="s">
         <v>48</v>
       </c>
       <c r="C72" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="B73" t="s">
         <v>49</v>
       </c>
       <c r="C73" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="B74" t="s">
         <v>50</v>
       </c>
       <c r="C74" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="B75" t="s">
         <v>61</v>
       </c>
       <c r="C75" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="B76" t="s">
         <v>62</v>
       </c>
       <c r="C76" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="B77" t="s">
         <v>63</v>
       </c>
       <c r="C77" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="B78" t="s">
         <v>64</v>
       </c>
       <c r="C78" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="B79" t="s">
         <v>51</v>
       </c>
       <c r="C79" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="B80" t="s">
         <v>52</v>
       </c>
       <c r="C80" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="B81" t="s">
         <v>53</v>
       </c>
       <c r="C81" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="B82" t="s">
         <v>54</v>
       </c>
       <c r="C82" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="B83" t="s">
         <v>55</v>
       </c>
       <c r="C83" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="B84" t="s">
         <v>56</v>
       </c>
       <c r="C84" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="B85" t="s">
         <v>57</v>
       </c>
       <c r="C85" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="B86" t="s">
         <v>59</v>
       </c>
       <c r="C86" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="B87" t="s">
         <v>60</v>
       </c>
       <c r="C87" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="B88" t="s">
         <v>65</v>
       </c>
       <c r="C88" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
       <c r="B89" t="s">
         <v>66</v>
       </c>
       <c r="C89" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="B90" t="s">
         <v>67</v>
       </c>
       <c r="C90" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>1080</v>
+        <v>1042</v>
       </c>
       <c r="B91" t="s">
         <v>72</v>
       </c>
       <c r="C91" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="B92" t="s">
         <v>68</v>
       </c>
       <c r="C92" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="B93" t="s">
         <v>70</v>
       </c>
       <c r="C93" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="B94" t="s">
         <v>71</v>
       </c>
       <c r="C94" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="B95" t="s">
         <v>73</v>
       </c>
       <c r="C95" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="B96" t="s">
         <v>74</v>
       </c>
       <c r="C96" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="B97" t="s">
         <v>69</v>
       </c>
       <c r="C97" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="B98" t="s">
         <v>75</v>
       </c>
       <c r="C98" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="B99" t="s">
         <v>76</v>
       </c>
       <c r="C99" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="B100" t="s">
         <v>77</v>
       </c>
       <c r="C100" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>1118</v>
+        <v>1080</v>
       </c>
       <c r="B101" t="s">
-        <v>1117</v>
+        <v>1079</v>
       </c>
       <c r="C101" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>1016</v>
+        <v>979</v>
       </c>
       <c r="B102" t="s">
         <v>78</v>
       </c>
       <c r="C102" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="B103" t="s">
         <v>79</v>
       </c>
       <c r="C103" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="B104" t="s">
         <v>80</v>
       </c>
       <c r="C104" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="B105" t="s">
         <v>81</v>
       </c>
       <c r="C105" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>1057</v>
+        <v>1020</v>
       </c>
       <c r="B106" t="s">
         <v>82</v>
       </c>
       <c r="C106" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="B107" t="s">
         <v>83</v>
       </c>
       <c r="C107" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>889</v>
+      </c>
+      <c r="B108" t="s">
+        <v>882</v>
+      </c>
+      <c r="C108" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>888</v>
+      </c>
+      <c r="B109" t="s">
+        <v>883</v>
+      </c>
+      <c r="C109" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>890</v>
+      </c>
+      <c r="B110" t="s">
+        <v>884</v>
+      </c>
+      <c r="C110" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>756</v>
+      </c>
+      <c r="B111" t="s">
+        <v>84</v>
+      </c>
+      <c r="C111" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>543</v>
+      </c>
+      <c r="B112" t="s">
+        <v>85</v>
+      </c>
+      <c r="C112" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B113" t="s">
+        <v>86</v>
+      </c>
+      <c r="C113" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>757</v>
+      </c>
+      <c r="B114" t="s">
+        <v>87</v>
+      </c>
+      <c r="C114" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>544</v>
+      </c>
+      <c r="B115" t="s">
+        <v>88</v>
+      </c>
+      <c r="C115" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>620</v>
+      </c>
+      <c r="B116" t="s">
+        <v>89</v>
+      </c>
+      <c r="C116" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>545</v>
+      </c>
+      <c r="B117" t="s">
+        <v>90</v>
+      </c>
+      <c r="C117" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
-        <v>925</v>
-      </c>
-      <c r="B108" t="s">
-        <v>916</v>
-      </c>
-      <c r="C108" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>924</v>
-      </c>
-      <c r="B109" t="s">
-        <v>917</v>
-      </c>
-      <c r="C109" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>546</v>
+      </c>
+      <c r="B118" t="s">
+        <v>91</v>
+      </c>
+      <c r="C118" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>547</v>
+      </c>
+      <c r="B119" t="s">
+        <v>92</v>
+      </c>
+      <c r="C119" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>548</v>
+      </c>
+      <c r="B120" t="s">
+        <v>93</v>
+      </c>
+      <c r="C120" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>549</v>
+      </c>
+      <c r="B121" t="s">
+        <v>94</v>
+      </c>
+      <c r="C121" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>550</v>
+      </c>
+      <c r="B122" t="s">
+        <v>95</v>
+      </c>
+      <c r="C122" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>551</v>
+      </c>
+      <c r="B123" t="s">
+        <v>96</v>
+      </c>
+      <c r="C123" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>552</v>
+      </c>
+      <c r="B124" t="s">
+        <v>97</v>
+      </c>
+      <c r="C124" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>759</v>
+      </c>
+      <c r="B125" t="s">
+        <v>758</v>
+      </c>
+      <c r="C125" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>762</v>
+      </c>
+      <c r="B126" t="s">
+        <v>761</v>
+      </c>
+      <c r="C126" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B127" t="s">
+        <v>98</v>
+      </c>
+      <c r="C127" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>553</v>
+      </c>
+      <c r="B128" t="s">
+        <v>99</v>
+      </c>
+      <c r="C128" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>554</v>
+      </c>
+      <c r="B129" t="s">
+        <v>100</v>
+      </c>
+      <c r="C129" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>555</v>
+      </c>
+      <c r="B130" t="s">
+        <v>101</v>
+      </c>
+      <c r="C130" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>556</v>
+      </c>
+      <c r="B131" t="s">
+        <v>102</v>
+      </c>
+      <c r="C131" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>557</v>
+      </c>
+      <c r="B132" t="s">
+        <v>103</v>
+      </c>
+      <c r="C132" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>558</v>
+      </c>
+      <c r="B133" t="s">
+        <v>104</v>
+      </c>
+      <c r="C133" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>559</v>
+      </c>
+      <c r="B134" t="s">
+        <v>105</v>
+      </c>
+      <c r="C134" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>560</v>
+      </c>
+      <c r="B135" t="s">
+        <v>106</v>
+      </c>
+      <c r="C135" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>561</v>
+      </c>
+      <c r="B136" t="s">
+        <v>107</v>
+      </c>
+      <c r="C136" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>562</v>
+      </c>
+      <c r="B137" t="s">
+        <v>108</v>
+      </c>
+      <c r="C137" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>563</v>
+      </c>
+      <c r="B138" t="s">
+        <v>109</v>
+      </c>
+      <c r="C138" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>782</v>
+      </c>
+      <c r="B139" t="s">
+        <v>110</v>
+      </c>
+      <c r="C139" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B140" t="s">
+        <v>111</v>
+      </c>
+      <c r="C140" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>564</v>
+      </c>
+      <c r="B141" t="s">
+        <v>112</v>
+      </c>
+      <c r="C141" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>565</v>
+      </c>
+      <c r="B142" t="s">
+        <v>113</v>
+      </c>
+      <c r="C142" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>566</v>
+      </c>
+      <c r="B143" t="s">
+        <v>114</v>
+      </c>
+      <c r="C143" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B144" t="s">
+        <v>115</v>
+      </c>
+      <c r="C144" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>567</v>
+      </c>
+      <c r="B145" t="s">
+        <v>116</v>
+      </c>
+      <c r="C145" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>568</v>
+      </c>
+      <c r="B146" t="s">
+        <v>117</v>
+      </c>
+      <c r="C146" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>569</v>
+      </c>
+      <c r="B147" t="s">
+        <v>118</v>
+      </c>
+      <c r="C147" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>570</v>
+      </c>
+      <c r="B148" t="s">
+        <v>119</v>
+      </c>
+      <c r="C148" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>571</v>
+      </c>
+      <c r="B149" t="s">
+        <v>120</v>
+      </c>
+      <c r="C149" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>621</v>
+      </c>
+      <c r="B150" t="s">
+        <v>121</v>
+      </c>
+      <c r="C150" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C151" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C152" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C153" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C154" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C155" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C156" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C157" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C158" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C159" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>872</v>
+      </c>
+      <c r="B160" t="s">
+        <v>122</v>
+      </c>
+      <c r="C160" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>871</v>
+      </c>
+      <c r="B161" t="s">
+        <v>123</v>
+      </c>
+      <c r="C161" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>572</v>
+      </c>
+      <c r="B162" t="s">
+        <v>124</v>
+      </c>
+      <c r="C162" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>573</v>
+      </c>
+      <c r="B163" t="s">
+        <v>125</v>
+      </c>
+      <c r="C163" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>574</v>
+      </c>
+      <c r="B164" t="s">
+        <v>126</v>
+      </c>
+      <c r="C164" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>797</v>
+      </c>
+      <c r="B165" t="s">
+        <v>127</v>
+      </c>
+      <c r="C165" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>798</v>
+      </c>
+      <c r="B166" t="s">
+        <v>128</v>
+      </c>
+      <c r="C166" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>789</v>
+      </c>
+      <c r="B167" t="s">
+        <v>14</v>
+      </c>
+      <c r="C167" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>790</v>
+      </c>
+      <c r="B168" t="s">
+        <v>13</v>
+      </c>
+      <c r="C168" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>791</v>
+      </c>
+      <c r="B169" t="s">
+        <v>12</v>
+      </c>
+      <c r="C169" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>792</v>
+      </c>
+      <c r="B170" t="s">
+        <v>11</v>
+      </c>
+      <c r="C170" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>819</v>
+      </c>
+      <c r="B171" t="s">
+        <v>131</v>
+      </c>
+      <c r="C171" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C172" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>877</v>
+      </c>
+      <c r="B173" t="s">
+        <v>132</v>
+      </c>
+      <c r="C173" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>879</v>
+      </c>
+      <c r="B174" t="s">
+        <v>133</v>
+      </c>
+      <c r="C174" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C175" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B176" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C176" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C177" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B178" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C178" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>576</v>
+      </c>
+      <c r="B179" t="s">
+        <v>134</v>
+      </c>
+      <c r="C179" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B180" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C180" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>577</v>
+      </c>
+      <c r="B181" t="s">
+        <v>135</v>
+      </c>
+      <c r="C181" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B182" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C182" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B183" t="s">
+        <v>136</v>
+      </c>
+      <c r="C183" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>578</v>
+      </c>
+      <c r="B184" t="s">
+        <v>137</v>
+      </c>
+      <c r="C184" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>579</v>
+      </c>
+      <c r="B185" t="s">
+        <v>138</v>
+      </c>
+      <c r="C185" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
         <v>926</v>
       </c>
-      <c r="B110" t="s">
-        <v>918</v>
-      </c>
-      <c r="C110" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
+      <c r="B186" t="s">
         <v>927</v>
       </c>
-      <c r="B111" t="s">
-        <v>919</v>
-      </c>
-      <c r="C111" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
+      <c r="C186" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>880</v>
+      </c>
+      <c r="B187" t="s">
+        <v>139</v>
+      </c>
+      <c r="C187" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>580</v>
+      </c>
+      <c r="B188" t="s">
+        <v>140</v>
+      </c>
+      <c r="C188" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>840</v>
+      </c>
+      <c r="B189" t="s">
+        <v>826</v>
+      </c>
+      <c r="C189" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>874</v>
+      </c>
+      <c r="B190" t="s">
+        <v>130</v>
+      </c>
+      <c r="C190" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>875</v>
+      </c>
+      <c r="B191" t="s">
+        <v>783</v>
+      </c>
+      <c r="C191" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>844</v>
+      </c>
+      <c r="B192" t="s">
+        <v>827</v>
+      </c>
+      <c r="C192" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>845</v>
+      </c>
+      <c r="B193" t="s">
+        <v>828</v>
+      </c>
+      <c r="C193" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>846</v>
+      </c>
+      <c r="B194" t="s">
+        <v>829</v>
+      </c>
+      <c r="C194" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>849</v>
+      </c>
+      <c r="B195" t="s">
+        <v>830</v>
+      </c>
+      <c r="C195" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>851</v>
+      </c>
+      <c r="B196" t="s">
+        <v>831</v>
+      </c>
+      <c r="C196" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>852</v>
+      </c>
+      <c r="B197" t="s">
+        <v>832</v>
+      </c>
+      <c r="C197" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>854</v>
+      </c>
+      <c r="B198" t="s">
+        <v>833</v>
+      </c>
+      <c r="C198" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>857</v>
+      </c>
+      <c r="B199" t="s">
+        <v>834</v>
+      </c>
+      <c r="C199" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>860</v>
+      </c>
+      <c r="B200" t="s">
+        <v>835</v>
+      </c>
+      <c r="C200" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>862</v>
+      </c>
+      <c r="B201" t="s">
+        <v>836</v>
+      </c>
+      <c r="C201" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>863</v>
+      </c>
+      <c r="B202" t="s">
+        <v>837</v>
+      </c>
+      <c r="C202" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>865</v>
+      </c>
+      <c r="B203" t="s">
+        <v>838</v>
+      </c>
+      <c r="C203" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>866</v>
+      </c>
+      <c r="B204" t="s">
+        <v>839</v>
+      </c>
+      <c r="C204" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>575</v>
+      </c>
+      <c r="B205" t="s">
+        <v>129</v>
+      </c>
+      <c r="C205" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>581</v>
+      </c>
+      <c r="B206" t="s">
+        <v>141</v>
+      </c>
+      <c r="C206" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>582</v>
+      </c>
+      <c r="B207" t="s">
+        <v>142</v>
+      </c>
+      <c r="C207" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>583</v>
+      </c>
+      <c r="B208" t="s">
+        <v>143</v>
+      </c>
+      <c r="C208" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>584</v>
+      </c>
+      <c r="B209" t="s">
+        <v>144</v>
+      </c>
+      <c r="C209" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>585</v>
+      </c>
+      <c r="B210" t="s">
+        <v>145</v>
+      </c>
+      <c r="C210" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>586</v>
+      </c>
+      <c r="B211" t="s">
+        <v>146</v>
+      </c>
+      <c r="C211" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>587</v>
+      </c>
+      <c r="B212" t="s">
+        <v>147</v>
+      </c>
+      <c r="C212" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>588</v>
+      </c>
+      <c r="B213" t="s">
+        <v>148</v>
+      </c>
+      <c r="C213" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>589</v>
+      </c>
+      <c r="B214" t="s">
+        <v>149</v>
+      </c>
+      <c r="C214" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>590</v>
+      </c>
+      <c r="B215" t="s">
+        <v>150</v>
+      </c>
+      <c r="C215" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>878</v>
+      </c>
+      <c r="B216" t="s">
+        <v>151</v>
+      </c>
+      <c r="C216" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>873</v>
+      </c>
+      <c r="B217" t="s">
+        <v>152</v>
+      </c>
+      <c r="C217" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>591</v>
+      </c>
+      <c r="B218" t="s">
+        <v>153</v>
+      </c>
+      <c r="C218" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>876</v>
+      </c>
+      <c r="B219" t="s">
+        <v>154</v>
+      </c>
+      <c r="C219" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B220" t="s">
+        <v>155</v>
+      </c>
+      <c r="C220" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>881</v>
+      </c>
+      <c r="B221" t="s">
+        <v>156</v>
+      </c>
+      <c r="C221" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B222" t="s">
+        <v>157</v>
+      </c>
+      <c r="C222" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>592</v>
+      </c>
+      <c r="B223" t="s">
+        <v>158</v>
+      </c>
+      <c r="C223" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>593</v>
+      </c>
+      <c r="B224" t="s">
+        <v>159</v>
+      </c>
+      <c r="C224" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>594</v>
+      </c>
+      <c r="B225" t="s">
+        <v>160</v>
+      </c>
+      <c r="C225" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>595</v>
+      </c>
+      <c r="B226" t="s">
+        <v>161</v>
+      </c>
+      <c r="C226" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>596</v>
+      </c>
+      <c r="B227" t="s">
+        <v>162</v>
+      </c>
+      <c r="C227" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>597</v>
+      </c>
+      <c r="B228" t="s">
+        <v>163</v>
+      </c>
+      <c r="C228" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>598</v>
+      </c>
+      <c r="B229" t="s">
+        <v>164</v>
+      </c>
+      <c r="C229" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>599</v>
+      </c>
+      <c r="B230" t="s">
+        <v>165</v>
+      </c>
+      <c r="C230" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>600</v>
+      </c>
+      <c r="B231" t="s">
+        <v>166</v>
+      </c>
+      <c r="C231" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>601</v>
+      </c>
+      <c r="B232" t="s">
+        <v>167</v>
+      </c>
+      <c r="C232" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>602</v>
+      </c>
+      <c r="B233" t="s">
+        <v>168</v>
+      </c>
+      <c r="C233" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>603</v>
+      </c>
+      <c r="B234" t="s">
+        <v>169</v>
+      </c>
+      <c r="C234" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>604</v>
+      </c>
+      <c r="B235" t="s">
+        <v>170</v>
+      </c>
+      <c r="C235" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>605</v>
+      </c>
+      <c r="B236" t="s">
+        <v>171</v>
+      </c>
+      <c r="C236" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>606</v>
+      </c>
+      <c r="B237" t="s">
+        <v>172</v>
+      </c>
+      <c r="C237" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>607</v>
+      </c>
+      <c r="B238" t="s">
+        <v>173</v>
+      </c>
+      <c r="C238" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>622</v>
+      </c>
+      <c r="B239" t="s">
+        <v>174</v>
+      </c>
+      <c r="C239" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>608</v>
+      </c>
+      <c r="B240" t="s">
+        <v>175</v>
+      </c>
+      <c r="C240" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>609</v>
+      </c>
+      <c r="B241" t="s">
+        <v>176</v>
+      </c>
+      <c r="C241" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>610</v>
+      </c>
+      <c r="B242" t="s">
+        <v>177</v>
+      </c>
+      <c r="C242" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>611</v>
+      </c>
+      <c r="B243" t="s">
+        <v>178</v>
+      </c>
+      <c r="C243" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>612</v>
+      </c>
+      <c r="B244" t="s">
+        <v>179</v>
+      </c>
+      <c r="C244" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>613</v>
+      </c>
+      <c r="B245" t="s">
+        <v>180</v>
+      </c>
+      <c r="C245" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>614</v>
+      </c>
+      <c r="B246" t="s">
+        <v>181</v>
+      </c>
+      <c r="C246" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>615</v>
+      </c>
+      <c r="B247" t="s">
+        <v>182</v>
+      </c>
+      <c r="C247" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>616</v>
+      </c>
+      <c r="B248" t="s">
+        <v>183</v>
+      </c>
+      <c r="C248" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>712</v>
+      </c>
+      <c r="B249" t="s">
+        <v>184</v>
+      </c>
+      <c r="C249" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>624</v>
+      </c>
+      <c r="B250" t="s">
+        <v>185</v>
+      </c>
+      <c r="C250" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>929</v>
+      </c>
+      <c r="B251" t="s">
+        <v>930</v>
+      </c>
+      <c r="C251" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>625</v>
+      </c>
+      <c r="B252" t="s">
+        <v>186</v>
+      </c>
+      <c r="C252" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>626</v>
+      </c>
+      <c r="B253" t="s">
+        <v>187</v>
+      </c>
+      <c r="C253" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>627</v>
+      </c>
+      <c r="B254" t="s">
+        <v>188</v>
+      </c>
+      <c r="C254" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>799</v>
+      </c>
+      <c r="B255" t="s">
+        <v>800</v>
+      </c>
+      <c r="C255" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>802</v>
+      </c>
+      <c r="B256" t="s">
+        <v>803</v>
+      </c>
+      <c r="C256" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>804</v>
+      </c>
+      <c r="B257" t="s">
+        <v>805</v>
+      </c>
+      <c r="C257" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>809</v>
+      </c>
+      <c r="B258" t="s">
+        <v>811</v>
+      </c>
+      <c r="C258" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>812</v>
+      </c>
+      <c r="B259" t="s">
+        <v>808</v>
+      </c>
+      <c r="C259" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>814</v>
+      </c>
+      <c r="B260" t="s">
+        <v>815</v>
+      </c>
+      <c r="C260" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>816</v>
+      </c>
+      <c r="B261" t="s">
+        <v>817</v>
+      </c>
+      <c r="C261" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>628</v>
+      </c>
+      <c r="B262" t="s">
+        <v>189</v>
+      </c>
+      <c r="C262" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>629</v>
+      </c>
+      <c r="B263" t="s">
+        <v>190</v>
+      </c>
+      <c r="C263" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>630</v>
+      </c>
+      <c r="B264" t="s">
+        <v>191</v>
+      </c>
+      <c r="C264" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>631</v>
+      </c>
+      <c r="B265" t="s">
+        <v>192</v>
+      </c>
+      <c r="C265" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>632</v>
+      </c>
+      <c r="B266" t="s">
+        <v>193</v>
+      </c>
+      <c r="C266" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>633</v>
+      </c>
+      <c r="B267" t="s">
+        <v>194</v>
+      </c>
+      <c r="C267" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>634</v>
+      </c>
+      <c r="B268" t="s">
+        <v>195</v>
+      </c>
+      <c r="C268" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>825</v>
+      </c>
+      <c r="B269" t="s">
+        <v>823</v>
+      </c>
+      <c r="C269" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>635</v>
+      </c>
+      <c r="B270" t="s">
+        <v>745</v>
+      </c>
+      <c r="C270" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>636</v>
+      </c>
+      <c r="B271" t="s">
+        <v>196</v>
+      </c>
+      <c r="C271" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>637</v>
+      </c>
+      <c r="B272" t="s">
+        <v>197</v>
+      </c>
+      <c r="C272" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>638</v>
+      </c>
+      <c r="B273" t="s">
+        <v>198</v>
+      </c>
+      <c r="C273" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>639</v>
+      </c>
+      <c r="B274" t="s">
+        <v>743</v>
+      </c>
+      <c r="C274" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>640</v>
+      </c>
+      <c r="B275" t="s">
+        <v>199</v>
+      </c>
+      <c r="C275" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>641</v>
+      </c>
+      <c r="B276" t="s">
+        <v>200</v>
+      </c>
+      <c r="C276" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>642</v>
+      </c>
+      <c r="B277" t="s">
+        <v>201</v>
+      </c>
+      <c r="C277" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>643</v>
+      </c>
+      <c r="B278" t="s">
+        <v>202</v>
+      </c>
+      <c r="C278" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>644</v>
+      </c>
+      <c r="B279" t="s">
+        <v>222</v>
+      </c>
+      <c r="C279" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>645</v>
+      </c>
+      <c r="B280" t="s">
+        <v>221</v>
+      </c>
+      <c r="C280" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>646</v>
+      </c>
+      <c r="B281" t="s">
+        <v>220</v>
+      </c>
+      <c r="C281" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>647</v>
+      </c>
+      <c r="B282" t="s">
+        <v>219</v>
+      </c>
+      <c r="C282" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>648</v>
+      </c>
+      <c r="B283" t="s">
+        <v>203</v>
+      </c>
+      <c r="C283" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>649</v>
+      </c>
+      <c r="B284" t="s">
+        <v>204</v>
+      </c>
+      <c r="C284" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>650</v>
+      </c>
+      <c r="B285" t="s">
+        <v>205</v>
+      </c>
+      <c r="C285" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>651</v>
+      </c>
+      <c r="B286" t="s">
+        <v>206</v>
+      </c>
+      <c r="C286" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>652</v>
+      </c>
+      <c r="B287" t="s">
+        <v>207</v>
+      </c>
+      <c r="C287" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>748</v>
+      </c>
+      <c r="B288" t="s">
+        <v>747</v>
+      </c>
+      <c r="C288" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>653</v>
+      </c>
+      <c r="B289" t="s">
+        <v>208</v>
+      </c>
+      <c r="C289" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>654</v>
+      </c>
+      <c r="B290" t="s">
+        <v>209</v>
+      </c>
+      <c r="C290" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>655</v>
+      </c>
+      <c r="B291" t="s">
+        <v>210</v>
+      </c>
+      <c r="C291" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>656</v>
+      </c>
+      <c r="B292" t="s">
+        <v>211</v>
+      </c>
+      <c r="C292" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>891</v>
+      </c>
+      <c r="B293" t="s">
+        <v>892</v>
+      </c>
+      <c r="C293" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>657</v>
+      </c>
+      <c r="B294" t="s">
+        <v>212</v>
+      </c>
+      <c r="C294" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>658</v>
+      </c>
+      <c r="B295" t="s">
+        <v>24</v>
+      </c>
+      <c r="C295" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>659</v>
+      </c>
+      <c r="B296" t="s">
+        <v>213</v>
+      </c>
+      <c r="C296" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>739</v>
+      </c>
+      <c r="B297" t="s">
+        <v>738</v>
+      </c>
+      <c r="C297" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>660</v>
+      </c>
+      <c r="B298" t="s">
+        <v>214</v>
+      </c>
+      <c r="C298" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>661</v>
+      </c>
+      <c r="B299" t="s">
+        <v>215</v>
+      </c>
+      <c r="C299" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>690</v>
+      </c>
+      <c r="B300" t="s">
+        <v>216</v>
+      </c>
+      <c r="C300" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>663</v>
+      </c>
+      <c r="B301" t="s">
+        <v>217</v>
+      </c>
+      <c r="C301" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>664</v>
+      </c>
+      <c r="B302" t="s">
+        <v>218</v>
+      </c>
+      <c r="C302" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>667</v>
+      </c>
+      <c r="B303" t="s">
+        <v>223</v>
+      </c>
+      <c r="C303" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>665</v>
+      </c>
+      <c r="B304" t="s">
+        <v>224</v>
+      </c>
+      <c r="C304" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>666</v>
+      </c>
+      <c r="B305" t="s">
+        <v>225</v>
+      </c>
+      <c r="C305" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>669</v>
+      </c>
+      <c r="B306" t="s">
+        <v>226</v>
+      </c>
+      <c r="C306" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>671</v>
+      </c>
+      <c r="B307" t="s">
+        <v>227</v>
+      </c>
+      <c r="C307" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>672</v>
+      </c>
+      <c r="B308" t="s">
+        <v>228</v>
+      </c>
+      <c r="C308" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>673</v>
+      </c>
+      <c r="B309" t="s">
+        <v>229</v>
+      </c>
+      <c r="C309" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>741</v>
+      </c>
+      <c r="B310" t="s">
+        <v>230</v>
+      </c>
+      <c r="C310" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>674</v>
+      </c>
+      <c r="B311" t="s">
+        <v>231</v>
+      </c>
+      <c r="C311" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>670</v>
+      </c>
+      <c r="B312" t="s">
+        <v>232</v>
+      </c>
+      <c r="C312" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>752</v>
+      </c>
+      <c r="B313" t="s">
+        <v>750</v>
+      </c>
+      <c r="C313" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>662</v>
+      </c>
+      <c r="B314" t="s">
+        <v>233</v>
+      </c>
+      <c r="C314" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>675</v>
+      </c>
+      <c r="B315" t="s">
+        <v>234</v>
+      </c>
+      <c r="C315" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>676</v>
+      </c>
+      <c r="B316" t="s">
+        <v>235</v>
+      </c>
+      <c r="C316" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>677</v>
+      </c>
+      <c r="B317" t="s">
+        <v>236</v>
+      </c>
+      <c r="C317" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>681</v>
+      </c>
+      <c r="B318" t="s">
+        <v>237</v>
+      </c>
+      <c r="C318" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>679</v>
+      </c>
+      <c r="B319" t="s">
+        <v>238</v>
+      </c>
+      <c r="C319" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>680</v>
+      </c>
+      <c r="B320" t="s">
+        <v>239</v>
+      </c>
+      <c r="C320" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>753</v>
+      </c>
+      <c r="B321" t="s">
+        <v>755</v>
+      </c>
+      <c r="C321" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>682</v>
+      </c>
+      <c r="B322" t="s">
+        <v>240</v>
+      </c>
+      <c r="C322" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>683</v>
+      </c>
+      <c r="B323" t="s">
+        <v>241</v>
+      </c>
+      <c r="C323" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>684</v>
+      </c>
+      <c r="B324" t="s">
+        <v>242</v>
+      </c>
+      <c r="C324" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>685</v>
+      </c>
+      <c r="B325" t="s">
+        <v>243</v>
+      </c>
+      <c r="C325" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>686</v>
+      </c>
+      <c r="B326" t="s">
+        <v>244</v>
+      </c>
+      <c r="C326" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>899</v>
+      </c>
+      <c r="B327" t="s">
+        <v>898</v>
+      </c>
+      <c r="C327" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>687</v>
+      </c>
+      <c r="B328" t="s">
+        <v>245</v>
+      </c>
+      <c r="C328" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>668</v>
+      </c>
+      <c r="B329" t="s">
+        <v>246</v>
+      </c>
+      <c r="C329" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>688</v>
+      </c>
+      <c r="B330" t="s">
+        <v>247</v>
+      </c>
+      <c r="C330" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>689</v>
+      </c>
+      <c r="B331" t="s">
+        <v>248</v>
+      </c>
+      <c r="C331" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>766</v>
+      </c>
+      <c r="B332" t="s">
+        <v>764</v>
+      </c>
+      <c r="C332" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>769</v>
+      </c>
+      <c r="B333" t="s">
+        <v>767</v>
+      </c>
+      <c r="C333" t="s">
         <v>768</v>
       </c>
-      <c r="B112" t="s">
-        <v>84</v>
-      </c>
-      <c r="C112" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
-        <v>552</v>
-      </c>
-      <c r="B113" t="s">
-        <v>85</v>
-      </c>
-      <c r="C113" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B114" t="s">
-        <v>86</v>
-      </c>
-      <c r="C114" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>769</v>
-      </c>
-      <c r="B115" t="s">
-        <v>87</v>
-      </c>
-      <c r="C115" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
-        <v>553</v>
-      </c>
-      <c r="B116" t="s">
-        <v>88</v>
-      </c>
-      <c r="C116" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
-        <v>632</v>
-      </c>
-      <c r="B117" t="s">
-        <v>89</v>
-      </c>
-      <c r="C117" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
-        <v>554</v>
-      </c>
-      <c r="B118" t="s">
-        <v>90</v>
-      </c>
-      <c r="C118" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
-        <v>555</v>
-      </c>
-      <c r="B119" t="s">
-        <v>91</v>
-      </c>
-      <c r="C119" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
-        <v>556</v>
-      </c>
-      <c r="B120" t="s">
-        <v>92</v>
-      </c>
-      <c r="C120" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
-        <v>557</v>
-      </c>
-      <c r="B121" t="s">
-        <v>93</v>
-      </c>
-      <c r="C121" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
-        <v>558</v>
-      </c>
-      <c r="B122" t="s">
-        <v>94</v>
-      </c>
-      <c r="C122" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
-        <v>559</v>
-      </c>
-      <c r="B123" t="s">
-        <v>95</v>
-      </c>
-      <c r="C123" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
-        <v>560</v>
-      </c>
-      <c r="B124" t="s">
-        <v>96</v>
-      </c>
-      <c r="C124" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
-        <v>561</v>
-      </c>
-      <c r="B125" t="s">
-        <v>97</v>
-      </c>
-      <c r="C125" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>772</v>
+      </c>
+      <c r="B334" t="s">
+        <v>770</v>
+      </c>
+      <c r="C334" t="s">
         <v>771</v>
       </c>
-      <c r="B126" t="s">
-        <v>770</v>
-      </c>
-      <c r="C126" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B335" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C335" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B336" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C336" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B337" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C337" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B338" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C338" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B339" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C339" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>776</v>
+      </c>
+      <c r="B340" t="s">
+        <v>773</v>
+      </c>
+      <c r="C340" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>778</v>
+      </c>
+      <c r="B341" t="s">
         <v>774</v>
       </c>
-      <c r="B127" t="s">
-        <v>773</v>
-      </c>
-      <c r="C127" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B128" t="s">
-        <v>98</v>
-      </c>
-      <c r="C128" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
-        <v>562</v>
-      </c>
-      <c r="B129" t="s">
-        <v>99</v>
-      </c>
-      <c r="C129" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
-        <v>563</v>
-      </c>
-      <c r="B130" t="s">
-        <v>100</v>
-      </c>
-      <c r="C130" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
-        <v>564</v>
-      </c>
-      <c r="B131" t="s">
-        <v>101</v>
-      </c>
-      <c r="C131" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
-        <v>565</v>
-      </c>
-      <c r="B132" t="s">
-        <v>102</v>
-      </c>
-      <c r="C132" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
-        <v>566</v>
-      </c>
-      <c r="B133" t="s">
-        <v>103</v>
-      </c>
-      <c r="C133" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
-        <v>567</v>
-      </c>
-      <c r="B134" t="s">
-        <v>104</v>
-      </c>
-      <c r="C134" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
-        <v>568</v>
-      </c>
-      <c r="B135" t="s">
-        <v>105</v>
-      </c>
-      <c r="C135" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
-        <v>569</v>
-      </c>
-      <c r="B136" t="s">
-        <v>106</v>
-      </c>
-      <c r="C136" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
-        <v>570</v>
-      </c>
-      <c r="B137" t="s">
-        <v>107</v>
-      </c>
-      <c r="C137" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
-        <v>571</v>
-      </c>
-      <c r="B138" t="s">
-        <v>108</v>
-      </c>
-      <c r="C138" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
-        <v>572</v>
-      </c>
-      <c r="B139" t="s">
-        <v>109</v>
-      </c>
-      <c r="C139" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
-        <v>794</v>
-      </c>
-      <c r="B140" t="s">
-        <v>110</v>
-      </c>
-      <c r="C140" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
+      <c r="C341" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>781</v>
+      </c>
+      <c r="B342" t="s">
+        <v>780</v>
+      </c>
+      <c r="C342" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>716</v>
+      </c>
+      <c r="B343" t="s">
+        <v>700</v>
+      </c>
+      <c r="C343" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>730</v>
+      </c>
+      <c r="B344" t="s">
+        <v>701</v>
+      </c>
+      <c r="C344" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>731</v>
+      </c>
+      <c r="B345" t="s">
+        <v>702</v>
+      </c>
+      <c r="C345" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>717</v>
+      </c>
+      <c r="B346" t="s">
+        <v>703</v>
+      </c>
+      <c r="C346" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>718</v>
+      </c>
+      <c r="B347" t="s">
+        <v>704</v>
+      </c>
+      <c r="C347" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>719</v>
+      </c>
+      <c r="B348" t="s">
+        <v>705</v>
+      </c>
+      <c r="C348" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>720</v>
+      </c>
+      <c r="B349" t="s">
+        <v>706</v>
+      </c>
+      <c r="C349" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>721</v>
+      </c>
+      <c r="B350" t="s">
+        <v>707</v>
+      </c>
+      <c r="C350" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>722</v>
+      </c>
+      <c r="B351" t="s">
+        <v>708</v>
+      </c>
+      <c r="C351" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>723</v>
+      </c>
+      <c r="B352" t="s">
+        <v>709</v>
+      </c>
+      <c r="C352" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>724</v>
+      </c>
+      <c r="B353" t="s">
+        <v>710</v>
+      </c>
+      <c r="C353" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>822</v>
+      </c>
+      <c r="B354" t="s">
+        <v>820</v>
+      </c>
+      <c r="C354" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>869</v>
+      </c>
+      <c r="B355" t="s">
+        <v>868</v>
+      </c>
+      <c r="C355" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>952</v>
+      </c>
+      <c r="B356" t="s">
+        <v>948</v>
+      </c>
+      <c r="C356" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>953</v>
+      </c>
+      <c r="B357" t="s">
+        <v>949</v>
+      </c>
+      <c r="C357" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>971</v>
+      </c>
+      <c r="B358" t="s">
+        <v>970</v>
+      </c>
+      <c r="C358" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B359" t="s">
+        <v>980</v>
+      </c>
+      <c r="C359" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B360" t="s">
+        <v>981</v>
+      </c>
+      <c r="C360" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B361" t="s">
+        <v>983</v>
+      </c>
+      <c r="C361" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B362" t="s">
+        <v>984</v>
+      </c>
+      <c r="C362" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B363" t="s">
+        <v>985</v>
+      </c>
+      <c r="C363" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B364" t="s">
+        <v>986</v>
+      </c>
+      <c r="C364" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B365" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C365" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B366" t="s">
+        <v>987</v>
+      </c>
+      <c r="C366" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B367" t="s">
+        <v>988</v>
+      </c>
+      <c r="C367" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B368" t="s">
+        <v>989</v>
+      </c>
+      <c r="C368" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B369" t="s">
+        <v>995</v>
+      </c>
+      <c r="C369" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B370" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C370" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B371" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C371" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B372" t="s">
+        <v>990</v>
+      </c>
+      <c r="C372" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B373" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C373" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B374" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C374" t="s">
         <v>1063</v>
       </c>
-      <c r="B141" t="s">
-        <v>111</v>
-      </c>
-      <c r="C141" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
-        <v>573</v>
-      </c>
-      <c r="B142" t="s">
-        <v>112</v>
-      </c>
-      <c r="C142" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
-        <v>574</v>
-      </c>
-      <c r="B143" t="s">
-        <v>113</v>
-      </c>
-      <c r="C143" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
-        <v>575</v>
-      </c>
-      <c r="B144" t="s">
-        <v>114</v>
-      </c>
-      <c r="C144" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B375" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C375" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B376" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C376" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B377" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C377" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B378" t="s">
         <v>1064</v>
       </c>
-      <c r="B145" t="s">
-        <v>115</v>
-      </c>
-      <c r="C145" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
-        <v>576</v>
-      </c>
-      <c r="B146" t="s">
-        <v>116</v>
-      </c>
-      <c r="C146" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
-        <v>577</v>
-      </c>
-      <c r="B147" t="s">
-        <v>117</v>
-      </c>
-      <c r="C147" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
-        <v>578</v>
-      </c>
-      <c r="B148" t="s">
-        <v>118</v>
-      </c>
-      <c r="C148" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
-        <v>579</v>
-      </c>
-      <c r="B149" t="s">
-        <v>119</v>
-      </c>
-      <c r="C149" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
-        <v>580</v>
-      </c>
-      <c r="B150" t="s">
-        <v>120</v>
-      </c>
-      <c r="C150" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
-        <v>633</v>
-      </c>
-      <c r="B151" t="s">
-        <v>121</v>
-      </c>
-      <c r="C151" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
-        <v>1077</v>
-      </c>
-      <c r="B152" t="s">
-        <v>122</v>
-      </c>
-      <c r="C152" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
-        <v>902</v>
-      </c>
-      <c r="B153" t="s">
-        <v>123</v>
-      </c>
-      <c r="C153" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
-        <v>901</v>
-      </c>
-      <c r="B154" t="s">
-        <v>124</v>
-      </c>
-      <c r="C154" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
-        <v>581</v>
-      </c>
-      <c r="B155" t="s">
-        <v>125</v>
-      </c>
-      <c r="C155" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A156" t="s">
-        <v>582</v>
-      </c>
-      <c r="B156" t="s">
-        <v>126</v>
-      </c>
-      <c r="C156" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
-        <v>583</v>
-      </c>
-      <c r="B157" t="s">
-        <v>127</v>
-      </c>
-      <c r="C157" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A158" t="s">
-        <v>584</v>
-      </c>
-      <c r="B158" t="s">
-        <v>128</v>
-      </c>
-      <c r="C158" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
-        <v>817</v>
-      </c>
-      <c r="B159" t="s">
-        <v>129</v>
-      </c>
-      <c r="C159" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
-        <v>818</v>
-      </c>
-      <c r="B160" t="s">
-        <v>130</v>
-      </c>
-      <c r="C160" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
-        <v>809</v>
-      </c>
-      <c r="B161" t="s">
-        <v>14</v>
-      </c>
-      <c r="C161" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
-        <v>810</v>
-      </c>
-      <c r="B162" t="s">
-        <v>13</v>
-      </c>
-      <c r="C162" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
-        <v>811</v>
-      </c>
-      <c r="B163" t="s">
-        <v>12</v>
-      </c>
-      <c r="C163" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A164" t="s">
-        <v>812</v>
-      </c>
-      <c r="B164" t="s">
-        <v>11</v>
-      </c>
-      <c r="C164" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A165" t="s">
-        <v>839</v>
-      </c>
-      <c r="B165" t="s">
-        <v>133</v>
-      </c>
-      <c r="C165" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A166" t="s">
-        <v>909</v>
-      </c>
-      <c r="B166" t="s">
-        <v>134</v>
-      </c>
-      <c r="C166" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A167" t="s">
-        <v>907</v>
-      </c>
-      <c r="B167" t="s">
-        <v>135</v>
-      </c>
-      <c r="C167" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A168" t="s">
-        <v>910</v>
-      </c>
-      <c r="B168" t="s">
-        <v>136</v>
-      </c>
-      <c r="C168" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A169" t="s">
-        <v>586</v>
-      </c>
-      <c r="B169" t="s">
-        <v>137</v>
-      </c>
-      <c r="C169" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A170" t="s">
-        <v>1138</v>
-      </c>
-      <c r="B170" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C170" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A171" t="s">
-        <v>587</v>
-      </c>
-      <c r="B171" t="s">
-        <v>138</v>
-      </c>
-      <c r="C171" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A172" t="s">
-        <v>588</v>
-      </c>
-      <c r="B172" t="s">
-        <v>139</v>
-      </c>
-      <c r="C172" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A173" t="s">
-        <v>1078</v>
-      </c>
-      <c r="B173" t="s">
-        <v>140</v>
-      </c>
-      <c r="C173" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A174" t="s">
-        <v>589</v>
-      </c>
-      <c r="B174" t="s">
-        <v>141</v>
-      </c>
-      <c r="C174" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A175" t="s">
-        <v>590</v>
-      </c>
-      <c r="B175" t="s">
-        <v>142</v>
-      </c>
-      <c r="C175" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A176" t="s">
-        <v>963</v>
-      </c>
-      <c r="B176" t="s">
-        <v>964</v>
-      </c>
-      <c r="C176" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A177" t="s">
-        <v>911</v>
-      </c>
-      <c r="B177" t="s">
-        <v>143</v>
-      </c>
-      <c r="C177" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A178" t="s">
-        <v>591</v>
-      </c>
-      <c r="B178" t="s">
-        <v>144</v>
-      </c>
-      <c r="C178" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A179" t="s">
-        <v>900</v>
-      </c>
-      <c r="B179" t="s">
-        <v>898</v>
-      </c>
-      <c r="C179" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A180" t="s">
-        <v>867</v>
-      </c>
-      <c r="B180" t="s">
-        <v>853</v>
-      </c>
-      <c r="C180" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A181" t="s">
-        <v>904</v>
-      </c>
-      <c r="B181" t="s">
-        <v>132</v>
-      </c>
-      <c r="C181" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A182" t="s">
-        <v>905</v>
-      </c>
-      <c r="B182" t="s">
-        <v>803</v>
-      </c>
-      <c r="C182" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A183" t="s">
-        <v>871</v>
-      </c>
-      <c r="B183" t="s">
-        <v>854</v>
-      </c>
-      <c r="C183" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A184" t="s">
-        <v>872</v>
-      </c>
-      <c r="B184" t="s">
-        <v>855</v>
-      </c>
-      <c r="C184" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A185" t="s">
-        <v>873</v>
-      </c>
-      <c r="B185" t="s">
-        <v>856</v>
-      </c>
-      <c r="C185" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A186" t="s">
-        <v>876</v>
-      </c>
-      <c r="B186" t="s">
-        <v>857</v>
-      </c>
-      <c r="C186" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A187" t="s">
-        <v>878</v>
-      </c>
-      <c r="B187" t="s">
-        <v>858</v>
-      </c>
-      <c r="C187" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A188" t="s">
-        <v>879</v>
-      </c>
-      <c r="B188" t="s">
-        <v>859</v>
-      </c>
-      <c r="C188" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A189" t="s">
-        <v>881</v>
-      </c>
-      <c r="B189" t="s">
-        <v>860</v>
-      </c>
-      <c r="C189" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A190" t="s">
-        <v>884</v>
-      </c>
-      <c r="B190" t="s">
-        <v>861</v>
-      </c>
-      <c r="C190" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A191" t="s">
-        <v>887</v>
-      </c>
-      <c r="B191" t="s">
-        <v>862</v>
-      </c>
-      <c r="C191" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A192" t="s">
-        <v>889</v>
-      </c>
-      <c r="B192" t="s">
-        <v>863</v>
-      </c>
-      <c r="C192" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A193" t="s">
-        <v>890</v>
-      </c>
-      <c r="B193" t="s">
-        <v>864</v>
-      </c>
-      <c r="C193" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A194" t="s">
-        <v>892</v>
-      </c>
-      <c r="B194" t="s">
-        <v>865</v>
-      </c>
-      <c r="C194" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A195" t="s">
-        <v>893</v>
-      </c>
-      <c r="B195" t="s">
-        <v>866</v>
-      </c>
-      <c r="C195" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A196" t="s">
-        <v>585</v>
-      </c>
-      <c r="B196" t="s">
-        <v>131</v>
-      </c>
-      <c r="C196" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A197" t="s">
-        <v>796</v>
-      </c>
-      <c r="B197" t="s">
-        <v>795</v>
-      </c>
-      <c r="C197" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A198" t="s">
-        <v>592</v>
-      </c>
-      <c r="B198" t="s">
-        <v>145</v>
-      </c>
-      <c r="C198" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A199" t="s">
-        <v>593</v>
-      </c>
-      <c r="B199" t="s">
-        <v>146</v>
-      </c>
-      <c r="C199" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A200" t="s">
-        <v>594</v>
-      </c>
-      <c r="B200" t="s">
-        <v>147</v>
-      </c>
-      <c r="C200" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A201" t="s">
-        <v>595</v>
-      </c>
-      <c r="B201" t="s">
-        <v>148</v>
-      </c>
-      <c r="C201" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A202" t="s">
-        <v>596</v>
-      </c>
-      <c r="B202" t="s">
-        <v>149</v>
-      </c>
-      <c r="C202" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A203" t="s">
-        <v>597</v>
-      </c>
-      <c r="B203" t="s">
-        <v>150</v>
-      </c>
-      <c r="C203" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A204" t="s">
-        <v>598</v>
-      </c>
-      <c r="B204" t="s">
-        <v>151</v>
-      </c>
-      <c r="C204" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A205" t="s">
-        <v>599</v>
-      </c>
-      <c r="B205" t="s">
-        <v>152</v>
-      </c>
-      <c r="C205" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A206" t="s">
-        <v>600</v>
-      </c>
-      <c r="B206" t="s">
-        <v>153</v>
-      </c>
-      <c r="C206" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A207" t="s">
-        <v>601</v>
-      </c>
-      <c r="B207" t="s">
-        <v>154</v>
-      </c>
-      <c r="C207" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A208" t="s">
-        <v>908</v>
-      </c>
-      <c r="B208" t="s">
-        <v>155</v>
-      </c>
-      <c r="C208" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A209" t="s">
-        <v>903</v>
-      </c>
-      <c r="B209" t="s">
-        <v>156</v>
-      </c>
-      <c r="C209" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A210" t="s">
-        <v>602</v>
-      </c>
-      <c r="B210" t="s">
-        <v>157</v>
-      </c>
-      <c r="C210" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A211" t="s">
-        <v>906</v>
-      </c>
-      <c r="B211" t="s">
-        <v>158</v>
-      </c>
-      <c r="C211" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A212" t="s">
-        <v>603</v>
-      </c>
-      <c r="B212" t="s">
-        <v>159</v>
-      </c>
-      <c r="C212" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A213" t="s">
-        <v>912</v>
-      </c>
-      <c r="B213" t="s">
-        <v>160</v>
-      </c>
-      <c r="C213" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A214" t="s">
-        <v>1079</v>
-      </c>
-      <c r="B214" t="s">
-        <v>161</v>
-      </c>
-      <c r="C214" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A215" t="s">
-        <v>604</v>
-      </c>
-      <c r="B215" t="s">
-        <v>162</v>
-      </c>
-      <c r="C215" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A216" t="s">
-        <v>605</v>
-      </c>
-      <c r="B216" t="s">
-        <v>163</v>
-      </c>
-      <c r="C216" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A217" t="s">
-        <v>606</v>
-      </c>
-      <c r="B217" t="s">
-        <v>164</v>
-      </c>
-      <c r="C217" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A218" t="s">
-        <v>607</v>
-      </c>
-      <c r="B218" t="s">
-        <v>165</v>
-      </c>
-      <c r="C218" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A219" t="s">
-        <v>608</v>
-      </c>
-      <c r="B219" t="s">
-        <v>166</v>
-      </c>
-      <c r="C219" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A220" t="s">
-        <v>609</v>
-      </c>
-      <c r="B220" t="s">
-        <v>167</v>
-      </c>
-      <c r="C220" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A221" t="s">
-        <v>610</v>
-      </c>
-      <c r="B221" t="s">
-        <v>168</v>
-      </c>
-      <c r="C221" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A222" t="s">
-        <v>611</v>
-      </c>
-      <c r="B222" t="s">
-        <v>169</v>
-      </c>
-      <c r="C222" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A223" t="s">
-        <v>612</v>
-      </c>
-      <c r="B223" t="s">
-        <v>170</v>
-      </c>
-      <c r="C223" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A224" t="s">
-        <v>613</v>
-      </c>
-      <c r="B224" t="s">
-        <v>171</v>
-      </c>
-      <c r="C224" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A225" t="s">
-        <v>614</v>
-      </c>
-      <c r="B225" t="s">
-        <v>172</v>
-      </c>
-      <c r="C225" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A226" t="s">
-        <v>615</v>
-      </c>
-      <c r="B226" t="s">
-        <v>173</v>
-      </c>
-      <c r="C226" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A227" t="s">
-        <v>616</v>
-      </c>
-      <c r="B227" t="s">
-        <v>174</v>
-      </c>
-      <c r="C227" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A228" t="s">
-        <v>617</v>
-      </c>
-      <c r="B228" t="s">
-        <v>175</v>
-      </c>
-      <c r="C228" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A229" t="s">
-        <v>618</v>
-      </c>
-      <c r="B229" t="s">
-        <v>176</v>
-      </c>
-      <c r="C229" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A230" t="s">
-        <v>619</v>
-      </c>
-      <c r="B230" t="s">
-        <v>177</v>
-      </c>
-      <c r="C230" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A231" t="s">
-        <v>634</v>
-      </c>
-      <c r="B231" t="s">
-        <v>178</v>
-      </c>
-      <c r="C231" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A232" t="s">
-        <v>620</v>
-      </c>
-      <c r="B232" t="s">
-        <v>179</v>
-      </c>
-      <c r="C232" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A233" t="s">
-        <v>621</v>
-      </c>
-      <c r="B233" t="s">
-        <v>180</v>
-      </c>
-      <c r="C233" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A234" t="s">
-        <v>622</v>
-      </c>
-      <c r="B234" t="s">
-        <v>181</v>
-      </c>
-      <c r="C234" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A235" t="s">
-        <v>623</v>
-      </c>
-      <c r="B235" t="s">
-        <v>182</v>
-      </c>
-      <c r="C235" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A236" t="s">
-        <v>624</v>
-      </c>
-      <c r="B236" t="s">
-        <v>183</v>
-      </c>
-      <c r="C236" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A237" t="s">
-        <v>625</v>
-      </c>
-      <c r="B237" t="s">
-        <v>184</v>
-      </c>
-      <c r="C237" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A238" t="s">
-        <v>626</v>
-      </c>
-      <c r="B238" t="s">
-        <v>185</v>
-      </c>
-      <c r="C238" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A239" t="s">
-        <v>627</v>
-      </c>
-      <c r="B239" t="s">
-        <v>186</v>
-      </c>
-      <c r="C239" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A240" t="s">
-        <v>628</v>
-      </c>
-      <c r="B240" t="s">
-        <v>187</v>
-      </c>
-      <c r="C240" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A241" t="s">
-        <v>724</v>
-      </c>
-      <c r="B241" t="s">
-        <v>188</v>
-      </c>
-      <c r="C241" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A242" t="s">
-        <v>636</v>
-      </c>
-      <c r="B242" t="s">
-        <v>189</v>
-      </c>
-      <c r="C242" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A243" t="s">
-        <v>966</v>
-      </c>
-      <c r="B243" t="s">
-        <v>967</v>
-      </c>
-      <c r="C243" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A244" t="s">
-        <v>637</v>
-      </c>
-      <c r="B244" t="s">
-        <v>190</v>
-      </c>
-      <c r="C244" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A245" t="s">
-        <v>638</v>
-      </c>
-      <c r="B245" t="s">
-        <v>191</v>
-      </c>
-      <c r="C245" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A246" t="s">
-        <v>639</v>
-      </c>
-      <c r="B246" t="s">
-        <v>192</v>
-      </c>
-      <c r="C246" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A247" t="s">
-        <v>819</v>
-      </c>
-      <c r="B247" t="s">
-        <v>820</v>
-      </c>
-      <c r="C247" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A248" t="s">
-        <v>822</v>
-      </c>
-      <c r="B248" t="s">
-        <v>823</v>
-      </c>
-      <c r="C248" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A249" t="s">
-        <v>824</v>
-      </c>
-      <c r="B249" t="s">
-        <v>825</v>
-      </c>
-      <c r="C249" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A250" t="s">
-        <v>829</v>
-      </c>
-      <c r="B250" t="s">
-        <v>831</v>
-      </c>
-      <c r="C250" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A251" t="s">
-        <v>832</v>
-      </c>
-      <c r="B251" t="s">
-        <v>828</v>
-      </c>
-      <c r="C251" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A252" t="s">
-        <v>834</v>
-      </c>
-      <c r="B252" t="s">
-        <v>835</v>
-      </c>
-      <c r="C252" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A253" t="s">
-        <v>836</v>
-      </c>
-      <c r="B253" t="s">
-        <v>837</v>
-      </c>
-      <c r="C253" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A254" t="s">
-        <v>640</v>
-      </c>
-      <c r="B254" t="s">
-        <v>193</v>
-      </c>
-      <c r="C254" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A255" t="s">
-        <v>641</v>
-      </c>
-      <c r="B255" t="s">
-        <v>194</v>
-      </c>
-      <c r="C255" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A256" t="s">
-        <v>642</v>
-      </c>
-      <c r="B256" t="s">
-        <v>195</v>
-      </c>
-      <c r="C256" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A257" t="s">
-        <v>643</v>
-      </c>
-      <c r="B257" t="s">
-        <v>196</v>
-      </c>
-      <c r="C257" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A258" t="s">
-        <v>644</v>
-      </c>
-      <c r="B258" t="s">
-        <v>197</v>
-      </c>
-      <c r="C258" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A259" t="s">
-        <v>645</v>
-      </c>
-      <c r="B259" t="s">
-        <v>198</v>
-      </c>
-      <c r="C259" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A260" t="s">
-        <v>646</v>
-      </c>
-      <c r="B260" t="s">
-        <v>199</v>
-      </c>
-      <c r="C260" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A261" t="s">
-        <v>848</v>
-      </c>
-      <c r="B261" t="s">
-        <v>846</v>
-      </c>
-      <c r="C261" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A262" t="s">
-        <v>647</v>
-      </c>
-      <c r="B262" t="s">
-        <v>757</v>
-      </c>
-      <c r="C262" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A263" t="s">
-        <v>648</v>
-      </c>
-      <c r="B263" t="s">
-        <v>200</v>
-      </c>
-      <c r="C263" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A264" t="s">
-        <v>649</v>
-      </c>
-      <c r="B264" t="s">
-        <v>201</v>
-      </c>
-      <c r="C264" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A265" t="s">
-        <v>650</v>
-      </c>
-      <c r="B265" t="s">
-        <v>202</v>
-      </c>
-      <c r="C265" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A266" t="s">
-        <v>651</v>
-      </c>
-      <c r="B266" t="s">
-        <v>755</v>
-      </c>
-      <c r="C266" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A267" t="s">
-        <v>652</v>
-      </c>
-      <c r="B267" t="s">
-        <v>203</v>
-      </c>
-      <c r="C267" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A268" t="s">
-        <v>653</v>
-      </c>
-      <c r="B268" t="s">
-        <v>204</v>
-      </c>
-      <c r="C268" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A269" t="s">
-        <v>654</v>
-      </c>
-      <c r="B269" t="s">
-        <v>205</v>
-      </c>
-      <c r="C269" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A270" t="s">
-        <v>655</v>
-      </c>
-      <c r="B270" t="s">
-        <v>206</v>
-      </c>
-      <c r="C270" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A271" t="s">
-        <v>656</v>
-      </c>
-      <c r="B271" t="s">
-        <v>226</v>
-      </c>
-      <c r="C271" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A272" t="s">
-        <v>657</v>
-      </c>
-      <c r="B272" t="s">
-        <v>225</v>
-      </c>
-      <c r="C272" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A273" t="s">
-        <v>658</v>
-      </c>
-      <c r="B273" t="s">
-        <v>224</v>
-      </c>
-      <c r="C273" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A274" t="s">
-        <v>659</v>
-      </c>
-      <c r="B274" t="s">
-        <v>223</v>
-      </c>
-      <c r="C274" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A275" t="s">
-        <v>660</v>
-      </c>
-      <c r="B275" t="s">
-        <v>207</v>
-      </c>
-      <c r="C275" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A276" t="s">
-        <v>661</v>
-      </c>
-      <c r="B276" t="s">
-        <v>208</v>
-      </c>
-      <c r="C276" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A277" t="s">
-        <v>662</v>
-      </c>
-      <c r="B277" t="s">
-        <v>209</v>
-      </c>
-      <c r="C277" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A278" t="s">
-        <v>663</v>
-      </c>
-      <c r="B278" t="s">
-        <v>210</v>
-      </c>
-      <c r="C278" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A279" t="s">
-        <v>664</v>
-      </c>
-      <c r="B279" t="s">
-        <v>211</v>
-      </c>
-      <c r="C279" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A280" t="s">
-        <v>760</v>
-      </c>
-      <c r="B280" t="s">
-        <v>759</v>
-      </c>
-      <c r="C280" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A281" t="s">
-        <v>665</v>
-      </c>
-      <c r="B281" t="s">
-        <v>212</v>
-      </c>
-      <c r="C281" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A282" t="s">
-        <v>666</v>
-      </c>
-      <c r="B282" t="s">
-        <v>213</v>
-      </c>
-      <c r="C282" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A283" t="s">
-        <v>667</v>
-      </c>
-      <c r="B283" t="s">
-        <v>214</v>
-      </c>
-      <c r="C283" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A284" t="s">
-        <v>668</v>
-      </c>
-      <c r="B284" t="s">
-        <v>215</v>
-      </c>
-      <c r="C284" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A285" t="s">
-        <v>928</v>
-      </c>
-      <c r="B285" t="s">
-        <v>929</v>
-      </c>
-      <c r="C285" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A286" t="s">
-        <v>669</v>
-      </c>
-      <c r="B286" t="s">
-        <v>216</v>
-      </c>
-      <c r="C286" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A287" t="s">
-        <v>670</v>
-      </c>
-      <c r="B287" t="s">
-        <v>24</v>
-      </c>
-      <c r="C287" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A288" t="s">
-        <v>671</v>
-      </c>
-      <c r="B288" t="s">
-        <v>217</v>
-      </c>
-      <c r="C288" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A289" t="s">
-        <v>751</v>
-      </c>
-      <c r="B289" t="s">
-        <v>750</v>
-      </c>
-      <c r="C289" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A290" t="s">
-        <v>672</v>
-      </c>
-      <c r="B290" t="s">
-        <v>218</v>
-      </c>
-      <c r="C290" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A291" t="s">
-        <v>673</v>
-      </c>
-      <c r="B291" t="s">
-        <v>219</v>
-      </c>
-      <c r="C291" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A292" t="s">
-        <v>702</v>
-      </c>
-      <c r="B292" t="s">
-        <v>220</v>
-      </c>
-      <c r="C292" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A293" t="s">
-        <v>675</v>
-      </c>
-      <c r="B293" t="s">
-        <v>221</v>
-      </c>
-      <c r="C293" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A294" t="s">
-        <v>676</v>
-      </c>
-      <c r="B294" t="s">
-        <v>222</v>
-      </c>
-      <c r="C294" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A295" t="s">
-        <v>679</v>
-      </c>
-      <c r="B295" t="s">
-        <v>227</v>
-      </c>
-      <c r="C295" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A296" t="s">
-        <v>677</v>
-      </c>
-      <c r="B296" t="s">
-        <v>228</v>
-      </c>
-      <c r="C296" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A297" t="s">
-        <v>678</v>
-      </c>
-      <c r="B297" t="s">
-        <v>229</v>
-      </c>
-      <c r="C297" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A298" t="s">
-        <v>681</v>
-      </c>
-      <c r="B298" t="s">
-        <v>230</v>
-      </c>
-      <c r="C298" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A299" t="s">
-        <v>683</v>
-      </c>
-      <c r="B299" t="s">
-        <v>231</v>
-      </c>
-      <c r="C299" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A300" t="s">
-        <v>684</v>
-      </c>
-      <c r="B300" t="s">
-        <v>232</v>
-      </c>
-      <c r="C300" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A301" t="s">
-        <v>685</v>
-      </c>
-      <c r="B301" t="s">
-        <v>233</v>
-      </c>
-      <c r="C301" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A302" t="s">
-        <v>753</v>
-      </c>
-      <c r="B302" t="s">
-        <v>234</v>
-      </c>
-      <c r="C302" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A303" t="s">
-        <v>686</v>
-      </c>
-      <c r="B303" t="s">
-        <v>235</v>
-      </c>
-      <c r="C303" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A304" t="s">
-        <v>682</v>
-      </c>
-      <c r="B304" t="s">
-        <v>236</v>
-      </c>
-      <c r="C304" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A305" t="s">
-        <v>764</v>
-      </c>
-      <c r="B305" t="s">
-        <v>762</v>
-      </c>
-      <c r="C305" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A306" t="s">
-        <v>674</v>
-      </c>
-      <c r="B306" t="s">
-        <v>237</v>
-      </c>
-      <c r="C306" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A307" t="s">
-        <v>687</v>
-      </c>
-      <c r="B307" t="s">
-        <v>238</v>
-      </c>
-      <c r="C307" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A308" t="s">
-        <v>688</v>
-      </c>
-      <c r="B308" t="s">
-        <v>239</v>
-      </c>
-      <c r="C308" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A309" t="s">
-        <v>689</v>
-      </c>
-      <c r="B309" t="s">
-        <v>240</v>
-      </c>
-      <c r="C309" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A310" t="s">
-        <v>693</v>
-      </c>
-      <c r="B310" t="s">
-        <v>241</v>
-      </c>
-      <c r="C310" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A311" t="s">
-        <v>691</v>
-      </c>
-      <c r="B311" t="s">
-        <v>242</v>
-      </c>
-      <c r="C311" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A312" t="s">
-        <v>692</v>
-      </c>
-      <c r="B312" t="s">
-        <v>243</v>
-      </c>
-      <c r="C312" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A313" t="s">
-        <v>765</v>
-      </c>
-      <c r="B313" t="s">
-        <v>767</v>
-      </c>
-      <c r="C313" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A314" t="s">
-        <v>694</v>
-      </c>
-      <c r="B314" t="s">
-        <v>244</v>
-      </c>
-      <c r="C314" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A315" t="s">
-        <v>695</v>
-      </c>
-      <c r="B315" t="s">
-        <v>245</v>
-      </c>
-      <c r="C315" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A316" t="s">
-        <v>696</v>
-      </c>
-      <c r="B316" t="s">
-        <v>246</v>
-      </c>
-      <c r="C316" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A317" t="s">
-        <v>697</v>
-      </c>
-      <c r="B317" t="s">
-        <v>247</v>
-      </c>
-      <c r="C317" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A318" t="s">
-        <v>698</v>
-      </c>
-      <c r="B318" t="s">
-        <v>248</v>
-      </c>
-      <c r="C318" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A319" t="s">
-        <v>936</v>
-      </c>
-      <c r="B319" t="s">
-        <v>935</v>
-      </c>
-      <c r="C319" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A320" t="s">
-        <v>699</v>
-      </c>
-      <c r="B320" t="s">
-        <v>249</v>
-      </c>
-      <c r="C320" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A321" t="s">
-        <v>680</v>
-      </c>
-      <c r="B321" t="s">
-        <v>250</v>
-      </c>
-      <c r="C321" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A322" t="s">
-        <v>700</v>
-      </c>
-      <c r="B322" t="s">
-        <v>251</v>
-      </c>
-      <c r="C322" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A323" t="s">
-        <v>701</v>
-      </c>
-      <c r="B323" t="s">
-        <v>252</v>
-      </c>
-      <c r="C323" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A324" t="s">
-        <v>778</v>
-      </c>
-      <c r="B324" t="s">
-        <v>776</v>
-      </c>
-      <c r="C324" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A325" t="s">
-        <v>781</v>
-      </c>
-      <c r="B325" t="s">
-        <v>779</v>
-      </c>
-      <c r="C325" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A326" t="s">
-        <v>784</v>
-      </c>
-      <c r="B326" t="s">
-        <v>782</v>
-      </c>
-      <c r="C326" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A327" t="s">
-        <v>800</v>
-      </c>
-      <c r="B327" t="s">
-        <v>798</v>
-      </c>
-      <c r="C327" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A328" t="s">
-        <v>801</v>
-      </c>
-      <c r="B328" t="s">
-        <v>799</v>
-      </c>
-      <c r="C328" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A329" t="s">
-        <v>850</v>
-      </c>
-      <c r="B329" t="s">
-        <v>849</v>
-      </c>
-      <c r="C329" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A330" t="s">
-        <v>788</v>
-      </c>
-      <c r="B330" t="s">
-        <v>785</v>
-      </c>
-      <c r="C330" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A331" t="s">
-        <v>790</v>
-      </c>
-      <c r="B331" t="s">
-        <v>786</v>
-      </c>
-      <c r="C331" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A332" t="s">
-        <v>793</v>
-      </c>
-      <c r="B332" t="s">
-        <v>792</v>
-      </c>
-      <c r="C332" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A333" t="s">
-        <v>728</v>
-      </c>
-      <c r="B333" t="s">
-        <v>712</v>
-      </c>
-      <c r="C333" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A334" t="s">
-        <v>742</v>
-      </c>
-      <c r="B334" t="s">
-        <v>713</v>
-      </c>
-      <c r="C334" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A335" t="s">
-        <v>743</v>
-      </c>
-      <c r="B335" t="s">
-        <v>714</v>
-      </c>
-      <c r="C335" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A336" t="s">
-        <v>729</v>
-      </c>
-      <c r="B336" t="s">
-        <v>715</v>
-      </c>
-      <c r="C336" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A337" t="s">
-        <v>730</v>
-      </c>
-      <c r="B337" t="s">
-        <v>716</v>
-      </c>
-      <c r="C337" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A338" t="s">
-        <v>731</v>
-      </c>
-      <c r="B338" t="s">
-        <v>717</v>
-      </c>
-      <c r="C338" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A339" t="s">
-        <v>732</v>
-      </c>
-      <c r="B339" t="s">
-        <v>718</v>
-      </c>
-      <c r="C339" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A340" t="s">
-        <v>733</v>
-      </c>
-      <c r="B340" t="s">
-        <v>719</v>
-      </c>
-      <c r="C340" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A341" t="s">
-        <v>734</v>
-      </c>
-      <c r="B341" t="s">
-        <v>720</v>
-      </c>
-      <c r="C341" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A342" t="s">
-        <v>735</v>
-      </c>
-      <c r="B342" t="s">
-        <v>721</v>
-      </c>
-      <c r="C342" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A343" t="s">
-        <v>736</v>
-      </c>
-      <c r="B343" t="s">
-        <v>722</v>
-      </c>
-      <c r="C343" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A344" t="s">
-        <v>842</v>
-      </c>
-      <c r="B344" t="s">
-        <v>840</v>
-      </c>
-      <c r="C344" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A345" t="s">
-        <v>844</v>
-      </c>
-      <c r="B345" t="s">
-        <v>843</v>
-      </c>
-      <c r="C345" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A346" t="s">
-        <v>914</v>
-      </c>
-      <c r="B346" t="s">
-        <v>913</v>
-      </c>
-      <c r="C346" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A347" t="s">
-        <v>896</v>
-      </c>
-      <c r="B347" t="s">
-        <v>895</v>
-      </c>
-      <c r="C347" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A348" t="s">
-        <v>989</v>
-      </c>
-      <c r="B348" t="s">
-        <v>985</v>
-      </c>
-      <c r="C348" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A349" t="s">
-        <v>990</v>
-      </c>
-      <c r="B349" t="s">
-        <v>986</v>
-      </c>
-      <c r="C349" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A350" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B350" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C350" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A351" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B351" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C351" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A352" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B352" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C352" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A353" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B353" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C353" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A354" t="s">
-        <v>1044</v>
-      </c>
-      <c r="B354" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C354" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A355" t="s">
-        <v>1045</v>
-      </c>
-      <c r="B355" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C355" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A356" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B356" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C356" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A357" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B357" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C357" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A358" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B358" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C358" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A359" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B359" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C359" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A360" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B360" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C360" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A361" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B361" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C361" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A362" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B362" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C362" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A363" t="s">
-        <v>1123</v>
-      </c>
-      <c r="B363" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C363" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A364" t="s">
-        <v>1052</v>
-      </c>
-      <c r="B364" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C364" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A365" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B365" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C365" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A366" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B366" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C366" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A367" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B367" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C367" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A368" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B368" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C368" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A369" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B369" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C369" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A370" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B370" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C370" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A371" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B371" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C371" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A372" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B372" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C372" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A373" t="s">
-        <v>1108</v>
-      </c>
-      <c r="B373" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C373" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A374" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B374" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C374" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A375" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B375" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C375" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A376" t="s">
-        <v>1073</v>
-      </c>
-      <c r="B376" t="s">
+      <c r="C378" t="s">
         <v>1065</v>
       </c>
-      <c r="C376" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A377" t="s">
-        <v>1074</v>
-      </c>
-      <c r="B377" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C377" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A378" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B378" t="s">
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
         <v>1067</v>
-      </c>
-      <c r="C378" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A379" t="s">
-        <v>1076</v>
       </c>
       <c r="B379" t="s">
         <v>1068</v>
       </c>
       <c r="C379" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B380" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C380" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B381" t="s">
         <v>1071</v>
       </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A380" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B380" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C380" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A381" t="s">
-        <v>1097</v>
-      </c>
-      <c r="B381" t="s">
+      <c r="C381" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B382" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C382" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B383" t="s">
+        <v>982</v>
+      </c>
+      <c r="C383" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B384" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C384" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B385" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C385" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B386" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C386" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B387" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C387" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B388" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C388" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B389" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C389" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B390" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C390" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B391" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C391" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B392" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C392" t="s">
         <v>1096</v>
       </c>
-      <c r="C381" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A382" t="s">
-        <v>1131</v>
-      </c>
-      <c r="B382" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C382" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A383" t="s">
-        <v>1132</v>
-      </c>
-      <c r="B383" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C383" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A384" t="s">
-        <v>1136</v>
-      </c>
-      <c r="B384" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C384" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A385" t="s">
-        <v>1146</v>
-      </c>
-      <c r="B385" t="s">
-        <v>1147</v>
-      </c>
-      <c r="C385" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A386" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B386" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C386" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A387" t="s">
-        <v>727</v>
-      </c>
-      <c r="B387" t="s">
-        <v>725</v>
-      </c>
-      <c r="C387" t="s">
-        <v>726</v>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B393" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C393" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B394" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C394" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>715</v>
+      </c>
+      <c r="B395" t="s">
+        <v>713</v>
+      </c>
+      <c r="C395" t="s">
+        <v>714</v>
       </c>
     </row>
   </sheetData>

--- a/lang/words_dict.xlsx
+++ b/lang/words_dict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\si lab\Matlab Projects\Registration\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B83163-B03F-4ADE-BC6C-3FD187F93AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A984D4-D2CA-43A7-993F-154997E126FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5415" yWindow="390" windowWidth="23385" windowHeight="13725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="1182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="1193">
   <si>
     <t>文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -603,22 +603,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最小控制量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>多项式次数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>加权点数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>边界平滑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -627,10 +615,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>模板同步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>定位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -639,10 +623,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>鲁棒因子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>降采样</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1074,10 +1054,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Generation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Import</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1594,22 +1570,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Weighted Points Number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edge Smoothing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Template Synchronize</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Location</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1618,10 +1582,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Robustness coefficient</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Downsampling</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2244,24 +2204,12 @@
     <t>POLYNOMIAL_ORDER</t>
   </si>
   <si>
-    <t>WEIGHTED_POINTS_NUMBER</t>
-  </si>
-  <si>
-    <t>EDGE_SMOOTHING</t>
-  </si>
-  <si>
     <t>YES</t>
   </si>
   <si>
     <t>NO</t>
   </si>
   <si>
-    <t>TEMPLATE_SYNCHRONISATION</t>
-  </si>
-  <si>
-    <t>ROBUSTNESS_COEFFICIENT</t>
-  </si>
-  <si>
     <t>SCALE</t>
   </si>
   <si>
@@ -4558,6 +4506,106 @@
   </si>
   <si>
     <t>COMMON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视角(法向)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重采样比率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等距</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Viewing Angle (Normal)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DVIEW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resampling Ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESAMPLING_RATIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Isometric</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISOMETRIC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XY平面(Z)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZX平面(Y)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YZ平面(X)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DVIEW_XY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XY Plane(Z)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZX Plane(Y)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YZ Plane(X)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位移正则化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网格间距</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Displacement Regulation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grid Spacing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISPLACEMENT_REGULATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRID_SPACING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DVIEW_ZX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DVIEW_YZ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4892,10 +4940,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F395"/>
+  <dimension ref="A1:F399"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="D144" sqref="D144"/>
+    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
+      <selection activeCell="A223" sqref="A223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4912,4345 +4960,4389 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="C1" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>697</v>
+        <v>683</v>
       </c>
       <c r="B3" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
       <c r="C3" t="s">
-        <v>699</v>
+        <v>685</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>932</v>
+        <v>918</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>691</v>
+        <v>677</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>936</v>
+        <v>922</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>934</v>
+        <v>920</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>935</v>
+        <v>921</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>933</v>
+        <v>919</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
       <c r="B10" t="s">
-        <v>693</v>
+        <v>679</v>
       </c>
       <c r="C10" t="s">
-        <v>694</v>
+        <v>680</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>937</v>
+        <v>923</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>896</v>
+        <v>882</v>
       </c>
       <c r="B12" t="s">
-        <v>895</v>
+        <v>881</v>
       </c>
       <c r="C12" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>901</v>
+        <v>887</v>
       </c>
       <c r="B13" t="s">
-        <v>902</v>
+        <v>888</v>
       </c>
       <c r="C13" t="s">
-        <v>903</v>
+        <v>889</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>910</v>
+        <v>896</v>
       </c>
       <c r="B14" t="s">
-        <v>906</v>
+        <v>892</v>
       </c>
       <c r="C14" t="s">
-        <v>905</v>
+        <v>891</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>911</v>
+        <v>897</v>
       </c>
       <c r="B15" t="s">
-        <v>912</v>
+        <v>898</v>
       </c>
       <c r="C15" t="s">
-        <v>913</v>
+        <v>899</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="B16" t="s">
-        <v>908</v>
+        <v>894</v>
       </c>
       <c r="C16" t="s">
-        <v>909</v>
+        <v>895</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>914</v>
+        <v>900</v>
       </c>
       <c r="B17" t="s">
-        <v>915</v>
+        <v>901</v>
       </c>
       <c r="C17" t="s">
-        <v>916</v>
+        <v>902</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>919</v>
+        <v>905</v>
       </c>
       <c r="B18" t="s">
-        <v>917</v>
+        <v>903</v>
       </c>
       <c r="C18" t="s">
-        <v>918</v>
+        <v>904</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>920</v>
+        <v>906</v>
       </c>
       <c r="B19" t="s">
-        <v>922</v>
+        <v>908</v>
       </c>
       <c r="C19" t="s">
-        <v>924</v>
+        <v>910</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>921</v>
+        <v>907</v>
       </c>
       <c r="B20" t="s">
-        <v>923</v>
+        <v>909</v>
       </c>
       <c r="C20" t="s">
-        <v>925</v>
+        <v>911</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>938</v>
+        <v>924</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>939</v>
+        <v>925</v>
       </c>
       <c r="B22" t="s">
-        <v>785</v>
+        <v>771</v>
       </c>
       <c r="C22" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="B23" t="s">
-        <v>786</v>
+        <v>772</v>
       </c>
       <c r="C23" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="B24" t="s">
-        <v>787</v>
+        <v>773</v>
       </c>
       <c r="C24" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="B25" t="s">
-        <v>788</v>
+        <v>774</v>
       </c>
       <c r="C25" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>940</v>
+        <v>926</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>695</v>
+        <v>681</v>
       </c>
       <c r="B27" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
       <c r="C27" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1089</v>
+        <v>1075</v>
       </c>
       <c r="B28" t="s">
-        <v>1088</v>
+        <v>1074</v>
       </c>
       <c r="C28" t="s">
-        <v>1097</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>262</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>683</v>
+        <v>669</v>
       </c>
       <c r="B30" t="s">
         <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>941</v>
+        <v>927</v>
       </c>
       <c r="B31" t="s">
         <v>17</v>
       </c>
       <c r="C31" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>942</v>
+        <v>928</v>
       </c>
       <c r="B32" t="s">
         <v>18</v>
       </c>
       <c r="C32" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>943</v>
+        <v>929</v>
       </c>
       <c r="B33" t="s">
         <v>19</v>
       </c>
       <c r="C33" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>947</v>
+        <v>933</v>
       </c>
       <c r="B34" t="s">
         <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>944</v>
+        <v>930</v>
       </c>
       <c r="B35" t="s">
         <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>945</v>
+        <v>931</v>
       </c>
       <c r="B36" t="s">
         <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="B37" t="s">
         <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>946</v>
+        <v>932</v>
       </c>
       <c r="B38" t="s">
         <v>24</v>
       </c>
       <c r="C38" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="B39" t="s">
         <v>25</v>
       </c>
       <c r="C39" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>954</v>
+        <v>940</v>
       </c>
       <c r="B40" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="C40" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>955</v>
+        <v>941</v>
       </c>
       <c r="B41" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="C41" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>956</v>
+        <v>942</v>
       </c>
       <c r="B42" t="s">
         <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>957</v>
+        <v>943</v>
       </c>
       <c r="B43" t="s">
         <v>27</v>
       </c>
       <c r="C43" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>958</v>
+        <v>944</v>
       </c>
       <c r="B44" t="s">
         <v>28</v>
       </c>
       <c r="C44" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>959</v>
+        <v>945</v>
       </c>
       <c r="B45" t="s">
         <v>29</v>
       </c>
       <c r="C45" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>960</v>
+        <v>946</v>
       </c>
       <c r="B46" t="s">
         <v>30</v>
       </c>
       <c r="C46" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>961</v>
+        <v>947</v>
       </c>
       <c r="B47" t="s">
         <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="B48" t="s">
         <v>32</v>
       </c>
       <c r="C48" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>962</v>
+        <v>948</v>
       </c>
       <c r="B49" t="s">
         <v>33</v>
       </c>
       <c r="C49" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>963</v>
+        <v>949</v>
       </c>
       <c r="B50" t="s">
         <v>34</v>
       </c>
       <c r="C50" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1104</v>
+        <v>1090</v>
       </c>
       <c r="B51" t="s">
-        <v>1102</v>
+        <v>1088</v>
       </c>
       <c r="C51" t="s">
-        <v>1106</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>1114</v>
+        <v>1100</v>
       </c>
       <c r="B52" t="s">
-        <v>1115</v>
+        <v>1101</v>
       </c>
       <c r="C52" t="s">
-        <v>1116</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1105</v>
+        <v>1091</v>
       </c>
       <c r="B53" t="s">
-        <v>1103</v>
+        <v>1089</v>
       </c>
       <c r="C53" t="s">
-        <v>1107</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>1118</v>
+        <v>1104</v>
       </c>
       <c r="B54" t="s">
-        <v>1117</v>
+        <v>1103</v>
       </c>
       <c r="C54" t="s">
-        <v>1119</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="B55" t="s">
         <v>35</v>
       </c>
       <c r="C55" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="B56" t="s">
         <v>36</v>
       </c>
       <c r="C56" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>964</v>
+        <v>950</v>
       </c>
       <c r="B57" t="s">
         <v>37</v>
       </c>
       <c r="C57" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>965</v>
+        <v>951</v>
       </c>
       <c r="B58" t="s">
         <v>38</v>
       </c>
       <c r="C58" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>966</v>
+        <v>952</v>
       </c>
       <c r="B59" t="s">
         <v>39</v>
       </c>
       <c r="C59" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>967</v>
+        <v>953</v>
       </c>
       <c r="B60" t="s">
-        <v>968</v>
+        <v>954</v>
       </c>
       <c r="C60" t="s">
-        <v>969</v>
+        <v>955</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>973</v>
+        <v>959</v>
       </c>
       <c r="B61" t="s">
         <v>41</v>
       </c>
       <c r="C61" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="B62" t="s">
         <v>40</v>
       </c>
       <c r="C62" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>974</v>
+        <v>960</v>
       </c>
       <c r="B63" t="s">
-        <v>975</v>
+        <v>961</v>
       </c>
       <c r="C63" t="s">
-        <v>976</v>
+        <v>962</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="B64" t="s">
         <v>42</v>
       </c>
       <c r="C64" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>977</v>
+        <v>963</v>
       </c>
       <c r="B65" t="s">
         <v>43</v>
       </c>
       <c r="C65" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="B66" t="s">
         <v>44</v>
       </c>
       <c r="C66" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="B67" t="s">
         <v>45</v>
       </c>
       <c r="C67" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="B68" t="s">
         <v>58</v>
       </c>
       <c r="C68" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>978</v>
+        <v>964</v>
       </c>
       <c r="B69" t="s">
-        <v>711</v>
+        <v>697</v>
       </c>
       <c r="C69" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="B70" t="s">
         <v>46</v>
       </c>
       <c r="C70" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="B71" t="s">
         <v>47</v>
       </c>
       <c r="C71" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="B72" t="s">
         <v>48</v>
       </c>
       <c r="C72" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="B73" t="s">
         <v>49</v>
       </c>
       <c r="C73" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="B74" t="s">
         <v>50</v>
       </c>
       <c r="C74" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="B75" t="s">
         <v>61</v>
       </c>
       <c r="C75" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="B76" t="s">
         <v>62</v>
       </c>
       <c r="C76" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="B77" t="s">
         <v>63</v>
       </c>
       <c r="C77" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="B78" t="s">
         <v>64</v>
       </c>
       <c r="C78" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="B79" t="s">
         <v>51</v>
       </c>
       <c r="C79" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="B80" t="s">
         <v>52</v>
       </c>
       <c r="C80" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="B81" t="s">
         <v>53</v>
       </c>
       <c r="C81" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="B82" t="s">
         <v>54</v>
       </c>
       <c r="C82" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="B83" t="s">
         <v>55</v>
       </c>
       <c r="C83" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="B84" t="s">
         <v>56</v>
       </c>
       <c r="C84" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="B85" t="s">
         <v>57</v>
       </c>
       <c r="C85" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="B86" t="s">
         <v>59</v>
       </c>
       <c r="C86" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="B87" t="s">
         <v>60</v>
       </c>
       <c r="C87" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="B88" t="s">
         <v>65</v>
       </c>
       <c r="C88" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>742</v>
+        <v>728</v>
       </c>
       <c r="B89" t="s">
         <v>66</v>
       </c>
       <c r="C89" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="B90" t="s">
         <v>67</v>
       </c>
       <c r="C90" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>1042</v>
+        <v>1028</v>
       </c>
       <c r="B91" t="s">
         <v>72</v>
       </c>
       <c r="C91" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="B92" t="s">
         <v>68</v>
       </c>
       <c r="C92" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="B93" t="s">
         <v>70</v>
       </c>
       <c r="C93" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="B94" t="s">
         <v>71</v>
       </c>
       <c r="C94" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="B95" t="s">
         <v>73</v>
       </c>
       <c r="C95" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="B96" t="s">
         <v>74</v>
       </c>
       <c r="C96" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="B97" t="s">
         <v>69</v>
       </c>
       <c r="C97" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="B98" t="s">
         <v>75</v>
       </c>
       <c r="C98" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="B99" t="s">
         <v>76</v>
       </c>
       <c r="C99" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="B100" t="s">
         <v>77</v>
       </c>
       <c r="C100" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>1080</v>
+        <v>1066</v>
       </c>
       <c r="B101" t="s">
-        <v>1079</v>
+        <v>1065</v>
       </c>
       <c r="C101" t="s">
-        <v>1081</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>979</v>
+        <v>965</v>
       </c>
       <c r="B102" t="s">
         <v>78</v>
       </c>
       <c r="C102" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="B103" t="s">
         <v>79</v>
       </c>
       <c r="C103" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="B104" t="s">
         <v>80</v>
       </c>
       <c r="C104" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="B105" t="s">
         <v>81</v>
       </c>
       <c r="C105" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
       <c r="B106" t="s">
         <v>82</v>
       </c>
       <c r="C106" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="B107" t="s">
         <v>83</v>
       </c>
       <c r="C107" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>889</v>
+        <v>875</v>
       </c>
       <c r="B108" t="s">
-        <v>882</v>
+        <v>868</v>
       </c>
       <c r="C108" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>888</v>
+        <v>874</v>
       </c>
       <c r="B109" t="s">
-        <v>883</v>
+        <v>869</v>
       </c>
       <c r="C109" t="s">
-        <v>886</v>
+        <v>872</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>890</v>
+        <v>876</v>
       </c>
       <c r="B110" t="s">
-        <v>884</v>
+        <v>870</v>
       </c>
       <c r="C110" t="s">
-        <v>887</v>
+        <v>873</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>756</v>
+        <v>742</v>
       </c>
       <c r="B111" t="s">
         <v>84</v>
       </c>
       <c r="C111" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="B112" t="s">
         <v>85</v>
       </c>
       <c r="C112" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
       <c r="B113" t="s">
         <v>86</v>
       </c>
       <c r="C113" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>757</v>
+        <v>743</v>
       </c>
       <c r="B114" t="s">
         <v>87</v>
       </c>
       <c r="C114" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="B115" t="s">
         <v>88</v>
       </c>
       <c r="C115" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
       <c r="B116" t="s">
         <v>89</v>
       </c>
       <c r="C116" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="B117" t="s">
         <v>90</v>
       </c>
       <c r="C117" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="B118" t="s">
         <v>91</v>
       </c>
       <c r="C118" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="B119" t="s">
         <v>92</v>
       </c>
       <c r="C119" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="B120" t="s">
         <v>93</v>
       </c>
       <c r="C120" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="B121" t="s">
         <v>94</v>
       </c>
       <c r="C121" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="B122" t="s">
         <v>95</v>
       </c>
       <c r="C122" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="B123" t="s">
         <v>96</v>
       </c>
       <c r="C123" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="B124" t="s">
         <v>97</v>
       </c>
       <c r="C124" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>759</v>
+        <v>745</v>
       </c>
       <c r="B125" t="s">
-        <v>758</v>
+        <v>744</v>
       </c>
       <c r="C125" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>762</v>
+        <v>748</v>
       </c>
       <c r="B126" t="s">
-        <v>761</v>
+        <v>747</v>
       </c>
       <c r="C126" t="s">
-        <v>763</v>
+        <v>749</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
       <c r="B127" t="s">
         <v>98</v>
       </c>
       <c r="C127" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="B128" t="s">
         <v>99</v>
       </c>
       <c r="C128" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="B129" t="s">
         <v>100</v>
       </c>
       <c r="C129" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="B130" t="s">
         <v>101</v>
       </c>
       <c r="C130" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="B131" t="s">
         <v>102</v>
       </c>
       <c r="C131" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="B132" t="s">
         <v>103</v>
       </c>
       <c r="C132" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="B133" t="s">
         <v>104</v>
       </c>
       <c r="C133" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="B134" t="s">
         <v>105</v>
       </c>
       <c r="C134" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="B135" t="s">
         <v>106</v>
       </c>
       <c r="C135" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="B136" t="s">
         <v>107</v>
       </c>
       <c r="C136" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="B137" t="s">
         <v>108</v>
       </c>
       <c r="C137" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="B138" t="s">
         <v>109</v>
       </c>
       <c r="C138" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>782</v>
+        <v>768</v>
       </c>
       <c r="B139" t="s">
         <v>110</v>
       </c>
       <c r="C139" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
       <c r="B140" t="s">
         <v>111</v>
       </c>
       <c r="C140" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="B141" t="s">
         <v>112</v>
       </c>
       <c r="C141" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="B142" t="s">
         <v>113</v>
       </c>
       <c r="C142" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="B143" t="s">
         <v>114</v>
       </c>
       <c r="C143" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
       <c r="B144" t="s">
         <v>115</v>
       </c>
       <c r="C144" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="B145" t="s">
         <v>116</v>
       </c>
       <c r="C145" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="B146" t="s">
         <v>117</v>
       </c>
       <c r="C146" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="B147" t="s">
         <v>118</v>
       </c>
       <c r="C147" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="B148" t="s">
         <v>119</v>
       </c>
       <c r="C148" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="B149" t="s">
         <v>120</v>
       </c>
       <c r="C149" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="B150" t="s">
         <v>121</v>
       </c>
       <c r="C150" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>1165</v>
+        <v>1151</v>
       </c>
       <c r="B151" t="s">
-        <v>1164</v>
+        <v>1150</v>
       </c>
       <c r="C151" t="s">
-        <v>1166</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>1175</v>
+        <v>1161</v>
       </c>
       <c r="B152" t="s">
-        <v>1167</v>
+        <v>1153</v>
       </c>
       <c r="C152" t="s">
-        <v>1171</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>1176</v>
+        <v>1162</v>
       </c>
       <c r="B153" t="s">
-        <v>1168</v>
+        <v>1154</v>
       </c>
       <c r="C153" t="s">
-        <v>1172</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>1177</v>
+        <v>1163</v>
       </c>
       <c r="B154" t="s">
-        <v>1169</v>
+        <v>1155</v>
       </c>
       <c r="C154" t="s">
-        <v>1173</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>1178</v>
+        <v>1164</v>
       </c>
       <c r="B155" t="s">
-        <v>1170</v>
+        <v>1156</v>
       </c>
       <c r="C155" t="s">
-        <v>1174</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>1135</v>
+        <v>1121</v>
       </c>
       <c r="B156" t="s">
-        <v>1132</v>
+        <v>1118</v>
       </c>
       <c r="C156" t="s">
-        <v>1137</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>1136</v>
+        <v>1122</v>
       </c>
       <c r="B157" t="s">
-        <v>1133</v>
+        <v>1119</v>
       </c>
       <c r="C157" t="s">
-        <v>1138</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>1140</v>
+        <v>1126</v>
       </c>
       <c r="B158" t="s">
-        <v>1134</v>
+        <v>1120</v>
       </c>
       <c r="C158" t="s">
-        <v>1139</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>1181</v>
+        <v>1167</v>
       </c>
       <c r="B159" t="s">
-        <v>1179</v>
+        <v>1165</v>
       </c>
       <c r="C159" t="s">
-        <v>1180</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>872</v>
+        <v>858</v>
       </c>
       <c r="B160" t="s">
         <v>122</v>
       </c>
       <c r="C160" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>871</v>
+        <v>857</v>
       </c>
       <c r="B161" t="s">
         <v>123</v>
       </c>
       <c r="C161" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="B162" t="s">
         <v>124</v>
       </c>
       <c r="C162" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="B163" t="s">
         <v>125</v>
       </c>
       <c r="C163" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="B164" t="s">
         <v>126</v>
       </c>
       <c r="C164" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>797</v>
+        <v>783</v>
       </c>
       <c r="B165" t="s">
         <v>127</v>
       </c>
       <c r="C165" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>798</v>
+        <v>784</v>
       </c>
       <c r="B166" t="s">
         <v>128</v>
       </c>
       <c r="C166" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>789</v>
+        <v>775</v>
       </c>
       <c r="B167" t="s">
         <v>14</v>
       </c>
       <c r="C167" t="s">
-        <v>793</v>
+        <v>779</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>790</v>
+        <v>776</v>
       </c>
       <c r="B168" t="s">
         <v>13</v>
       </c>
       <c r="C168" t="s">
-        <v>794</v>
+        <v>780</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>791</v>
+        <v>777</v>
       </c>
       <c r="B169" t="s">
         <v>12</v>
       </c>
       <c r="C169" t="s">
-        <v>795</v>
+        <v>781</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>792</v>
+        <v>778</v>
       </c>
       <c r="B170" t="s">
         <v>11</v>
       </c>
       <c r="C170" t="s">
-        <v>796</v>
+        <v>782</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>819</v>
+        <v>805</v>
       </c>
       <c r="B171" t="s">
         <v>131</v>
       </c>
       <c r="C171" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>1143</v>
+        <v>1129</v>
       </c>
       <c r="B172" t="s">
-        <v>1141</v>
+        <v>1127</v>
       </c>
       <c r="C172" t="s">
-        <v>1142</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>877</v>
+        <v>863</v>
       </c>
       <c r="B173" t="s">
         <v>132</v>
       </c>
       <c r="C173" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>879</v>
+        <v>865</v>
       </c>
       <c r="B174" t="s">
         <v>133</v>
       </c>
       <c r="C174" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>1123</v>
+        <v>1109</v>
       </c>
       <c r="B175" t="s">
-        <v>1120</v>
+        <v>1106</v>
       </c>
       <c r="C175" t="s">
-        <v>1126</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>1124</v>
+        <v>1110</v>
       </c>
       <c r="B176" t="s">
-        <v>1121</v>
+        <v>1107</v>
       </c>
       <c r="C176" t="s">
-        <v>1127</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>1125</v>
+        <v>1111</v>
       </c>
       <c r="B177" t="s">
-        <v>1122</v>
+        <v>1108</v>
       </c>
       <c r="C177" t="s">
-        <v>1128</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>1131</v>
+        <v>1117</v>
       </c>
       <c r="B178" t="s">
-        <v>1129</v>
+        <v>1115</v>
       </c>
       <c r="C178" t="s">
-        <v>1130</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="B179" t="s">
         <v>134</v>
       </c>
       <c r="C179" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>1100</v>
+        <v>1086</v>
       </c>
       <c r="B180" t="s">
-        <v>1099</v>
+        <v>1085</v>
       </c>
       <c r="C180" t="s">
-        <v>1101</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="B181" t="s">
         <v>135</v>
       </c>
       <c r="C181" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>1144</v>
+        <v>1130</v>
       </c>
       <c r="B182" t="s">
-        <v>1145</v>
+        <v>1131</v>
       </c>
       <c r="C182" t="s">
-        <v>1146</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>1040</v>
+        <v>1026</v>
       </c>
       <c r="B183" t="s">
         <v>136</v>
       </c>
       <c r="C183" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="B184" t="s">
         <v>137</v>
       </c>
       <c r="C184" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="B185" t="s">
         <v>138</v>
       </c>
       <c r="C185" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>926</v>
+        <v>912</v>
       </c>
       <c r="B186" t="s">
-        <v>927</v>
+        <v>913</v>
       </c>
       <c r="C186" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>880</v>
+        <v>1189</v>
       </c>
       <c r="B187" t="s">
-        <v>139</v>
+        <v>1185</v>
       </c>
       <c r="C187" t="s">
-        <v>384</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>580</v>
+        <v>1190</v>
       </c>
       <c r="B188" t="s">
-        <v>140</v>
+        <v>1186</v>
       </c>
       <c r="C188" t="s">
-        <v>385</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>840</v>
+        <v>866</v>
       </c>
       <c r="B189" t="s">
-        <v>826</v>
+        <v>139</v>
       </c>
       <c r="C189" t="s">
-        <v>841</v>
+        <v>378</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>874</v>
+        <v>570</v>
       </c>
       <c r="B190" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="C190" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>875</v>
+        <v>826</v>
       </c>
       <c r="B191" t="s">
-        <v>783</v>
+        <v>812</v>
       </c>
       <c r="C191" t="s">
-        <v>784</v>
+        <v>827</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>844</v>
+        <v>860</v>
       </c>
       <c r="B192" t="s">
-        <v>827</v>
+        <v>130</v>
       </c>
       <c r="C192" t="s">
-        <v>842</v>
+        <v>369</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>845</v>
+        <v>861</v>
       </c>
       <c r="B193" t="s">
-        <v>828</v>
+        <v>769</v>
       </c>
       <c r="C193" t="s">
-        <v>843</v>
+        <v>770</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>846</v>
+        <v>830</v>
       </c>
       <c r="B194" t="s">
-        <v>829</v>
+        <v>813</v>
       </c>
       <c r="C194" t="s">
-        <v>847</v>
+        <v>828</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>849</v>
+        <v>831</v>
       </c>
       <c r="B195" t="s">
-        <v>830</v>
+        <v>814</v>
       </c>
       <c r="C195" t="s">
-        <v>848</v>
+        <v>829</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>851</v>
+        <v>832</v>
       </c>
       <c r="B196" t="s">
-        <v>831</v>
+        <v>815</v>
       </c>
       <c r="C196" t="s">
-        <v>850</v>
+        <v>833</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>852</v>
+        <v>835</v>
       </c>
       <c r="B197" t="s">
-        <v>832</v>
+        <v>816</v>
       </c>
       <c r="C197" t="s">
-        <v>853</v>
+        <v>834</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>854</v>
+        <v>837</v>
       </c>
       <c r="B198" t="s">
-        <v>833</v>
+        <v>817</v>
       </c>
       <c r="C198" t="s">
-        <v>855</v>
+        <v>836</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>857</v>
+        <v>838</v>
       </c>
       <c r="B199" t="s">
-        <v>834</v>
+        <v>818</v>
       </c>
       <c r="C199" t="s">
-        <v>856</v>
+        <v>839</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>860</v>
+        <v>840</v>
       </c>
       <c r="B200" t="s">
-        <v>835</v>
+        <v>819</v>
       </c>
       <c r="C200" t="s">
-        <v>859</v>
+        <v>841</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>862</v>
+        <v>843</v>
       </c>
       <c r="B201" t="s">
-        <v>836</v>
+        <v>820</v>
       </c>
       <c r="C201" t="s">
-        <v>858</v>
+        <v>842</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>863</v>
+        <v>846</v>
       </c>
       <c r="B202" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="C202" t="s">
-        <v>861</v>
+        <v>845</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>865</v>
+        <v>848</v>
       </c>
       <c r="B203" t="s">
-        <v>838</v>
+        <v>822</v>
       </c>
       <c r="C203" t="s">
-        <v>864</v>
+        <v>844</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>866</v>
+        <v>849</v>
       </c>
       <c r="B204" t="s">
-        <v>839</v>
+        <v>823</v>
       </c>
       <c r="C204" t="s">
-        <v>867</v>
+        <v>847</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>575</v>
+        <v>851</v>
       </c>
       <c r="B205" t="s">
-        <v>129</v>
+        <v>824</v>
       </c>
       <c r="C205" t="s">
-        <v>374</v>
+        <v>850</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>581</v>
+        <v>852</v>
       </c>
       <c r="B206" t="s">
-        <v>141</v>
+        <v>825</v>
       </c>
       <c r="C206" t="s">
-        <v>386</v>
+        <v>853</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>582</v>
+        <v>565</v>
       </c>
       <c r="B207" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="C207" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="B208" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C208" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="B209" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C209" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="B210" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C210" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="B211" t="s">
-        <v>146</v>
+        <v>1168</v>
       </c>
       <c r="C211" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="B212" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C212" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="B213" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C213" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="B214" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C214" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>590</v>
+        <v>864</v>
       </c>
       <c r="B215" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C215" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>878</v>
+        <v>859</v>
       </c>
       <c r="B216" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C216" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>873</v>
+        <v>1173</v>
       </c>
       <c r="B217" t="s">
-        <v>152</v>
+        <v>1169</v>
       </c>
       <c r="C217" t="s">
-        <v>397</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>591</v>
+        <v>1181</v>
       </c>
       <c r="B218" t="s">
-        <v>153</v>
+        <v>1178</v>
       </c>
       <c r="C218" t="s">
-        <v>398</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>876</v>
+        <v>1191</v>
       </c>
       <c r="B219" t="s">
-        <v>154</v>
+        <v>1179</v>
       </c>
       <c r="C219" t="s">
-        <v>399</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>1162</v>
+        <v>1192</v>
       </c>
       <c r="B220" t="s">
-        <v>155</v>
+        <v>1180</v>
       </c>
       <c r="C220" t="s">
-        <v>1163</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>881</v>
+        <v>1175</v>
       </c>
       <c r="B221" t="s">
-        <v>156</v>
+        <v>1170</v>
       </c>
       <c r="C221" t="s">
-        <v>400</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>1041</v>
+        <v>1177</v>
       </c>
       <c r="B222" t="s">
-        <v>157</v>
+        <v>1171</v>
       </c>
       <c r="C222" t="s">
-        <v>401</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>592</v>
+        <v>862</v>
       </c>
       <c r="B223" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C223" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>593</v>
+        <v>1148</v>
       </c>
       <c r="B224" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C224" t="s">
-        <v>403</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>594</v>
+        <v>867</v>
       </c>
       <c r="B225" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C225" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>595</v>
+        <v>1027</v>
       </c>
       <c r="B226" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C226" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
       <c r="B227" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C227" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>597</v>
+        <v>579</v>
       </c>
       <c r="B228" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C228" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>598</v>
+        <v>580</v>
       </c>
       <c r="B229" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C229" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>599</v>
+        <v>581</v>
       </c>
       <c r="B230" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C230" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="B231" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C231" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="B232" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C232" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>602</v>
+        <v>584</v>
       </c>
       <c r="B233" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C233" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
       <c r="B234" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C234" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>604</v>
+        <v>586</v>
       </c>
       <c r="B235" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C235" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>605</v>
+        <v>587</v>
       </c>
       <c r="B236" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C236" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>606</v>
+        <v>588</v>
       </c>
       <c r="B237" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C237" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>607</v>
+        <v>589</v>
       </c>
       <c r="B238" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C238" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>622</v>
+        <v>590</v>
       </c>
       <c r="B239" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C239" t="s">
-        <v>492</v>
+        <v>404</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="B240" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C240" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>609</v>
+        <v>592</v>
       </c>
       <c r="B241" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C241" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>610</v>
+        <v>593</v>
       </c>
       <c r="B242" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C242" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B243" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C243" t="s">
-        <v>421</v>
+        <v>482</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>612</v>
+        <v>594</v>
       </c>
       <c r="B244" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C244" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>613</v>
+        <v>595</v>
       </c>
       <c r="B245" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C245" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>614</v>
+        <v>596</v>
       </c>
       <c r="B246" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C246" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>615</v>
+        <v>597</v>
       </c>
       <c r="B247" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C247" t="s">
-        <v>623</v>
+        <v>411</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>616</v>
+        <v>598</v>
       </c>
       <c r="B248" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C248" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>712</v>
+        <v>599</v>
       </c>
       <c r="B249" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C249" t="s">
-        <v>462</v>
+        <v>413</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>624</v>
+        <v>600</v>
       </c>
       <c r="B250" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C250" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>929</v>
+        <v>601</v>
       </c>
       <c r="B251" t="s">
-        <v>930</v>
+        <v>177</v>
       </c>
       <c r="C251" t="s">
-        <v>931</v>
+        <v>609</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>625</v>
+        <v>602</v>
       </c>
       <c r="B252" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C252" t="s">
-        <v>463</v>
+        <v>415</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>626</v>
+        <v>698</v>
       </c>
       <c r="B253" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C253" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>627</v>
+        <v>610</v>
       </c>
       <c r="B254" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C254" t="s">
-        <v>465</v>
+        <v>416</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>799</v>
+        <v>915</v>
       </c>
       <c r="B255" t="s">
-        <v>800</v>
+        <v>916</v>
       </c>
       <c r="C255" t="s">
-        <v>801</v>
+        <v>917</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>802</v>
+        <v>611</v>
       </c>
       <c r="B256" t="s">
-        <v>803</v>
+        <v>181</v>
       </c>
       <c r="C256" t="s">
-        <v>807</v>
+        <v>453</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>804</v>
+        <v>612</v>
       </c>
       <c r="B257" t="s">
-        <v>805</v>
+        <v>182</v>
       </c>
       <c r="C257" t="s">
-        <v>806</v>
+        <v>454</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>809</v>
+        <v>613</v>
       </c>
       <c r="B258" t="s">
-        <v>811</v>
+        <v>183</v>
       </c>
       <c r="C258" t="s">
-        <v>810</v>
+        <v>455</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>812</v>
+        <v>785</v>
       </c>
       <c r="B259" t="s">
-        <v>808</v>
+        <v>786</v>
       </c>
       <c r="C259" t="s">
-        <v>813</v>
+        <v>787</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>814</v>
+        <v>788</v>
       </c>
       <c r="B260" t="s">
-        <v>815</v>
+        <v>789</v>
       </c>
       <c r="C260" t="s">
-        <v>814</v>
+        <v>793</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>816</v>
+        <v>790</v>
       </c>
       <c r="B261" t="s">
-        <v>817</v>
+        <v>791</v>
       </c>
       <c r="C261" t="s">
-        <v>818</v>
+        <v>792</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>628</v>
+        <v>795</v>
       </c>
       <c r="B262" t="s">
-        <v>189</v>
+        <v>797</v>
       </c>
       <c r="C262" t="s">
-        <v>427</v>
+        <v>796</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>629</v>
+        <v>798</v>
       </c>
       <c r="B263" t="s">
-        <v>190</v>
+        <v>794</v>
       </c>
       <c r="C263" t="s">
-        <v>466</v>
+        <v>799</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>630</v>
+        <v>800</v>
       </c>
       <c r="B264" t="s">
-        <v>191</v>
+        <v>801</v>
       </c>
       <c r="C264" t="s">
-        <v>428</v>
+        <v>800</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>631</v>
+        <v>802</v>
       </c>
       <c r="B265" t="s">
-        <v>192</v>
+        <v>803</v>
       </c>
       <c r="C265" t="s">
-        <v>429</v>
+        <v>804</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>632</v>
+        <v>614</v>
       </c>
       <c r="B266" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C266" t="s">
-        <v>470</v>
+        <v>417</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>633</v>
+        <v>615</v>
       </c>
       <c r="B267" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C267" t="s">
-        <v>430</v>
+        <v>456</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>634</v>
+        <v>616</v>
       </c>
       <c r="B268" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C268" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>825</v>
+        <v>617</v>
       </c>
       <c r="B269" t="s">
-        <v>823</v>
+        <v>187</v>
       </c>
       <c r="C269" t="s">
-        <v>824</v>
+        <v>419</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>635</v>
+        <v>618</v>
       </c>
       <c r="B270" t="s">
-        <v>745</v>
+        <v>188</v>
       </c>
       <c r="C270" t="s">
-        <v>746</v>
+        <v>460</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>636</v>
+        <v>619</v>
       </c>
       <c r="B271" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C271" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>637</v>
+        <v>620</v>
       </c>
       <c r="B272" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C272" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>638</v>
+        <v>811</v>
       </c>
       <c r="B273" t="s">
-        <v>198</v>
+        <v>809</v>
       </c>
       <c r="C273" t="s">
-        <v>485</v>
+        <v>810</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>639</v>
+        <v>621</v>
       </c>
       <c r="B274" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
       <c r="C274" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>640</v>
+        <v>622</v>
       </c>
       <c r="B275" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C275" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>641</v>
+        <v>623</v>
       </c>
       <c r="B276" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C276" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>642</v>
+        <v>624</v>
       </c>
       <c r="B277" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C277" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>643</v>
+        <v>625</v>
       </c>
       <c r="B278" t="s">
-        <v>202</v>
+        <v>729</v>
       </c>
       <c r="C278" t="s">
-        <v>436</v>
+        <v>730</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>644</v>
+        <v>626</v>
       </c>
       <c r="B279" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="C279" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>645</v>
+        <v>627</v>
       </c>
       <c r="B280" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="C280" t="s">
-        <v>493</v>
+        <v>425</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>646</v>
+        <v>628</v>
       </c>
       <c r="B281" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="C281" t="s">
-        <v>438</v>
+        <v>457</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>647</v>
+        <v>629</v>
       </c>
       <c r="B282" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="C282" t="s">
-        <v>494</v>
+        <v>426</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="B283" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="C283" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>649</v>
+        <v>631</v>
       </c>
       <c r="B284" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="C284" t="s">
-        <v>440</v>
+        <v>483</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>650</v>
+        <v>632</v>
       </c>
       <c r="B285" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="C285" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>651</v>
+        <v>633</v>
       </c>
       <c r="B286" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C286" t="s">
-        <v>442</v>
+        <v>484</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>652</v>
+        <v>634</v>
       </c>
       <c r="B287" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C287" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>748</v>
+        <v>635</v>
       </c>
       <c r="B288" t="s">
-        <v>747</v>
+        <v>199</v>
       </c>
       <c r="C288" t="s">
-        <v>749</v>
+        <v>430</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>653</v>
+        <v>636</v>
       </c>
       <c r="B289" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C289" t="s">
-        <v>469</v>
+        <v>431</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>654</v>
+        <v>637</v>
       </c>
       <c r="B290" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C290" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>655</v>
+        <v>638</v>
       </c>
       <c r="B291" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C291" t="s">
-        <v>483</v>
+        <v>433</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>656</v>
+        <v>734</v>
       </c>
       <c r="B292" t="s">
-        <v>211</v>
+        <v>733</v>
       </c>
       <c r="C292" t="s">
-        <v>893</v>
+        <v>735</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>891</v>
+        <v>639</v>
       </c>
       <c r="B293" t="s">
-        <v>892</v>
+        <v>203</v>
       </c>
       <c r="C293" t="s">
-        <v>894</v>
+        <v>459</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>657</v>
+        <v>640</v>
       </c>
       <c r="B294" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C294" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>658</v>
+        <v>641</v>
       </c>
       <c r="B295" t="s">
-        <v>24</v>
+        <v>205</v>
       </c>
       <c r="C295" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>659</v>
+        <v>642</v>
       </c>
       <c r="B296" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C296" t="s">
-        <v>446</v>
+        <v>879</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>739</v>
+        <v>877</v>
       </c>
       <c r="B297" t="s">
-        <v>738</v>
+        <v>878</v>
       </c>
       <c r="C297" t="s">
-        <v>740</v>
+        <v>880</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>660</v>
+        <v>643</v>
       </c>
       <c r="B298" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C298" t="s">
-        <v>484</v>
+        <v>435</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>661</v>
+        <v>644</v>
       </c>
       <c r="B299" t="s">
-        <v>215</v>
+        <v>24</v>
       </c>
       <c r="C299" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>690</v>
+        <v>645</v>
       </c>
       <c r="B300" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C300" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>663</v>
+        <v>725</v>
       </c>
       <c r="B301" t="s">
-        <v>217</v>
+        <v>724</v>
       </c>
       <c r="C301" t="s">
-        <v>448</v>
+        <v>726</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>664</v>
+        <v>646</v>
       </c>
       <c r="B302" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C302" t="s">
-        <v>449</v>
+        <v>474</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>667</v>
+        <v>647</v>
       </c>
       <c r="B303" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C303" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>665</v>
+        <v>676</v>
       </c>
       <c r="B304" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="C304" t="s">
-        <v>471</v>
+        <v>437</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>666</v>
+        <v>649</v>
       </c>
       <c r="B305" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="C305" t="s">
-        <v>472</v>
+        <v>438</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>669</v>
+        <v>650</v>
       </c>
       <c r="B306" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="C306" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>671</v>
+        <v>653</v>
       </c>
       <c r="B307" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C307" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>672</v>
+        <v>651</v>
       </c>
       <c r="B308" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C308" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>673</v>
+        <v>652</v>
       </c>
       <c r="B309" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="C309" t="s">
-        <v>696</v>
+        <v>462</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>741</v>
+        <v>655</v>
       </c>
       <c r="B310" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C310" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="B311" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="C311" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="B312" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="C312" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>752</v>
+        <v>659</v>
       </c>
       <c r="B313" t="s">
-        <v>750</v>
+        <v>224</v>
       </c>
       <c r="C313" t="s">
-        <v>751</v>
+        <v>682</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>662</v>
+        <v>727</v>
       </c>
       <c r="B314" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C314" t="s">
-        <v>475</v>
+        <v>444</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>675</v>
+        <v>660</v>
       </c>
       <c r="B315" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C315" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>676</v>
+        <v>656</v>
       </c>
       <c r="B316" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C316" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>677</v>
+        <v>738</v>
       </c>
       <c r="B317" t="s">
-        <v>236</v>
+        <v>736</v>
       </c>
       <c r="C317" t="s">
-        <v>678</v>
+        <v>737</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>681</v>
+        <v>648</v>
       </c>
       <c r="B318" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="C318" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>679</v>
+        <v>661</v>
       </c>
       <c r="B319" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C319" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>680</v>
+        <v>662</v>
       </c>
       <c r="B320" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C320" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>753</v>
+        <v>663</v>
       </c>
       <c r="B321" t="s">
-        <v>755</v>
+        <v>231</v>
       </c>
       <c r="C321" t="s">
-        <v>754</v>
+        <v>664</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>682</v>
+        <v>667</v>
       </c>
       <c r="B322" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C322" t="s">
-        <v>478</v>
+        <v>445</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>683</v>
+        <v>665</v>
       </c>
       <c r="B323" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C323" t="s">
-        <v>479</v>
+        <v>446</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>684</v>
+        <v>666</v>
       </c>
       <c r="B324" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C324" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>685</v>
+        <v>739</v>
       </c>
       <c r="B325" t="s">
-        <v>243</v>
+        <v>741</v>
       </c>
       <c r="C325" t="s">
-        <v>480</v>
+        <v>740</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>686</v>
+        <v>668</v>
       </c>
       <c r="B326" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C326" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>899</v>
+        <v>669</v>
       </c>
       <c r="B327" t="s">
-        <v>898</v>
+        <v>236</v>
       </c>
       <c r="C327" t="s">
-        <v>900</v>
+        <v>469</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B328" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C328" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="B329" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C329" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="B330" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C330" t="s">
-        <v>904</v>
+        <v>449</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>689</v>
+        <v>885</v>
       </c>
       <c r="B331" t="s">
-        <v>248</v>
+        <v>884</v>
       </c>
       <c r="C331" t="s">
-        <v>481</v>
+        <v>886</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>766</v>
+        <v>673</v>
       </c>
       <c r="B332" t="s">
-        <v>764</v>
+        <v>240</v>
       </c>
       <c r="C332" t="s">
-        <v>765</v>
+        <v>450</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>769</v>
+        <v>654</v>
       </c>
       <c r="B333" t="s">
-        <v>767</v>
+        <v>241</v>
       </c>
       <c r="C333" t="s">
-        <v>768</v>
+        <v>451</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>772</v>
+        <v>674</v>
       </c>
       <c r="B334" t="s">
-        <v>770</v>
+        <v>242</v>
       </c>
       <c r="C334" t="s">
-        <v>771</v>
+        <v>890</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>1148</v>
+        <v>675</v>
       </c>
       <c r="B335" t="s">
-        <v>1152</v>
+        <v>243</v>
       </c>
       <c r="C335" t="s">
-        <v>1153</v>
+        <v>471</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>1151</v>
+        <v>752</v>
       </c>
       <c r="B336" t="s">
-        <v>1154</v>
+        <v>750</v>
       </c>
       <c r="C336" t="s">
-        <v>1155</v>
+        <v>751</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>1147</v>
+        <v>755</v>
       </c>
       <c r="B337" t="s">
-        <v>1156</v>
+        <v>753</v>
       </c>
       <c r="C337" t="s">
-        <v>1157</v>
+        <v>754</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>1149</v>
+        <v>758</v>
       </c>
       <c r="B338" t="s">
-        <v>1158</v>
+        <v>756</v>
       </c>
       <c r="C338" t="s">
-        <v>1159</v>
+        <v>757</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>1150</v>
+        <v>1134</v>
       </c>
       <c r="B339" t="s">
-        <v>1160</v>
+        <v>1138</v>
       </c>
       <c r="C339" t="s">
-        <v>1161</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>776</v>
+        <v>1137</v>
       </c>
       <c r="B340" t="s">
-        <v>773</v>
+        <v>1140</v>
       </c>
       <c r="C340" t="s">
-        <v>775</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>778</v>
+        <v>1133</v>
       </c>
       <c r="B341" t="s">
-        <v>774</v>
+        <v>1142</v>
       </c>
       <c r="C341" t="s">
-        <v>777</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>781</v>
+        <v>1135</v>
       </c>
       <c r="B342" t="s">
-        <v>780</v>
+        <v>1144</v>
       </c>
       <c r="C342" t="s">
-        <v>779</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>716</v>
+        <v>1136</v>
       </c>
       <c r="B343" t="s">
-        <v>700</v>
+        <v>1146</v>
       </c>
       <c r="C343" t="s">
-        <v>729</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>730</v>
+        <v>762</v>
       </c>
       <c r="B344" t="s">
-        <v>701</v>
+        <v>759</v>
       </c>
       <c r="C344" t="s">
-        <v>725</v>
+        <v>761</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>731</v>
+        <v>764</v>
       </c>
       <c r="B345" t="s">
-        <v>702</v>
+        <v>760</v>
       </c>
       <c r="C345" t="s">
-        <v>726</v>
+        <v>763</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>717</v>
+        <v>767</v>
       </c>
       <c r="B346" t="s">
-        <v>703</v>
+        <v>766</v>
       </c>
       <c r="C346" t="s">
-        <v>737</v>
+        <v>765</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
       <c r="B347" t="s">
-        <v>704</v>
+        <v>686</v>
       </c>
       <c r="C347" t="s">
-        <v>736</v>
+        <v>715</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B348" t="s">
-        <v>705</v>
+        <v>687</v>
       </c>
       <c r="C348" t="s">
-        <v>735</v>
+        <v>711</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B349" t="s">
-        <v>706</v>
+        <v>688</v>
       </c>
       <c r="C349" t="s">
-        <v>734</v>
+        <v>712</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>721</v>
+        <v>703</v>
       </c>
       <c r="B350" t="s">
-        <v>707</v>
+        <v>689</v>
       </c>
       <c r="C350" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
+        <v>704</v>
+      </c>
+      <c r="B351" t="s">
+        <v>690</v>
+      </c>
+      <c r="C351" t="s">
         <v>722</v>
-      </c>
-      <c r="B351" t="s">
-        <v>708</v>
-      </c>
-      <c r="C351" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>723</v>
+        <v>705</v>
       </c>
       <c r="B352" t="s">
-        <v>709</v>
+        <v>691</v>
       </c>
       <c r="C352" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>724</v>
+        <v>706</v>
       </c>
       <c r="B353" t="s">
-        <v>710</v>
+        <v>692</v>
       </c>
       <c r="C353" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>822</v>
+        <v>707</v>
       </c>
       <c r="B354" t="s">
-        <v>820</v>
+        <v>693</v>
       </c>
       <c r="C354" t="s">
-        <v>821</v>
+        <v>719</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>869</v>
+        <v>708</v>
       </c>
       <c r="B355" t="s">
-        <v>868</v>
+        <v>694</v>
       </c>
       <c r="C355" t="s">
-        <v>870</v>
+        <v>718</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>952</v>
+        <v>709</v>
       </c>
       <c r="B356" t="s">
-        <v>948</v>
+        <v>695</v>
       </c>
       <c r="C356" t="s">
-        <v>950</v>
+        <v>713</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>953</v>
+        <v>710</v>
       </c>
       <c r="B357" t="s">
-        <v>949</v>
+        <v>696</v>
       </c>
       <c r="C357" t="s">
-        <v>951</v>
+        <v>714</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>971</v>
+        <v>808</v>
       </c>
       <c r="B358" t="s">
-        <v>970</v>
+        <v>806</v>
       </c>
       <c r="C358" t="s">
-        <v>972</v>
+        <v>807</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>1005</v>
+        <v>855</v>
       </c>
       <c r="B359" t="s">
-        <v>980</v>
+        <v>854</v>
       </c>
       <c r="C359" t="s">
-        <v>992</v>
+        <v>856</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>1004</v>
+        <v>938</v>
       </c>
       <c r="B360" t="s">
-        <v>981</v>
+        <v>934</v>
       </c>
       <c r="C360" t="s">
-        <v>993</v>
+        <v>936</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>1006</v>
+        <v>939</v>
       </c>
       <c r="B361" t="s">
-        <v>983</v>
+        <v>935</v>
       </c>
       <c r="C361" t="s">
-        <v>994</v>
+        <v>937</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>1007</v>
+        <v>957</v>
       </c>
       <c r="B362" t="s">
-        <v>984</v>
+        <v>956</v>
       </c>
       <c r="C362" t="s">
-        <v>998</v>
+        <v>958</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>1008</v>
+        <v>991</v>
       </c>
       <c r="B363" t="s">
-        <v>985</v>
+        <v>966</v>
       </c>
       <c r="C363" t="s">
-        <v>999</v>
+        <v>978</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>1009</v>
+        <v>990</v>
       </c>
       <c r="B364" t="s">
-        <v>986</v>
+        <v>967</v>
       </c>
       <c r="C364" t="s">
-        <v>1000</v>
+        <v>979</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>1044</v>
+        <v>992</v>
       </c>
       <c r="B365" t="s">
-        <v>1043</v>
+        <v>969</v>
       </c>
       <c r="C365" t="s">
-        <v>1045</v>
+        <v>980</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>1010</v>
+        <v>993</v>
       </c>
       <c r="B366" t="s">
-        <v>987</v>
+        <v>970</v>
       </c>
       <c r="C366" t="s">
-        <v>1001</v>
+        <v>984</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>1011</v>
+        <v>994</v>
       </c>
       <c r="B367" t="s">
-        <v>988</v>
+        <v>971</v>
       </c>
       <c r="C367" t="s">
-        <v>1002</v>
+        <v>985</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>1012</v>
+        <v>995</v>
       </c>
       <c r="B368" t="s">
-        <v>989</v>
+        <v>972</v>
       </c>
       <c r="C368" t="s">
-        <v>1003</v>
+        <v>986</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>1013</v>
+        <v>1030</v>
       </c>
       <c r="B369" t="s">
-        <v>995</v>
+        <v>1029</v>
       </c>
       <c r="C369" t="s">
-        <v>996</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>1014</v>
+        <v>996</v>
       </c>
       <c r="B370" t="s">
-        <v>1082</v>
+        <v>973</v>
       </c>
       <c r="C370" t="s">
-        <v>1086</v>
+        <v>987</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>1085</v>
+        <v>997</v>
       </c>
       <c r="B371" t="s">
-        <v>1083</v>
+        <v>974</v>
       </c>
       <c r="C371" t="s">
-        <v>1084</v>
+        <v>988</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>1015</v>
+        <v>998</v>
       </c>
       <c r="B372" t="s">
-        <v>990</v>
+        <v>975</v>
       </c>
       <c r="C372" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>1047</v>
+        <v>999</v>
       </c>
       <c r="B373" t="s">
-        <v>1046</v>
+        <v>981</v>
       </c>
       <c r="C373" t="s">
-        <v>1048</v>
+        <v>982</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>1062</v>
+        <v>1000</v>
       </c>
       <c r="B374" t="s">
-        <v>1061</v>
+        <v>1068</v>
       </c>
       <c r="C374" t="s">
-        <v>1063</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>1055</v>
+        <v>1071</v>
       </c>
       <c r="B375" t="s">
-        <v>1049</v>
+        <v>1069</v>
       </c>
       <c r="C375" t="s">
-        <v>1052</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>1056</v>
+        <v>1001</v>
       </c>
       <c r="B376" t="s">
-        <v>1050</v>
+        <v>976</v>
       </c>
       <c r="C376" t="s">
-        <v>1053</v>
+        <v>977</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>1057</v>
+        <v>1033</v>
       </c>
       <c r="B377" t="s">
-        <v>1051</v>
+        <v>1032</v>
       </c>
       <c r="C377" t="s">
-        <v>1054</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>1066</v>
+        <v>1048</v>
       </c>
       <c r="B378" t="s">
-        <v>1064</v>
+        <v>1047</v>
       </c>
       <c r="C378" t="s">
-        <v>1065</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>1067</v>
+        <v>1041</v>
       </c>
       <c r="B379" t="s">
-        <v>1068</v>
+        <v>1035</v>
       </c>
       <c r="C379" t="s">
-        <v>1069</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>1078</v>
+        <v>1042</v>
       </c>
       <c r="B380" t="s">
-        <v>1075</v>
+        <v>1036</v>
       </c>
       <c r="C380" t="s">
-        <v>1077</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>1070</v>
+        <v>1043</v>
       </c>
       <c r="B381" t="s">
-        <v>1071</v>
+        <v>1037</v>
       </c>
       <c r="C381" t="s">
-        <v>1076</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>1074</v>
+        <v>1052</v>
       </c>
       <c r="B382" t="s">
-        <v>1072</v>
+        <v>1050</v>
       </c>
       <c r="C382" t="s">
-        <v>1073</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>1016</v>
+        <v>1053</v>
       </c>
       <c r="B383" t="s">
-        <v>982</v>
+        <v>1054</v>
       </c>
       <c r="C383" t="s">
-        <v>997</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>1036</v>
+        <v>1064</v>
       </c>
       <c r="B384" t="s">
-        <v>1028</v>
+        <v>1061</v>
       </c>
       <c r="C384" t="s">
-        <v>1035</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>1037</v>
+        <v>1056</v>
       </c>
       <c r="B385" t="s">
-        <v>1029</v>
+        <v>1057</v>
       </c>
       <c r="C385" t="s">
-        <v>1032</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>1038</v>
+        <v>1060</v>
       </c>
       <c r="B386" t="s">
-        <v>1030</v>
+        <v>1058</v>
       </c>
       <c r="C386" t="s">
-        <v>1033</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>1039</v>
+        <v>1002</v>
       </c>
       <c r="B387" t="s">
-        <v>1031</v>
+        <v>968</v>
       </c>
       <c r="C387" t="s">
-        <v>1034</v>
+        <v>983</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="B388" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="C388" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>1059</v>
+        <v>1023</v>
       </c>
       <c r="B389" t="s">
-        <v>1058</v>
+        <v>1015</v>
       </c>
       <c r="C389" t="s">
-        <v>1060</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>1093</v>
+        <v>1024</v>
       </c>
       <c r="B390" t="s">
-        <v>1087</v>
+        <v>1016</v>
       </c>
       <c r="C390" t="s">
-        <v>1091</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>1094</v>
+        <v>1025</v>
       </c>
       <c r="B391" t="s">
-        <v>1090</v>
+        <v>1017</v>
       </c>
       <c r="C391" t="s">
-        <v>1092</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>1098</v>
+        <v>1003</v>
       </c>
       <c r="B392" t="s">
-        <v>1095</v>
+        <v>1004</v>
       </c>
       <c r="C392" t="s">
-        <v>1096</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>1108</v>
+        <v>1045</v>
       </c>
       <c r="B393" t="s">
-        <v>1109</v>
+        <v>1044</v>
       </c>
       <c r="C393" t="s">
-        <v>1110</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>1111</v>
+        <v>1079</v>
       </c>
       <c r="B394" t="s">
-        <v>1112</v>
+        <v>1073</v>
       </c>
       <c r="C394" t="s">
-        <v>1113</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>715</v>
+        <v>1080</v>
       </c>
       <c r="B395" t="s">
-        <v>713</v>
+        <v>1076</v>
       </c>
       <c r="C395" t="s">
-        <v>714</v>
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B396" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C396" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B397" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C397" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B398" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C398" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>701</v>
+      </c>
+      <c r="B399" t="s">
+        <v>699</v>
+      </c>
+      <c r="C399" t="s">
+        <v>700</v>
       </c>
     </row>
   </sheetData>

--- a/lang/words_dict.xlsx
+++ b/lang/words_dict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\si lab\Matlab Projects\Registration\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A984D4-D2CA-43A7-993F-154997E126FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349FBCF8-381B-4BFC-A930-89A1BBD2A282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5415" yWindow="390" windowWidth="23385" windowHeight="13725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3870" yWindow="1290" windowWidth="23385" windowHeight="13725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="1193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="1202">
   <si>
     <t>文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4606,6 +4606,42 @@
   </si>
   <si>
     <t>DVIEW_YZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEDIUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIGH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>High</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4940,10 +4976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F399"/>
+  <dimension ref="A1:F402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
-      <selection activeCell="A223" sqref="A223"/>
+    <sheetView tabSelected="1" topLeftCell="A370" workbookViewId="0">
+      <selection activeCell="B222" sqref="B222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7433,1915 +7469,1948 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>1027</v>
+        <v>1196</v>
       </c>
       <c r="B226" t="s">
-        <v>152</v>
+        <v>1193</v>
       </c>
       <c r="C226" t="s">
-        <v>391</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>578</v>
+        <v>1197</v>
       </c>
       <c r="B227" t="s">
-        <v>153</v>
+        <v>1194</v>
       </c>
       <c r="C227" t="s">
-        <v>392</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>579</v>
+        <v>1198</v>
       </c>
       <c r="B228" t="s">
-        <v>154</v>
+        <v>1195</v>
       </c>
       <c r="C228" t="s">
-        <v>393</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>580</v>
+        <v>1027</v>
       </c>
       <c r="B229" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C229" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B230" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C230" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B231" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C231" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B232" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C232" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B233" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C233" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B234" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C234" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B235" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C235" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B236" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C236" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B237" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C237" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B238" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C238" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B239" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C239" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B240" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C240" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B241" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C241" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B242" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C242" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="B243" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C243" t="s">
-        <v>482</v>
+        <v>405</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B244" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C244" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B245" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C245" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="B246" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C246" t="s">
-        <v>410</v>
+        <v>482</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B247" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C247" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B248" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C248" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B249" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C249" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B250" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C250" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B251" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C251" t="s">
-        <v>609</v>
+        <v>412</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B252" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C252" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>698</v>
+        <v>600</v>
       </c>
       <c r="B253" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C253" t="s">
-        <v>452</v>
+        <v>414</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="B254" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C254" t="s">
-        <v>416</v>
+        <v>609</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>915</v>
+        <v>602</v>
       </c>
       <c r="B255" t="s">
-        <v>916</v>
+        <v>178</v>
       </c>
       <c r="C255" t="s">
-        <v>917</v>
+        <v>415</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>611</v>
+        <v>698</v>
       </c>
       <c r="B256" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C256" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B257" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C257" t="s">
-        <v>454</v>
+        <v>416</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>613</v>
+        <v>915</v>
       </c>
       <c r="B258" t="s">
-        <v>183</v>
+        <v>916</v>
       </c>
       <c r="C258" t="s">
-        <v>455</v>
+        <v>917</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>785</v>
+        <v>611</v>
       </c>
       <c r="B259" t="s">
-        <v>786</v>
+        <v>181</v>
       </c>
       <c r="C259" t="s">
-        <v>787</v>
+        <v>453</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>788</v>
+        <v>612</v>
       </c>
       <c r="B260" t="s">
-        <v>789</v>
+        <v>182</v>
       </c>
       <c r="C260" t="s">
-        <v>793</v>
+        <v>454</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>790</v>
+        <v>613</v>
       </c>
       <c r="B261" t="s">
-        <v>791</v>
+        <v>183</v>
       </c>
       <c r="C261" t="s">
-        <v>792</v>
+        <v>455</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="B262" t="s">
-        <v>797</v>
+        <v>786</v>
       </c>
       <c r="C262" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="B263" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="C263" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="B264" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="C264" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="B265" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="C265" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>614</v>
+        <v>798</v>
       </c>
       <c r="B266" t="s">
-        <v>184</v>
+        <v>794</v>
       </c>
       <c r="C266" t="s">
-        <v>417</v>
+        <v>799</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>615</v>
+        <v>800</v>
       </c>
       <c r="B267" t="s">
-        <v>185</v>
+        <v>801</v>
       </c>
       <c r="C267" t="s">
-        <v>456</v>
+        <v>800</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>616</v>
+        <v>802</v>
       </c>
       <c r="B268" t="s">
-        <v>186</v>
+        <v>803</v>
       </c>
       <c r="C268" t="s">
-        <v>418</v>
+        <v>804</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B269" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C269" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B270" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C270" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B271" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C271" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B272" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C272" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>811</v>
+        <v>618</v>
       </c>
       <c r="B273" t="s">
-        <v>809</v>
+        <v>188</v>
       </c>
       <c r="C273" t="s">
-        <v>810</v>
+        <v>460</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B274" t="s">
-        <v>731</v>
+        <v>189</v>
       </c>
       <c r="C274" t="s">
-        <v>732</v>
+        <v>420</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B275" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C275" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>623</v>
+        <v>811</v>
       </c>
       <c r="B276" t="s">
-        <v>192</v>
+        <v>809</v>
       </c>
       <c r="C276" t="s">
-        <v>423</v>
+        <v>810</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B277" t="s">
-        <v>193</v>
+        <v>731</v>
       </c>
       <c r="C277" t="s">
-        <v>475</v>
+        <v>732</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B278" t="s">
-        <v>729</v>
+        <v>191</v>
       </c>
       <c r="C278" t="s">
-        <v>730</v>
+        <v>422</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B279" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C279" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B280" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C280" t="s">
-        <v>425</v>
+        <v>475</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B281" t="s">
-        <v>196</v>
+        <v>729</v>
       </c>
       <c r="C281" t="s">
-        <v>457</v>
+        <v>730</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B282" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C282" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B283" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="C283" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B284" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="C284" t="s">
-        <v>483</v>
+        <v>457</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B285" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="C285" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B286" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C286" t="s">
-        <v>484</v>
+        <v>427</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B287" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="C287" t="s">
-        <v>429</v>
+        <v>483</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B288" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="C288" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B289" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="C289" t="s">
-        <v>431</v>
+        <v>484</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B290" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C290" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B291" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C291" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>734</v>
+        <v>636</v>
       </c>
       <c r="B292" t="s">
-        <v>733</v>
+        <v>200</v>
       </c>
       <c r="C292" t="s">
-        <v>735</v>
+        <v>431</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B293" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C293" t="s">
-        <v>459</v>
+        <v>432</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B294" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C294" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>641</v>
+        <v>734</v>
       </c>
       <c r="B295" t="s">
-        <v>205</v>
+        <v>733</v>
       </c>
       <c r="C295" t="s">
-        <v>473</v>
+        <v>735</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B296" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C296" t="s">
-        <v>879</v>
+        <v>459</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>877</v>
+        <v>640</v>
       </c>
       <c r="B297" t="s">
-        <v>878</v>
+        <v>204</v>
       </c>
       <c r="C297" t="s">
-        <v>880</v>
+        <v>434</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B298" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C298" t="s">
-        <v>435</v>
+        <v>473</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B299" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="C299" t="s">
-        <v>472</v>
+        <v>879</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>645</v>
+        <v>877</v>
       </c>
       <c r="B300" t="s">
-        <v>208</v>
+        <v>878</v>
       </c>
       <c r="C300" t="s">
-        <v>436</v>
+        <v>880</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>725</v>
+        <v>643</v>
       </c>
       <c r="B301" t="s">
-        <v>724</v>
+        <v>207</v>
       </c>
       <c r="C301" t="s">
-        <v>726</v>
+        <v>435</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B302" t="s">
-        <v>209</v>
+        <v>24</v>
       </c>
       <c r="C302" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B303" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C303" t="s">
-        <v>458</v>
+        <v>436</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>676</v>
+        <v>725</v>
       </c>
       <c r="B304" t="s">
-        <v>211</v>
+        <v>724</v>
       </c>
       <c r="C304" t="s">
-        <v>437</v>
+        <v>726</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B305" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C305" t="s">
-        <v>438</v>
+        <v>474</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B306" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C306" t="s">
-        <v>439</v>
+        <v>458</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>653</v>
+        <v>676</v>
       </c>
       <c r="B307" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C307" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B308" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C308" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B309" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C309" t="s">
-        <v>462</v>
+        <v>439</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B310" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C310" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="B311" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C311" t="s">
-        <v>442</v>
+        <v>461</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="B312" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C312" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B313" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C313" t="s">
-        <v>682</v>
+        <v>441</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>727</v>
+        <v>657</v>
       </c>
       <c r="B314" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C314" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B315" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C315" t="s">
-        <v>463</v>
+        <v>443</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="B316" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C316" t="s">
-        <v>464</v>
+        <v>682</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>738</v>
+        <v>727</v>
       </c>
       <c r="B317" t="s">
-        <v>736</v>
+        <v>225</v>
       </c>
       <c r="C317" t="s">
-        <v>737</v>
+        <v>444</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="B318" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C318" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="B319" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C319" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>662</v>
+        <v>738</v>
       </c>
       <c r="B320" t="s">
-        <v>230</v>
+        <v>736</v>
       </c>
       <c r="C320" t="s">
-        <v>467</v>
+        <v>737</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>663</v>
+        <v>648</v>
       </c>
       <c r="B321" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C321" t="s">
-        <v>664</v>
+        <v>465</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="B322" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C322" t="s">
-        <v>445</v>
+        <v>466</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B323" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C323" t="s">
-        <v>446</v>
+        <v>467</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B324" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C324" t="s">
-        <v>447</v>
+        <v>664</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>739</v>
+        <v>667</v>
       </c>
       <c r="B325" t="s">
-        <v>741</v>
+        <v>232</v>
       </c>
       <c r="C325" t="s">
-        <v>740</v>
+        <v>445</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B326" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C326" t="s">
-        <v>468</v>
+        <v>446</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B327" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C327" t="s">
-        <v>469</v>
+        <v>447</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>670</v>
+        <v>739</v>
       </c>
       <c r="B328" t="s">
-        <v>237</v>
+        <v>741</v>
       </c>
       <c r="C328" t="s">
-        <v>448</v>
+        <v>740</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B329" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C329" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B330" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C330" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>885</v>
+        <v>670</v>
       </c>
       <c r="B331" t="s">
-        <v>884</v>
+        <v>237</v>
       </c>
       <c r="C331" t="s">
-        <v>886</v>
+        <v>448</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B332" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C332" t="s">
-        <v>450</v>
+        <v>470</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>654</v>
+        <v>672</v>
       </c>
       <c r="B333" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C333" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>674</v>
+        <v>885</v>
       </c>
       <c r="B334" t="s">
-        <v>242</v>
+        <v>884</v>
       </c>
       <c r="C334" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B335" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C335" t="s">
-        <v>471</v>
+        <v>450</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>752</v>
+        <v>654</v>
       </c>
       <c r="B336" t="s">
-        <v>750</v>
+        <v>241</v>
       </c>
       <c r="C336" t="s">
-        <v>751</v>
+        <v>451</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>755</v>
+        <v>674</v>
       </c>
       <c r="B337" t="s">
-        <v>753</v>
+        <v>242</v>
       </c>
       <c r="C337" t="s">
-        <v>754</v>
+        <v>890</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>758</v>
+        <v>675</v>
       </c>
       <c r="B338" t="s">
-        <v>756</v>
+        <v>243</v>
       </c>
       <c r="C338" t="s">
-        <v>757</v>
+        <v>471</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>1134</v>
+        <v>752</v>
       </c>
       <c r="B339" t="s">
-        <v>1138</v>
+        <v>750</v>
       </c>
       <c r="C339" t="s">
-        <v>1139</v>
+        <v>751</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>1137</v>
+        <v>755</v>
       </c>
       <c r="B340" t="s">
-        <v>1140</v>
+        <v>753</v>
       </c>
       <c r="C340" t="s">
-        <v>1141</v>
+        <v>754</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>1133</v>
+        <v>758</v>
       </c>
       <c r="B341" t="s">
-        <v>1142</v>
+        <v>756</v>
       </c>
       <c r="C341" t="s">
-        <v>1143</v>
+        <v>757</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B342" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="C342" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="B343" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="C343" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>762</v>
+        <v>1133</v>
       </c>
       <c r="B344" t="s">
-        <v>759</v>
+        <v>1142</v>
       </c>
       <c r="C344" t="s">
-        <v>761</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>764</v>
+        <v>1135</v>
       </c>
       <c r="B345" t="s">
-        <v>760</v>
+        <v>1144</v>
       </c>
       <c r="C345" t="s">
-        <v>763</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>767</v>
+        <v>1136</v>
       </c>
       <c r="B346" t="s">
-        <v>766</v>
+        <v>1146</v>
       </c>
       <c r="C346" t="s">
-        <v>765</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>702</v>
+        <v>762</v>
       </c>
       <c r="B347" t="s">
-        <v>686</v>
+        <v>759</v>
       </c>
       <c r="C347" t="s">
-        <v>715</v>
+        <v>761</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>716</v>
+        <v>764</v>
       </c>
       <c r="B348" t="s">
-        <v>687</v>
+        <v>760</v>
       </c>
       <c r="C348" t="s">
-        <v>711</v>
+        <v>763</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>717</v>
+        <v>767</v>
       </c>
       <c r="B349" t="s">
-        <v>688</v>
+        <v>766</v>
       </c>
       <c r="C349" t="s">
-        <v>712</v>
+        <v>765</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B350" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C350" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>704</v>
+        <v>716</v>
       </c>
       <c r="B351" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C351" t="s">
-        <v>722</v>
+        <v>711</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>705</v>
+        <v>717</v>
       </c>
       <c r="B352" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C352" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B353" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C353" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B354" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C354" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B355" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C355" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="B356" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C356" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="B357" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C357" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>808</v>
+        <v>708</v>
       </c>
       <c r="B358" t="s">
-        <v>806</v>
+        <v>694</v>
       </c>
       <c r="C358" t="s">
-        <v>807</v>
+        <v>718</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>855</v>
+        <v>709</v>
       </c>
       <c r="B359" t="s">
-        <v>854</v>
+        <v>695</v>
       </c>
       <c r="C359" t="s">
-        <v>856</v>
+        <v>713</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>938</v>
+        <v>710</v>
       </c>
       <c r="B360" t="s">
-        <v>934</v>
+        <v>696</v>
       </c>
       <c r="C360" t="s">
-        <v>936</v>
+        <v>714</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>939</v>
+        <v>808</v>
       </c>
       <c r="B361" t="s">
-        <v>935</v>
+        <v>806</v>
       </c>
       <c r="C361" t="s">
-        <v>937</v>
+        <v>807</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>957</v>
+        <v>855</v>
       </c>
       <c r="B362" t="s">
-        <v>956</v>
+        <v>854</v>
       </c>
       <c r="C362" t="s">
-        <v>958</v>
+        <v>856</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>991</v>
+        <v>938</v>
       </c>
       <c r="B363" t="s">
-        <v>966</v>
+        <v>934</v>
       </c>
       <c r="C363" t="s">
-        <v>978</v>
+        <v>936</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>990</v>
+        <v>939</v>
       </c>
       <c r="B364" t="s">
-        <v>967</v>
+        <v>935</v>
       </c>
       <c r="C364" t="s">
-        <v>979</v>
+        <v>937</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>992</v>
+        <v>957</v>
       </c>
       <c r="B365" t="s">
-        <v>969</v>
+        <v>956</v>
       </c>
       <c r="C365" t="s">
-        <v>980</v>
+        <v>958</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B366" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="C366" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="B367" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="C367" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="B368" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="C368" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>1030</v>
+        <v>993</v>
       </c>
       <c r="B369" t="s">
-        <v>1029</v>
+        <v>970</v>
       </c>
       <c r="C369" t="s">
-        <v>1031</v>
+        <v>984</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B370" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C370" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B371" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C371" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>998</v>
+        <v>1030</v>
       </c>
       <c r="B372" t="s">
-        <v>975</v>
+        <v>1029</v>
       </c>
       <c r="C372" t="s">
-        <v>989</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="B373" t="s">
-        <v>981</v>
+        <v>973</v>
       </c>
       <c r="C373" t="s">
-        <v>982</v>
+        <v>987</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="B374" t="s">
-        <v>1068</v>
+        <v>974</v>
       </c>
       <c r="C374" t="s">
-        <v>1072</v>
+        <v>988</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>1071</v>
+        <v>998</v>
       </c>
       <c r="B375" t="s">
-        <v>1069</v>
+        <v>975</v>
       </c>
       <c r="C375" t="s">
-        <v>1070</v>
+        <v>989</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B376" t="s">
-        <v>976</v>
+        <v>981</v>
       </c>
       <c r="C376" t="s">
-        <v>977</v>
+        <v>982</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>1033</v>
+        <v>1000</v>
       </c>
       <c r="B377" t="s">
-        <v>1032</v>
+        <v>1068</v>
       </c>
       <c r="C377" t="s">
-        <v>1034</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>1048</v>
+        <v>1071</v>
       </c>
       <c r="B378" t="s">
-        <v>1047</v>
+        <v>1069</v>
       </c>
       <c r="C378" t="s">
-        <v>1049</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>1041</v>
+        <v>1001</v>
       </c>
       <c r="B379" t="s">
-        <v>1035</v>
+        <v>976</v>
       </c>
       <c r="C379" t="s">
-        <v>1038</v>
+        <v>977</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>1042</v>
+        <v>1033</v>
       </c>
       <c r="B380" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="C380" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>1043</v>
+        <v>1048</v>
       </c>
       <c r="B381" t="s">
-        <v>1037</v>
+        <v>1047</v>
       </c>
       <c r="C381" t="s">
-        <v>1040</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>1052</v>
+        <v>1041</v>
       </c>
       <c r="B382" t="s">
-        <v>1050</v>
+        <v>1035</v>
       </c>
       <c r="C382" t="s">
-        <v>1051</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>1053</v>
+        <v>1042</v>
       </c>
       <c r="B383" t="s">
-        <v>1054</v>
+        <v>1036</v>
       </c>
       <c r="C383" t="s">
-        <v>1055</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>1064</v>
+        <v>1043</v>
       </c>
       <c r="B384" t="s">
-        <v>1061</v>
+        <v>1037</v>
       </c>
       <c r="C384" t="s">
-        <v>1063</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="B385" t="s">
-        <v>1057</v>
+        <v>1050</v>
       </c>
       <c r="C385" t="s">
-        <v>1062</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>1060</v>
+        <v>1053</v>
       </c>
       <c r="B386" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="C386" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>1002</v>
+        <v>1064</v>
       </c>
       <c r="B387" t="s">
-        <v>968</v>
+        <v>1061</v>
       </c>
       <c r="C387" t="s">
-        <v>983</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>1022</v>
+        <v>1056</v>
       </c>
       <c r="B388" t="s">
-        <v>1014</v>
+        <v>1057</v>
       </c>
       <c r="C388" t="s">
-        <v>1021</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>1023</v>
+        <v>1060</v>
       </c>
       <c r="B389" t="s">
-        <v>1015</v>
+        <v>1058</v>
       </c>
       <c r="C389" t="s">
-        <v>1018</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>1024</v>
+        <v>1002</v>
       </c>
       <c r="B390" t="s">
-        <v>1016</v>
+        <v>968</v>
       </c>
       <c r="C390" t="s">
-        <v>1019</v>
+        <v>983</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="B391" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="C391" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>1003</v>
+        <v>1023</v>
       </c>
       <c r="B392" t="s">
-        <v>1004</v>
+        <v>1015</v>
       </c>
       <c r="C392" t="s">
-        <v>1005</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>1045</v>
+        <v>1024</v>
       </c>
       <c r="B393" t="s">
-        <v>1044</v>
+        <v>1016</v>
       </c>
       <c r="C393" t="s">
-        <v>1046</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>1079</v>
+        <v>1025</v>
       </c>
       <c r="B394" t="s">
-        <v>1073</v>
+        <v>1017</v>
       </c>
       <c r="C394" t="s">
-        <v>1077</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>1080</v>
+        <v>1003</v>
       </c>
       <c r="B395" t="s">
-        <v>1076</v>
+        <v>1004</v>
       </c>
       <c r="C395" t="s">
-        <v>1078</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>1084</v>
+        <v>1045</v>
       </c>
       <c r="B396" t="s">
-        <v>1081</v>
+        <v>1044</v>
       </c>
       <c r="C396" t="s">
-        <v>1082</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>1094</v>
+        <v>1079</v>
       </c>
       <c r="B397" t="s">
-        <v>1095</v>
+        <v>1073</v>
       </c>
       <c r="C397" t="s">
-        <v>1096</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>1097</v>
+        <v>1080</v>
       </c>
       <c r="B398" t="s">
-        <v>1098</v>
+        <v>1076</v>
       </c>
       <c r="C398" t="s">
-        <v>1099</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B399" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C399" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B400" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C400" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B401" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C401" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
         <v>701</v>
       </c>
-      <c r="B399" t="s">
+      <c r="B402" t="s">
         <v>699</v>
       </c>
-      <c r="C399" t="s">
+      <c r="C402" t="s">
         <v>700</v>
       </c>
     </row>

--- a/lang/words_dict.xlsx
+++ b/lang/words_dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\si lab\Matlab Projects\Registration\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349FBCF8-381B-4BFC-A930-89A1BBD2A282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E8F6C3-643F-4035-B65E-FD34AAC952FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3870" yWindow="1290" windowWidth="23385" windowHeight="13725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -163,10 +163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>配准历史</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>帮助</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1126,10 +1122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Registration History</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Help</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3651,10 +3643,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>REGISTRATION_HISTORY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DOCUMENT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4642,6 +4630,18 @@
   </si>
   <si>
     <t>High</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史管理器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HISTORY_MANAGER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>History Manager</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4978,8 +4978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A370" workbookViewId="0">
-      <selection activeCell="B222" sqref="B222"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4996,4422 +4996,4422 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>681</v>
+      </c>
+      <c r="B3" t="s">
+        <v>682</v>
+      </c>
+      <c r="C3" t="s">
         <v>683</v>
-      </c>
-      <c r="B3" t="s">
-        <v>684</v>
-      </c>
-      <c r="C3" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>676</v>
+      </c>
+      <c r="B10" t="s">
+        <v>677</v>
+      </c>
+      <c r="C10" t="s">
         <v>678</v>
-      </c>
-      <c r="B10" t="s">
-        <v>679</v>
-      </c>
-      <c r="C10" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B12" t="s">
+        <v>879</v>
+      </c>
+      <c r="C12" t="s">
         <v>881</v>
-      </c>
-      <c r="C12" t="s">
-        <v>883</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>885</v>
+      </c>
+      <c r="B13" t="s">
+        <v>886</v>
+      </c>
+      <c r="C13" t="s">
         <v>887</v>
-      </c>
-      <c r="B13" t="s">
-        <v>888</v>
-      </c>
-      <c r="C13" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B14" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C14" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>895</v>
+      </c>
+      <c r="B15" t="s">
+        <v>896</v>
+      </c>
+      <c r="C15" t="s">
         <v>897</v>
-      </c>
-      <c r="B15" t="s">
-        <v>898</v>
-      </c>
-      <c r="C15" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>891</v>
+      </c>
+      <c r="B16" t="s">
+        <v>892</v>
+      </c>
+      <c r="C16" t="s">
         <v>893</v>
-      </c>
-      <c r="B16" t="s">
-        <v>894</v>
-      </c>
-      <c r="C16" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>898</v>
+      </c>
+      <c r="B17" t="s">
+        <v>899</v>
+      </c>
+      <c r="C17" t="s">
         <v>900</v>
-      </c>
-      <c r="B17" t="s">
-        <v>901</v>
-      </c>
-      <c r="C17" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B18" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C18" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>904</v>
+      </c>
+      <c r="B19" t="s">
         <v>906</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>908</v>
-      </c>
-      <c r="C19" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>905</v>
+      </c>
+      <c r="B20" t="s">
         <v>907</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>909</v>
-      </c>
-      <c r="C20" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B22" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B23" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B24" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B25" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B27" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C27" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="B28" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="C28" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B30" t="s">
         <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B31" t="s">
         <v>17</v>
       </c>
       <c r="C31" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B32" t="s">
         <v>18</v>
       </c>
       <c r="C32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B33" t="s">
         <v>19</v>
       </c>
       <c r="C33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B34" t="s">
         <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B35" t="s">
         <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B36" t="s">
         <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B37" t="s">
         <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B38" t="s">
         <v>24</v>
       </c>
       <c r="C38" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B39" t="s">
         <v>25</v>
       </c>
       <c r="C39" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B40" t="s">
+        <v>475</v>
+      </c>
+      <c r="C40" t="s">
         <v>477</v>
-      </c>
-      <c r="C40" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B41" t="s">
+        <v>476</v>
+      </c>
+      <c r="C41" t="s">
         <v>478</v>
-      </c>
-      <c r="C41" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B42" t="s">
         <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B43" t="s">
         <v>27</v>
       </c>
       <c r="C43" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B44" t="s">
         <v>28</v>
       </c>
       <c r="C44" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B45" t="s">
         <v>29</v>
       </c>
       <c r="C45" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B46" t="s">
         <v>30</v>
       </c>
       <c r="C46" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B47" t="s">
         <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B48" t="s">
         <v>32</v>
       </c>
       <c r="C48" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B49" t="s">
         <v>33</v>
       </c>
       <c r="C49" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>949</v>
+        <v>1200</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>1199</v>
       </c>
       <c r="C50" t="s">
-        <v>275</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="B51" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="C51" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="B52" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="C52" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="B53" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="C53" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="B54" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="C54" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C55" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C56" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="B57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C57" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="B58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C58" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="B59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C59" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="B60" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="C60" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="B61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C61" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C62" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="B63" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="C63" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C64" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="B65" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C65" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C66" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C67" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B68" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C68" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="B69" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C69" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B70" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C70" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C71" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B72" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C72" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B73" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C73" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B74" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C74" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B75" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C75" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B76" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C76" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B77" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C77" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C78" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B79" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C79" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B80" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C80" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B81" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C81" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B82" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C82" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B83" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C83" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B84" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C84" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B85" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C85" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B86" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C86" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B87" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C87" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B88" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C88" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B89" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C89" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B90" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C90" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="B91" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C91" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B92" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C92" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B93" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C93" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B94" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C94" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B95" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C95" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B96" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C96" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B97" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C97" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B98" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C98" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B99" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C99" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B100" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C100" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="B101" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="C101" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="B102" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C102" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B103" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C103" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B104" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C104" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B105" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C105" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="B106" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C106" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B107" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C107" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B108" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C108" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B109" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C109" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B110" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C110" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B111" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C111" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B112" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C112" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="B113" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C113" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B114" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C114" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B115" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C115" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B116" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C116" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B117" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C117" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B118" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C118" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B119" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C119" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B120" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C120" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B121" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C121" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B122" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C122" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B123" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C123" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B124" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C124" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B125" t="s">
+        <v>742</v>
+      </c>
+      <c r="C125" t="s">
         <v>744</v>
-      </c>
-      <c r="C125" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B126" t="s">
+        <v>745</v>
+      </c>
+      <c r="C126" t="s">
         <v>747</v>
-      </c>
-      <c r="C126" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="B127" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C127" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B128" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C128" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B129" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C129" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B130" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C130" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B131" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C131" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B132" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C132" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B133" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C133" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B134" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C134" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B135" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C135" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B136" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C136" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B137" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C137" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B138" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C138" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B139" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C139" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="B140" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C140" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B141" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C141" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B142" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C142" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B143" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C143" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="B144" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C144" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B145" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C145" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B146" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C146" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B147" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C147" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B148" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C148" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B149" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C149" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B150" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C150" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="B151" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="C151" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="B152" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="C152" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="B153" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="C153" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="B154" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="C154" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="B155" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="C155" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="B156" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="C156" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="B157" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="C157" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="B158" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="C158" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="B159" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="C159" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B160" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C160" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B161" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C161" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B162" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C162" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B163" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C163" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B164" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C164" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B165" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C165" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B166" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C166" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B167" t="s">
         <v>14</v>
       </c>
       <c r="C167" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B168" t="s">
         <v>13</v>
       </c>
       <c r="C168" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B169" t="s">
         <v>12</v>
       </c>
       <c r="C169" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B170" t="s">
         <v>11</v>
       </c>
       <c r="C170" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B171" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C171" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="B172" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="C172" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B173" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C173" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B174" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C174" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C175" t="s">
         <v>1109</v>
-      </c>
-      <c r="B175" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C175" t="s">
-        <v>1112</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B176" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C176" t="s">
         <v>1110</v>
-      </c>
-      <c r="B176" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C176" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C177" t="s">
         <v>1111</v>
-      </c>
-      <c r="B177" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C177" t="s">
-        <v>1114</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="B178" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="C178" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B179" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C179" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="B180" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="C180" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B181" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C181" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="B182" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="C182" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="B183" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C183" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B184" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C184" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B185" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C185" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
+        <v>910</v>
+      </c>
+      <c r="B186" t="s">
+        <v>911</v>
+      </c>
+      <c r="C186" t="s">
         <v>912</v>
-      </c>
-      <c r="B186" t="s">
-        <v>913</v>
-      </c>
-      <c r="C186" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="B187" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="C187" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="B188" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="C188" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B189" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C189" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B190" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C190" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B191" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C191" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B192" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C192" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B193" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C193" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B194" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C194" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B195" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C195" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B196" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C196" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B197" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C197" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B198" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C198" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B199" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C199" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B200" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C200" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B201" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C201" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B202" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C202" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B203" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C203" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B204" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C204" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B205" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C205" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B206" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C206" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B207" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C207" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B208" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C208" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B209" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C209" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B210" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C210" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B211" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="C211" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B212" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C212" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B213" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C213" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B214" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C214" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B215" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C215" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B216" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C216" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="B217" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C217" t="s">
         <v>1169</v>
-      </c>
-      <c r="C217" t="s">
-        <v>1172</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="B218" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="C218" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="B219" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="C219" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="B220" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="C220" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="B221" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="C221" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="B222" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="C222" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B223" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C223" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B224" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C224" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B225" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C225" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B226" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C226" t="s">
         <v>1196</v>
-      </c>
-      <c r="B226" t="s">
-        <v>1193</v>
-      </c>
-      <c r="C226" t="s">
-        <v>1199</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B227" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C227" t="s">
         <v>1197</v>
-      </c>
-      <c r="B227" t="s">
-        <v>1194</v>
-      </c>
-      <c r="C227" t="s">
-        <v>1200</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B228" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C228" t="s">
         <v>1198</v>
-      </c>
-      <c r="B228" t="s">
-        <v>1195</v>
-      </c>
-      <c r="C228" t="s">
-        <v>1201</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="B229" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C229" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B230" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C230" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B231" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C231" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B232" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C232" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B233" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C233" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B234" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C234" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B235" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C235" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B236" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C236" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B237" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C237" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B238" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C238" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B239" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C239" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B240" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C240" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B241" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C241" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B242" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C242" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B243" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C243" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B244" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C244" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B245" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C245" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B246" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C246" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B247" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C247" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B248" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C248" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B249" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C249" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B250" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C250" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B251" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C251" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B252" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C252" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B253" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C253" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B254" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C254" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B255" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C255" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B256" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C256" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B257" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C257" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
+        <v>913</v>
+      </c>
+      <c r="B258" t="s">
+        <v>914</v>
+      </c>
+      <c r="C258" t="s">
         <v>915</v>
-      </c>
-      <c r="B258" t="s">
-        <v>916</v>
-      </c>
-      <c r="C258" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B259" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C259" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B260" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C260" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B261" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C261" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
+        <v>783</v>
+      </c>
+      <c r="B262" t="s">
+        <v>784</v>
+      </c>
+      <c r="C262" t="s">
         <v>785</v>
-      </c>
-      <c r="B262" t="s">
-        <v>786</v>
-      </c>
-      <c r="C262" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B263" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C263" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
+        <v>788</v>
+      </c>
+      <c r="B264" t="s">
+        <v>789</v>
+      </c>
+      <c r="C264" t="s">
         <v>790</v>
-      </c>
-      <c r="B264" t="s">
-        <v>791</v>
-      </c>
-      <c r="C264" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
+        <v>793</v>
+      </c>
+      <c r="B265" t="s">
         <v>795</v>
       </c>
-      <c r="B265" t="s">
-        <v>797</v>
-      </c>
       <c r="C265" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B266" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C266" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B267" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C267" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
+        <v>800</v>
+      </c>
+      <c r="B268" t="s">
+        <v>801</v>
+      </c>
+      <c r="C268" t="s">
         <v>802</v>
-      </c>
-      <c r="B268" t="s">
-        <v>803</v>
-      </c>
-      <c r="C268" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B269" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C269" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B270" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C270" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B271" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C271" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B272" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C272" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B273" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C273" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B274" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C274" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B275" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C275" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B276" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C276" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B277" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C277" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B278" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C278" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B279" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C279" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B280" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C280" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B281" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C281" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B282" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C282" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B283" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C283" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B284" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C284" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B285" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C285" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B286" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C286" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B287" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C287" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B288" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C288" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B289" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C289" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B290" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C290" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B291" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C291" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B292" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C292" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B293" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C293" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B294" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C294" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B295" t="s">
+        <v>731</v>
+      </c>
+      <c r="C295" t="s">
         <v>733</v>
-      </c>
-      <c r="C295" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B296" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C296" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B297" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C297" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B298" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C298" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B299" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C299" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B300" t="s">
+        <v>876</v>
+      </c>
+      <c r="C300" t="s">
         <v>878</v>
-      </c>
-      <c r="C300" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B301" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C301" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B302" t="s">
         <v>24</v>
       </c>
       <c r="C302" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B303" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C303" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B304" t="s">
+        <v>722</v>
+      </c>
+      <c r="C304" t="s">
         <v>724</v>
-      </c>
-      <c r="C304" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B305" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C305" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B306" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C306" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B307" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C307" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B308" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C308" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B309" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C309" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B310" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C310" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B311" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C311" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B312" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C312" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B313" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C313" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B314" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C314" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B315" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C315" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B316" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C316" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B317" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C317" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B318" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C318" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B319" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C319" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B320" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C320" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B321" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C321" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B322" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C322" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B323" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C323" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B324" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C324" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B325" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C325" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B326" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C326" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B327" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C327" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
+        <v>737</v>
+      </c>
+      <c r="B328" t="s">
         <v>739</v>
       </c>
-      <c r="B328" t="s">
-        <v>741</v>
-      </c>
       <c r="C328" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B329" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C329" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B330" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C330" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B331" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C331" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B332" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C332" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B333" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C333" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B334" t="s">
+        <v>882</v>
+      </c>
+      <c r="C334" t="s">
         <v>884</v>
-      </c>
-      <c r="C334" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B335" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C335" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B336" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C336" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B337" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C337" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B338" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C338" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B339" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C339" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B340" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C340" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B341" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C341" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="B342" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="C342" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B343" t="s">
         <v>1137</v>
       </c>
-      <c r="B343" t="s">
-        <v>1140</v>
-      </c>
       <c r="C343" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="B344" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="C344" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="B345" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="C345" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="B346" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="C346" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B347" t="s">
+        <v>757</v>
+      </c>
+      <c r="C347" t="s">
         <v>759</v>
-      </c>
-      <c r="C347" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B348" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C348" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B349" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C349" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B350" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C350" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B351" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C351" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B352" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C352" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B353" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C353" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B354" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C354" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B355" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C355" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B356" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C356" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B357" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C357" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B358" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C358" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B359" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C359" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B360" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C360" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B361" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C361" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B362" t="s">
+        <v>852</v>
+      </c>
+      <c r="C362" t="s">
         <v>854</v>
-      </c>
-      <c r="C362" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B363" t="s">
+        <v>932</v>
+      </c>
+      <c r="C363" t="s">
         <v>934</v>
-      </c>
-      <c r="C363" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B364" t="s">
+        <v>933</v>
+      </c>
+      <c r="C364" t="s">
         <v>935</v>
-      </c>
-      <c r="C364" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="B365" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="C365" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="B366" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="C366" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="B367" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="C367" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="B368" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="C368" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="B369" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="C369" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="B370" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="C370" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="B371" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="C371" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="B372" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="C372" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="B373" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="C373" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="B374" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="C374" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="B375" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="C375" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="B376" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="C376" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="B377" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="C377" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="B378" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="C378" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="B379" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="C379" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="B380" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C380" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="B381" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="C381" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="B382" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C382" t="s">
         <v>1035</v>
-      </c>
-      <c r="C382" t="s">
-        <v>1038</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="B383" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C383" t="s">
         <v>1036</v>
-      </c>
-      <c r="C383" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="B384" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C384" t="s">
         <v>1037</v>
-      </c>
-      <c r="C384" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="B385" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="C385" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="B386" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="C386" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B387" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="C387" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="B388" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="C388" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="B389" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="C389" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="B390" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="C390" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="B391" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="C391" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="B392" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C392" t="s">
         <v>1015</v>
-      </c>
-      <c r="C392" t="s">
-        <v>1018</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="B393" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C393" t="s">
         <v>1016</v>
-      </c>
-      <c r="C393" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="B394" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C394" t="s">
         <v>1017</v>
-      </c>
-      <c r="C394" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="B395" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="C395" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="B396" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="C396" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="B397" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="C397" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="B398" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="C398" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="B399" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="C399" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="B400" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C400" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="B401" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="C401" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B402" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C402" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
   </sheetData>

--- a/lang/words_dict.xlsx
+++ b/lang/words_dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\si lab\Matlab Projects\Registration\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E8F6C3-643F-4035-B65E-FD34AAC952FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C5B247-9DC8-4F97-80AE-60285558CF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3870" yWindow="1290" windowWidth="23385" windowHeight="13725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="1202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="1205">
   <si>
     <t>文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4642,6 +4642,18 @@
   </si>
   <si>
     <t>History Manager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Break</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4976,10 +4988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F402"/>
+  <dimension ref="A1:F403"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5775,3642 +5787,3653 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>502</v>
+        <v>616</v>
       </c>
       <c r="B72" t="s">
-        <v>47</v>
+        <v>187</v>
       </c>
       <c r="C72" t="s">
-        <v>289</v>
+        <v>458</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>503</v>
+        <v>1204</v>
       </c>
       <c r="B73" t="s">
-        <v>48</v>
+        <v>1202</v>
       </c>
       <c r="C73" t="s">
-        <v>290</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B74" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C74" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B75" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C75" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B76" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C76" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B77" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C77" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>601</v>
+        <v>506</v>
       </c>
       <c r="B78" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C78" t="s">
-        <v>602</v>
+        <v>293</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B79" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C79" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>509</v>
+        <v>601</v>
       </c>
       <c r="B80" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C80" t="s">
-        <v>296</v>
+        <v>602</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B81" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C81" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B82" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C82" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B83" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C83" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B84" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C84" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B85" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C85" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B86" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C86" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B87" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C87" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B88" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C88" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>726</v>
+        <v>516</v>
       </c>
       <c r="B89" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C89" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>603</v>
+        <v>517</v>
       </c>
       <c r="B90" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C90" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>1025</v>
+        <v>726</v>
       </c>
       <c r="B91" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C91" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>518</v>
+        <v>603</v>
       </c>
       <c r="B92" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C92" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>519</v>
+        <v>1025</v>
       </c>
       <c r="B93" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C93" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B94" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C94" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B95" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C95" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B96" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C96" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B97" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C97" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B98" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C98" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B99" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C99" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B100" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C100" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>1063</v>
+        <v>525</v>
       </c>
       <c r="B101" t="s">
-        <v>1062</v>
+        <v>75</v>
       </c>
       <c r="C101" t="s">
-        <v>1064</v>
+        <v>315</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>962</v>
+        <v>526</v>
       </c>
       <c r="B102" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C102" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>527</v>
+        <v>1063</v>
       </c>
       <c r="B103" t="s">
-        <v>78</v>
+        <v>1062</v>
       </c>
       <c r="C103" t="s">
-        <v>318</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>528</v>
+        <v>962</v>
       </c>
       <c r="B104" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C104" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B105" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C105" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>1003</v>
+        <v>528</v>
       </c>
       <c r="B106" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C106" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B107" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C107" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>873</v>
+        <v>1003</v>
       </c>
       <c r="B108" t="s">
-        <v>866</v>
+        <v>81</v>
       </c>
       <c r="C108" t="s">
-        <v>869</v>
+        <v>321</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>872</v>
+        <v>530</v>
       </c>
       <c r="B109" t="s">
-        <v>867</v>
+        <v>82</v>
       </c>
       <c r="C109" t="s">
-        <v>870</v>
+        <v>323</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B110" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C110" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>740</v>
+        <v>872</v>
       </c>
       <c r="B111" t="s">
-        <v>83</v>
+        <v>867</v>
       </c>
       <c r="C111" t="s">
-        <v>322</v>
+        <v>870</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>531</v>
+        <v>874</v>
       </c>
       <c r="B112" t="s">
-        <v>84</v>
+        <v>868</v>
       </c>
       <c r="C112" t="s">
-        <v>324</v>
+        <v>871</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>1004</v>
+        <v>740</v>
       </c>
       <c r="B113" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C113" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>741</v>
+        <v>531</v>
       </c>
       <c r="B114" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C114" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>532</v>
+        <v>1004</v>
       </c>
       <c r="B115" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C115" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>604</v>
+        <v>741</v>
       </c>
       <c r="B116" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C116" t="s">
-        <v>474</v>
+        <v>326</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B117" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C117" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>534</v>
+        <v>604</v>
       </c>
       <c r="B118" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C118" t="s">
-        <v>328</v>
+        <v>474</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B119" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C119" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B120" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C120" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B121" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C121" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B122" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C122" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B123" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C123" t="s">
-        <v>479</v>
+        <v>331</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B124" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C124" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>743</v>
+        <v>539</v>
       </c>
       <c r="B125" t="s">
-        <v>742</v>
+        <v>95</v>
       </c>
       <c r="C125" t="s">
-        <v>744</v>
+        <v>479</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>746</v>
+        <v>540</v>
       </c>
       <c r="B126" t="s">
-        <v>745</v>
+        <v>96</v>
       </c>
       <c r="C126" t="s">
-        <v>747</v>
+        <v>333</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>1005</v>
+        <v>743</v>
       </c>
       <c r="B127" t="s">
-        <v>97</v>
+        <v>742</v>
       </c>
       <c r="C127" t="s">
-        <v>335</v>
+        <v>744</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>541</v>
+        <v>746</v>
       </c>
       <c r="B128" t="s">
-        <v>98</v>
+        <v>745</v>
       </c>
       <c r="C128" t="s">
-        <v>337</v>
+        <v>747</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>542</v>
+        <v>1005</v>
       </c>
       <c r="B129" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C129" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B130" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C130" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B131" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C131" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B132" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C132" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B133" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C133" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B134" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C134" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B135" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C135" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B136" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C136" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B137" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C137" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B138" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C138" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>766</v>
+        <v>550</v>
       </c>
       <c r="B139" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C139" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>1009</v>
+        <v>551</v>
       </c>
       <c r="B140" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C140" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>552</v>
+        <v>766</v>
       </c>
       <c r="B141" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C141" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>553</v>
+        <v>1009</v>
       </c>
       <c r="B142" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C142" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B143" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C143" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>1010</v>
+        <v>553</v>
       </c>
       <c r="B144" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C144" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B145" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C145" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>556</v>
+        <v>1010</v>
       </c>
       <c r="B146" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C146" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B147" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C147" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B148" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C148" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B149" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C149" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>605</v>
+        <v>558</v>
       </c>
       <c r="B150" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C150" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>1148</v>
+        <v>559</v>
       </c>
       <c r="B151" t="s">
-        <v>1147</v>
+        <v>119</v>
       </c>
       <c r="C151" t="s">
-        <v>1149</v>
+        <v>357</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>1158</v>
+        <v>605</v>
       </c>
       <c r="B152" t="s">
-        <v>1150</v>
+        <v>120</v>
       </c>
       <c r="C152" t="s">
-        <v>1154</v>
+        <v>358</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>1159</v>
+        <v>1148</v>
       </c>
       <c r="B153" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="C153" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B154" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="C154" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="B155" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="C155" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>1118</v>
+        <v>1160</v>
       </c>
       <c r="B156" t="s">
-        <v>1115</v>
+        <v>1152</v>
       </c>
       <c r="C156" t="s">
-        <v>1120</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>1119</v>
+        <v>1161</v>
       </c>
       <c r="B157" t="s">
-        <v>1116</v>
+        <v>1153</v>
       </c>
       <c r="C157" t="s">
-        <v>1121</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="B158" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="C158" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>1164</v>
+        <v>1119</v>
       </c>
       <c r="B159" t="s">
-        <v>1162</v>
+        <v>1116</v>
       </c>
       <c r="C159" t="s">
-        <v>1163</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>856</v>
+        <v>1123</v>
       </c>
       <c r="B160" t="s">
-        <v>121</v>
+        <v>1117</v>
       </c>
       <c r="C160" t="s">
-        <v>359</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>855</v>
+        <v>1164</v>
       </c>
       <c r="B161" t="s">
-        <v>122</v>
+        <v>1162</v>
       </c>
       <c r="C161" t="s">
-        <v>360</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>560</v>
+        <v>856</v>
       </c>
       <c r="B162" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C162" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>561</v>
+        <v>855</v>
       </c>
       <c r="B163" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C163" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B164" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C164" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>781</v>
+        <v>561</v>
       </c>
       <c r="B165" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C165" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>782</v>
+        <v>562</v>
       </c>
       <c r="B166" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C166" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>773</v>
+        <v>781</v>
       </c>
       <c r="B167" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="C167" t="s">
-        <v>777</v>
+        <v>364</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>774</v>
+        <v>782</v>
       </c>
       <c r="B168" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="C168" t="s">
-        <v>778</v>
+        <v>365</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B169" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C169" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B170" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C170" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>803</v>
+        <v>775</v>
       </c>
       <c r="B171" t="s">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="C171" t="s">
-        <v>368</v>
+        <v>779</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>1126</v>
+        <v>776</v>
       </c>
       <c r="B172" t="s">
-        <v>1124</v>
+        <v>11</v>
       </c>
       <c r="C172" t="s">
-        <v>1125</v>
+        <v>780</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>861</v>
+        <v>803</v>
       </c>
       <c r="B173" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C173" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>863</v>
+        <v>1126</v>
       </c>
       <c r="B174" t="s">
-        <v>132</v>
+        <v>1124</v>
       </c>
       <c r="C174" t="s">
-        <v>370</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>1106</v>
+        <v>861</v>
       </c>
       <c r="B175" t="s">
-        <v>1103</v>
+        <v>131</v>
       </c>
       <c r="C175" t="s">
-        <v>1109</v>
+        <v>369</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>1107</v>
+        <v>863</v>
       </c>
       <c r="B176" t="s">
-        <v>1104</v>
+        <v>132</v>
       </c>
       <c r="C176" t="s">
-        <v>1110</v>
+        <v>370</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="B177" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="C177" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>1114</v>
+        <v>1107</v>
       </c>
       <c r="B178" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
       <c r="C178" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>564</v>
+        <v>1108</v>
       </c>
       <c r="B179" t="s">
-        <v>133</v>
+        <v>1105</v>
       </c>
       <c r="C179" t="s">
-        <v>371</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>1083</v>
+        <v>1114</v>
       </c>
       <c r="B180" t="s">
-        <v>1082</v>
+        <v>1112</v>
       </c>
       <c r="C180" t="s">
-        <v>1084</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B181" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C181" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>1127</v>
+        <v>1083</v>
       </c>
       <c r="B182" t="s">
-        <v>1128</v>
+        <v>1082</v>
       </c>
       <c r="C182" t="s">
-        <v>1129</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>1023</v>
+        <v>565</v>
       </c>
       <c r="B183" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C183" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>566</v>
+        <v>1127</v>
       </c>
       <c r="B184" t="s">
-        <v>136</v>
+        <v>1128</v>
       </c>
       <c r="C184" t="s">
-        <v>374</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>567</v>
+        <v>1023</v>
       </c>
       <c r="B185" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C185" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>910</v>
+        <v>566</v>
       </c>
       <c r="B186" t="s">
-        <v>911</v>
+        <v>136</v>
       </c>
       <c r="C186" t="s">
-        <v>912</v>
+        <v>374</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>1186</v>
+        <v>567</v>
       </c>
       <c r="B187" t="s">
-        <v>1182</v>
+        <v>137</v>
       </c>
       <c r="C187" t="s">
-        <v>1184</v>
+        <v>375</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>1187</v>
+        <v>910</v>
       </c>
       <c r="B188" t="s">
-        <v>1183</v>
+        <v>911</v>
       </c>
       <c r="C188" t="s">
-        <v>1185</v>
+        <v>912</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>864</v>
+        <v>1186</v>
       </c>
       <c r="B189" t="s">
-        <v>138</v>
+        <v>1182</v>
       </c>
       <c r="C189" t="s">
-        <v>376</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>568</v>
+        <v>1187</v>
       </c>
       <c r="B190" t="s">
-        <v>139</v>
+        <v>1183</v>
       </c>
       <c r="C190" t="s">
-        <v>377</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>824</v>
+        <v>864</v>
       </c>
       <c r="B191" t="s">
-        <v>810</v>
+        <v>138</v>
       </c>
       <c r="C191" t="s">
-        <v>825</v>
+        <v>376</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>858</v>
+        <v>568</v>
       </c>
       <c r="B192" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C192" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>859</v>
+        <v>824</v>
       </c>
       <c r="B193" t="s">
-        <v>767</v>
+        <v>810</v>
       </c>
       <c r="C193" t="s">
-        <v>768</v>
+        <v>825</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>828</v>
+        <v>858</v>
       </c>
       <c r="B194" t="s">
-        <v>811</v>
+        <v>129</v>
       </c>
       <c r="C194" t="s">
-        <v>826</v>
+        <v>367</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>829</v>
+        <v>859</v>
       </c>
       <c r="B195" t="s">
-        <v>812</v>
+        <v>767</v>
       </c>
       <c r="C195" t="s">
-        <v>827</v>
+        <v>768</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B196" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C196" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="B197" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C197" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="B198" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C198" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B199" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C199" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B200" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C200" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="B201" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C201" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="B202" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C202" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="B203" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C203" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B204" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C204" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="B205" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C205" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="B206" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C206" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>563</v>
+        <v>849</v>
       </c>
       <c r="B207" t="s">
-        <v>128</v>
+        <v>822</v>
       </c>
       <c r="C207" t="s">
-        <v>366</v>
+        <v>848</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>569</v>
+        <v>850</v>
       </c>
       <c r="B208" t="s">
-        <v>140</v>
+        <v>823</v>
       </c>
       <c r="C208" t="s">
-        <v>378</v>
+        <v>851</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="B209" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="C209" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B210" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C210" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B211" t="s">
-        <v>1165</v>
+        <v>141</v>
       </c>
       <c r="C211" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B212" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C212" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B213" t="s">
-        <v>144</v>
+        <v>1165</v>
       </c>
       <c r="C213" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B214" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C214" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>862</v>
+        <v>574</v>
       </c>
       <c r="B215" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C215" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>857</v>
+        <v>575</v>
       </c>
       <c r="B216" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C216" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>1170</v>
+        <v>862</v>
       </c>
       <c r="B217" t="s">
-        <v>1166</v>
+        <v>146</v>
       </c>
       <c r="C217" t="s">
-        <v>1169</v>
+        <v>385</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>1178</v>
+        <v>857</v>
       </c>
       <c r="B218" t="s">
-        <v>1175</v>
+        <v>147</v>
       </c>
       <c r="C218" t="s">
-        <v>1179</v>
+        <v>386</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>1188</v>
+        <v>1170</v>
       </c>
       <c r="B219" t="s">
-        <v>1176</v>
+        <v>1166</v>
       </c>
       <c r="C219" t="s">
-        <v>1180</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>1189</v>
+        <v>1178</v>
       </c>
       <c r="B220" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="C220" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>1172</v>
+        <v>1188</v>
       </c>
       <c r="B221" t="s">
-        <v>1167</v>
+        <v>1176</v>
       </c>
       <c r="C221" t="s">
-        <v>1171</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>1174</v>
+        <v>1189</v>
       </c>
       <c r="B222" t="s">
-        <v>1168</v>
+        <v>1177</v>
       </c>
       <c r="C222" t="s">
-        <v>1173</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>860</v>
+        <v>1172</v>
       </c>
       <c r="B223" t="s">
-        <v>148</v>
+        <v>1167</v>
       </c>
       <c r="C223" t="s">
-        <v>387</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>1145</v>
+        <v>1174</v>
       </c>
       <c r="B224" t="s">
-        <v>149</v>
+        <v>1168</v>
       </c>
       <c r="C224" t="s">
-        <v>1146</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="B225" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C225" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>1193</v>
+        <v>1145</v>
       </c>
       <c r="B226" t="s">
-        <v>1190</v>
+        <v>149</v>
       </c>
       <c r="C226" t="s">
-        <v>1196</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>1194</v>
+        <v>865</v>
       </c>
       <c r="B227" t="s">
-        <v>1191</v>
+        <v>150</v>
       </c>
       <c r="C227" t="s">
-        <v>1197</v>
+        <v>388</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="B228" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="C228" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>1024</v>
+        <v>1194</v>
       </c>
       <c r="B229" t="s">
-        <v>151</v>
+        <v>1191</v>
       </c>
       <c r="C229" t="s">
-        <v>389</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>576</v>
+        <v>1195</v>
       </c>
       <c r="B230" t="s">
-        <v>152</v>
+        <v>1192</v>
       </c>
       <c r="C230" t="s">
-        <v>390</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>577</v>
+        <v>1024</v>
       </c>
       <c r="B231" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C231" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B232" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C232" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B233" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C233" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B234" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C234" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B235" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C235" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B236" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C236" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B237" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C237" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B238" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C238" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B239" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C239" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B240" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C240" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B241" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C241" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B242" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C242" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B243" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C243" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B244" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C244" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B245" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C245" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="B246" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C246" t="s">
-        <v>480</v>
+        <v>404</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B247" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C247" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="B248" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C248" t="s">
-        <v>407</v>
+        <v>480</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B249" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C249" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B250" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C250" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B251" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C251" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B252" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C252" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B253" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C253" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B254" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C254" t="s">
-        <v>607</v>
+        <v>411</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B255" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C255" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>696</v>
+        <v>599</v>
       </c>
       <c r="B256" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C256" t="s">
-        <v>450</v>
+        <v>607</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="B257" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C257" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>913</v>
+        <v>696</v>
       </c>
       <c r="B258" t="s">
-        <v>914</v>
+        <v>178</v>
       </c>
       <c r="C258" t="s">
-        <v>915</v>
+        <v>450</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B259" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C259" t="s">
-        <v>451</v>
+        <v>414</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>610</v>
+        <v>913</v>
       </c>
       <c r="B260" t="s">
-        <v>181</v>
+        <v>914</v>
       </c>
       <c r="C260" t="s">
-        <v>452</v>
+        <v>915</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B261" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C261" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>783</v>
+        <v>610</v>
       </c>
       <c r="B262" t="s">
-        <v>784</v>
+        <v>181</v>
       </c>
       <c r="C262" t="s">
-        <v>785</v>
+        <v>452</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>786</v>
+        <v>611</v>
       </c>
       <c r="B263" t="s">
-        <v>787</v>
+        <v>182</v>
       </c>
       <c r="C263" t="s">
-        <v>791</v>
+        <v>453</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="B264" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="C264" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="B265" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="C265" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="B266" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C266" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="B267" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="C267" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="B268" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="C268" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>612</v>
+        <v>798</v>
       </c>
       <c r="B269" t="s">
-        <v>183</v>
+        <v>799</v>
       </c>
       <c r="C269" t="s">
-        <v>415</v>
+        <v>798</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>613</v>
+        <v>800</v>
       </c>
       <c r="B270" t="s">
-        <v>184</v>
+        <v>801</v>
       </c>
       <c r="C270" t="s">
-        <v>454</v>
+        <v>802</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B271" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C271" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B272" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C272" t="s">
-        <v>417</v>
+        <v>454</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B273" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C273" t="s">
-        <v>458</v>
+        <v>416</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B274" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C274" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B275" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C275" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>809</v>
+        <v>618</v>
       </c>
       <c r="B276" t="s">
-        <v>807</v>
+        <v>189</v>
       </c>
       <c r="C276" t="s">
-        <v>808</v>
+        <v>419</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>619</v>
+        <v>809</v>
       </c>
       <c r="B277" t="s">
-        <v>729</v>
+        <v>807</v>
       </c>
       <c r="C277" t="s">
-        <v>730</v>
+        <v>808</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B278" t="s">
-        <v>190</v>
+        <v>729</v>
       </c>
       <c r="C278" t="s">
-        <v>420</v>
+        <v>730</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B279" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C279" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B280" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C280" t="s">
-        <v>473</v>
+        <v>421</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B281" t="s">
-        <v>727</v>
+        <v>192</v>
       </c>
       <c r="C281" t="s">
-        <v>728</v>
+        <v>473</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B282" t="s">
-        <v>193</v>
+        <v>727</v>
       </c>
       <c r="C282" t="s">
-        <v>422</v>
+        <v>728</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B283" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C283" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B284" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C284" t="s">
-        <v>455</v>
+        <v>423</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B285" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C285" t="s">
-        <v>424</v>
+        <v>455</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B286" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="C286" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B287" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C287" t="s">
-        <v>481</v>
+        <v>425</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B288" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C288" t="s">
-        <v>426</v>
+        <v>481</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B289" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C289" t="s">
-        <v>482</v>
+        <v>426</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B290" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="C290" t="s">
-        <v>427</v>
+        <v>482</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B291" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C291" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B292" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C292" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B293" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C293" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B294" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C294" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>732</v>
+        <v>636</v>
       </c>
       <c r="B295" t="s">
-        <v>731</v>
+        <v>201</v>
       </c>
       <c r="C295" t="s">
-        <v>733</v>
+        <v>431</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>637</v>
+        <v>732</v>
       </c>
       <c r="B296" t="s">
-        <v>202</v>
+        <v>731</v>
       </c>
       <c r="C296" t="s">
-        <v>457</v>
+        <v>733</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B297" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C297" t="s">
-        <v>432</v>
+        <v>457</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B298" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C298" t="s">
-        <v>471</v>
+        <v>432</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B299" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C299" t="s">
-        <v>877</v>
+        <v>471</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>875</v>
+        <v>640</v>
       </c>
       <c r="B300" t="s">
-        <v>876</v>
+        <v>205</v>
       </c>
       <c r="C300" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>641</v>
+        <v>875</v>
       </c>
       <c r="B301" t="s">
-        <v>206</v>
+        <v>876</v>
       </c>
       <c r="C301" t="s">
-        <v>433</v>
+        <v>878</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B302" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="C302" t="s">
-        <v>470</v>
+        <v>433</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B303" t="s">
-        <v>207</v>
+        <v>24</v>
       </c>
       <c r="C303" t="s">
-        <v>434</v>
+        <v>470</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>723</v>
+        <v>643</v>
       </c>
       <c r="B304" t="s">
-        <v>722</v>
+        <v>207</v>
       </c>
       <c r="C304" t="s">
-        <v>724</v>
+        <v>434</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>644</v>
+        <v>723</v>
       </c>
       <c r="B305" t="s">
-        <v>208</v>
+        <v>722</v>
       </c>
       <c r="C305" t="s">
-        <v>472</v>
+        <v>724</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B306" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C306" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>674</v>
+        <v>645</v>
       </c>
       <c r="B307" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C307" t="s">
-        <v>435</v>
+        <v>456</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>647</v>
+        <v>674</v>
       </c>
       <c r="B308" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C308" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B309" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C309" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B310" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C310" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B311" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C311" t="s">
-        <v>459</v>
+        <v>438</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B312" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C312" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B313" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C313" t="s">
-        <v>439</v>
+        <v>460</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B314" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C314" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B315" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C315" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B316" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C316" t="s">
-        <v>680</v>
+        <v>441</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>725</v>
+        <v>657</v>
       </c>
       <c r="B317" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C317" t="s">
-        <v>442</v>
+        <v>680</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>658</v>
+        <v>725</v>
       </c>
       <c r="B318" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C318" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="B319" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C319" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>736</v>
+        <v>654</v>
       </c>
       <c r="B320" t="s">
-        <v>734</v>
+        <v>226</v>
       </c>
       <c r="C320" t="s">
-        <v>735</v>
+        <v>462</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>646</v>
+        <v>736</v>
       </c>
       <c r="B321" t="s">
-        <v>227</v>
+        <v>734</v>
       </c>
       <c r="C321" t="s">
-        <v>463</v>
+        <v>735</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="B322" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C322" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B323" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C323" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B324" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C324" t="s">
-        <v>662</v>
+        <v>465</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="B325" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C325" t="s">
-        <v>443</v>
+        <v>662</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B326" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C326" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B327" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C327" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>737</v>
+        <v>664</v>
       </c>
       <c r="B328" t="s">
-        <v>739</v>
+        <v>233</v>
       </c>
       <c r="C328" t="s">
-        <v>738</v>
+        <v>445</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>666</v>
+        <v>737</v>
       </c>
       <c r="B329" t="s">
-        <v>234</v>
+        <v>739</v>
       </c>
       <c r="C329" t="s">
-        <v>466</v>
+        <v>738</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B330" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C330" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B331" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C331" t="s">
-        <v>446</v>
+        <v>467</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B332" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C332" t="s">
-        <v>468</v>
+        <v>446</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B333" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C333" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>883</v>
+        <v>670</v>
       </c>
       <c r="B334" t="s">
-        <v>882</v>
+        <v>238</v>
       </c>
       <c r="C334" t="s">
-        <v>884</v>
+        <v>447</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>671</v>
+        <v>883</v>
       </c>
       <c r="B335" t="s">
-        <v>239</v>
+        <v>882</v>
       </c>
       <c r="C335" t="s">
-        <v>448</v>
+        <v>884</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>652</v>
+        <v>671</v>
       </c>
       <c r="B336" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C336" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>672</v>
+        <v>652</v>
       </c>
       <c r="B337" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C337" t="s">
-        <v>888</v>
+        <v>449</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B338" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C338" t="s">
-        <v>469</v>
+        <v>888</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>750</v>
+        <v>673</v>
       </c>
       <c r="B339" t="s">
-        <v>748</v>
+        <v>242</v>
       </c>
       <c r="C339" t="s">
-        <v>749</v>
+        <v>469</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="B340" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C340" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="B341" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C341" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>1131</v>
+        <v>756</v>
       </c>
       <c r="B342" t="s">
-        <v>1135</v>
+        <v>754</v>
       </c>
       <c r="C342" t="s">
-        <v>1136</v>
+        <v>755</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="B343" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="C343" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>1130</v>
+        <v>1134</v>
       </c>
       <c r="B344" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="C344" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="B345" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="C345" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B346" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="C346" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>760</v>
+        <v>1133</v>
       </c>
       <c r="B347" t="s">
-        <v>757</v>
+        <v>1143</v>
       </c>
       <c r="C347" t="s">
-        <v>759</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B348" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C348" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="B349" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="C349" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>700</v>
+        <v>765</v>
       </c>
       <c r="B350" t="s">
-        <v>684</v>
+        <v>764</v>
       </c>
       <c r="C350" t="s">
-        <v>713</v>
+        <v>763</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="B351" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C351" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B352" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C352" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>701</v>
+        <v>715</v>
       </c>
       <c r="B353" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C353" t="s">
-        <v>721</v>
+        <v>710</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B354" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C354" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B355" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C355" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B356" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C356" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B357" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C357" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B358" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C358" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B359" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C359" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B360" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C360" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>806</v>
+        <v>708</v>
       </c>
       <c r="B361" t="s">
-        <v>804</v>
+        <v>694</v>
       </c>
       <c r="C361" t="s">
-        <v>805</v>
+        <v>712</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>853</v>
+        <v>806</v>
       </c>
       <c r="B362" t="s">
-        <v>852</v>
+        <v>804</v>
       </c>
       <c r="C362" t="s">
-        <v>854</v>
+        <v>805</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>936</v>
+        <v>853</v>
       </c>
       <c r="B363" t="s">
-        <v>932</v>
+        <v>852</v>
       </c>
       <c r="C363" t="s">
-        <v>934</v>
+        <v>854</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B364" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C364" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>954</v>
+        <v>937</v>
       </c>
       <c r="B365" t="s">
-        <v>953</v>
+        <v>933</v>
       </c>
       <c r="C365" t="s">
-        <v>955</v>
+        <v>935</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>988</v>
+        <v>954</v>
       </c>
       <c r="B366" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
       <c r="C366" t="s">
-        <v>975</v>
+        <v>955</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B367" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C367" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B368" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C368" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B369" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C369" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B370" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C370" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B371" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C371" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>1027</v>
+        <v>992</v>
       </c>
       <c r="B372" t="s">
-        <v>1026</v>
+        <v>969</v>
       </c>
       <c r="C372" t="s">
-        <v>1028</v>
+        <v>983</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>993</v>
+        <v>1027</v>
       </c>
       <c r="B373" t="s">
-        <v>970</v>
+        <v>1026</v>
       </c>
       <c r="C373" t="s">
-        <v>984</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B374" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C374" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B375" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C375" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B376" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="C376" t="s">
-        <v>979</v>
+        <v>986</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B377" t="s">
-        <v>1065</v>
+        <v>978</v>
       </c>
       <c r="C377" t="s">
-        <v>1069</v>
+        <v>979</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>1068</v>
+        <v>997</v>
       </c>
       <c r="B378" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C378" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>998</v>
+        <v>1068</v>
       </c>
       <c r="B379" t="s">
-        <v>973</v>
+        <v>1066</v>
       </c>
       <c r="C379" t="s">
-        <v>974</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>1030</v>
+        <v>998</v>
       </c>
       <c r="B380" t="s">
-        <v>1029</v>
+        <v>973</v>
       </c>
       <c r="C380" t="s">
-        <v>1031</v>
+        <v>974</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>1045</v>
+        <v>1030</v>
       </c>
       <c r="B381" t="s">
-        <v>1044</v>
+        <v>1029</v>
       </c>
       <c r="C381" t="s">
-        <v>1046</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>1038</v>
+        <v>1045</v>
       </c>
       <c r="B382" t="s">
-        <v>1032</v>
+        <v>1044</v>
       </c>
       <c r="C382" t="s">
-        <v>1035</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B383" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C383" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B384" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C384" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>1049</v>
+        <v>1040</v>
       </c>
       <c r="B385" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
       <c r="C385" t="s">
-        <v>1048</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B386" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="C386" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>1061</v>
+        <v>1050</v>
       </c>
       <c r="B387" t="s">
-        <v>1058</v>
+        <v>1051</v>
       </c>
       <c r="C387" t="s">
-        <v>1060</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>1053</v>
+        <v>1061</v>
       </c>
       <c r="B388" t="s">
-        <v>1054</v>
+        <v>1058</v>
       </c>
       <c r="C388" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="B389" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C389" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>999</v>
+        <v>1057</v>
       </c>
       <c r="B390" t="s">
-        <v>965</v>
+        <v>1055</v>
       </c>
       <c r="C390" t="s">
-        <v>980</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>1019</v>
+        <v>999</v>
       </c>
       <c r="B391" t="s">
-        <v>1011</v>
+        <v>965</v>
       </c>
       <c r="C391" t="s">
-        <v>1018</v>
+        <v>980</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B392" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C392" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B393" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C393" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B394" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C394" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>1000</v>
+        <v>1022</v>
       </c>
       <c r="B395" t="s">
-        <v>1001</v>
+        <v>1014</v>
       </c>
       <c r="C395" t="s">
-        <v>1002</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>1042</v>
+        <v>1000</v>
       </c>
       <c r="B396" t="s">
-        <v>1041</v>
+        <v>1001</v>
       </c>
       <c r="C396" t="s">
-        <v>1043</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>1076</v>
+        <v>1042</v>
       </c>
       <c r="B397" t="s">
-        <v>1070</v>
+        <v>1041</v>
       </c>
       <c r="C397" t="s">
-        <v>1074</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B398" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="C398" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="B399" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="C399" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>1091</v>
+        <v>1081</v>
       </c>
       <c r="B400" t="s">
-        <v>1092</v>
+        <v>1078</v>
       </c>
       <c r="C400" t="s">
-        <v>1093</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="B401" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C401" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B402" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C402" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
         <v>699</v>
       </c>
-      <c r="B402" t="s">
+      <c r="B403" t="s">
         <v>697</v>
       </c>
-      <c r="C402" t="s">
+      <c r="C403" t="s">
         <v>698</v>
       </c>
     </row>

--- a/lang/words_dict.xlsx
+++ b/lang/words_dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\si lab\Matlab Projects\Registration\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C5B247-9DC8-4F97-80AE-60285558CF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806A9749-D1B6-445E-86A5-99444DC4E0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3870" yWindow="1290" windowWidth="23385" windowHeight="13725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -779,10 +779,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未设置配准工作流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>执行自动配准</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1693,9 +1689,6 @@
     <t>The configuration file is corrupted</t>
   </si>
   <si>
-    <t>No registration workflow set up</t>
-  </si>
-  <si>
     <t>Perform automatic registration</t>
   </si>
   <si>
@@ -2341,10 +2334,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>REGISTRATION_WORKFLOW_ERROR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PERFORM_AUTO_REGISTRATION</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4654,6 +4643,18 @@
   </si>
   <si>
     <t>BREAK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未设置配准方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REGISTRATION_RESOLUTION_ERROR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No registration resolution set up</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4990,8 +4991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F403"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
+      <selection activeCell="C278" sqref="C278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5008,4433 +5009,4433 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B3" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C3" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B10" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C10" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="B12" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="C12" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="B13" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="C13" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B14" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="C14" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="B15" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="C15" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="B16" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="C16" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="B17" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C17" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="B18" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="C18" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="B19" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C19" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="B20" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="C20" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="B22" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B23" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B24" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="C24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B25" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B27" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="C27" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="B28" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C28" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B30" t="s">
         <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="B31" t="s">
         <v>17</v>
       </c>
       <c r="C31" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="B32" t="s">
         <v>18</v>
       </c>
       <c r="C32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="B33" t="s">
         <v>19</v>
       </c>
       <c r="C33" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="B34" t="s">
         <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="B35" t="s">
         <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="B36" t="s">
         <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B37" t="s">
         <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="B38" t="s">
         <v>24</v>
       </c>
       <c r="C38" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B39" t="s">
         <v>25</v>
       </c>
       <c r="C39" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="B40" t="s">
+        <v>473</v>
+      </c>
+      <c r="C40" t="s">
         <v>475</v>
-      </c>
-      <c r="C40" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="B41" t="s">
+        <v>474</v>
+      </c>
+      <c r="C41" t="s">
         <v>476</v>
-      </c>
-      <c r="C41" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="B42" t="s">
         <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="B43" t="s">
         <v>27</v>
       </c>
       <c r="C43" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="B44" t="s">
         <v>28</v>
       </c>
       <c r="C44" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="B45" t="s">
         <v>29</v>
       </c>
       <c r="C45" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="B46" t="s">
         <v>30</v>
       </c>
       <c r="C46" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="B47" t="s">
         <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B48" t="s">
         <v>32</v>
       </c>
       <c r="C48" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="B49" t="s">
         <v>33</v>
       </c>
       <c r="C49" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="B50" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="C50" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="B51" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="C51" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="B52" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="C52" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="B53" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="C53" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="B54" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="C54" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B55" t="s">
         <v>34</v>
       </c>
       <c r="C55" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B56" t="s">
         <v>35</v>
       </c>
       <c r="C56" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="B57" t="s">
         <v>36</v>
       </c>
       <c r="C57" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="B58" t="s">
         <v>37</v>
       </c>
       <c r="C58" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="B59" t="s">
         <v>38</v>
       </c>
       <c r="C59" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="B60" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="C60" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="B61" t="s">
         <v>40</v>
       </c>
       <c r="C61" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B62" t="s">
         <v>39</v>
       </c>
       <c r="C62" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="B63" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="C63" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B64" t="s">
         <v>41</v>
       </c>
       <c r="C64" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="B65" t="s">
         <v>42</v>
       </c>
       <c r="C65" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B66" t="s">
         <v>43</v>
       </c>
       <c r="C66" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B67" t="s">
         <v>44</v>
       </c>
       <c r="C67" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B68" t="s">
         <v>57</v>
       </c>
       <c r="C68" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="B69" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C69" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B70" t="s">
         <v>45</v>
       </c>
       <c r="C70" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B71" t="s">
         <v>46</v>
       </c>
       <c r="C71" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B72" t="s">
         <v>187</v>
       </c>
       <c r="C72" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="B73" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="C73" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B74" t="s">
         <v>47</v>
       </c>
       <c r="C74" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B75" t="s">
         <v>48</v>
       </c>
       <c r="C75" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B76" t="s">
         <v>49</v>
       </c>
       <c r="C76" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B77" t="s">
         <v>60</v>
       </c>
       <c r="C77" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B78" t="s">
         <v>61</v>
       </c>
       <c r="C78" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B79" t="s">
         <v>62</v>
       </c>
       <c r="C79" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B80" t="s">
         <v>63</v>
       </c>
       <c r="C80" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B81" t="s">
         <v>50</v>
       </c>
       <c r="C81" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B82" t="s">
         <v>51</v>
       </c>
       <c r="C82" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B83" t="s">
         <v>52</v>
       </c>
       <c r="C83" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B84" t="s">
         <v>53</v>
       </c>
       <c r="C84" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B85" t="s">
         <v>54</v>
       </c>
       <c r="C85" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B86" t="s">
         <v>55</v>
       </c>
       <c r="C86" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B87" t="s">
         <v>56</v>
       </c>
       <c r="C87" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B88" t="s">
         <v>58</v>
       </c>
       <c r="C88" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B89" t="s">
         <v>59</v>
       </c>
       <c r="C89" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B90" t="s">
         <v>64</v>
       </c>
       <c r="C90" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B91" t="s">
         <v>65</v>
       </c>
       <c r="C91" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B92" t="s">
         <v>66</v>
       </c>
       <c r="C92" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="B93" t="s">
         <v>71</v>
       </c>
       <c r="C93" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B94" t="s">
         <v>67</v>
       </c>
       <c r="C94" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B95" t="s">
         <v>69</v>
       </c>
       <c r="C95" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B96" t="s">
         <v>70</v>
       </c>
       <c r="C96" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B97" t="s">
         <v>72</v>
       </c>
       <c r="C97" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B98" t="s">
         <v>73</v>
       </c>
       <c r="C98" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B99" t="s">
         <v>68</v>
       </c>
       <c r="C99" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B100" t="s">
         <v>74</v>
       </c>
       <c r="C100" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B101" t="s">
         <v>75</v>
       </c>
       <c r="C101" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B102" t="s">
         <v>76</v>
       </c>
       <c r="C102" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="B103" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="C103" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="B104" t="s">
         <v>77</v>
       </c>
       <c r="C104" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B105" t="s">
         <v>78</v>
       </c>
       <c r="C105" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B106" t="s">
         <v>79</v>
       </c>
       <c r="C106" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B107" t="s">
         <v>80</v>
       </c>
       <c r="C107" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="B108" t="s">
         <v>81</v>
       </c>
       <c r="C108" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B109" t="s">
         <v>82</v>
       </c>
       <c r="C109" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="B110" t="s">
+        <v>863</v>
+      </c>
+      <c r="C110" t="s">
         <v>866</v>
-      </c>
-      <c r="C110" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="B111" t="s">
+        <v>864</v>
+      </c>
+      <c r="C111" t="s">
         <v>867</v>
-      </c>
-      <c r="C111" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="B112" t="s">
+        <v>865</v>
+      </c>
+      <c r="C112" t="s">
         <v>868</v>
-      </c>
-      <c r="C112" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="B113" t="s">
         <v>83</v>
       </c>
       <c r="C113" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B114" t="s">
         <v>84</v>
       </c>
       <c r="C114" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="B115" t="s">
         <v>85</v>
       </c>
       <c r="C115" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="B116" t="s">
         <v>86</v>
       </c>
       <c r="C116" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B117" t="s">
         <v>87</v>
       </c>
       <c r="C117" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B118" t="s">
         <v>88</v>
       </c>
       <c r="C118" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B119" t="s">
         <v>89</v>
       </c>
       <c r="C119" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B120" t="s">
         <v>90</v>
       </c>
       <c r="C120" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B121" t="s">
         <v>91</v>
       </c>
       <c r="C121" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B122" t="s">
         <v>92</v>
       </c>
       <c r="C122" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B123" t="s">
         <v>93</v>
       </c>
       <c r="C123" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B124" t="s">
         <v>94</v>
       </c>
       <c r="C124" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B125" t="s">
         <v>95</v>
       </c>
       <c r="C125" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B126" t="s">
         <v>96</v>
       </c>
       <c r="C126" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="B127" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="C127" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="B128" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="C128" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="B129" t="s">
         <v>97</v>
       </c>
       <c r="C129" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B130" t="s">
         <v>98</v>
       </c>
       <c r="C130" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B131" t="s">
         <v>99</v>
       </c>
       <c r="C131" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B132" t="s">
         <v>100</v>
       </c>
       <c r="C132" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B133" t="s">
         <v>101</v>
       </c>
       <c r="C133" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B134" t="s">
         <v>102</v>
       </c>
       <c r="C134" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B135" t="s">
         <v>103</v>
       </c>
       <c r="C135" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B136" t="s">
         <v>104</v>
       </c>
       <c r="C136" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B137" t="s">
         <v>105</v>
       </c>
       <c r="C137" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B138" t="s">
         <v>106</v>
       </c>
       <c r="C138" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B139" t="s">
         <v>107</v>
       </c>
       <c r="C139" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B140" t="s">
         <v>108</v>
       </c>
       <c r="C140" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B141" t="s">
         <v>109</v>
       </c>
       <c r="C141" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="B142" t="s">
         <v>110</v>
       </c>
       <c r="C142" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B143" t="s">
         <v>111</v>
       </c>
       <c r="C143" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B144" t="s">
         <v>112</v>
       </c>
       <c r="C144" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B145" t="s">
         <v>113</v>
       </c>
       <c r="C145" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="B146" t="s">
         <v>114</v>
       </c>
       <c r="C146" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B147" t="s">
         <v>115</v>
       </c>
       <c r="C147" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B148" t="s">
         <v>116</v>
       </c>
       <c r="C148" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B149" t="s">
         <v>117</v>
       </c>
       <c r="C149" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B150" t="s">
         <v>118</v>
       </c>
       <c r="C150" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B151" t="s">
         <v>119</v>
       </c>
       <c r="C151" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B152" t="s">
         <v>120</v>
       </c>
       <c r="C152" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B153" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="C153" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="B154" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="C154" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="B155" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="C155" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="B156" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="C156" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="B157" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="C157" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="B158" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="C158" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="B159" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="C159" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="B160" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="C160" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="B161" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="C161" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="B162" t="s">
         <v>121</v>
       </c>
       <c r="C162" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="B163" t="s">
         <v>122</v>
       </c>
       <c r="C163" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B164" t="s">
         <v>123</v>
       </c>
       <c r="C164" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B165" t="s">
         <v>124</v>
       </c>
       <c r="C165" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B166" t="s">
         <v>125</v>
       </c>
       <c r="C166" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B167" t="s">
         <v>126</v>
       </c>
       <c r="C167" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B168" t="s">
         <v>127</v>
       </c>
       <c r="C168" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="B169" t="s">
         <v>14</v>
       </c>
       <c r="C169" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B170" t="s">
         <v>13</v>
       </c>
       <c r="C170" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B171" t="s">
         <v>12</v>
       </c>
       <c r="C171" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="B172" t="s">
         <v>11</v>
       </c>
       <c r="C172" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B173" t="s">
         <v>130</v>
       </c>
       <c r="C173" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="B174" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="C174" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="B175" t="s">
         <v>131</v>
       </c>
       <c r="C175" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="B176" t="s">
         <v>132</v>
       </c>
       <c r="C176" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C177" t="s">
         <v>1106</v>
-      </c>
-      <c r="B177" t="s">
-        <v>1103</v>
-      </c>
-      <c r="C177" t="s">
-        <v>1109</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B178" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C178" t="s">
         <v>1107</v>
-      </c>
-      <c r="B178" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C178" t="s">
-        <v>1110</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B179" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C179" t="s">
         <v>1108</v>
-      </c>
-      <c r="B179" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C179" t="s">
-        <v>1111</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="B180" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="C180" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B181" t="s">
         <v>133</v>
       </c>
       <c r="C181" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="B182" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="C182" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B183" t="s">
         <v>134</v>
       </c>
       <c r="C183" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="B184" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="C184" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="B185" t="s">
         <v>135</v>
       </c>
       <c r="C185" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B186" t="s">
         <v>136</v>
       </c>
       <c r="C186" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B187" t="s">
         <v>137</v>
       </c>
       <c r="C187" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="B188" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="C188" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="B189" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="C189" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="B190" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="C190" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B191" t="s">
         <v>138</v>
       </c>
       <c r="C191" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B192" t="s">
         <v>139</v>
       </c>
       <c r="C192" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B193" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="C193" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="B194" t="s">
         <v>129</v>
       </c>
       <c r="C194" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="B195" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C195" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="B196" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="C196" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="B197" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="C197" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B198" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="C198" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="B199" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="C199" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="B200" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="C200" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B201" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="C201" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B202" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C202" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="B203" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C203" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B204" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C204" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="B205" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C205" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B206" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="C206" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="B207" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="C207" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="B208" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C208" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B209" t="s">
         <v>128</v>
       </c>
       <c r="C209" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B210" t="s">
         <v>140</v>
       </c>
       <c r="C210" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B211" t="s">
         <v>141</v>
       </c>
       <c r="C211" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B212" t="s">
         <v>142</v>
       </c>
       <c r="C212" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B213" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="C213" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B214" t="s">
         <v>143</v>
       </c>
       <c r="C214" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B215" t="s">
         <v>144</v>
       </c>
       <c r="C215" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B216" t="s">
         <v>145</v>
       </c>
       <c r="C216" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="B217" t="s">
         <v>146</v>
       </c>
       <c r="C217" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B218" t="s">
         <v>147</v>
       </c>
       <c r="C218" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="B219" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C219" t="s">
         <v>1166</v>
-      </c>
-      <c r="C219" t="s">
-        <v>1169</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="B220" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="C220" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="B221" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="C221" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="B222" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="C222" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="B223" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="C223" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="B224" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="C224" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="B225" t="s">
         <v>148</v>
       </c>
       <c r="C225" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="B226" t="s">
         <v>149</v>
       </c>
       <c r="C226" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="B227" t="s">
         <v>150</v>
       </c>
       <c r="C227" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B228" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C228" t="s">
         <v>1193</v>
-      </c>
-      <c r="B228" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C228" t="s">
-        <v>1196</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B229" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C229" t="s">
         <v>1194</v>
-      </c>
-      <c r="B229" t="s">
-        <v>1191</v>
-      </c>
-      <c r="C229" t="s">
-        <v>1197</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B230" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C230" t="s">
         <v>1195</v>
-      </c>
-      <c r="B230" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C230" t="s">
-        <v>1198</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="B231" t="s">
         <v>151</v>
       </c>
       <c r="C231" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B232" t="s">
         <v>152</v>
       </c>
       <c r="C232" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B233" t="s">
         <v>153</v>
       </c>
       <c r="C233" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B234" t="s">
         <v>154</v>
       </c>
       <c r="C234" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B235" t="s">
         <v>155</v>
       </c>
       <c r="C235" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B236" t="s">
         <v>156</v>
       </c>
       <c r="C236" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B237" t="s">
         <v>157</v>
       </c>
       <c r="C237" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B238" t="s">
         <v>158</v>
       </c>
       <c r="C238" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B239" t="s">
         <v>159</v>
       </c>
       <c r="C239" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B240" t="s">
         <v>160</v>
       </c>
       <c r="C240" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B241" t="s">
         <v>161</v>
       </c>
       <c r="C241" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B242" t="s">
         <v>162</v>
       </c>
       <c r="C242" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B243" t="s">
         <v>163</v>
       </c>
       <c r="C243" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B244" t="s">
         <v>164</v>
       </c>
       <c r="C244" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B245" t="s">
         <v>165</v>
       </c>
       <c r="C245" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B246" t="s">
         <v>166</v>
       </c>
       <c r="C246" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B247" t="s">
         <v>167</v>
       </c>
       <c r="C247" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B248" t="s">
         <v>168</v>
       </c>
       <c r="C248" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B249" t="s">
         <v>169</v>
       </c>
       <c r="C249" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B250" t="s">
         <v>170</v>
       </c>
       <c r="C250" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B251" t="s">
         <v>171</v>
       </c>
       <c r="C251" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B252" t="s">
         <v>172</v>
       </c>
       <c r="C252" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B253" t="s">
         <v>173</v>
       </c>
       <c r="C253" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B254" t="s">
         <v>174</v>
       </c>
       <c r="C254" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B255" t="s">
         <v>175</v>
       </c>
       <c r="C255" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B256" t="s">
         <v>176</v>
       </c>
       <c r="C256" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B257" t="s">
         <v>177</v>
       </c>
       <c r="C257" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="B258" t="s">
         <v>178</v>
       </c>
       <c r="C258" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B259" t="s">
         <v>179</v>
       </c>
       <c r="C259" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="B260" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="C260" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B261" t="s">
         <v>180</v>
       </c>
       <c r="C261" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B262" t="s">
         <v>181</v>
       </c>
       <c r="C262" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B263" t="s">
         <v>182</v>
       </c>
       <c r="C263" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B264" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C264" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="B265" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C265" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B266" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C266" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B267" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C267" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="B268" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C268" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B269" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C269" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B270" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C270" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B271" t="s">
         <v>183</v>
       </c>
       <c r="C271" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B272" t="s">
         <v>184</v>
       </c>
       <c r="C272" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B273" t="s">
         <v>185</v>
       </c>
       <c r="C273" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B274" t="s">
         <v>186</v>
       </c>
       <c r="C274" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>617</v>
+        <v>1203</v>
       </c>
       <c r="B275" t="s">
-        <v>188</v>
+        <v>1202</v>
       </c>
       <c r="C275" t="s">
-        <v>418</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B276" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C276" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B277" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C277" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B278" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C278" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B279" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C279" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B280" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C280" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B281" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C281" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B282" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C282" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B283" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C283" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B284" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C284" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B285" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C285" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B286" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C286" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B287" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C287" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B288" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C288" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B289" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C289" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B290" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C290" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B291" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C291" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B292" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C292" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B293" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C293" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B294" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C294" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B295" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C295" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B296" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C296" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B297" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C297" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B298" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C298" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B299" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C299" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B300" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C300" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
+        <v>872</v>
+      </c>
+      <c r="B301" t="s">
+        <v>873</v>
+      </c>
+      <c r="C301" t="s">
         <v>875</v>
-      </c>
-      <c r="B301" t="s">
-        <v>876</v>
-      </c>
-      <c r="C301" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B302" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C302" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B303" t="s">
         <v>24</v>
       </c>
       <c r="C303" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B304" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C304" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B305" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C305" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B306" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C306" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B307" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C307" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B308" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C308" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B309" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C309" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B310" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C310" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B311" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C311" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B312" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C312" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B313" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C313" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B314" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C314" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B315" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C315" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B316" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C316" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B317" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C317" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="B318" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C318" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B319" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C319" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B320" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C320" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B321" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C321" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B322" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C322" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B323" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C323" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B324" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C324" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B325" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C325" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B326" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C326" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B327" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C327" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B328" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C328" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="B329" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C329" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B330" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C330" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B331" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C331" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B332" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C332" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B333" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C333" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="B334" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C334" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="B335" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="C335" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B336" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C336" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B337" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C337" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B338" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C338" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B339" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C339" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="B340" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C340" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="B341" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C341" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="B342" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C342" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="B343" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="C343" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B344" t="s">
         <v>1134</v>
       </c>
-      <c r="B344" t="s">
-        <v>1137</v>
-      </c>
       <c r="C344" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="B345" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="C345" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="B346" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="C346" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="B347" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="C347" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B348" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="C348" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B349" t="s">
+        <v>755</v>
+      </c>
+      <c r="C349" t="s">
         <v>758</v>
-      </c>
-      <c r="C349" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="B350" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="C350" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B351" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C351" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B352" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C352" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B353" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C353" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="B354" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C354" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="B355" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C355" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B356" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C356" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B357" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C357" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B358" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C358" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B359" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C359" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B360" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C360" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B361" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C361" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B362" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="C362" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="B363" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C363" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="B364" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="C364" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="B365" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="C365" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="B366" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="C366" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="B367" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="C367" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="B368" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="C368" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="B369" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="C369" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="B370" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="C370" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="B371" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="C371" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="B372" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="C372" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="B373" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="C373" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="B374" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="C374" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="B375" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="C375" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="B376" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="C376" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="B377" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="C377" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="B378" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="C378" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="B379" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="C379" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="B380" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="C380" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="B381" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="C381" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="B382" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="C382" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="B383" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C383" t="s">
         <v>1032</v>
-      </c>
-      <c r="C383" t="s">
-        <v>1035</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="B384" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C384" t="s">
         <v>1033</v>
-      </c>
-      <c r="C384" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="B385" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C385" t="s">
         <v>1034</v>
-      </c>
-      <c r="C385" t="s">
-        <v>1037</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="B386" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="C386" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="B387" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="C387" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="B388" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="C388" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="B389" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="C389" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="B390" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="C390" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="B391" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="C391" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="B392" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="C392" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="B393" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C393" t="s">
         <v>1012</v>
-      </c>
-      <c r="C393" t="s">
-        <v>1015</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B394" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C394" t="s">
         <v>1013</v>
-      </c>
-      <c r="C394" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="B395" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C395" t="s">
         <v>1014</v>
-      </c>
-      <c r="C395" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="B396" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="C396" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="B397" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="C397" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="B398" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C398" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="B399" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="C399" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="B400" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="C400" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="B401" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="C401" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="B402" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C402" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B403" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C403" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
   </sheetData>

--- a/lang/words_dict.xlsx
+++ b/lang/words_dict.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\si lab\Matlab Projects\Registration\lang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab Projects\Registration\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806A9749-D1B6-445E-86A5-99444DC4E0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A2BFCC-AD9F-4210-922A-00FA0AA7FC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3870" yWindow="1290" windowWidth="23385" windowHeight="13725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44040" yWindow="570" windowWidth="21600" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4204,10 +4204,6 @@
     <t>You are currently running in server mode. Exclusive mode may cause MATLAB to crash. Continue?</t>
   </si>
   <si>
-    <t>LOW_MEMPRY_WARNING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>可用内存过小，独占模式启用失败</t>
   </si>
   <si>
@@ -4655,6 +4651,10 @@
   </si>
   <si>
     <t>No registration resolution set up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOW_MEMORY_WARNING</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4991,20 +4991,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F403"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
-      <selection activeCell="C278" sqref="C278"/>
+    <sheetView tabSelected="1" topLeftCell="A391" workbookViewId="0">
+      <selection activeCell="B406" sqref="B406"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.125" customWidth="1"/>
-    <col min="2" max="2" width="47.625" customWidth="1"/>
-    <col min="3" max="3" width="55.125" customWidth="1"/>
-    <col min="4" max="5" width="9.875" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" customWidth="1"/>
+    <col min="2" max="2" width="47.640625" customWidth="1"/>
+    <col min="3" max="3" width="55.140625" customWidth="1"/>
+    <col min="4" max="5" width="9.85546875" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>483</v>
       </c>
@@ -5026,7 +5026,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>678</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>913</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>672</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>915</v>
       </c>
@@ -5070,7 +5070,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>916</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>914</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>484</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>673</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>918</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>877</v>
       </c>
@@ -5137,7 +5137,7 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>882</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>891</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>892</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>888</v>
       </c>
@@ -5181,7 +5181,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>895</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>900</v>
       </c>
@@ -5203,7 +5203,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>901</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>902</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>919</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>920</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>485</v>
       </c>
@@ -5258,7 +5258,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>486</v>
       </c>
@@ -5269,7 +5269,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>487</v>
       </c>
@@ -5280,7 +5280,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>921</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>676</v>
       </c>
@@ -5302,7 +5302,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>1069</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>1005</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>664</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>922</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>923</v>
       </c>
@@ -5357,7 +5357,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>924</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>928</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>925</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>926</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>488</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>927</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>489</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>935</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>936</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>937</v>
       </c>
@@ -5467,7 +5467,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>938</v>
       </c>
@@ -5478,7 +5478,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>939</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>940</v>
       </c>
@@ -5500,7 +5500,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>941</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>942</v>
       </c>
@@ -5522,7 +5522,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>490</v>
       </c>
@@ -5533,7 +5533,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>943</v>
       </c>
@@ -5544,18 +5544,18 @@
         <v>272</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C50" t="s">
         <v>1197</v>
       </c>
-      <c r="B50" t="s">
-        <v>1196</v>
-      </c>
-      <c r="C50" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>1084</v>
       </c>
@@ -5566,18 +5566,18 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B52" t="s">
         <v>1094</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>1095</v>
       </c>
-      <c r="C52" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>1085</v>
       </c>
@@ -5588,18 +5588,18 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C54" t="s">
         <v>1098</v>
       </c>
-      <c r="B54" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C54" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>491</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>492</v>
       </c>
@@ -5621,7 +5621,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>944</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>945</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>946</v>
       </c>
@@ -5654,7 +5654,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>947</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>953</v>
       </c>
@@ -5676,7 +5676,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>493</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>954</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>494</v>
       </c>
@@ -5709,7 +5709,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>957</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>495</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>496</v>
       </c>
@@ -5742,7 +5742,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>497</v>
       </c>
@@ -5753,7 +5753,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>958</v>
       </c>
@@ -5764,7 +5764,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>498</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>499</v>
       </c>
@@ -5786,7 +5786,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>614</v>
       </c>
@@ -5797,18 +5797,18 @@
         <v>456</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B73" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C73" t="s">
         <v>1199</v>
       </c>
-      <c r="C73" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>500</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>501</v>
       </c>
@@ -5830,7 +5830,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>502</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>503</v>
       </c>
@@ -5852,7 +5852,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>504</v>
       </c>
@@ -5863,7 +5863,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>505</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>599</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>506</v>
       </c>
@@ -5896,7 +5896,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>507</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>508</v>
       </c>
@@ -5918,7 +5918,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>509</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>510</v>
       </c>
@@ -5940,7 +5940,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>511</v>
       </c>
@@ -5951,7 +5951,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>512</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>513</v>
       </c>
@@ -5973,7 +5973,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>514</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>515</v>
       </c>
@@ -5995,7 +5995,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>723</v>
       </c>
@@ -6006,7 +6006,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>601</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>1022</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>516</v>
       </c>
@@ -6039,7 +6039,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>517</v>
       </c>
@@ -6050,7 +6050,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>518</v>
       </c>
@@ -6061,7 +6061,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>519</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>520</v>
       </c>
@@ -6083,7 +6083,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>521</v>
       </c>
@@ -6094,7 +6094,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>522</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>523</v>
       </c>
@@ -6116,7 +6116,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>524</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>1060</v>
       </c>
@@ -6138,7 +6138,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>959</v>
       </c>
@@ -6149,7 +6149,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>525</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>526</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>527</v>
       </c>
@@ -6182,7 +6182,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>1000</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>528</v>
       </c>
@@ -6204,7 +6204,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>870</v>
       </c>
@@ -6215,7 +6215,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>869</v>
       </c>
@@ -6226,7 +6226,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>871</v>
       </c>
@@ -6237,7 +6237,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>737</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>529</v>
       </c>
@@ -6259,7 +6259,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>1001</v>
       </c>
@@ -6270,7 +6270,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>738</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>530</v>
       </c>
@@ -6292,7 +6292,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>602</v>
       </c>
@@ -6303,7 +6303,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>531</v>
       </c>
@@ -6314,7 +6314,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>532</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>533</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>534</v>
       </c>
@@ -6347,7 +6347,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>535</v>
       </c>
@@ -6358,7 +6358,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>536</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>537</v>
       </c>
@@ -6380,7 +6380,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>538</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>740</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>743</v>
       </c>
@@ -6413,7 +6413,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>1002</v>
       </c>
@@ -6424,7 +6424,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>539</v>
       </c>
@@ -6435,7 +6435,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>540</v>
       </c>
@@ -6446,7 +6446,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>541</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>542</v>
       </c>
@@ -6468,7 +6468,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>543</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>544</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>545</v>
       </c>
@@ -6501,7 +6501,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>546</v>
       </c>
@@ -6512,7 +6512,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>547</v>
       </c>
@@ -6523,7 +6523,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>548</v>
       </c>
@@ -6534,7 +6534,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>549</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>763</v>
       </c>
@@ -6556,7 +6556,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>1006</v>
       </c>
@@ -6567,7 +6567,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>550</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>551</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>552</v>
       </c>
@@ -6600,7 +6600,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>1007</v>
       </c>
@@ -6611,7 +6611,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>553</v>
       </c>
@@ -6622,7 +6622,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>554</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>555</v>
       </c>
@@ -6644,7 +6644,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>556</v>
       </c>
@@ -6655,7 +6655,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>557</v>
       </c>
@@ -6666,7 +6666,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>603</v>
       </c>
@@ -6677,106 +6677,106 @@
         <v>357</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C153" t="s">
         <v>1145</v>
       </c>
-      <c r="B153" t="s">
-        <v>1144</v>
-      </c>
-      <c r="C153" t="s">
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B154" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
+      <c r="C154" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
         <v>1155</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B155" t="s">
         <v>1147</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C155" t="s">
         <v>1151</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
         <v>1156</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B156" t="s">
         <v>1148</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C156" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
         <v>1157</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B157" t="s">
         <v>1149</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C157" t="s">
         <v>1153</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C158" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C159" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C160" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B161" t="s">
         <v>1158</v>
       </c>
-      <c r="B157" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C157" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>1115</v>
-      </c>
-      <c r="B158" t="s">
-        <v>1112</v>
-      </c>
-      <c r="C158" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B159" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C159" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>1120</v>
-      </c>
-      <c r="B160" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C160" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>1161</v>
-      </c>
-      <c r="B161" t="s">
+      <c r="C161" t="s">
         <v>1159</v>
       </c>
-      <c r="C161" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>853</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>852</v>
       </c>
@@ -6798,7 +6798,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>558</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>559</v>
       </c>
@@ -6820,7 +6820,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>560</v>
       </c>
@@ -6831,7 +6831,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>778</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>779</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>770</v>
       </c>
@@ -6864,7 +6864,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>771</v>
       </c>
@@ -6875,7 +6875,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>772</v>
       </c>
@@ -6886,7 +6886,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>773</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>800</v>
       </c>
@@ -6908,18 +6908,18 @@
         <v>367</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B174" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C174" t="s">
         <v>1121</v>
       </c>
-      <c r="C174" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>858</v>
       </c>
@@ -6930,7 +6930,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>860</v>
       </c>
@@ -6941,51 +6941,51 @@
         <v>369</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C177" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
         <v>1103</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B178" t="s">
         <v>1100</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C178" t="s">
         <v>1106</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
         <v>1104</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B179" t="s">
         <v>1101</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C179" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B179" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C179" t="s">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B180" t="s">
         <v>1108</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B180" t="s">
+      <c r="C180" t="s">
         <v>1109</v>
       </c>
-      <c r="C180" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>562</v>
       </c>
@@ -6996,7 +6996,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>1080</v>
       </c>
@@ -7007,7 +7007,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>563</v>
       </c>
@@ -7018,18 +7018,18 @@
         <v>371</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B184" t="s">
         <v>1124</v>
       </c>
-      <c r="B184" t="s">
+      <c r="C184" t="s">
         <v>1125</v>
       </c>
-      <c r="C184" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>1020</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>564</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>565</v>
       </c>
@@ -7062,7 +7062,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>907</v>
       </c>
@@ -7073,29 +7073,29 @@
         <v>909</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B189" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C189" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
         <v>1183</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B190" t="s">
         <v>1179</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C190" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
-        <v>1184</v>
-      </c>
-      <c r="B190" t="s">
-        <v>1180</v>
-      </c>
-      <c r="C190" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>861</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>566</v>
       </c>
@@ -7117,7 +7117,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>821</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>855</v>
       </c>
@@ -7139,7 +7139,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>856</v>
       </c>
@@ -7150,7 +7150,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>825</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>826</v>
       </c>
@@ -7172,7 +7172,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>827</v>
       </c>
@@ -7183,7 +7183,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>830</v>
       </c>
@@ -7194,7 +7194,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>832</v>
       </c>
@@ -7205,7 +7205,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>833</v>
       </c>
@@ -7216,7 +7216,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>835</v>
       </c>
@@ -7227,7 +7227,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>838</v>
       </c>
@@ -7238,7 +7238,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>841</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>843</v>
       </c>
@@ -7260,7 +7260,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>844</v>
       </c>
@@ -7271,7 +7271,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>846</v>
       </c>
@@ -7282,7 +7282,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>847</v>
       </c>
@@ -7293,7 +7293,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>561</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>567</v>
       </c>
@@ -7315,7 +7315,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>568</v>
       </c>
@@ -7326,7 +7326,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>569</v>
       </c>
@@ -7337,18 +7337,18 @@
         <v>380</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>570</v>
       </c>
       <c r="B213" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C213" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>571</v>
       </c>
@@ -7359,7 +7359,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>572</v>
       </c>
@@ -7370,7 +7370,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>573</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>859</v>
       </c>
@@ -7392,7 +7392,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>854</v>
       </c>
@@ -7403,73 +7403,73 @@
         <v>385</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B219" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C219" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B220" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C220" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B221" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C221" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B222" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C222" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B223" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C223" t="s">
         <v>1167</v>
       </c>
-      <c r="B219" t="s">
-        <v>1163</v>
-      </c>
-      <c r="C219" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
-        <v>1175</v>
-      </c>
-      <c r="B220" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C220" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
-        <v>1185</v>
-      </c>
-      <c r="B221" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C221" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B222" t="s">
-        <v>1174</v>
-      </c>
-      <c r="C222" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B224" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C224" t="s">
         <v>1169</v>
       </c>
-      <c r="B223" t="s">
-        <v>1164</v>
-      </c>
-      <c r="C223" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
-        <v>1171</v>
-      </c>
-      <c r="B224" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C224" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>857</v>
       </c>
@@ -7480,18 +7480,18 @@
         <v>386</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B226" t="s">
         <v>149</v>
       </c>
       <c r="C226" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>862</v>
       </c>
@@ -7502,40 +7502,40 @@
         <v>387</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B228" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C228" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
         <v>1190</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B229" t="s">
         <v>1187</v>
       </c>
-      <c r="C228" t="s">
+      <c r="C229" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
         <v>1191</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B230" t="s">
         <v>1188</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C230" t="s">
         <v>1194</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A230" t="s">
-        <v>1192</v>
-      </c>
-      <c r="B230" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C230" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>1021</v>
       </c>
@@ -7546,7 +7546,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>574</v>
       </c>
@@ -7557,7 +7557,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>575</v>
       </c>
@@ -7568,7 +7568,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>576</v>
       </c>
@@ -7579,7 +7579,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>577</v>
       </c>
@@ -7590,7 +7590,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>578</v>
       </c>
@@ -7601,7 +7601,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>579</v>
       </c>
@@ -7612,7 +7612,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>580</v>
       </c>
@@ -7623,7 +7623,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>581</v>
       </c>
@@ -7634,7 +7634,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>582</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>583</v>
       </c>
@@ -7656,7 +7656,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>584</v>
       </c>
@@ -7667,7 +7667,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>585</v>
       </c>
@@ -7678,7 +7678,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>586</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>587</v>
       </c>
@@ -7700,7 +7700,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>588</v>
       </c>
@@ -7711,7 +7711,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>589</v>
       </c>
@@ -7722,7 +7722,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>604</v>
       </c>
@@ -7733,7 +7733,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>590</v>
       </c>
@@ -7744,7 +7744,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>591</v>
       </c>
@@ -7755,7 +7755,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>592</v>
       </c>
@@ -7766,7 +7766,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>593</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>594</v>
       </c>
@@ -7788,7 +7788,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>595</v>
       </c>
@@ -7799,7 +7799,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>596</v>
       </c>
@@ -7810,7 +7810,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>597</v>
       </c>
@@ -7821,7 +7821,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>598</v>
       </c>
@@ -7832,7 +7832,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>693</v>
       </c>
@@ -7843,7 +7843,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>606</v>
       </c>
@@ -7854,7 +7854,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>910</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>607</v>
       </c>
@@ -7876,7 +7876,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>608</v>
       </c>
@@ -7887,7 +7887,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>609</v>
       </c>
@@ -7898,7 +7898,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>780</v>
       </c>
@@ -7909,7 +7909,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>783</v>
       </c>
@@ -7920,7 +7920,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>785</v>
       </c>
@@ -7931,7 +7931,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>790</v>
       </c>
@@ -7942,7 +7942,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>793</v>
       </c>
@@ -7953,7 +7953,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>795</v>
       </c>
@@ -7964,7 +7964,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>797</v>
       </c>
@@ -7975,7 +7975,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>610</v>
       </c>
@@ -7986,7 +7986,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>611</v>
       </c>
@@ -7997,7 +7997,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>612</v>
       </c>
@@ -8008,7 +8008,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>613</v>
       </c>
@@ -8019,18 +8019,18 @@
         <v>416</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B275" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C275" t="s">
         <v>1203</v>
       </c>
-      <c r="B275" t="s">
-        <v>1202</v>
-      </c>
-      <c r="C275" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>615</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>806</v>
       </c>
@@ -8052,7 +8052,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>616</v>
       </c>
@@ -8063,7 +8063,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>617</v>
       </c>
@@ -8074,7 +8074,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>618</v>
       </c>
@@ -8085,7 +8085,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>619</v>
       </c>
@@ -8096,7 +8096,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>620</v>
       </c>
@@ -8107,7 +8107,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>621</v>
       </c>
@@ -8118,7 +8118,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>622</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>623</v>
       </c>
@@ -8140,7 +8140,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>624</v>
       </c>
@@ -8151,7 +8151,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>625</v>
       </c>
@@ -8162,7 +8162,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>626</v>
       </c>
@@ -8173,7 +8173,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>627</v>
       </c>
@@ -8184,7 +8184,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>628</v>
       </c>
@@ -8195,7 +8195,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>629</v>
       </c>
@@ -8206,7 +8206,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>630</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>631</v>
       </c>
@@ -8228,7 +8228,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>632</v>
       </c>
@@ -8239,7 +8239,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>633</v>
       </c>
@@ -8250,7 +8250,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>729</v>
       </c>
@@ -8261,7 +8261,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>634</v>
       </c>
@@ -8272,7 +8272,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>635</v>
       </c>
@@ -8283,7 +8283,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>636</v>
       </c>
@@ -8294,7 +8294,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>637</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>872</v>
       </c>
@@ -8316,7 +8316,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>638</v>
       </c>
@@ -8327,7 +8327,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>639</v>
       </c>
@@ -8338,7 +8338,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>640</v>
       </c>
@@ -8349,7 +8349,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>720</v>
       </c>
@@ -8360,7 +8360,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>641</v>
       </c>
@@ -8371,7 +8371,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>642</v>
       </c>
@@ -8382,7 +8382,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>671</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>644</v>
       </c>
@@ -8404,7 +8404,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>645</v>
       </c>
@@ -8415,7 +8415,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>648</v>
       </c>
@@ -8426,7 +8426,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>646</v>
       </c>
@@ -8437,7 +8437,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>647</v>
       </c>
@@ -8448,7 +8448,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>650</v>
       </c>
@@ -8459,7 +8459,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>652</v>
       </c>
@@ -8470,7 +8470,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>653</v>
       </c>
@@ -8481,7 +8481,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>654</v>
       </c>
@@ -8492,7 +8492,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>722</v>
       </c>
@@ -8503,7 +8503,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>655</v>
       </c>
@@ -8514,7 +8514,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>651</v>
       </c>
@@ -8525,7 +8525,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>733</v>
       </c>
@@ -8536,7 +8536,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>643</v>
       </c>
@@ -8547,7 +8547,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>656</v>
       </c>
@@ -8558,7 +8558,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>657</v>
       </c>
@@ -8569,7 +8569,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>658</v>
       </c>
@@ -8580,7 +8580,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>662</v>
       </c>
@@ -8591,7 +8591,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>660</v>
       </c>
@@ -8602,7 +8602,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>661</v>
       </c>
@@ -8613,7 +8613,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>734</v>
       </c>
@@ -8624,7 +8624,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>663</v>
       </c>
@@ -8635,7 +8635,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>664</v>
       </c>
@@ -8646,7 +8646,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>665</v>
       </c>
@@ -8657,7 +8657,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>666</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>667</v>
       </c>
@@ -8679,7 +8679,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>880</v>
       </c>
@@ -8690,7 +8690,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>668</v>
       </c>
@@ -8701,7 +8701,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>649</v>
       </c>
@@ -8712,7 +8712,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>669</v>
       </c>
@@ -8723,7 +8723,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>670</v>
       </c>
@@ -8734,7 +8734,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>747</v>
       </c>
@@ -8745,7 +8745,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>750</v>
       </c>
@@ -8756,7 +8756,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>753</v>
       </c>
@@ -8767,62 +8767,62 @@
         <v>752</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B343" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C343" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A344" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B344" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C344" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A345" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B345" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C345" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A346" t="s">
         <v>1128</v>
       </c>
-      <c r="B343" t="s">
-        <v>1132</v>
-      </c>
-      <c r="C343" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A344" t="s">
-        <v>1131</v>
-      </c>
-      <c r="B344" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C344" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A345" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B345" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C345" t="s">
+      <c r="B346" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A346" t="s">
+      <c r="C346" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A347" t="s">
         <v>1129</v>
       </c>
-      <c r="B346" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C346" t="s">
+      <c r="B347" t="s">
         <v>1139</v>
       </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A347" t="s">
-        <v>1130</v>
-      </c>
-      <c r="B347" t="s">
+      <c r="C347" t="s">
         <v>1140</v>
       </c>
-      <c r="C347" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>757</v>
       </c>
@@ -8833,7 +8833,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>759</v>
       </c>
@@ -8844,7 +8844,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>762</v>
       </c>
@@ -8855,7 +8855,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>697</v>
       </c>
@@ -8866,7 +8866,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>711</v>
       </c>
@@ -8877,7 +8877,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>712</v>
       </c>
@@ -8888,7 +8888,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>698</v>
       </c>
@@ -8899,7 +8899,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>699</v>
       </c>
@@ -8910,7 +8910,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>700</v>
       </c>
@@ -8921,7 +8921,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>701</v>
       </c>
@@ -8932,7 +8932,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>702</v>
       </c>
@@ -8943,7 +8943,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>703</v>
       </c>
@@ -8954,7 +8954,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>704</v>
       </c>
@@ -8965,7 +8965,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>705</v>
       </c>
@@ -8976,7 +8976,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>803</v>
       </c>
@@ -8987,7 +8987,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>850</v>
       </c>
@@ -8998,7 +8998,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>933</v>
       </c>
@@ -9009,7 +9009,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>934</v>
       </c>
@@ -9020,7 +9020,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>951</v>
       </c>
@@ -9031,7 +9031,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>985</v>
       </c>
@@ -9042,7 +9042,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>984</v>
       </c>
@@ -9053,7 +9053,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>986</v>
       </c>
@@ -9064,7 +9064,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>987</v>
       </c>
@@ -9075,7 +9075,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>988</v>
       </c>
@@ -9086,7 +9086,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>989</v>
       </c>
@@ -9097,7 +9097,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>1024</v>
       </c>
@@ -9108,7 +9108,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>990</v>
       </c>
@@ -9119,7 +9119,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>991</v>
       </c>
@@ -9130,7 +9130,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>992</v>
       </c>
@@ -9141,7 +9141,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>993</v>
       </c>
@@ -9152,7 +9152,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>994</v>
       </c>
@@ -9163,7 +9163,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>1065</v>
       </c>
@@ -9174,7 +9174,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>995</v>
       </c>
@@ -9185,7 +9185,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>1027</v>
       </c>
@@ -9196,7 +9196,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>1042</v>
       </c>
@@ -9207,7 +9207,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>1035</v>
       </c>
@@ -9218,7 +9218,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>1036</v>
       </c>
@@ -9229,7 +9229,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>1037</v>
       </c>
@@ -9240,7 +9240,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>1046</v>
       </c>
@@ -9251,7 +9251,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>1047</v>
       </c>
@@ -9262,7 +9262,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>1058</v>
       </c>
@@ -9273,7 +9273,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>1050</v>
       </c>
@@ -9284,7 +9284,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>1054</v>
       </c>
@@ -9295,7 +9295,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>996</v>
       </c>
@@ -9306,7 +9306,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>1016</v>
       </c>
@@ -9317,7 +9317,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>1017</v>
       </c>
@@ -9328,7 +9328,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>1018</v>
       </c>
@@ -9339,7 +9339,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>1019</v>
       </c>
@@ -9350,7 +9350,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>997</v>
       </c>
@@ -9361,7 +9361,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>1039</v>
       </c>
@@ -9372,7 +9372,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>1073</v>
       </c>
@@ -9383,7 +9383,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>1074</v>
       </c>
@@ -9394,7 +9394,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>1078</v>
       </c>
@@ -9405,7 +9405,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>1088</v>
       </c>
@@ -9416,18 +9416,18 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B402" t="s">
         <v>1091</v>
       </c>
-      <c r="B402" t="s">
+      <c r="C402" t="s">
         <v>1092</v>
       </c>
-      <c r="C402" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>696</v>
       </c>

--- a/lang/words_dict.xlsx
+++ b/lang/words_dict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab Projects\Registration\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A2BFCC-AD9F-4210-922A-00FA0AA7FC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E878A7-79C2-4F86-99DD-B268858925C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44040" yWindow="570" windowWidth="21600" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="1205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="1208">
   <si>
     <t>文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4198,12 +4198,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>您当前运行于服务器模式，独占模式可能造成MATLAB崩溃，继续？</t>
-  </si>
-  <si>
-    <t>You are currently running in server mode. Exclusive mode may cause MATLAB to crash. Continue?</t>
-  </si>
-  <si>
     <t>可用内存过小，独占模式启用失败</t>
   </si>
   <si>
@@ -4655,6 +4649,26 @@
   </si>
   <si>
     <t>LOW_MEMORY_WARNING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您当前运行于分布模式，独占模式可能造成MATLAB崩溃，继续？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You are currently running in distributed mode. Exclusive mode may cause MATLAB to crash. Continue?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEMPLATE_AUTO_UPDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auto Update</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4989,10 +5003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F403"/>
+  <dimension ref="A1:F404"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A391" workbookViewId="0">
-      <selection activeCell="B406" sqref="B406"/>
+    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
+      <selection activeCell="A279" sqref="A279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -5546,13 +5560,13 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B50" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C50" t="s">
         <v>1195</v>
-      </c>
-      <c r="C50" t="s">
-        <v>1197</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
@@ -5568,13 +5582,13 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C52" t="s">
         <v>1093</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C52" t="s">
-        <v>1095</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
@@ -5590,13 +5604,13 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B54" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C54" t="s">
         <v>1096</v>
-      </c>
-      <c r="C54" t="s">
-        <v>1098</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
@@ -5799,13 +5813,13 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="B73" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="C73" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
@@ -6679,101 +6693,101 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="B153" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C153" t="s">
         <v>1143</v>
-      </c>
-      <c r="C153" t="s">
-        <v>1145</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="B154" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="C154" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="B155" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="C155" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="B156" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="C156" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="B157" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="C157" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C158" t="s">
         <v>1114</v>
-      </c>
-      <c r="B158" t="s">
-        <v>1111</v>
-      </c>
-      <c r="C158" t="s">
-        <v>1116</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C159" t="s">
         <v>1115</v>
-      </c>
-      <c r="B159" t="s">
-        <v>1112</v>
-      </c>
-      <c r="C159" t="s">
-        <v>1117</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="B160" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="C160" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B161" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="C161" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
@@ -6789,2652 +6803,2663 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>852</v>
+        <v>1206</v>
       </c>
       <c r="B163" t="s">
-        <v>122</v>
+        <v>1205</v>
       </c>
       <c r="C163" t="s">
-        <v>359</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>558</v>
+        <v>852</v>
       </c>
       <c r="B164" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C164" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B165" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C165" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B166" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C166" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>778</v>
+        <v>560</v>
       </c>
       <c r="B167" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C167" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B168" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C168" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>770</v>
+        <v>779</v>
       </c>
       <c r="B169" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="C169" t="s">
-        <v>774</v>
+        <v>364</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B170" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C170" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B171" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C171" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C172" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>800</v>
+        <v>773</v>
       </c>
       <c r="B173" t="s">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="C173" t="s">
-        <v>367</v>
+        <v>777</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>1122</v>
+        <v>800</v>
       </c>
       <c r="B174" t="s">
-        <v>1120</v>
+        <v>130</v>
       </c>
       <c r="C174" t="s">
-        <v>1121</v>
+        <v>367</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>858</v>
+        <v>1120</v>
       </c>
       <c r="B175" t="s">
-        <v>131</v>
+        <v>1118</v>
       </c>
       <c r="C175" t="s">
-        <v>368</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B176" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C176" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>1102</v>
+        <v>860</v>
       </c>
       <c r="B177" t="s">
-        <v>1099</v>
+        <v>132</v>
       </c>
       <c r="C177" t="s">
-        <v>1105</v>
+        <v>369</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B178" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C178" t="s">
         <v>1103</v>
-      </c>
-      <c r="B178" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C178" t="s">
-        <v>1106</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B179" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C179" t="s">
         <v>1104</v>
-      </c>
-      <c r="B179" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C179" t="s">
-        <v>1107</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
       <c r="B180" t="s">
-        <v>1108</v>
+        <v>1099</v>
       </c>
       <c r="C180" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>562</v>
+        <v>1108</v>
       </c>
       <c r="B181" t="s">
-        <v>133</v>
+        <v>1106</v>
       </c>
       <c r="C181" t="s">
-        <v>370</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>1080</v>
+        <v>562</v>
       </c>
       <c r="B182" t="s">
-        <v>1079</v>
+        <v>133</v>
       </c>
       <c r="C182" t="s">
-        <v>1081</v>
+        <v>370</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>563</v>
+        <v>1080</v>
       </c>
       <c r="B183" t="s">
-        <v>134</v>
+        <v>1079</v>
       </c>
       <c r="C183" t="s">
-        <v>371</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>1123</v>
+        <v>563</v>
       </c>
       <c r="B184" t="s">
-        <v>1124</v>
+        <v>134</v>
       </c>
       <c r="C184" t="s">
-        <v>1125</v>
+        <v>371</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>1020</v>
+        <v>1121</v>
       </c>
       <c r="B185" t="s">
-        <v>135</v>
+        <v>1122</v>
       </c>
       <c r="C185" t="s">
-        <v>372</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>564</v>
+        <v>1020</v>
       </c>
       <c r="B186" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C186" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B187" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C187" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>907</v>
+        <v>565</v>
       </c>
       <c r="B188" t="s">
-        <v>908</v>
+        <v>137</v>
       </c>
       <c r="C188" t="s">
-        <v>909</v>
+        <v>374</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>1182</v>
+        <v>907</v>
       </c>
       <c r="B189" t="s">
-        <v>1178</v>
+        <v>908</v>
       </c>
       <c r="C189" t="s">
-        <v>1180</v>
+        <v>909</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="B190" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="C190" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>861</v>
+        <v>1181</v>
       </c>
       <c r="B191" t="s">
-        <v>138</v>
+        <v>1177</v>
       </c>
       <c r="C191" t="s">
-        <v>375</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>566</v>
+        <v>861</v>
       </c>
       <c r="B192" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C192" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>821</v>
+        <v>566</v>
       </c>
       <c r="B193" t="s">
-        <v>807</v>
+        <v>139</v>
       </c>
       <c r="C193" t="s">
-        <v>822</v>
+        <v>376</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>855</v>
+        <v>821</v>
       </c>
       <c r="B194" t="s">
-        <v>129</v>
+        <v>807</v>
       </c>
       <c r="C194" t="s">
-        <v>366</v>
+        <v>822</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B195" t="s">
-        <v>764</v>
+        <v>129</v>
       </c>
       <c r="C195" t="s">
-        <v>765</v>
+        <v>366</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>825</v>
+        <v>856</v>
       </c>
       <c r="B196" t="s">
-        <v>808</v>
+        <v>764</v>
       </c>
       <c r="C196" t="s">
-        <v>823</v>
+        <v>765</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B197" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C197" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B198" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C198" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B199" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C199" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B200" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C200" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B201" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C201" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B202" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C202" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B203" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C203" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="B204" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C204" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B205" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C205" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B206" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C206" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B207" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C207" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B208" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C208" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>561</v>
+        <v>847</v>
       </c>
       <c r="B209" t="s">
-        <v>128</v>
+        <v>820</v>
       </c>
       <c r="C209" t="s">
-        <v>365</v>
+        <v>848</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="B210" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C210" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B211" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C211" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B212" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C212" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B213" t="s">
-        <v>1161</v>
+        <v>142</v>
       </c>
       <c r="C213" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B214" t="s">
-        <v>143</v>
+        <v>1159</v>
       </c>
       <c r="C214" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B215" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C215" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B216" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C216" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>859</v>
+        <v>573</v>
       </c>
       <c r="B217" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C217" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="B218" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C218" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>1166</v>
+        <v>854</v>
       </c>
       <c r="B219" t="s">
-        <v>1162</v>
+        <v>147</v>
       </c>
       <c r="C219" t="s">
-        <v>1165</v>
+        <v>385</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>1174</v>
+        <v>1164</v>
       </c>
       <c r="B220" t="s">
-        <v>1171</v>
+        <v>1160</v>
       </c>
       <c r="C220" t="s">
-        <v>1175</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>1184</v>
+        <v>1172</v>
       </c>
       <c r="B221" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="C221" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="B222" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="C222" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>1168</v>
+        <v>1183</v>
       </c>
       <c r="B223" t="s">
-        <v>1163</v>
+        <v>1171</v>
       </c>
       <c r="C223" t="s">
-        <v>1167</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="B224" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="C224" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>857</v>
+        <v>1168</v>
       </c>
       <c r="B225" t="s">
-        <v>148</v>
+        <v>1162</v>
       </c>
       <c r="C225" t="s">
-        <v>386</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>1141</v>
+        <v>857</v>
       </c>
       <c r="B226" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C226" t="s">
-        <v>1142</v>
+        <v>386</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>862</v>
+        <v>1139</v>
       </c>
       <c r="B227" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C227" t="s">
-        <v>387</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>1189</v>
+        <v>862</v>
       </c>
       <c r="B228" t="s">
-        <v>1186</v>
+        <v>150</v>
       </c>
       <c r="C228" t="s">
-        <v>1192</v>
+        <v>387</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B229" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C229" t="s">
         <v>1190</v>
-      </c>
-      <c r="B229" t="s">
-        <v>1187</v>
-      </c>
-      <c r="C229" t="s">
-        <v>1193</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B230" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C230" t="s">
         <v>1191</v>
-      </c>
-      <c r="B230" t="s">
-        <v>1188</v>
-      </c>
-      <c r="C230" t="s">
-        <v>1194</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>1021</v>
+        <v>1189</v>
       </c>
       <c r="B231" t="s">
-        <v>151</v>
+        <v>1186</v>
       </c>
       <c r="C231" t="s">
-        <v>388</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>574</v>
+        <v>1021</v>
       </c>
       <c r="B232" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C232" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B233" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C233" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B234" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C234" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B235" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C235" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B236" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C236" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B237" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C237" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B238" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C238" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B239" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C239" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B240" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C240" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B241" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C241" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B242" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C242" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B243" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C243" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B244" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C244" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B245" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C245" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B246" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C246" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B247" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C247" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="B248" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C248" t="s">
-        <v>478</v>
+        <v>404</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>590</v>
+        <v>604</v>
       </c>
       <c r="B249" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C249" t="s">
-        <v>405</v>
+        <v>478</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B250" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C250" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B251" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C251" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B252" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C252" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B253" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C253" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B254" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C254" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B255" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C255" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B256" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C256" t="s">
-        <v>605</v>
+        <v>411</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B257" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C257" t="s">
-        <v>412</v>
+        <v>605</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>693</v>
+        <v>598</v>
       </c>
       <c r="B258" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C258" t="s">
-        <v>448</v>
+        <v>412</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>606</v>
+        <v>693</v>
       </c>
       <c r="B259" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C259" t="s">
-        <v>413</v>
+        <v>448</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>910</v>
+        <v>606</v>
       </c>
       <c r="B260" t="s">
-        <v>911</v>
+        <v>179</v>
       </c>
       <c r="C260" t="s">
-        <v>912</v>
+        <v>413</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>607</v>
+        <v>910</v>
       </c>
       <c r="B261" t="s">
-        <v>180</v>
+        <v>911</v>
       </c>
       <c r="C261" t="s">
-        <v>449</v>
+        <v>912</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B262" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C262" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B263" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C263" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>780</v>
+        <v>609</v>
       </c>
       <c r="B264" t="s">
-        <v>781</v>
+        <v>182</v>
       </c>
       <c r="C264" t="s">
-        <v>782</v>
+        <v>451</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B265" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C265" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B266" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C266" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="B267" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="C267" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B268" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="C268" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B269" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="C269" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B270" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C270" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>610</v>
+        <v>797</v>
       </c>
       <c r="B271" t="s">
-        <v>183</v>
+        <v>798</v>
       </c>
       <c r="C271" t="s">
-        <v>414</v>
+        <v>799</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B272" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C272" t="s">
-        <v>452</v>
+        <v>414</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B273" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C273" t="s">
-        <v>415</v>
+        <v>452</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B274" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C274" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>1202</v>
+        <v>613</v>
       </c>
       <c r="B275" t="s">
-        <v>1201</v>
+        <v>186</v>
       </c>
       <c r="C275" t="s">
-        <v>1203</v>
+        <v>416</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>615</v>
+        <v>1200</v>
       </c>
       <c r="B276" t="s">
-        <v>188</v>
+        <v>1199</v>
       </c>
       <c r="C276" t="s">
-        <v>417</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>806</v>
+        <v>615</v>
       </c>
       <c r="B277" t="s">
-        <v>804</v>
+        <v>188</v>
       </c>
       <c r="C277" t="s">
-        <v>805</v>
+        <v>417</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>616</v>
+        <v>806</v>
       </c>
       <c r="B278" t="s">
-        <v>726</v>
+        <v>804</v>
       </c>
       <c r="C278" t="s">
-        <v>727</v>
+        <v>805</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B279" t="s">
-        <v>189</v>
+        <v>726</v>
       </c>
       <c r="C279" t="s">
-        <v>418</v>
+        <v>727</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B280" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C280" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B281" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C281" t="s">
-        <v>471</v>
+        <v>419</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B282" t="s">
-        <v>724</v>
+        <v>191</v>
       </c>
       <c r="C282" t="s">
-        <v>725</v>
+        <v>471</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B283" t="s">
-        <v>192</v>
+        <v>724</v>
       </c>
       <c r="C283" t="s">
-        <v>420</v>
+        <v>725</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B284" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C284" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B285" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C285" t="s">
-        <v>453</v>
+        <v>421</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B286" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C286" t="s">
-        <v>422</v>
+        <v>453</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B287" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="C287" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B288" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C288" t="s">
-        <v>479</v>
+        <v>423</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B289" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C289" t="s">
-        <v>424</v>
+        <v>479</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B290" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C290" t="s">
-        <v>480</v>
+        <v>424</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B291" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="C291" t="s">
-        <v>425</v>
+        <v>480</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B292" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C292" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B293" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C293" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B294" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C294" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B295" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C295" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>729</v>
+        <v>633</v>
       </c>
       <c r="B296" t="s">
-        <v>728</v>
+        <v>200</v>
       </c>
       <c r="C296" t="s">
-        <v>730</v>
+        <v>429</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>634</v>
+        <v>729</v>
       </c>
       <c r="B297" t="s">
-        <v>201</v>
+        <v>728</v>
       </c>
       <c r="C297" t="s">
-        <v>455</v>
+        <v>730</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B298" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C298" t="s">
-        <v>430</v>
+        <v>455</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B299" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C299" t="s">
-        <v>469</v>
+        <v>430</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B300" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C300" t="s">
-        <v>874</v>
+        <v>469</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>872</v>
+        <v>637</v>
       </c>
       <c r="B301" t="s">
-        <v>873</v>
+        <v>204</v>
       </c>
       <c r="C301" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>638</v>
+        <v>872</v>
       </c>
       <c r="B302" t="s">
-        <v>205</v>
+        <v>873</v>
       </c>
       <c r="C302" t="s">
-        <v>431</v>
+        <v>875</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B303" t="s">
-        <v>24</v>
+        <v>205</v>
       </c>
       <c r="C303" t="s">
-        <v>468</v>
+        <v>431</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B304" t="s">
-        <v>206</v>
+        <v>24</v>
       </c>
       <c r="C304" t="s">
-        <v>432</v>
+        <v>468</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
-        <v>720</v>
+        <v>640</v>
       </c>
       <c r="B305" t="s">
-        <v>719</v>
+        <v>206</v>
       </c>
       <c r="C305" t="s">
-        <v>721</v>
+        <v>432</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
-        <v>641</v>
+        <v>720</v>
       </c>
       <c r="B306" t="s">
-        <v>207</v>
+        <v>719</v>
       </c>
       <c r="C306" t="s">
-        <v>470</v>
+        <v>721</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B307" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C307" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
-        <v>671</v>
+        <v>642</v>
       </c>
       <c r="B308" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C308" t="s">
-        <v>433</v>
+        <v>454</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
-        <v>644</v>
+        <v>671</v>
       </c>
       <c r="B309" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C309" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B310" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C310" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B311" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C311" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B312" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C312" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B313" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C313" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B314" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C314" t="s">
-        <v>437</v>
+        <v>458</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B315" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C315" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B316" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C316" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B317" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C317" t="s">
-        <v>677</v>
+        <v>439</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
-        <v>722</v>
+        <v>654</v>
       </c>
       <c r="B318" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C318" t="s">
-        <v>440</v>
+        <v>677</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
-        <v>655</v>
+        <v>722</v>
       </c>
       <c r="B319" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C319" t="s">
-        <v>459</v>
+        <v>440</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="B320" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C320" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
-        <v>733</v>
+        <v>651</v>
       </c>
       <c r="B321" t="s">
-        <v>731</v>
+        <v>225</v>
       </c>
       <c r="C321" t="s">
-        <v>732</v>
+        <v>460</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
-        <v>643</v>
+        <v>733</v>
       </c>
       <c r="B322" t="s">
-        <v>226</v>
+        <v>731</v>
       </c>
       <c r="C322" t="s">
-        <v>461</v>
+        <v>732</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="B323" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C323" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B324" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C324" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B325" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C325" t="s">
-        <v>659</v>
+        <v>463</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B326" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C326" t="s">
-        <v>441</v>
+        <v>659</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B327" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C327" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B328" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C328" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
-        <v>734</v>
+        <v>661</v>
       </c>
       <c r="B329" t="s">
-        <v>736</v>
+        <v>232</v>
       </c>
       <c r="C329" t="s">
-        <v>735</v>
+        <v>443</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
-        <v>663</v>
+        <v>734</v>
       </c>
       <c r="B330" t="s">
-        <v>233</v>
+        <v>736</v>
       </c>
       <c r="C330" t="s">
-        <v>464</v>
+        <v>735</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B331" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C331" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B332" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C332" t="s">
-        <v>444</v>
+        <v>465</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B333" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C333" t="s">
-        <v>466</v>
+        <v>444</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B334" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C334" t="s">
-        <v>445</v>
+        <v>466</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
-        <v>880</v>
+        <v>667</v>
       </c>
       <c r="B335" t="s">
-        <v>879</v>
+        <v>237</v>
       </c>
       <c r="C335" t="s">
-        <v>881</v>
+        <v>445</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
-        <v>668</v>
+        <v>880</v>
       </c>
       <c r="B336" t="s">
-        <v>238</v>
+        <v>879</v>
       </c>
       <c r="C336" t="s">
-        <v>446</v>
+        <v>881</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
-        <v>649</v>
+        <v>668</v>
       </c>
       <c r="B337" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C337" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
-        <v>669</v>
+        <v>649</v>
       </c>
       <c r="B338" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C338" t="s">
-        <v>885</v>
+        <v>447</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B339" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C339" t="s">
-        <v>467</v>
+        <v>885</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
-        <v>747</v>
+        <v>670</v>
       </c>
       <c r="B340" t="s">
-        <v>745</v>
+        <v>241</v>
       </c>
       <c r="C340" t="s">
-        <v>746</v>
+        <v>467</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="B341" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C341" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="B342" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C342" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
-        <v>1127</v>
+        <v>753</v>
       </c>
       <c r="B343" t="s">
-        <v>1131</v>
+        <v>751</v>
       </c>
       <c r="C343" t="s">
-        <v>1132</v>
+        <v>752</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B344" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C344" t="s">
         <v>1130</v>
-      </c>
-      <c r="B344" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C344" t="s">
-        <v>1134</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="B345" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="C345" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="B346" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="C346" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="B347" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="C347" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
-        <v>757</v>
+        <v>1127</v>
       </c>
       <c r="B348" t="s">
-        <v>754</v>
+        <v>1137</v>
       </c>
       <c r="C348" t="s">
-        <v>756</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B349" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C349" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B350" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="C350" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
-        <v>697</v>
+        <v>762</v>
       </c>
       <c r="B351" t="s">
-        <v>681</v>
+        <v>761</v>
       </c>
       <c r="C351" t="s">
-        <v>710</v>
+        <v>760</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
-        <v>711</v>
+        <v>697</v>
       </c>
       <c r="B352" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C352" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B353" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C353" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
-        <v>698</v>
+        <v>712</v>
       </c>
       <c r="B354" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C354" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B355" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C355" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B356" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C356" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B357" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C357" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B358" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C358" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B359" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C359" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B360" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C360" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B361" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C361" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
-        <v>803</v>
+        <v>705</v>
       </c>
       <c r="B362" t="s">
-        <v>801</v>
+        <v>691</v>
       </c>
       <c r="C362" t="s">
-        <v>802</v>
+        <v>709</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
-        <v>850</v>
+        <v>803</v>
       </c>
       <c r="B363" t="s">
-        <v>849</v>
+        <v>801</v>
       </c>
       <c r="C363" t="s">
-        <v>851</v>
+        <v>802</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
-        <v>933</v>
+        <v>850</v>
       </c>
       <c r="B364" t="s">
-        <v>929</v>
+        <v>849</v>
       </c>
       <c r="C364" t="s">
-        <v>931</v>
+        <v>851</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B365" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C365" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
-        <v>951</v>
+        <v>934</v>
       </c>
       <c r="B366" t="s">
-        <v>950</v>
+        <v>930</v>
       </c>
       <c r="C366" t="s">
-        <v>952</v>
+        <v>932</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
-        <v>985</v>
+        <v>951</v>
       </c>
       <c r="B367" t="s">
-        <v>960</v>
+        <v>950</v>
       </c>
       <c r="C367" t="s">
-        <v>972</v>
+        <v>952</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B368" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C368" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B369" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C369" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B370" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C370" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B371" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C371" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B372" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C372" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
-        <v>1024</v>
+        <v>989</v>
       </c>
       <c r="B373" t="s">
-        <v>1023</v>
+        <v>966</v>
       </c>
       <c r="C373" t="s">
-        <v>1025</v>
+        <v>980</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
-        <v>990</v>
+        <v>1024</v>
       </c>
       <c r="B374" t="s">
-        <v>967</v>
+        <v>1023</v>
       </c>
       <c r="C374" t="s">
-        <v>981</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B375" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C375" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B376" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C376" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B377" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="C377" t="s">
-        <v>976</v>
+        <v>983</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B378" t="s">
-        <v>1062</v>
+        <v>975</v>
       </c>
       <c r="C378" t="s">
-        <v>1066</v>
+        <v>976</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
-        <v>1065</v>
+        <v>994</v>
       </c>
       <c r="B379" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C379" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
-        <v>995</v>
+        <v>1065</v>
       </c>
       <c r="B380" t="s">
-        <v>970</v>
+        <v>1063</v>
       </c>
       <c r="C380" t="s">
-        <v>971</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
-        <v>1027</v>
+        <v>995</v>
       </c>
       <c r="B381" t="s">
-        <v>1026</v>
+        <v>970</v>
       </c>
       <c r="C381" t="s">
-        <v>1028</v>
+        <v>971</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
-        <v>1042</v>
+        <v>1027</v>
       </c>
       <c r="B382" t="s">
-        <v>1041</v>
+        <v>1026</v>
       </c>
       <c r="C382" t="s">
-        <v>1043</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
       <c r="B383" t="s">
-        <v>1029</v>
+        <v>1041</v>
       </c>
       <c r="C383" t="s">
-        <v>1032</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B384" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C384" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B385" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C385" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
-        <v>1046</v>
+        <v>1037</v>
       </c>
       <c r="B386" t="s">
-        <v>1044</v>
+        <v>1031</v>
       </c>
       <c r="C386" t="s">
-        <v>1045</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B387" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="C387" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
-        <v>1058</v>
+        <v>1047</v>
       </c>
       <c r="B388" t="s">
-        <v>1055</v>
+        <v>1048</v>
       </c>
       <c r="C388" t="s">
-        <v>1057</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
-        <v>1050</v>
+        <v>1058</v>
       </c>
       <c r="B389" t="s">
-        <v>1051</v>
+        <v>1055</v>
       </c>
       <c r="C389" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="B390" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C390" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
-        <v>996</v>
+        <v>1054</v>
       </c>
       <c r="B391" t="s">
-        <v>962</v>
+        <v>1052</v>
       </c>
       <c r="C391" t="s">
-        <v>977</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
-        <v>1016</v>
+        <v>996</v>
       </c>
       <c r="B392" t="s">
-        <v>1008</v>
+        <v>962</v>
       </c>
       <c r="C392" t="s">
-        <v>1015</v>
+        <v>977</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B393" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C393" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B394" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C394" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B395" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C395" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
-        <v>997</v>
+        <v>1019</v>
       </c>
       <c r="B396" t="s">
-        <v>998</v>
+        <v>1011</v>
       </c>
       <c r="C396" t="s">
-        <v>999</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
-        <v>1039</v>
+        <v>997</v>
       </c>
       <c r="B397" t="s">
-        <v>1038</v>
+        <v>998</v>
       </c>
       <c r="C397" t="s">
-        <v>1040</v>
+        <v>999</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
-        <v>1073</v>
+        <v>1039</v>
       </c>
       <c r="B398" t="s">
-        <v>1067</v>
+        <v>1038</v>
       </c>
       <c r="C398" t="s">
-        <v>1071</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B399" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C399" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="B400" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="C400" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
-        <v>1088</v>
+        <v>1078</v>
       </c>
       <c r="B401" t="s">
-        <v>1089</v>
+        <v>1075</v>
       </c>
       <c r="C401" t="s">
-        <v>1090</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B402" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C402" t="s">
         <v>1204</v>
-      </c>
-      <c r="B402" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C402" t="s">
-        <v>1092</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B403" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C403" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A404" t="s">
         <v>696</v>
       </c>
-      <c r="B403" t="s">
+      <c r="B404" t="s">
         <v>694</v>
       </c>
-      <c r="C403" t="s">
+      <c r="C404" t="s">
         <v>695</v>
       </c>
     </row>

--- a/lang/words_dict.xlsx
+++ b/lang/words_dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab Projects\Registration\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3308465-F524-4E9C-BAD1-89363E9760F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2393E2-F5E9-43E0-AABD-A92808C78ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="1208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="1198">
   <si>
     <t>文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,10 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>导入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>添加注释</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,10 +115,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Z裁剪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>帧裁剪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1042,10 +1034,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Import</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Append Comments</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1070,10 +1058,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Crop Z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Crop Frame</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1714,12 +1698,6 @@
     <t>Checking for updates: Illegal repository path. Please check update_setting.ini</t>
   </si>
   <si>
-    <t>Interface initialization completed</t>
-  </si>
-  <si>
-    <t>System initialization complete</t>
-  </si>
-  <si>
     <t>Exporting...</t>
   </si>
   <si>
@@ -1854,10 +1832,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Frames cropping</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Images exported successfully</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1929,493 +1903,1604 @@
     <t>MEAN_Z_PROJECTION</t>
   </si>
   <si>
+    <t>OPTION</t>
+  </si>
+  <si>
+    <t>REGISTRATION_RANGE</t>
+  </si>
+  <si>
+    <t>HELP</t>
+  </si>
+  <si>
+    <t>ABOUT</t>
+  </si>
+  <si>
+    <t>SLICE</t>
+  </si>
+  <si>
+    <t>TIME_FRAME</t>
+  </si>
+  <si>
+    <t>LOG</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>WELCOME_TO_Reg3D_App</t>
+  </si>
+  <si>
+    <t>RUN</t>
+  </si>
+  <si>
+    <t>HORIZONTAL_FLIP</t>
+  </si>
+  <si>
+    <t>VERTICAL_FLIP</t>
+  </si>
+  <si>
+    <t>ROI_SETTING</t>
+  </si>
+  <si>
+    <t>RECTANGLE</t>
+  </si>
+  <si>
+    <t>CIRCLE</t>
+  </si>
+  <si>
+    <t>POLYGON</t>
+  </si>
+  <si>
+    <t>COLOR_CHANNEL</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>RED_CYAN</t>
+  </si>
+  <si>
+    <t>GREEN_MAGENTA</t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t>GREEN</t>
+  </si>
+  <si>
+    <t>EXPORT</t>
+  </si>
+  <si>
+    <t>CLEAR</t>
+  </si>
+  <si>
+    <t>RAW</t>
+  </si>
+  <si>
+    <t>DATA_TYPE</t>
+  </si>
+  <si>
+    <t>SINGLE_CHANNEL</t>
+  </si>
+  <si>
+    <t>DUAL_CHANNEL</t>
+  </si>
+  <si>
+    <t>RED_CHANNEL</t>
+  </si>
+  <si>
+    <t>GREEN_CHANNEL</t>
+  </si>
+  <si>
+    <t>MIX_CHANNEL</t>
+  </si>
+  <si>
+    <t>IMAGE_PARAMETER</t>
+  </si>
+  <si>
+    <t>CAMERA_TIME</t>
+  </si>
+  <si>
+    <t>CLOSE</t>
+  </si>
+  <si>
+    <t>LIGHT</t>
+  </si>
+  <si>
+    <t>CONTRAST</t>
+  </si>
+  <si>
+    <t>GAMMA</t>
+  </si>
+  <si>
+    <t>ROTATION</t>
+  </si>
+  <si>
+    <t>LOCAL_REGISTRATION</t>
+  </si>
+  <si>
+    <t>DISPLACEMENT_FIELD_ESTIMATION</t>
+  </si>
+  <si>
+    <t>RENDER_PRECISION</t>
+  </si>
+  <si>
+    <t>PROJECTION</t>
+  </si>
+  <si>
+    <t>COLOR_MAPPING</t>
+  </si>
+  <si>
+    <t>TRANSPARENT_MAPPING</t>
+  </si>
+  <si>
+    <t>LINEARITY</t>
+  </si>
+  <si>
+    <t>SOFT_TISSUE</t>
+  </si>
+  <si>
+    <t>REGISTRATION_IMAGE</t>
+  </si>
+  <si>
+    <t>DISPLACEMENT_FIELD</t>
+  </si>
+  <si>
+    <t>MOVIE_FORMAT</t>
+  </si>
+  <si>
+    <t>WIDTH</t>
+  </si>
+  <si>
+    <t>HEIGHT</t>
+  </si>
+  <si>
+    <t>RECOVERY</t>
+  </si>
+  <si>
+    <t>FRAME_RATE</t>
+  </si>
+  <si>
+    <t>RENDER_QUALITY</t>
+  </si>
+  <si>
+    <t>LOSSLESS</t>
+  </si>
+  <si>
+    <t>TARGET_BITRATE</t>
+  </si>
+  <si>
+    <t>INTERPOLATION</t>
+  </si>
+  <si>
+    <t>BILINEAR</t>
+  </si>
+  <si>
+    <t>BICUBIC</t>
+  </si>
+  <si>
+    <t>AREA</t>
+  </si>
+  <si>
+    <t>PERIMETER</t>
+  </si>
+  <si>
+    <t>CENTROID</t>
+  </si>
+  <si>
+    <t>VOLUME</t>
+  </si>
+  <si>
+    <t>SURFACE_AREA</t>
+  </si>
+  <si>
+    <t>SPHERICITY</t>
+  </si>
+  <si>
+    <t>APPEND</t>
+  </si>
+  <si>
+    <t>REMOVE</t>
+  </si>
+  <si>
+    <t>RIGID</t>
+  </si>
+  <si>
+    <t>AFFINE</t>
+  </si>
+  <si>
+    <t>MODAL</t>
+  </si>
+  <si>
+    <t>REGION_LABEL</t>
+  </si>
+  <si>
+    <t>CUBIC_HIGH_QUALITY</t>
+  </si>
+  <si>
+    <t>PYRAMID_COEFFICIENT</t>
+  </si>
+  <si>
+    <t>GRID_UNIT_SIZE</t>
+  </si>
+  <si>
+    <t>AUTO</t>
+  </si>
+  <si>
+    <t>GEOMETRIC_TRANSFORMATION</t>
+  </si>
+  <si>
+    <t>PIECEWISE_LINEAR</t>
+  </si>
+  <si>
+    <t>POLYNOMIAL</t>
+  </si>
+  <si>
+    <t>LOCAL_WEIGHTED_MEAN</t>
+  </si>
+  <si>
+    <t>MIN_CONTROL_VAL</t>
+  </si>
+  <si>
+    <t>POLYNOMIAL_ORDER</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>SCALE</t>
+  </si>
+  <si>
+    <t>X_DIRECTION_RESOLUTION</t>
+  </si>
+  <si>
+    <t>Y_DIRECTION_RESOLUTION</t>
+  </si>
+  <si>
+    <t>SCALE_UNIT</t>
+  </si>
+  <si>
+    <t>X_DIRECTION_LENGTH</t>
+  </si>
+  <si>
+    <t>Y_DIRECTION_LENGTH</t>
+  </si>
+  <si>
+    <t>HORIZONTAL</t>
+  </si>
+  <si>
+    <t>VERTICAL</t>
+  </si>
+  <si>
+    <t>LINE_WIDTH</t>
+  </si>
+  <si>
+    <t>COLOR</t>
+  </si>
+  <si>
+    <t>BLUE</t>
+  </si>
+  <si>
+    <t>CYAN</t>
+  </si>
+  <si>
+    <t>MAGENTA</t>
+  </si>
+  <si>
+    <t>YELLOW</t>
+  </si>
+  <si>
+    <t>BLACK</t>
+  </si>
+  <si>
+    <t>WHITE</t>
+  </si>
+  <si>
+    <t>FONT</t>
+  </si>
+  <si>
+    <t>LINE_HAT</t>
+  </si>
+  <si>
+    <t>FLAT_HAT</t>
+  </si>
+  <si>
+    <t>CIRCLE_HAT</t>
+  </si>
+  <si>
+    <t>SQUARE_HAT</t>
+  </si>
+  <si>
+    <t>DIAMOND_HAT</t>
+  </si>
+  <si>
+    <t>SPACE</t>
+  </si>
+  <si>
+    <t>HAT_SIZE</t>
+  </si>
+  <si>
+    <t>SOLID</t>
+  </si>
+  <si>
+    <t>REGION_FREE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Region Free</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA_SELECTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RENDERER_PARAMETERS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INVERSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELF_DEFINITION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hat Size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNSUPPORTED_FEW_LAYERS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WARNING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INFORMATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INVALID_RULER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIGURATION_EXPORTED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFGURATION_LOADED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIGURATION_CORRUPTED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN_PROGRESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PERFORM_AUTO_REGISTRATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REGISTRATION_FRAMES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COVERAGE_OPERATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIRM_COVERAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REGISTRATION_COMPLETE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIME_COST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TERMINATE_REGISTRATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASK_FOR_UPDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOWNLOADING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNSUPPORTED_OS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FINISH_UPDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_SCRIPT_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LATEST_VERSION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNABLE_ACCESS_SERVER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNABLE_ACCESS_UPDATE_SETTING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNRECOGNIZED_UPDATE_IDENTIFIER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INVALID_UPDATE_REPOSITORY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_INITIALIZE_SUCCESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYS_INITIALIZE_SUCCESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPORT_AS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPORTING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMAGE_EXPORT_SUCCESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRREVERSIBLE_CROP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIRM_CROP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME_FEW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME_OVERFLOW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIVEUP_CROP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIME_SERIES_FILE</t>
+  </si>
+  <si>
+    <t>T_CROPPED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MISSING_HELP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAVE_CONFIGURATION_FILE</t>
+  </si>
+  <si>
+    <t>READ_CONFIGURATION_FILE</t>
+  </si>
+  <si>
+    <t>REG3D_CONFIGURATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOVIE_EXPORT_INTERRUPTED</t>
+  </si>
+  <si>
+    <t>XY_CROPPED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z_CROPPED</t>
+  </si>
+  <si>
+    <t>CONFIRM_ROI_RANGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>THICKNESS_RANGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>CROP_Z</t>
-  </si>
-  <si>
-    <t>OPTION</t>
-  </si>
-  <si>
-    <t>REGISTRATION_RANGE</t>
-  </si>
-  <si>
-    <t>HELP</t>
-  </si>
-  <si>
-    <t>ABOUT</t>
-  </si>
-  <si>
-    <t>SLICE</t>
-  </si>
-  <si>
-    <t>TIME_FRAME</t>
-  </si>
-  <si>
-    <t>LOG</t>
-  </si>
-  <si>
-    <t>ON</t>
-  </si>
-  <si>
-    <t>OFF</t>
-  </si>
-  <si>
-    <t>WELCOME_TO_Reg3D_App</t>
-  </si>
-  <si>
-    <t>RUN</t>
-  </si>
-  <si>
-    <t>HORIZONTAL_FLIP</t>
-  </si>
-  <si>
-    <t>VERTICAL_FLIP</t>
-  </si>
-  <si>
-    <t>ROI_SETTING</t>
-  </si>
-  <si>
-    <t>RECTANGLE</t>
-  </si>
-  <si>
-    <t>CIRCLE</t>
-  </si>
-  <si>
-    <t>POLYGON</t>
-  </si>
-  <si>
-    <t>COLOR_CHANNEL</t>
-  </si>
-  <si>
-    <t>NONE</t>
-  </si>
-  <si>
-    <t>RED_CYAN</t>
-  </si>
-  <si>
-    <t>GREEN_MAGENTA</t>
-  </si>
-  <si>
-    <t>RED</t>
-  </si>
-  <si>
-    <t>GREEN</t>
-  </si>
-  <si>
-    <t>EXPORT</t>
-  </si>
-  <si>
-    <t>CLEAR</t>
-  </si>
-  <si>
-    <t>RAW</t>
-  </si>
-  <si>
-    <t>DATA_TYPE</t>
-  </si>
-  <si>
-    <t>SINGLE_CHANNEL</t>
-  </si>
-  <si>
-    <t>DUAL_CHANNEL</t>
-  </si>
-  <si>
-    <t>RED_CHANNEL</t>
-  </si>
-  <si>
-    <t>GREEN_CHANNEL</t>
-  </si>
-  <si>
-    <t>MIX_CHANNEL</t>
-  </si>
-  <si>
-    <t>IMAGE_PARAMETER</t>
-  </si>
-  <si>
-    <t>CAMERA_TIME</t>
-  </si>
-  <si>
-    <t>CLOSE</t>
-  </si>
-  <si>
-    <t>LIGHT</t>
-  </si>
-  <si>
-    <t>CONTRAST</t>
-  </si>
-  <si>
-    <t>GAMMA</t>
-  </si>
-  <si>
-    <t>ROTATION</t>
-  </si>
-  <si>
-    <t>LOCAL_REGISTRATION</t>
-  </si>
-  <si>
-    <t>DISPLACEMENT_FIELD_ESTIMATION</t>
-  </si>
-  <si>
-    <t>RENDER_PRECISION</t>
-  </si>
-  <si>
-    <t>PROJECTION</t>
-  </si>
-  <si>
-    <t>COLOR_MAPPING</t>
-  </si>
-  <si>
-    <t>TRANSPARENT_MAPPING</t>
-  </si>
-  <si>
-    <t>LINEARITY</t>
-  </si>
-  <si>
-    <t>SOFT_TISSUE</t>
-  </si>
-  <si>
-    <t>REGISTRATION_IMAGE</t>
-  </si>
-  <si>
-    <t>DISPLACEMENT_FIELD</t>
-  </si>
-  <si>
-    <t>MOVIE_FORMAT</t>
-  </si>
-  <si>
-    <t>WIDTH</t>
-  </si>
-  <si>
-    <t>HEIGHT</t>
-  </si>
-  <si>
-    <t>RECOVERY</t>
-  </si>
-  <si>
-    <t>FRAME_RATE</t>
-  </si>
-  <si>
-    <t>RENDER_QUALITY</t>
-  </si>
-  <si>
-    <t>LOSSLESS</t>
-  </si>
-  <si>
-    <t>TARGET_BITRATE</t>
-  </si>
-  <si>
-    <t>INTERPOLATION</t>
-  </si>
-  <si>
-    <t>BILINEAR</t>
-  </si>
-  <si>
-    <t>BICUBIC</t>
-  </si>
-  <si>
-    <t>AREA</t>
-  </si>
-  <si>
-    <t>PERIMETER</t>
-  </si>
-  <si>
-    <t>CENTROID</t>
-  </si>
-  <si>
-    <t>VOLUME</t>
-  </si>
-  <si>
-    <t>SURFACE_AREA</t>
-  </si>
-  <si>
-    <t>SPHERICITY</t>
-  </si>
-  <si>
-    <t>APPEND</t>
-  </si>
-  <si>
-    <t>REMOVE</t>
-  </si>
-  <si>
-    <t>RIGID</t>
-  </si>
-  <si>
-    <t>AFFINE</t>
-  </si>
-  <si>
-    <t>MODAL</t>
-  </si>
-  <si>
-    <t>REGION_LABEL</t>
-  </si>
-  <si>
-    <t>CUBIC_HIGH_QUALITY</t>
-  </si>
-  <si>
-    <t>PYRAMID_COEFFICIENT</t>
-  </si>
-  <si>
-    <t>GRID_UNIT_SIZE</t>
-  </si>
-  <si>
-    <t>AUTO</t>
-  </si>
-  <si>
-    <t>GEOMETRIC_TRANSFORMATION</t>
-  </si>
-  <si>
-    <t>PIECEWISE_LINEAR</t>
-  </si>
-  <si>
-    <t>POLYNOMIAL</t>
-  </si>
-  <si>
-    <t>LOCAL_WEIGHTED_MEAN</t>
-  </si>
-  <si>
-    <t>MIN_CONTROL_VAL</t>
-  </si>
-  <si>
-    <t>POLYNOMIAL_ORDER</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>SCALE</t>
-  </si>
-  <si>
-    <t>X_DIRECTION_RESOLUTION</t>
-  </si>
-  <si>
-    <t>Y_DIRECTION_RESOLUTION</t>
-  </si>
-  <si>
-    <t>SCALE_UNIT</t>
-  </si>
-  <si>
-    <t>X_DIRECTION_LENGTH</t>
-  </si>
-  <si>
-    <t>Y_DIRECTION_LENGTH</t>
-  </si>
-  <si>
-    <t>HORIZONTAL</t>
-  </si>
-  <si>
-    <t>VERTICAL</t>
-  </si>
-  <si>
-    <t>LINE_WIDTH</t>
-  </si>
-  <si>
-    <t>COLOR</t>
-  </si>
-  <si>
-    <t>BLUE</t>
-  </si>
-  <si>
-    <t>CYAN</t>
-  </si>
-  <si>
-    <t>MAGENTA</t>
-  </si>
-  <si>
-    <t>YELLOW</t>
-  </si>
-  <si>
-    <t>BLACK</t>
-  </si>
-  <si>
-    <t>WHITE</t>
-  </si>
-  <si>
-    <t>FONT</t>
-  </si>
-  <si>
-    <t>LINE_HAT</t>
-  </si>
-  <si>
-    <t>FLAT_HAT</t>
-  </si>
-  <si>
-    <t>CIRCLE_HAT</t>
-  </si>
-  <si>
-    <t>SQUARE_HAT</t>
-  </si>
-  <si>
-    <t>DIAMOND_HAT</t>
-  </si>
-  <si>
-    <t>SPACE</t>
-  </si>
-  <si>
-    <t>HAT_SIZE</t>
-  </si>
-  <si>
-    <t>SOLID</t>
-  </si>
-  <si>
-    <t>REGION_FREE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Region Free</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATA_SELECTER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RENDERER_PARAMETERS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INVERSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELF_DEFINITION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hat Size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UNSUPPORTED_FEW_LAYERS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WARNING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INFORMATION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INVALID_RULER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONFIGURATION_EXPORTED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONFGURATION_LOADED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONFIGURATION_CORRUPTED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IN_PROGRESS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PERFORM_AUTO_REGISTRATION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REGISTRATION_FRAMES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COVERAGE_OPERATION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONFIRM_COVERAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REGISTRATION_COMPLETE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIME_COST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TERMINATE_REGISTRATION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASK_FOR_UPDATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DOWNLOADING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UNSUPPORTED_OS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FINISH_UPDATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_SCRIPT_FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LATEST_VERSION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UNABLE_ACCESS_SERVER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UNABLE_ACCESS_UPDATE_SETTING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UNRECOGNIZED_UPDATE_IDENTIFIER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INVALID_UPDATE_REPOSITORY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI_INITIALIZE_SUCCESS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYS_INITIALIZE_SUCCESS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXPORT_AS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXPORTING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IMAGE_EXPORT_SUCCESS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRREVERSIBLE_CROP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONFIRM_CROP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLICES_OVERFLOW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT_FILE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMA_SEPARATED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORKSHEET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Worksheet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIME_MISSING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GEOMETRIC_TRANSFORMATION_EXPORT_SUCCESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIME_EXPORT_SUCCESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MASK_REMOVED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMPORT_MASK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MASK_MISMATCH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MASK_LOADED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RENDERING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOVIE_EXPORTED_SUCCESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIME_RANGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNREGISTRATERED_FRAMES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESET_REGISTRATION_FRAMES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPORT_IMAGES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GENERATE_MASK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thickness Cropping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOAD_FILE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Load Files</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入与导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图像与标注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置与首选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮助与更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>片层微调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间微调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制配准程序执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志开关，关闭时停止输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择浏览器数据源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行配准程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNSUPPORTED_CHANNEL_NUMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在开发…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Developing…</t>
+  </si>
+  <si>
+    <t>DEVELOPING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMPORT_EXPORT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HELP_UPDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLICE_FINE_TUNING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROGRESS_BAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIME_FINE_TUNING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTROL_REGISTRATION_RUNNING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOG_SWITCH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECTION_SOURCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RUNNING_REGISTRATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image and Annotation</t>
+  </si>
+  <si>
+    <t>Settings and Preferences</t>
+  </si>
+  <si>
+    <t>Select browser data source</t>
+  </si>
+  <si>
+    <t>Run the registration program</t>
+  </si>
+  <si>
+    <t>Import and Export</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMAGE_ANNOTATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SETTING_PREFERENCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Log switch, stop output when off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controlling registration procedure execution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time fine-tuning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Progress bar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slice fine-tuning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Help and Updates</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选择至少两层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLICE_FEW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please select at least two slices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLICES_FEW_FOR_NEXT_STEP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALIGNED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用时(秒)：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time cost(Seconds):</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配准帧(秒)：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Registration frames(Seconds):</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件加载完成：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILE_LOADING_COMPLETE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>File loading completed:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量加载完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Variable loaded</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARIABLE_LOADED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGFILE_EXPORT_TO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Export log files to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志文件导出至</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GLOBAL_REGISTRATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REFRESH_REGISTRATION_GOODNESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位移(体素)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISPLACEMENT_VOXEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Displacement(Voxel)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角位移(弧度)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANGULAR_DISPLACEMENT_RADIAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Angular displacement (Radian)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(非刚体)位移场数据不存在</t>
+  </si>
+  <si>
+    <t>(non-rigid) displacement field data does not exist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISPLACEMENT_NOT_EXIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在渲染位移场…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rendering displacement field...</t>
+  </si>
+  <si>
+    <t>RENDERING_DISPLACEMENT_FIELD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在计算配准优度…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Calculating goodness of registration...</t>
+  </si>
+  <si>
+    <t>CALCULATING_GOODNESS</t>
+    <phoneticPr fontId=